--- a/AMC.xlsx
+++ b/AMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A61A8DF-3957-49B8-9642-B8D0E3FC97E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC4D22-1EFA-4F63-B9F0-800B9D7FDC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="75" windowWidth="14640" windowHeight="15345" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
+    <workbookView xWindow="-25290" yWindow="1110" windowWidth="24870" windowHeight="19710" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -545,26 +545,11 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,16 +572,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -611,8 +596,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10220325" y="19050"/>
-          <a:ext cx="0" cy="20278725"/>
+          <a:off x="10768013" y="19049"/>
+          <a:ext cx="0" cy="20451366"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -645,7 +630,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1001,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A416C95-5A89-4DF8-9664-BB610037C5AD}">
   <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>17</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -1026,10 +1011,11 @@
         <v>1</v>
       </c>
       <c r="N3" s="15">
-        <v>516.79999999999995</v>
+        <f>516.820595+531.716231</f>
+        <v>1048.536826</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -1038,7 +1024,7 @@
       </c>
       <c r="N4" s="15">
         <f>N2*N3</f>
-        <v>8785.5999999999985</v>
+        <v>7675.2895663200006</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -1049,15 +1035,12 @@
         <v>3</v>
       </c>
       <c r="N5" s="15">
-        <v>987.9</v>
+        <v>705.8</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="15">
-        <f>6400+N5-N6</f>
-        <v>2009.6999999999998</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -1067,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="N6" s="15">
-        <v>5378.2</v>
+        <v>5325.3</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -1079,7 +1062,7 @@
       </c>
       <c r="N7" s="15">
         <f>N4-N5+N6</f>
-        <v>13175.899999999998</v>
+        <v>12294.78956632</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -1138,10 +1121,10 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="19">
+      <c r="B22">
         <v>311.39999999999998</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1152,13 +1135,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1ECA33-ACCE-4F6E-BC14-505D1708A040}">
-  <dimension ref="A1:CU122"/>
+  <dimension ref="A1:CU121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R41" sqref="R41"/>
+      <selection pane="bottomRight" activeCell="AT34" sqref="AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1840,23 +1823,23 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="19">
         <f>(K18-K19)/K18</f>
         <v>0.68875192604006163</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="19">
         <f>(L18-L19)/L18</f>
         <v>0.5662029881504379</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="19">
         <f>(N18-N19)/N18</f>
         <v>0.50570751669179415</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="19">
         <f>(O18-O19)/O18</f>
         <v>0.55373230373230375</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="19">
         <f>(P18-P19)/P18</f>
         <v>0.46388667198723066</v>
       </c>
@@ -1930,24 +1913,24 @@
       <c r="B24" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="19">
         <f>(K22-K23)/K22</f>
         <v>0.60869565217391308</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="19">
         <f>(L22-L23)/L22</f>
         <v>0.62210796915167099</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="24">
+      <c r="N24" s="19">
         <f>(N22-N23)/N22</f>
         <v>0.60147058823529409</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="19">
         <f>(O22-O23)/O22</f>
         <v>0.61578947368421055</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="19">
         <f>(P22-P23)/P22</f>
         <v>0.5994659546061416</v>
       </c>
@@ -1992,18 +1975,17 @@
       <c r="N26" s="16">
         <v>2067.2280860000001</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="16">
         <v>1333.445541</v>
       </c>
       <c r="P26" s="16">
         <v>2322.6819999999998</v>
       </c>
       <c r="Q26" s="16">
-        <f>+E26</f>
-        <v>2812.7875899999999</v>
+        <v>1923.6</v>
       </c>
       <c r="R26" s="16">
-        <f t="shared" ref="R26" si="2">+F26</f>
+        <f>+F26</f>
         <v>2951.1052030000001</v>
       </c>
       <c r="S26" s="16">
@@ -2058,33 +2040,34 @@
       <c r="B27" t="s">
         <v>132</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="19">
         <f>+P26/D26</f>
         <v>0.712157954371619</v>
       </c>
-      <c r="Q27" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="R27" s="24">
+      <c r="Q27" s="19">
+        <f>+Q26/E26</f>
+        <v>0.68387673738278976</v>
+      </c>
+      <c r="R27" s="19">
         <v>0.8</v>
       </c>
-      <c r="S27" s="24">
+      <c r="S27" s="19">
         <v>0.85</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="19">
         <v>0.9</v>
       </c>
-      <c r="U27" s="24">
+      <c r="U27" s="19">
         <v>0.95</v>
       </c>
-      <c r="V27" s="24">
+      <c r="V27" s="19">
         <v>1</v>
       </c>
-      <c r="AE27" s="26">
+      <c r="AE27" s="20">
         <f>AE26/AD26-1</f>
         <v>7.3574553749574445E-2</v>
       </c>
-      <c r="AF27" s="26">
+      <c r="AF27" s="20">
         <f>AF26/AE26-1</f>
         <v>-4.7763078683775273E-2</v>
       </c>
@@ -2093,73 +2076,74 @@
       <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24">
-        <f t="shared" ref="C28:I28" si="3">+F34/F26</f>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19">
+        <f t="shared" ref="F28:H28" si="2">+F34/F26</f>
         <v>0.49056197607876334</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="19">
+        <f t="shared" si="2"/>
+        <v>0.52621422249520211</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="2"/>
+        <v>3.9607504301815051</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" ref="I28:N28" si="3">+I34/I26</f>
+        <v>0.95678499999395505</v>
+      </c>
+      <c r="J28" s="19">
         <f t="shared" si="3"/>
-        <v>0.52621422249520211</v>
-      </c>
-      <c r="H28" s="24">
+        <v>0.8378641978467859</v>
+      </c>
+      <c r="K28" s="19">
         <f t="shared" si="3"/>
-        <v>3.9607504301815051</v>
-      </c>
-      <c r="I28" s="24">
-        <f t="shared" ref="I28:P28" si="4">+I34/I26</f>
-        <v>0.95678499999395505</v>
-      </c>
-      <c r="J28" s="24">
-        <f t="shared" si="4"/>
-        <v>0.8378641978467859</v>
-      </c>
-      <c r="K28" s="24">
-        <f t="shared" si="4"/>
         <v>0.62646624731446954</v>
       </c>
-      <c r="L28" s="24">
-        <f t="shared" si="4"/>
+      <c r="L28" s="19">
+        <f t="shared" si="3"/>
         <v>0.54830305272699653</v>
       </c>
-      <c r="M28" s="24">
-        <f t="shared" si="4"/>
+      <c r="M28" s="19">
+        <f t="shared" si="3"/>
         <v>0.64923870211943258</v>
       </c>
-      <c r="N28" s="24">
-        <f t="shared" si="4"/>
+      <c r="N28" s="19">
+        <f t="shared" si="3"/>
         <v>0.56679763976465236</v>
       </c>
-      <c r="O28" s="24">
-        <f t="shared" si="4"/>
+      <c r="O28" s="19">
+        <f>+O34/O26</f>
         <v>0.58922541329342515</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="19">
         <f>+P34/P26</f>
         <v>0.50217808550632426</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="19">
+        <f>+Q34/Q26</f>
+        <v>0.50343106674984395</v>
+      </c>
+      <c r="R28" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R28" s="24">
+      <c r="S28" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S28" s="24">
+      <c r="T28" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T28" s="24">
+      <c r="U28" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U28" s="24">
+      <c r="V28" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V28" s="24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
     </row>
     <row r="30" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
@@ -2202,7 +2186,9 @@
       <c r="P30" s="8">
         <v>651</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="8">
+        <v>545.29999999999995</v>
+      </c>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
@@ -2231,39 +2217,35 @@
       </c>
       <c r="AI30" s="7">
         <f>SUM(O30:R30)</f>
-        <v>1094.8</v>
-      </c>
-      <c r="AJ30" s="7">
-        <f>AI30*1.2</f>
-        <v>1313.76</v>
+        <v>1640.1</v>
       </c>
       <c r="AK30" s="7">
         <f>AJ30*1.1</f>
-        <v>1445.1360000000002</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="7">
         <f>AK30*1.05</f>
-        <v>1517.3928000000003</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="7">
-        <f t="shared" ref="AM30:AQ31" si="5">AL30*1.03</f>
-        <v>1562.9145840000003</v>
+        <f t="shared" ref="AM30:AQ31" si="4">AL30*1.03</f>
+        <v>0</v>
       </c>
       <c r="AN30" s="7">
-        <f t="shared" si="5"/>
-        <v>1609.8020215200004</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AO30" s="7">
-        <f t="shared" si="5"/>
-        <v>1658.0960821656004</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AP30" s="7">
-        <f t="shared" si="5"/>
-        <v>1707.8389646305684</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AQ30" s="7">
-        <f t="shared" si="5"/>
-        <v>1759.0741335694854</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2306,7 +2288,9 @@
       <c r="P31" s="8">
         <v>396.7</v>
       </c>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="8">
+        <v>333.3</v>
+      </c>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
@@ -2326,48 +2310,44 @@
         <v>1719.6</v>
       </c>
       <c r="AG31" s="7">
-        <f t="shared" ref="AG31" si="6">SUM(G31:J31)</f>
+        <f t="shared" ref="AG31" si="5">SUM(G31:J31)</f>
         <v>362.40000000000003</v>
       </c>
       <c r="AH31" s="7">
-        <f t="shared" ref="AH31" si="7">SUM(K31:N31)</f>
+        <f t="shared" ref="AH31" si="6">SUM(K31:N31)</f>
         <v>857.3</v>
       </c>
       <c r="AI31" s="7">
-        <f t="shared" ref="AI31:AI33" si="8">SUM(O31:R31)</f>
-        <v>649.20000000000005</v>
-      </c>
-      <c r="AJ31" s="7">
-        <f t="shared" ref="AJ31:AJ33" si="9">AI31*1.2</f>
-        <v>779.04000000000008</v>
+        <f>SUM(O31:R31)</f>
+        <v>982.5</v>
       </c>
       <c r="AK31" s="7">
-        <f t="shared" ref="AK31:AK33" si="10">AJ31*1.1</f>
-        <v>856.94400000000019</v>
+        <f t="shared" ref="AK31:AK33" si="7">AJ31*1.1</f>
+        <v>0</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" ref="AL31" si="11">AK31*1.05</f>
-        <v>899.79120000000023</v>
+        <f t="shared" ref="AL31" si="8">AK31*1.05</f>
+        <v>0</v>
       </c>
       <c r="AM31" s="7">
-        <f t="shared" si="5"/>
-        <v>926.78493600000024</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AN31" s="7">
-        <f t="shared" si="5"/>
-        <v>954.58848408000028</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AO31" s="7">
-        <f t="shared" si="5"/>
-        <v>983.22613860240028</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AP31" s="7">
-        <f t="shared" si="5"/>
-        <v>1012.7229227604723</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AQ31" s="7">
-        <f t="shared" si="5"/>
-        <v>1043.1046104432864</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2453,7 +2433,9 @@
       <c r="P33" s="8">
         <v>86.4</v>
       </c>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="8">
+        <v>89.8</v>
+      </c>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
@@ -2479,40 +2461,36 @@
         <v>181.1</v>
       </c>
       <c r="AI33" s="7">
-        <f t="shared" si="8"/>
-        <v>146.9</v>
-      </c>
-      <c r="AJ33" s="7">
-        <f t="shared" si="9"/>
-        <v>176.28</v>
+        <f t="shared" ref="AI31:AI33" si="9">SUM(O33:R33)</f>
+        <v>236.7</v>
       </c>
       <c r="AK33" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="7">
+        <f t="shared" ref="AL33:AQ33" si="10">AK33*1.05</f>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="7">
         <f t="shared" si="10"/>
-        <v>193.90800000000002</v>
-      </c>
-      <c r="AL33" s="7">
-        <f t="shared" ref="AL33:AQ33" si="12">AK33*1.05</f>
-        <v>203.60340000000002</v>
-      </c>
-      <c r="AM33" s="7">
-        <f t="shared" si="12"/>
-        <v>213.78357000000003</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="7">
-        <f t="shared" si="12"/>
-        <v>224.47274850000002</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AO33" s="7">
-        <f t="shared" si="12"/>
-        <v>235.69638592500004</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AP33" s="7">
-        <f t="shared" si="12"/>
-        <v>247.48120522125006</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AQ33" s="7">
-        <f t="shared" si="12"/>
-        <v>259.85526548231257</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:99" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2523,39 +2501,39 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10">
-        <f t="shared" ref="F34" si="13">SUM(F30:F33)</f>
+        <f t="shared" ref="F34" si="11">SUM(F30:F33)</f>
         <v>1447.7</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" ref="G34" si="14">SUM(G30:G33)</f>
+        <f t="shared" ref="G34" si="12">SUM(G30:G33)</f>
         <v>941.5</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" ref="H34:I34" si="15">SUM(H30:H33)</f>
+        <f t="shared" ref="H34:I34" si="13">SUM(H30:H33)</f>
         <v>18.900000000000002</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>119.5</v>
       </c>
       <c r="J34" s="10">
-        <f t="shared" ref="J34:N34" si="16">SUM(J30:J33)</f>
+        <f t="shared" ref="J34:N34" si="14">SUM(J30:J33)</f>
         <v>162.5</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>148.30000000000001</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>444.7</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>763.19999999999993</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1171.6999999999998</v>
       </c>
       <c r="O34" s="10">
@@ -2563,44 +2541,44 @@
         <v>785.69999999999993</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" ref="P34" si="17">SUM(P30:P33)</f>
+        <f t="shared" ref="P34:Q34" si="15">SUM(P30:P33)</f>
         <v>1166.4000000000001</v>
       </c>
       <c r="Q34" s="10">
-        <f>+Q28*Q26</f>
+        <f t="shared" si="15"/>
+        <v>968.39999999999986</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" ref="R34:V34" si="16">+R28*R26</f>
+        <v>1623.1078616500001</v>
+      </c>
+      <c r="S34" s="10">
+        <f t="shared" si="16"/>
+        <v>1320.0140970500001</v>
+      </c>
+      <c r="T34" s="10">
+        <f t="shared" si="16"/>
+        <v>1793.8086518000002</v>
+      </c>
+      <c r="U34" s="10">
+        <f t="shared" si="16"/>
         <v>1547.0331745000001</v>
       </c>
-      <c r="R34" s="10">
-        <f t="shared" ref="R34:V34" si="18">+R28*R26</f>
-        <v>1623.1078616500001</v>
-      </c>
-      <c r="S34" s="10">
-        <f t="shared" si="18"/>
-        <v>1320.0140970500001</v>
-      </c>
-      <c r="T34" s="10">
-        <f t="shared" si="18"/>
-        <v>1793.8086518000002</v>
-      </c>
-      <c r="U34" s="10">
-        <f t="shared" si="18"/>
-        <v>1547.0331745000001</v>
-      </c>
       <c r="V34" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1623.1078616500001</v>
       </c>
       <c r="W34" s="10"/>
       <c r="AC34" s="10">
-        <f t="shared" ref="AC34" si="19">SUM(AC30:AC33)</f>
+        <f t="shared" ref="AC34" si="17">SUM(AC30:AC33)</f>
         <v>3235.9</v>
       </c>
       <c r="AD34" s="10">
-        <f t="shared" ref="AD34" si="20">SUM(AD30:AD33)</f>
+        <f t="shared" ref="AD34" si="18">SUM(AD30:AD33)</f>
         <v>5079.24</v>
       </c>
       <c r="AE34" s="10">
-        <f t="shared" ref="AE34" si="21">SUM(AE30:AE33)</f>
+        <f t="shared" ref="AE34" si="19">SUM(AE30:AE33)</f>
         <v>5460.8</v>
       </c>
       <c r="AF34" s="10">
@@ -2612,44 +2590,44 @@
         <v>1242.4000000000001</v>
       </c>
       <c r="AH34" s="10">
-        <f t="shared" ref="AH34:AI34" si="22">SUM(AH30:AH33)</f>
+        <f t="shared" ref="AH34:AI34" si="20">SUM(AH30:AH33)</f>
         <v>2527.9</v>
       </c>
       <c r="AI34" s="10">
-        <f t="shared" si="22"/>
-        <v>1890.9</v>
-      </c>
-      <c r="AJ34" s="10">
-        <f t="shared" ref="AJ34" si="23">SUM(AJ30:AJ33)</f>
-        <v>2269.0800000000004</v>
+        <f t="shared" si="20"/>
+        <v>2859.2999999999997</v>
+      </c>
+      <c r="AJ34" s="9">
+        <f>SUM(S34:V34)</f>
+        <v>6283.9637850000008</v>
       </c>
       <c r="AK34" s="10">
-        <f t="shared" ref="AK34" si="24">SUM(AK30:AK33)</f>
-        <v>2495.9880000000003</v>
+        <f>+AJ34*1.04</f>
+        <v>6535.3223364000014</v>
       </c>
       <c r="AL34" s="10">
-        <f t="shared" ref="AL34" si="25">SUM(AL30:AL33)</f>
-        <v>2620.7874000000006</v>
+        <f t="shared" ref="AL34:AQ34" si="21">+AK34*1.04</f>
+        <v>6796.7352298560018</v>
       </c>
       <c r="AM34" s="10">
-        <f t="shared" ref="AM34" si="26">SUM(AM30:AM33)</f>
-        <v>2703.4830900000006</v>
+        <f t="shared" si="21"/>
+        <v>7068.6046390502424</v>
       </c>
       <c r="AN34" s="10">
-        <f t="shared" ref="AN34" si="27">SUM(AN30:AN33)</f>
-        <v>2788.8632541000006</v>
+        <f t="shared" si="21"/>
+        <v>7351.3488246122524</v>
       </c>
       <c r="AO34" s="10">
-        <f t="shared" ref="AO34" si="28">SUM(AO30:AO33)</f>
-        <v>2877.0186066930005</v>
+        <f t="shared" si="21"/>
+        <v>7645.4027775967425</v>
       </c>
       <c r="AP34" s="10">
-        <f t="shared" ref="AP34" si="29">SUM(AP30:AP33)</f>
-        <v>2968.0430926122908</v>
+        <f t="shared" si="21"/>
+        <v>7951.2188887006123</v>
       </c>
       <c r="AQ34" s="10">
-        <f t="shared" ref="AQ34" si="30">SUM(AQ30:AQ33)</f>
-        <v>3062.0340094950843</v>
+        <f t="shared" si="21"/>
+        <v>8269.2676442486372</v>
       </c>
     </row>
     <row r="35" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2693,27 +2671,26 @@
         <v>328.7</v>
       </c>
       <c r="Q35" s="8">
-        <f>+Q34*0.28</f>
+        <v>263.2</v>
+      </c>
+      <c r="R35" s="8">
+        <f t="shared" ref="R35:V35" si="22">+R34*0.28</f>
+        <v>454.4702012620001</v>
+      </c>
+      <c r="S35" s="8">
+        <f t="shared" si="22"/>
+        <v>369.6039471740001</v>
+      </c>
+      <c r="T35" s="8">
+        <f t="shared" si="22"/>
+        <v>502.2664225040001</v>
+      </c>
+      <c r="U35" s="8">
+        <f t="shared" si="22"/>
         <v>433.16928886000005</v>
       </c>
-      <c r="R35" s="8">
-        <f t="shared" ref="R35:V35" si="31">+R34*0.28</f>
-        <v>454.4702012620001</v>
-      </c>
-      <c r="S35" s="8">
-        <f t="shared" si="31"/>
-        <v>369.6039471740001</v>
-      </c>
-      <c r="T35" s="8">
-        <f t="shared" si="31"/>
-        <v>502.2664225040001</v>
-      </c>
-      <c r="U35" s="8">
-        <f t="shared" si="31"/>
-        <v>433.16928886000005</v>
-      </c>
       <c r="V35" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>454.4702012620001</v>
       </c>
       <c r="W35" s="8"/>
@@ -2730,48 +2707,48 @@
         <v>1699.1</v>
       </c>
       <c r="AG35" s="7">
-        <f t="shared" ref="AG35:AG39" si="32">SUM(G35:J35)</f>
+        <f t="shared" ref="AG35:AG39" si="23">SUM(G35:J35)</f>
         <v>322.7</v>
       </c>
       <c r="AH35" s="7">
-        <f t="shared" ref="AH35:AH39" si="33">SUM(K35:N35)</f>
+        <f t="shared" ref="AH35:AH39" si="24">SUM(K35:N35)</f>
         <v>607.70000000000005</v>
       </c>
       <c r="AI35" s="7">
         <f>SUM(O35:R35)</f>
-        <v>1406.1394901220001</v>
-      </c>
-      <c r="AJ35" s="7">
-        <f>AI35*1.2</f>
-        <v>1687.3673881464001</v>
+        <v>1236.1702012620001</v>
+      </c>
+      <c r="AJ35" s="21">
+        <f>SUM(S35:V35)</f>
+        <v>1759.5098598000004</v>
       </c>
       <c r="AK35" s="7">
-        <f>AJ35*1.1</f>
-        <v>1856.1041269610403</v>
+        <f>+AJ35*1.01</f>
+        <v>1777.1049583980005</v>
       </c>
       <c r="AL35" s="7">
-        <f>AK35*1.05</f>
-        <v>1948.9093333090923</v>
+        <f t="shared" ref="AL35:AQ35" si="25">+AK35*1.01</f>
+        <v>1794.8760079819806</v>
       </c>
       <c r="AM35" s="7">
-        <f>AL35*1.05</f>
-        <v>2046.3547999745469</v>
+        <f t="shared" si="25"/>
+        <v>1812.8247680618003</v>
       </c>
       <c r="AN35" s="7">
-        <f>AM35*1.03</f>
-        <v>2107.7454439737835</v>
+        <f t="shared" si="25"/>
+        <v>1830.9530157424183</v>
       </c>
       <c r="AO35" s="7">
-        <f>AN35*1.03</f>
-        <v>2170.9778072929971</v>
+        <f t="shared" si="25"/>
+        <v>1849.2625458998425</v>
       </c>
       <c r="AP35" s="7">
-        <f>AO35*1.04</f>
-        <v>2257.8169195847172</v>
+        <f t="shared" si="25"/>
+        <v>1867.7551713588409</v>
       </c>
       <c r="AQ35" s="7">
-        <f>AP35*1.04</f>
-        <v>2348.1295963681059</v>
+        <f t="shared" si="25"/>
+        <v>1886.4327230724293</v>
       </c>
     </row>
     <row r="36" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2815,28 +2792,27 @@
         <v>64.599999999999994</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" ref="Q36:R36" si="34">P36+3</f>
-        <v>67.599999999999994</v>
+        <v>58.5</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="34"/>
-        <v>70.599999999999994</v>
+        <f t="shared" ref="R36" si="26">Q36+3</f>
+        <v>61.5</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" ref="S36" si="35">R36+3</f>
-        <v>73.599999999999994</v>
+        <f t="shared" ref="S36" si="27">R36+3</f>
+        <v>64.5</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" ref="T36" si="36">S36+3</f>
-        <v>76.599999999999994</v>
+        <f t="shared" ref="T36" si="28">S36+3</f>
+        <v>67.5</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" ref="U36" si="37">T36+3</f>
-        <v>79.599999999999994</v>
+        <f t="shared" ref="U36" si="29">T36+3</f>
+        <v>70.5</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" ref="V36" si="38">U36+3</f>
-        <v>82.6</v>
+        <f t="shared" ref="V36" si="30">U36+3</f>
+        <v>73.5</v>
       </c>
       <c r="W36" s="8"/>
       <c r="AC36" s="7">
@@ -2852,48 +2828,48 @@
         <v>278.7</v>
       </c>
       <c r="AG36" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>88.800000000000011</v>
       </c>
       <c r="AH36" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>137.9</v>
       </c>
       <c r="AI36" s="7">
         <f>SUM(O36:R36)</f>
-        <v>245.39999999999998</v>
-      </c>
-      <c r="AJ36" s="7">
-        <f>AI36*1.15</f>
-        <v>282.20999999999998</v>
+        <v>227.2</v>
+      </c>
+      <c r="AJ36" s="21">
+        <f>SUM(S36:V36)</f>
+        <v>276</v>
       </c>
       <c r="AK36" s="7">
-        <f t="shared" ref="AK36:AK39" si="39">AJ36*1.05</f>
-        <v>296.32049999999998</v>
+        <f t="shared" ref="AK36:AQ36" si="31">+AJ36*1.01</f>
+        <v>278.76</v>
       </c>
       <c r="AL36" s="7">
-        <f t="shared" ref="AL36:AQ36" si="40">AK36*1.03</f>
-        <v>305.21011499999997</v>
+        <f t="shared" si="31"/>
+        <v>281.54759999999999</v>
       </c>
       <c r="AM36" s="7">
-        <f t="shared" si="40"/>
-        <v>314.36641844999997</v>
+        <f t="shared" si="31"/>
+        <v>284.36307599999998</v>
       </c>
       <c r="AN36" s="7">
-        <f t="shared" si="40"/>
-        <v>323.79741100349997</v>
+        <f t="shared" si="31"/>
+        <v>287.20670675999997</v>
       </c>
       <c r="AO36" s="7">
-        <f t="shared" si="40"/>
-        <v>333.51133333360497</v>
+        <f t="shared" si="31"/>
+        <v>290.0787738276</v>
       </c>
       <c r="AP36" s="7">
-        <f t="shared" si="40"/>
-        <v>343.51667333361314</v>
+        <f t="shared" si="31"/>
+        <v>292.979561565876</v>
       </c>
       <c r="AQ36" s="7">
-        <f t="shared" si="40"/>
-        <v>353.82217353362154</v>
+        <f t="shared" si="31"/>
+        <v>295.90935718153474</v>
       </c>
     </row>
     <row r="37" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2937,28 +2913,27 @@
         <v>402.2</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" ref="Q37:R37" si="41">P37+10</f>
-        <v>412.2</v>
+        <v>400.6</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" si="41"/>
-        <v>422.2</v>
+        <f t="shared" ref="R37" si="32">Q37+10</f>
+        <v>410.6</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" ref="S37:S38" si="42">R37+10</f>
-        <v>432.2</v>
+        <f t="shared" ref="S37:S38" si="33">R37+10</f>
+        <v>420.6</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:T38" si="43">S37+10</f>
-        <v>442.2</v>
+        <f t="shared" ref="T37:T38" si="34">S37+10</f>
+        <v>430.6</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" ref="U37:U38" si="44">T37+10</f>
-        <v>452.2</v>
+        <f t="shared" ref="U37:U38" si="35">T37+10</f>
+        <v>440.6</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" ref="V37:V38" si="45">U37+10</f>
-        <v>462.2</v>
+        <f t="shared" ref="V37:V38" si="36">U37+10</f>
+        <v>450.6</v>
       </c>
       <c r="W37" s="8"/>
       <c r="AC37" s="7">
@@ -2974,48 +2949,48 @@
         <v>1686.6</v>
       </c>
       <c r="AG37" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>856</v>
       </c>
       <c r="AH37" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>1141.8</v>
       </c>
       <c r="AI37" s="7">
         <f>SUM(O37:R37)</f>
-        <v>1581.4</v>
-      </c>
-      <c r="AJ37" s="7">
-        <f>AI37*1.18</f>
-        <v>1866.0519999999999</v>
+        <v>1558.1999999999998</v>
+      </c>
+      <c r="AJ37" s="21">
+        <f>SUM(S37:V37)</f>
+        <v>1742.4</v>
       </c>
       <c r="AK37" s="7">
-        <f>AJ37*1.1</f>
-        <v>2052.6572000000001</v>
+        <f t="shared" ref="AK37:AQ37" si="37">+AJ37*1.01</f>
+        <v>1759.8240000000001</v>
       </c>
       <c r="AL37" s="7">
-        <f>AK37*1.08</f>
-        <v>2216.8697760000005</v>
+        <f t="shared" si="37"/>
+        <v>1777.4222400000001</v>
       </c>
       <c r="AM37" s="7">
-        <f>AL37*1.05</f>
-        <v>2327.7132648000006</v>
+        <f t="shared" si="37"/>
+        <v>1795.1964624000002</v>
       </c>
       <c r="AN37" s="7">
-        <f>AM37*1.05</f>
-        <v>2444.0989280400008</v>
+        <f t="shared" si="37"/>
+        <v>1813.1484270240003</v>
       </c>
       <c r="AO37" s="7">
-        <f t="shared" ref="AO37:AQ37" si="46">AN37*1.03</f>
-        <v>2517.4218958812007</v>
+        <f t="shared" si="37"/>
+        <v>1831.2799112942403</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="46"/>
-        <v>2592.9445527576368</v>
+        <f t="shared" si="37"/>
+        <v>1849.5927104071827</v>
       </c>
       <c r="AQ37" s="7">
-        <f t="shared" si="46"/>
-        <v>2670.732889340366</v>
+        <f t="shared" si="37"/>
+        <v>1868.0886375112545</v>
       </c>
     </row>
     <row r="38" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3059,28 +3034,27 @@
         <v>222.4</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" ref="Q38:R38" si="47">P38+10</f>
-        <v>232.4</v>
+        <v>223.2</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="47"/>
-        <v>242.4</v>
+        <f t="shared" ref="R38" si="38">Q38+10</f>
+        <v>233.2</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="42"/>
-        <v>252.4</v>
+        <f t="shared" si="33"/>
+        <v>243.2</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="43"/>
-        <v>262.39999999999998</v>
+        <f t="shared" si="34"/>
+        <v>253.2</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="44"/>
-        <v>272.39999999999998</v>
+        <f t="shared" si="35"/>
+        <v>263.2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="45"/>
-        <v>282.39999999999998</v>
+        <f t="shared" si="36"/>
+        <v>273.2</v>
       </c>
       <c r="W38" s="8"/>
       <c r="AC38" s="7">
@@ -3096,48 +3070,48 @@
         <v>967.8</v>
       </c>
       <c r="AG38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>884.1</v>
       </c>
       <c r="AH38" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>828</v>
       </c>
       <c r="AI38" s="7">
         <f>SUM(O38:R38)</f>
-        <v>920.4</v>
+        <v>902</v>
       </c>
       <c r="AJ38" s="7">
         <f>AI38*1.15</f>
-        <v>1058.4599999999998</v>
+        <v>1037.3</v>
       </c>
       <c r="AK38" s="7">
+        <f t="shared" ref="AK38:AQ38" si="39">+AJ38*1.01</f>
+        <v>1047.673</v>
+      </c>
+      <c r="AL38" s="7">
         <f t="shared" si="39"/>
-        <v>1111.3829999999998</v>
-      </c>
-      <c r="AL38" s="7">
-        <f t="shared" ref="AL38:AQ38" si="48">AK38*1.03</f>
-        <v>1144.7244899999998</v>
+        <v>1058.1497300000001</v>
       </c>
       <c r="AM38" s="7">
-        <f t="shared" si="48"/>
-        <v>1179.0662246999998</v>
+        <f t="shared" si="39"/>
+        <v>1068.7312273</v>
       </c>
       <c r="AN38" s="7">
-        <f t="shared" si="48"/>
-        <v>1214.4382114409998</v>
+        <f t="shared" si="39"/>
+        <v>1079.4185395730001</v>
       </c>
       <c r="AO38" s="7">
-        <f t="shared" si="48"/>
-        <v>1250.8713577842298</v>
+        <f t="shared" si="39"/>
+        <v>1090.2127249687301</v>
       </c>
       <c r="AP38" s="7">
-        <f t="shared" si="48"/>
-        <v>1288.3974985177567</v>
+        <f t="shared" si="39"/>
+        <v>1101.1148522184174</v>
       </c>
       <c r="AQ38" s="7">
-        <f t="shared" si="48"/>
-        <v>1327.0494234732894</v>
+        <f t="shared" si="39"/>
+        <v>1112.1260007406015</v>
       </c>
     </row>
     <row r="39" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3181,28 +3155,27 @@
         <v>67.5</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" ref="Q39:R39" si="49">P39+5</f>
-        <v>72.5</v>
+        <v>40.6</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="49"/>
-        <v>77.5</v>
+        <f t="shared" ref="R39" si="40">Q39+5</f>
+        <v>45.6</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="50">R39+5</f>
-        <v>82.5</v>
+        <f t="shared" ref="S39" si="41">R39+5</f>
+        <v>50.6</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="51">S39+5</f>
-        <v>87.5</v>
+        <f t="shared" ref="T39" si="42">S39+5</f>
+        <v>55.6</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="52">T39+5</f>
-        <v>92.5</v>
+        <f t="shared" ref="U39" si="43">T39+5</f>
+        <v>60.6</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="53">U39+5</f>
-        <v>97.5</v>
+        <f t="shared" ref="V39" si="44">U39+5</f>
+        <v>65.599999999999994</v>
       </c>
       <c r="W39" s="8"/>
       <c r="AC39" s="7">
@@ -3218,48 +3191,48 @@
         <v>153</v>
       </c>
       <c r="AG39" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="23"/>
         <v>156.70000000000002</v>
       </c>
       <c r="AH39" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="24"/>
         <v>226.6</v>
       </c>
       <c r="AI39" s="7">
         <f>SUM(O39:R39)</f>
-        <v>270.60000000000002</v>
-      </c>
-      <c r="AJ39" s="7">
-        <f>AI39*1.15</f>
-        <v>311.19</v>
+        <v>206.79999999999998</v>
+      </c>
+      <c r="AJ39" s="21">
+        <f>SUM(S39:V39)</f>
+        <v>232.4</v>
       </c>
       <c r="AK39" s="7">
-        <f t="shared" si="39"/>
-        <v>326.74950000000001</v>
+        <f t="shared" ref="AK39:AQ39" si="45">+AJ39*1.01</f>
+        <v>234.72400000000002</v>
       </c>
       <c r="AL39" s="7">
-        <f t="shared" ref="AL39:AQ39" si="54">AK39*1.03</f>
-        <v>336.551985</v>
+        <f t="shared" si="45"/>
+        <v>237.07124000000002</v>
       </c>
       <c r="AM39" s="7">
-        <f t="shared" si="54"/>
-        <v>346.64854455</v>
+        <f t="shared" si="45"/>
+        <v>239.44195240000002</v>
       </c>
       <c r="AN39" s="7">
-        <f t="shared" si="54"/>
-        <v>357.04800088650001</v>
+        <f t="shared" si="45"/>
+        <v>241.83637192400002</v>
       </c>
       <c r="AO39" s="7">
-        <f t="shared" si="54"/>
-        <v>367.75944091309503</v>
+        <f t="shared" si="45"/>
+        <v>244.25473564324002</v>
       </c>
       <c r="AP39" s="7">
-        <f t="shared" si="54"/>
-        <v>378.79222414048792</v>
+        <f t="shared" si="45"/>
+        <v>246.69728299967244</v>
       </c>
       <c r="AQ39" s="7">
-        <f t="shared" si="54"/>
-        <v>390.15599086470257</v>
+        <f t="shared" si="45"/>
+        <v>249.16425582966917</v>
       </c>
     </row>
     <row r="40" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3270,39 +3243,39 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <f t="shared" ref="F40" si="55">SUM(F35:F39)</f>
+        <f t="shared" ref="F40" si="46">SUM(F35:F39)</f>
         <v>1202.8</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40" si="56">SUM(G35:G39)</f>
+        <f t="shared" ref="G40" si="47">SUM(G35:G39)</f>
         <v>953</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:I40" si="57">SUM(H35:H39)</f>
+        <f t="shared" ref="H40:I40" si="48">SUM(H35:H39)</f>
         <v>369</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="48"/>
         <v>474.5</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="58">SUM(J35:J39)</f>
+        <f t="shared" ref="J40:N40" si="49">SUM(J35:J39)</f>
         <v>511.79999999999995</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>455.3</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>631.29999999999995</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>803.3</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="49"/>
         <v>1052.1000000000001</v>
       </c>
       <c r="O40" s="8">
@@ -3310,44 +3283,44 @@
         <v>853.50000000000011</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:R40" si="59">SUM(P35:P39)</f>
+        <f t="shared" ref="P40:R40" si="50">SUM(P35:P39)</f>
         <v>1085.4000000000001</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="59"/>
-        <v>1217.8692888600001</v>
+        <f>SUM(Q35:Q39)</f>
+        <v>986.1</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="59"/>
-        <v>1267.1702012620001</v>
+        <f t="shared" si="50"/>
+        <v>1205.3702012619999</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" ref="S40:V40" si="60">SUM(S35:S39)</f>
-        <v>1210.3039471740001</v>
+        <f t="shared" ref="S40:V40" si="51">SUM(S35:S39)</f>
+        <v>1148.5039471740001</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="60"/>
-        <v>1370.9664225040001</v>
+        <f t="shared" si="51"/>
+        <v>1309.1664225039999</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="60"/>
-        <v>1329.8692888599999</v>
+        <f t="shared" si="51"/>
+        <v>1268.0692888599999</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="60"/>
-        <v>1379.1702012619999</v>
+        <f t="shared" si="51"/>
+        <v>1317.3702012619999</v>
       </c>
       <c r="W40" s="8"/>
       <c r="AC40" s="8">
-        <f t="shared" ref="AC40" si="61">SUM(AC35:AC39)</f>
+        <f t="shared" ref="AC40" si="52">SUM(AC35:AC39)</f>
         <v>2701.3999999999996</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" ref="AD40" si="62">SUM(AD35:AD39)</f>
+        <f t="shared" ref="AD40" si="53">SUM(AD35:AD39)</f>
         <v>4331.9999999999991</v>
       </c>
       <c r="AE40" s="8">
-        <f t="shared" ref="AE40" si="63">SUM(AE35:AE39)</f>
+        <f t="shared" ref="AE40" si="54">SUM(AE35:AE39)</f>
         <v>4612.9000000000005</v>
       </c>
       <c r="AF40" s="8">
@@ -3364,39 +3337,39 @@
       </c>
       <c r="AI40" s="8">
         <f>SUM(AI35:AI39)</f>
-        <v>4423.9394901220003</v>
+        <v>4130.3702012619997</v>
       </c>
       <c r="AJ40" s="8">
         <f>SUM(AJ35:AJ39)</f>
-        <v>5205.2793881463995</v>
+        <v>5047.6098597999999</v>
       </c>
       <c r="AK40" s="8">
-        <f t="shared" ref="AK40:AQ40" si="64">SUM(AK35:AK39)</f>
-        <v>5643.2143269610406</v>
+        <f t="shared" ref="AK40:AQ40" si="55">SUM(AK35:AK39)</f>
+        <v>5098.0859583980009</v>
       </c>
       <c r="AL40" s="8">
-        <f t="shared" si="64"/>
-        <v>5952.2656993090923</v>
+        <f t="shared" si="55"/>
+        <v>5149.0668179819813</v>
       </c>
       <c r="AM40" s="8">
-        <f t="shared" si="64"/>
-        <v>6214.1492524745481</v>
+        <f t="shared" si="55"/>
+        <v>5200.5574861618006</v>
       </c>
       <c r="AN40" s="8">
-        <f t="shared" si="64"/>
-        <v>6447.1279953447838</v>
+        <f t="shared" si="55"/>
+        <v>5252.5630610234184</v>
       </c>
       <c r="AO40" s="8">
-        <f t="shared" si="64"/>
-        <v>6640.5418352051283</v>
+        <f t="shared" si="55"/>
+        <v>5305.0886916336522</v>
       </c>
       <c r="AP40" s="8">
-        <f t="shared" si="64"/>
-        <v>6861.4678683342117</v>
+        <f t="shared" si="55"/>
+        <v>5358.139578549989</v>
       </c>
       <c r="AQ40" s="8">
-        <f t="shared" si="64"/>
-        <v>7089.8900735800853</v>
+        <f t="shared" si="55"/>
+        <v>5411.7209743354888</v>
       </c>
     </row>
     <row r="41" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3407,35 +3380,35 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41" si="65">F34-F40</f>
+        <f t="shared" ref="F41" si="56">F34-F40</f>
         <v>244.90000000000009</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" ref="G41" si="66">G34-G40</f>
+        <f t="shared" ref="G41" si="57">G34-G40</f>
         <v>-11.5</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41:I41" si="67">H34-H40</f>
+        <f t="shared" ref="H41:I41" si="58">H34-H40</f>
         <v>-350.1</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="58"/>
         <v>-355</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:M41" si="68">J34-J40</f>
+        <f t="shared" ref="J41:M41" si="59">J34-J40</f>
         <v>-349.29999999999995</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="59"/>
         <v>-307</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="59"/>
         <v>-186.59999999999997</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="59"/>
         <v>-40.100000000000023</v>
       </c>
       <c r="N41" s="8">
@@ -3447,44 +3420,44 @@
         <v>-67.800000000000182</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:R41" si="69">P34-P40</f>
+        <f t="shared" ref="P41:R41" si="60">P34-P40</f>
         <v>81</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="69"/>
-        <v>329.16388563999999</v>
+        <f>Q34-Q40</f>
+        <v>-17.700000000000159</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="69"/>
-        <v>355.93766038800004</v>
+        <f t="shared" si="60"/>
+        <v>417.73766038800022</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" ref="S41:V41" si="70">S34-S40</f>
-        <v>109.71014987600006</v>
+        <f t="shared" ref="S41:V41" si="61">S34-S40</f>
+        <v>171.51014987600001</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="70"/>
-        <v>422.84222929600014</v>
+        <f t="shared" si="61"/>
+        <v>484.64222929600032</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="70"/>
-        <v>217.16388564000022</v>
+        <f t="shared" si="61"/>
+        <v>278.96388564000017</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="70"/>
-        <v>243.93766038800027</v>
+        <f t="shared" si="61"/>
+        <v>305.73766038800022</v>
       </c>
       <c r="W41" s="8"/>
       <c r="AC41" s="8">
-        <f t="shared" ref="AC41" si="71">AC34-AC40</f>
+        <f t="shared" ref="AC41" si="62">AC34-AC40</f>
         <v>534.50000000000045</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" ref="AD41" si="72">AD34-AD40</f>
+        <f t="shared" ref="AD41" si="63">AD34-AD40</f>
         <v>747.24000000000069</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" ref="AE41" si="73">AE34-AE40</f>
+        <f t="shared" ref="AE41" si="64">AE34-AE40</f>
         <v>847.89999999999964</v>
       </c>
       <c r="AF41" s="8">
@@ -3501,39 +3474,39 @@
       </c>
       <c r="AI41" s="8">
         <f>AI34-AI40</f>
-        <v>-2533.0394901220002</v>
+        <v>-1271.070201262</v>
       </c>
       <c r="AJ41" s="8">
         <f>AJ34-AJ40</f>
-        <v>-2936.1993881463991</v>
+        <v>1236.353925200001</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" ref="AK41:AQ41" si="74">AK34-AK40</f>
-        <v>-3147.2263269610403</v>
+        <f t="shared" ref="AK41:AQ41" si="65">AK34-AK40</f>
+        <v>1437.2363780020005</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="74"/>
-        <v>-3331.4782993090917</v>
+        <f t="shared" si="65"/>
+        <v>1647.6684118740204</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="74"/>
-        <v>-3510.6661624745475</v>
+        <f t="shared" si="65"/>
+        <v>1868.0471528884418</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="74"/>
-        <v>-3658.2647412447832</v>
+        <f t="shared" si="65"/>
+        <v>2098.785763588834</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="74"/>
-        <v>-3763.5232285121278</v>
+        <f t="shared" si="65"/>
+        <v>2340.3140859630903</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="74"/>
-        <v>-3893.4247757219209</v>
+        <f t="shared" si="65"/>
+        <v>2593.0793101506233</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="74"/>
-        <v>-4027.856064085001</v>
+        <f t="shared" si="65"/>
+        <v>2857.5466699131484</v>
       </c>
     </row>
     <row r="42" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3578,7 +3551,8 @@
         <v>-80.5</v>
       </c>
       <c r="Q42" s="8">
-        <v>-82</v>
+        <f>1-85.1-1-9.6+2.8</f>
+        <v>-91.899999999999991</v>
       </c>
       <c r="R42" s="8">
         <v>-82</v>
@@ -3613,36 +3587,36 @@
         <v>-311</v>
       </c>
       <c r="AH42" s="7">
-        <f t="shared" ref="AH42" si="75">SUM(K42:N42)</f>
+        <f t="shared" ref="AH42" si="66">SUM(K42:N42)</f>
         <v>-414.9</v>
       </c>
       <c r="AI42" s="7">
-        <f t="shared" ref="AI42" si="76">SUM(O42:R42)</f>
-        <v>-326.5</v>
-      </c>
-      <c r="AJ42" s="7">
-        <f>AI42</f>
-        <v>-326.5</v>
+        <f t="shared" ref="AI42" si="67">SUM(O42:R42)</f>
+        <v>-336.4</v>
+      </c>
+      <c r="AJ42" s="21">
+        <f>SUM(S42:V42)</f>
+        <v>-328</v>
       </c>
       <c r="AK42" s="7">
-        <f>AJ61*0.07</f>
-        <v>-499.23284894828794</v>
+        <f>AJ60*0.07</f>
+        <v>-236.27858900883993</v>
       </c>
       <c r="AL42" s="7">
-        <f t="shared" ref="AL42:AO42" si="77">AK61*0.07</f>
-        <v>-754.48499126194099</v>
+        <f t="shared" ref="AL42:AO42" si="68">AK60*0.07</f>
+        <v>-152.21154377931867</v>
       </c>
       <c r="AM42" s="7">
-        <f t="shared" si="77"/>
-        <v>-1040.5024216019133</v>
+        <f t="shared" si="68"/>
+        <v>-47.52956301268955</v>
       </c>
       <c r="AN42" s="7">
-        <f t="shared" si="77"/>
-        <v>-1359.0842224872656</v>
+        <f t="shared" si="68"/>
+        <v>79.906668278613125</v>
       </c>
       <c r="AO42" s="7">
-        <f t="shared" si="77"/>
-        <v>-1710.2986499485091</v>
+        <f t="shared" si="68"/>
+        <v>232.41513850933444</v>
       </c>
       <c r="AP42" s="7">
         <v>0</v>
@@ -3659,39 +3633,39 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <f t="shared" ref="F43" si="78">F41+F42</f>
+        <f t="shared" ref="F43" si="69">F41+F42</f>
         <v>170.8000000000001</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="79">G41+G42</f>
+        <f t="shared" ref="G43" si="70">G41+G42</f>
         <v>-82.8</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43:I43" si="80">H41+H42</f>
+        <f t="shared" ref="H43:I43" si="71">H41+H42</f>
         <v>-429.70000000000005</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="80"/>
+        <f t="shared" si="71"/>
         <v>-437.8</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J43:N43" si="81">J41+J42</f>
+        <f t="shared" ref="J43:N43" si="72">J41+J42</f>
         <v>-426.59999999999997</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>-458.5</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>-274.69999999999993</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>-128.80000000000001</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>32.999999999999687</v>
       </c>
       <c r="O43" s="8">
@@ -3703,40 +3677,40 @@
         <v>0.5</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" ref="Q43:R43" si="82">Q41+Q42</f>
-        <v>247.16388563999999</v>
+        <f t="shared" ref="Q43:R43" si="73">Q41+Q42</f>
+        <v>-109.60000000000015</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="82"/>
-        <v>273.93766038800004</v>
+        <f t="shared" si="73"/>
+        <v>335.73766038800022</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:V43" si="83">S41+S42</f>
-        <v>27.71014987600006</v>
+        <f t="shared" ref="S43:V43" si="74">S41+S42</f>
+        <v>89.510149876000014</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="83"/>
-        <v>340.84222929600014</v>
+        <f t="shared" si="74"/>
+        <v>402.64222929600032</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="83"/>
-        <v>135.16388564000022</v>
+        <f t="shared" si="74"/>
+        <v>196.96388564000017</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="83"/>
-        <v>161.93766038800027</v>
+        <f t="shared" si="74"/>
+        <v>223.73766038800022</v>
       </c>
       <c r="W43" s="8"/>
       <c r="AC43" s="8">
-        <f t="shared" ref="AC43:AD43" si="84">AC41+AC42</f>
+        <f t="shared" ref="AC43:AD43" si="75">AC41+AC42</f>
         <v>423.80000000000047</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="75"/>
         <v>515.64000000000067</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" ref="AE43" si="85">AE41+AE42</f>
+        <f t="shared" ref="AE43" si="76">AE41+AE42</f>
         <v>585.59999999999968</v>
       </c>
       <c r="AF43" s="8">
@@ -3748,44 +3722,44 @@
         <v>-1376.8999999999996</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" ref="AH43" si="86">AH41+AH42</f>
+        <f t="shared" ref="AH43" si="77">AH41+AH42</f>
         <v>-828.99999999999989</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" ref="AI43" si="87">AI41+AI42</f>
-        <v>-2859.5394901220002</v>
+        <f t="shared" ref="AI43" si="78">AI41+AI42</f>
+        <v>-1607.470201262</v>
       </c>
       <c r="AJ43" s="8">
         <f>AJ41+AJ42</f>
-        <v>-3262.6993881463991</v>
+        <v>908.35392520000096</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" ref="AK43" si="88">AK41+AK42</f>
-        <v>-3646.4591759093282</v>
+        <f t="shared" ref="AK43" si="79">AK41+AK42</f>
+        <v>1200.9577889931606</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" ref="AL43" si="89">AL41+AL42</f>
-        <v>-4085.9632905710328</v>
+        <f t="shared" ref="AL43" si="80">AL41+AL42</f>
+        <v>1495.4568680947018</v>
       </c>
       <c r="AM43" s="8">
-        <f t="shared" ref="AM43" si="90">AM41+AM42</f>
-        <v>-4551.1685840764603</v>
+        <f t="shared" ref="AM43" si="81">AM41+AM42</f>
+        <v>1820.5175898757523</v>
       </c>
       <c r="AN43" s="8">
-        <f t="shared" ref="AN43" si="91">AN41+AN42</f>
-        <v>-5017.348963732049</v>
+        <f t="shared" ref="AN43" si="82">AN41+AN42</f>
+        <v>2178.6924318674473</v>
       </c>
       <c r="AO43" s="8">
-        <f t="shared" ref="AO43" si="92">AO41+AO42</f>
-        <v>-5473.821878460637</v>
+        <f t="shared" ref="AO43" si="83">AO41+AO42</f>
+        <v>2572.7292244724249</v>
       </c>
       <c r="AP43" s="8">
-        <f t="shared" ref="AP43" si="93">AP41+AP42</f>
-        <v>-3893.4247757219209</v>
+        <f t="shared" ref="AP43" si="84">AP41+AP42</f>
+        <v>2593.0793101506233</v>
       </c>
       <c r="AQ43" s="8">
-        <f t="shared" ref="AQ43" si="94">AQ41+AQ42</f>
-        <v>-4027.856064085001</v>
+        <f t="shared" ref="AQ43" si="85">AQ41+AQ42</f>
+        <v>2857.5466699131484</v>
       </c>
     </row>
     <row r="44" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3829,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R44" s="8">
         <v>0</v>
@@ -3860,18 +3834,19 @@
         <v>22.5</v>
       </c>
       <c r="AG44" s="7">
-        <f t="shared" ref="AG44" si="95">SUM(G44:J44)</f>
+        <f t="shared" ref="AG44" si="86">SUM(G44:J44)</f>
         <v>-64.3</v>
       </c>
       <c r="AH44" s="7">
-        <f t="shared" ref="AH44" si="96">SUM(K44:N44)</f>
+        <f t="shared" ref="AH44" si="87">SUM(K44:N44)</f>
         <v>4</v>
       </c>
       <c r="AI44" s="7">
-        <f t="shared" ref="AI44" si="97">SUM(O44:R44)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AJ44" s="7">
+        <f t="shared" ref="AI44" si="88">SUM(O44:R44)</f>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="AJ44" s="21">
+        <f>SUM(S44:V44)</f>
         <v>0</v>
       </c>
       <c r="AK44" s="7">
@@ -3890,12 +3865,12 @@
         <v>0</v>
       </c>
       <c r="AP44" s="7">
-        <f t="shared" ref="AP44:AQ44" si="98">AP43*-0.3</f>
-        <v>1168.0274327165762</v>
+        <f>AP43*-0.3</f>
+        <v>-777.92379304518693</v>
       </c>
       <c r="AQ44" s="7">
-        <f t="shared" si="98"/>
-        <v>1208.3568192255002</v>
+        <f>AQ43*-0.3</f>
+        <v>-857.26400097394446</v>
       </c>
     </row>
     <row r="45" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3906,39 +3881,39 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <f t="shared" ref="F45" si="99">F43+F44</f>
+        <f t="shared" ref="F45" si="89">F43+F44</f>
         <v>137.40000000000009</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45" si="100">G43+G44</f>
+        <f t="shared" ref="G45" si="90">G43+G44</f>
         <v>-151</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ref="H45:I45" si="101">H43+H44</f>
+        <f t="shared" ref="H45:I45" si="91">H43+H44</f>
         <v>-423.6</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="91"/>
         <v>-433.2</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" ref="J45:N45" si="102">J43+J44</f>
+        <f t="shared" ref="J45:N45" si="92">J43+J44</f>
         <v>-433.4</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="92"/>
         <v>-465.3</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="92"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="92"/>
         <v>-126.9</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="92"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O45" s="8">
@@ -3946,317 +3921,317 @@
         <v>-149.70000000000019</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45:R45" si="103">P43+P44</f>
+        <f t="shared" ref="P45:R45" si="93">P43+P44</f>
         <v>0.5</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="103"/>
-        <v>247.16388563999999</v>
+        <f t="shared" si="93"/>
+        <v>-107.80000000000015</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="103"/>
-        <v>273.93766038800004</v>
+        <f t="shared" si="93"/>
+        <v>335.73766038800022</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" ref="S45:V45" si="104">S43+S44</f>
-        <v>27.71014987600006</v>
+        <f t="shared" ref="S45:V45" si="94">S43+S44</f>
+        <v>89.510149876000014</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="104"/>
-        <v>340.84222929600014</v>
+        <f t="shared" si="94"/>
+        <v>402.64222929600032</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="104"/>
-        <v>135.16388564000022</v>
+        <f t="shared" si="94"/>
+        <v>196.96388564000017</v>
       </c>
       <c r="V45" s="8">
-        <f t="shared" si="104"/>
-        <v>161.93766038800027</v>
+        <f t="shared" si="94"/>
+        <v>223.73766038800022</v>
       </c>
       <c r="W45" s="8"/>
       <c r="AC45" s="8">
-        <f t="shared" ref="AC45:AD45" si="105">AC43+AC44</f>
+        <f t="shared" ref="AC45:AD45" si="95">AC43+AC44</f>
         <v>385.80000000000047</v>
       </c>
       <c r="AD45" s="8">
-        <f t="shared" si="105"/>
+        <f t="shared" si="95"/>
         <v>502.04000000000065</v>
       </c>
       <c r="AE45" s="8">
-        <f t="shared" ref="AE45" si="106">AE43+AE44</f>
+        <f t="shared" ref="AE45" si="96">AE43+AE44</f>
         <v>571.99999999999966</v>
       </c>
       <c r="AF45" s="8">
-        <f t="shared" ref="AF45" si="107">AF43+AF44</f>
+        <f t="shared" ref="AF45" si="97">AF43+AF44</f>
         <v>415.50000000000017</v>
       </c>
       <c r="AG45" s="8">
-        <f t="shared" ref="AG45" si="108">AG43+AG44</f>
+        <f t="shared" ref="AG45" si="98">AG43+AG44</f>
         <v>-1441.1999999999996</v>
       </c>
       <c r="AH45" s="8">
-        <f t="shared" ref="AH45" si="109">AH43+AH44</f>
+        <f t="shared" ref="AH45" si="99">AH43+AH44</f>
         <v>-824.99999999999989</v>
       </c>
       <c r="AI45" s="8">
-        <f t="shared" ref="AI45" si="110">AI43+AI44</f>
-        <v>-2859.4394901220003</v>
+        <f t="shared" ref="AI45" si="100">AI43+AI44</f>
+        <v>-1605.570201262</v>
       </c>
       <c r="AJ45" s="8">
-        <f t="shared" ref="AJ45" si="111">AJ43+AJ44</f>
-        <v>-3262.6993881463991</v>
+        <f t="shared" ref="AJ45" si="101">AJ43+AJ44</f>
+        <v>908.35392520000096</v>
       </c>
       <c r="AK45" s="8">
-        <f t="shared" ref="AK45" si="112">AK43+AK44</f>
-        <v>-3646.4591759093282</v>
+        <f t="shared" ref="AK45" si="102">AK43+AK44</f>
+        <v>1200.9577889931606</v>
       </c>
       <c r="AL45" s="8">
-        <f t="shared" ref="AL45" si="113">AL43+AL44</f>
-        <v>-4085.9632905710328</v>
+        <f t="shared" ref="AL45" si="103">AL43+AL44</f>
+        <v>1495.4568680947018</v>
       </c>
       <c r="AM45" s="8">
-        <f t="shared" ref="AM45" si="114">AM43+AM44</f>
-        <v>-4551.1685840764603</v>
+        <f t="shared" ref="AM45" si="104">AM43+AM44</f>
+        <v>1820.5175898757523</v>
       </c>
       <c r="AN45" s="8">
-        <f t="shared" ref="AN45" si="115">AN43+AN44</f>
-        <v>-5017.348963732049</v>
+        <f t="shared" ref="AN45" si="105">AN43+AN44</f>
+        <v>2178.6924318674473</v>
       </c>
       <c r="AO45" s="8">
-        <f t="shared" ref="AO45" si="116">AO43+AO44</f>
-        <v>-5473.821878460637</v>
+        <f t="shared" ref="AO45" si="106">AO43+AO44</f>
+        <v>2572.7292244724249</v>
       </c>
       <c r="AP45" s="8">
-        <f t="shared" ref="AP45" si="117">AP43+AP44</f>
-        <v>-2725.3973430053447</v>
+        <f t="shared" ref="AP45" si="107">AP43+AP44</f>
+        <v>1815.1555171054365</v>
       </c>
       <c r="AQ45" s="8">
-        <f t="shared" ref="AQ45" si="118">AQ43+AQ44</f>
-        <v>-2819.4992448595008</v>
+        <f t="shared" ref="AQ45" si="108">AQ43+AQ44</f>
+        <v>2000.2826689392041</v>
       </c>
       <c r="AR45" s="7">
-        <f t="shared" ref="AR45:BW45" si="119">AQ45*(1+$AT$50)</f>
-        <v>-2819.4992448595008</v>
+        <f>AQ45*(1+$AT$50)</f>
+        <v>1980.279842249812</v>
       </c>
       <c r="AS45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" ref="AR45:BW45" si="109">AR45*(1+$AT$50)</f>
+        <v>1960.4770438273138</v>
       </c>
       <c r="AT45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1940.8722733890406</v>
       </c>
       <c r="AU45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1921.4635506551501</v>
       </c>
       <c r="AV45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1902.2489151485986</v>
       </c>
       <c r="AW45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1883.2264259971125</v>
       </c>
       <c r="AX45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1864.3941617371413</v>
       </c>
       <c r="AY45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1845.7502201197699</v>
       </c>
       <c r="AZ45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1827.2927179185722</v>
       </c>
       <c r="BA45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1809.0197907393865</v>
       </c>
       <c r="BB45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1790.9295928319925</v>
       </c>
       <c r="BC45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1773.0202969036725</v>
       </c>
       <c r="BD45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1755.2900939346357</v>
       </c>
       <c r="BE45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1737.7371929952894</v>
       </c>
       <c r="BF45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1720.3598210653365</v>
       </c>
       <c r="BG45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1703.1562228546832</v>
       </c>
       <c r="BH45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1686.1246606261363</v>
       </c>
       <c r="BI45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1669.263414019875</v>
       </c>
       <c r="BJ45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1652.5707798796761</v>
       </c>
       <c r="BK45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1636.0450720808794</v>
       </c>
       <c r="BL45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1619.6846213600707</v>
       </c>
       <c r="BM45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1603.4877751464699</v>
       </c>
       <c r="BN45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1587.452897395005</v>
       </c>
       <c r="BO45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1571.5783684210551</v>
       </c>
       <c r="BP45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1555.8625847368446</v>
       </c>
       <c r="BQ45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1540.3039588894762</v>
       </c>
       <c r="BR45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1524.9009193005816</v>
       </c>
       <c r="BS45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1509.6519101075758</v>
       </c>
       <c r="BT45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1494.5553910065</v>
       </c>
       <c r="BU45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1479.6098370964351</v>
       </c>
       <c r="BV45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1464.8137387254708</v>
       </c>
       <c r="BW45" s="7">
-        <f t="shared" si="119"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="109"/>
+        <v>1450.165601338216</v>
       </c>
       <c r="BX45" s="7">
-        <f t="shared" ref="BX45:CU45" si="120">BW45*(1+$AT$50)</f>
-        <v>-2819.4992448595008</v>
+        <f t="shared" ref="BX45:CU45" si="110">BW45*(1+$AT$50)</f>
+        <v>1435.6639453248338</v>
       </c>
       <c r="BY45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1421.3073058715854</v>
       </c>
       <c r="BZ45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1407.0942328128694</v>
       </c>
       <c r="CA45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1393.0232904847408</v>
       </c>
       <c r="CB45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1379.0930575798934</v>
       </c>
       <c r="CC45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1365.3021270040945</v>
       </c>
       <c r="CD45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1351.6491057340536</v>
       </c>
       <c r="CE45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1338.132614676713</v>
       </c>
       <c r="CF45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1324.7512885299459</v>
       </c>
       <c r="CG45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1311.5037756446463</v>
       </c>
       <c r="CH45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1298.3887378881998</v>
       </c>
       <c r="CI45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1285.4048505093178</v>
       </c>
       <c r="CJ45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1272.5508020042246</v>
       </c>
       <c r="CK45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1259.8252939841823</v>
       </c>
       <c r="CL45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1247.2270410443405</v>
       </c>
       <c r="CM45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1234.7547706338971</v>
       </c>
       <c r="CN45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1222.4072229275582</v>
       </c>
       <c r="CO45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1210.1831506982826</v>
       </c>
       <c r="CP45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1198.0813191912998</v>
       </c>
       <c r="CQ45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1186.1005059993868</v>
       </c>
       <c r="CR45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1174.2395009393929</v>
       </c>
       <c r="CS45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1162.497105929999</v>
       </c>
       <c r="CT45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1150.872134870699</v>
       </c>
       <c r="CU45" s="7">
-        <f t="shared" si="120"/>
-        <v>-2819.4992448595008</v>
+        <f t="shared" si="110"/>
+        <v>1139.363413521992</v>
       </c>
     </row>
     <row r="46" spans="2:99" x14ac:dyDescent="0.2">
@@ -4264,39 +4239,39 @@
         <v>37</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" ref="F46" si="121">F45/F47</f>
+        <f t="shared" ref="F46" si="111">F45/F47</f>
         <v>1.3230621088107857</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" ref="G46" si="122">G45/G47</f>
+        <f t="shared" ref="G46" si="112">G45/G47</f>
         <v>-1.448510719938606</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" ref="H46:I46" si="123">H45/H47</f>
+        <f t="shared" ref="H46:I46" si="113">H45/H47</f>
         <v>-4.0606217467575423</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="113"/>
         <v>-4.0224708667997584</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" ref="J46:N46" si="124">J45/J47</f>
+        <f t="shared" ref="J46:N46" si="114">J45/J47</f>
         <v>-2.8455684899577829</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="114"/>
         <v>-1.1629272876776695</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="114"/>
         <v>-0.56060457927614393</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="114"/>
         <v>-0.24720939746361989</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="114"/>
         <v>7.1425235099955811E-2</v>
       </c>
       <c r="O46" s="3">
@@ -4304,48 +4279,48 @@
         <v>-0.29016688957376324</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" ref="P46:V46" si="125">P45/P47</f>
+        <f t="shared" ref="P46:V46" si="115">P45/P47</f>
         <v>9.674529479258776E-4</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="125"/>
-        <v>0.47823885956646495</v>
+        <f t="shared" si="115"/>
+        <v>-0.10428698850521353</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="125"/>
-        <v>0.53004359418057712</v>
+        <f t="shared" si="115"/>
+        <v>0.32479656335482948</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="125"/>
-        <v>5.3616532370008296E-2</v>
+        <f t="shared" si="115"/>
+        <v>8.6593172274752703E-2</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="125"/>
-        <v>0.65949763902008651</v>
+        <f t="shared" si="115"/>
+        <v>0.38952083059652581</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="125"/>
-        <v>0.26152939923106883</v>
+        <f t="shared" si="115"/>
+        <v>0.19054518068349593</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="125"/>
-        <v>0.31333413384518094</v>
+        <f t="shared" si="115"/>
+        <v>0.21644644542733504</v>
       </c>
       <c r="W46" s="3"/>
       <c r="AC46" s="1">
-        <f t="shared" ref="AC46" si="126">AC45/AC47</f>
+        <f t="shared" ref="AC46" si="116">AC45/AC47</f>
         <v>3.9020147261105316</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" ref="AD46" si="127">AD45/AD47</f>
+        <f t="shared" ref="AD46" si="117">AD45/AD47</f>
         <v>3.9146640051151742</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" ref="AE46" si="128">AE45/AE47</f>
+        <f t="shared" ref="AE46" si="118">AE45/AE47</f>
         <v>4.3964490219438126</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" ref="AF46" si="129">AF45/AF47</f>
+        <f t="shared" ref="AF46" si="119">AF45/AF47</f>
         <v>4.0016565220741214</v>
       </c>
       <c r="AG46" s="1">
@@ -4353,44 +4328,44 @@
         <v>-12.303069364828003</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" ref="AH46:AI46" si="130">AH45/AH47</f>
+        <f t="shared" ref="AH46:AI46" si="120">AH45/AH47</f>
         <v>-1.7295633743466965</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="130"/>
-        <v>-5.5351855451498837</v>
+        <f t="shared" si="120"/>
+        <v>-2.07163465376731</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" ref="AJ46" si="131">AJ45/AJ47</f>
-        <v>-6.3157994963085544</v>
+        <f t="shared" ref="AJ46" si="121">AJ45/AJ47</f>
+        <v>0.87875227602966566</v>
       </c>
       <c r="AK46" s="1">
-        <f t="shared" ref="AK46" si="132">AK45/AK47</f>
-        <v>-7.05866593477427</v>
+        <f t="shared" ref="AK46" si="122">AK45/AK47</f>
+        <v>1.1618206969942138</v>
       </c>
       <c r="AL46" s="1">
-        <f t="shared" ref="AL46" si="133">AL45/AL47</f>
-        <v>-7.9094399521693957</v>
+        <f t="shared" ref="AL46" si="123">AL45/AL47</f>
+        <v>1.446722571549486</v>
       </c>
       <c r="AM46" s="1">
-        <f t="shared" ref="AM46" si="134">AM45/AM47</f>
-        <v>-8.809965256178744</v>
+        <f t="shared" ref="AM46" si="124">AM45/AM47</f>
+        <v>1.7611901388581759</v>
       </c>
       <c r="AN46" s="1">
-        <f t="shared" ref="AN46" si="135">AN45/AN47</f>
-        <v>-9.7123780919167046</v>
+        <f t="shared" ref="AN46" si="125">AN45/AN47</f>
+        <v>2.1076926957194422</v>
       </c>
       <c r="AO46" s="1">
-        <f t="shared" ref="AO46" si="136">AO45/AO47</f>
-        <v>-10.595999615675654</v>
+        <f t="shared" ref="AO46" si="126">AO45/AO47</f>
+        <v>2.4888885255990942</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" ref="AP46" si="137">AP45/AP47</f>
-        <v>-5.275712261059053</v>
+        <f t="shared" ref="AP46" si="127">AP45/AP47</f>
+        <v>1.7560028065635374</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" ref="AQ46" si="138">AQ45/AQ47</f>
-        <v>-5.4578708584742461</v>
+        <f t="shared" ref="AQ46" si="128">AQ45/AQ47</f>
+        <v>1.9350969916775542</v>
       </c>
     </row>
     <row r="47" spans="2:99" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -4433,29 +4408,28 @@
       <c r="P47" s="12">
         <v>516.82100000000003</v>
       </c>
-      <c r="Q47" s="12">
-        <f>+P47</f>
-        <v>516.82100000000003</v>
-      </c>
-      <c r="R47" s="12">
-        <f t="shared" ref="R47:V47" si="139">+Q47</f>
-        <v>516.82100000000003</v>
-      </c>
-      <c r="S47" s="12">
-        <f t="shared" si="139"/>
-        <v>516.82100000000003</v>
-      </c>
-      <c r="T47" s="12">
-        <f t="shared" si="139"/>
-        <v>516.82100000000003</v>
-      </c>
-      <c r="U47" s="12">
-        <f t="shared" si="139"/>
-        <v>516.82100000000003</v>
-      </c>
-      <c r="V47" s="12">
-        <f t="shared" si="139"/>
-        <v>516.82100000000003</v>
+      <c r="Q47" s="16">
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="R47" s="16">
+        <f t="shared" ref="R47:V47" si="129">+Q47</f>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="S47" s="16">
+        <f t="shared" si="129"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="T47" s="16">
+        <f t="shared" si="129"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="U47" s="16">
+        <f t="shared" si="129"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="V47" s="16">
+        <f t="shared" si="129"/>
+        <v>1033.6859999999999</v>
       </c>
       <c r="W47" s="12"/>
       <c r="AC47" s="11">
@@ -4480,39 +4454,39 @@
       </c>
       <c r="AI47" s="11">
         <f>AVERAGE(O47:R47)</f>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AJ47" s="11">
-        <f>AI47</f>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AK47" s="11">
-        <f t="shared" ref="AK47:AQ47" si="140">AJ47</f>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AL47" s="11">
-        <f t="shared" si="140"/>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AM47" s="11">
-        <f t="shared" si="140"/>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AN47" s="11">
-        <f t="shared" si="140"/>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AO47" s="11">
-        <f t="shared" si="140"/>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AP47" s="11">
-        <f t="shared" si="140"/>
-        <v>516.59325000000001</v>
-      </c>
-      <c r="AQ47" s="11">
-        <f t="shared" si="140"/>
-        <v>516.59325000000001</v>
+        <v>775.02575000000002</v>
+      </c>
+      <c r="AJ47" s="15">
+        <f>AVERAGE(S47:V47)</f>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="AK47" s="15">
+        <f t="shared" ref="AK47:AQ47" si="130">AJ47</f>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="AL47" s="15">
+        <f t="shared" si="130"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="AM47" s="15">
+        <f t="shared" si="130"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="AN47" s="15">
+        <f t="shared" si="130"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="AO47" s="15">
+        <f t="shared" si="130"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="AP47" s="15">
+        <f t="shared" si="130"/>
+        <v>1033.6859999999999</v>
+      </c>
+      <c r="AQ47" s="15">
+        <f t="shared" si="130"/>
+        <v>1033.6859999999999</v>
       </c>
     </row>
     <row r="49" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4527,19 +4501,19 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="14">
-        <f t="shared" ref="J49" si="141">J34/F34-1</f>
+        <f t="shared" ref="J49" si="131">J34/F34-1</f>
         <v>-0.88775298749740972</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" ref="K49:M49" si="142">K34/G34-1</f>
+        <f t="shared" ref="K49:M49" si="132">K34/G34-1</f>
         <v>-0.84248539564524694</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="132"/>
         <v>22.529100529100525</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="142"/>
+        <f t="shared" si="132"/>
         <v>5.3866108786610871</v>
       </c>
       <c r="N49" s="14">
@@ -4551,15 +4525,15 @@
         <v>4.2980445043830064</v>
       </c>
       <c r="P49" s="14">
-        <f t="shared" ref="P49:R49" si="143">P34/L34-1</f>
+        <f t="shared" ref="P49:R49" si="133">P34/L34-1</f>
         <v>1.6228918371936141</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="143"/>
-        <v>1.0270350818920337</v>
+        <f t="shared" si="133"/>
+        <v>0.26886792452830188</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" si="143"/>
+        <f t="shared" si="133"/>
         <v>0.38525890727148626</v>
       </c>
       <c r="S49" s="14"/>
@@ -4568,11 +4542,11 @@
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
       <c r="AD49" s="18">
-        <f t="shared" ref="AD49:AE49" si="144">AD34/AC34-1</f>
+        <f t="shared" ref="AD49:AE49" si="134">AD34/AC34-1</f>
         <v>0.56965295590098575</v>
       </c>
       <c r="AE49" s="18">
-        <f t="shared" si="144"/>
+        <f t="shared" si="134"/>
         <v>7.5121474866318705E-2</v>
       </c>
       <c r="AF49" s="18">
@@ -4584,574 +4558,559 @@
         <v>-0.77291171632242728</v>
       </c>
       <c r="AH49" s="18">
-        <f t="shared" ref="AH49:AI49" si="145">AH34/AG34-1</f>
+        <f t="shared" ref="AH49:AI49" si="135">AH34/AG34-1</f>
         <v>1.0346909207984547</v>
       </c>
       <c r="AI49" s="18">
-        <f t="shared" si="145"/>
-        <v>-0.2519878159737331</v>
+        <f t="shared" si="135"/>
+        <v>0.13109695794928578</v>
       </c>
       <c r="AJ49" s="18">
-        <f t="shared" ref="AJ49:AQ49" si="146">AJ34/AI34-1</f>
-        <v>0.20000000000000018</v>
+        <f t="shared" ref="AJ49:AQ49" si="136">AJ34/AI34-1</f>
+        <v>1.1977280400797401</v>
       </c>
       <c r="AK49" s="18">
-        <f t="shared" si="146"/>
-        <v>9.9999999999999867E-2</v>
+        <f t="shared" si="136"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AL49" s="18">
-        <f t="shared" si="146"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="136"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AM49" s="18">
-        <f t="shared" si="146"/>
-        <v>3.1553757469987787E-2</v>
+        <f t="shared" si="136"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AN49" s="18">
-        <f t="shared" si="146"/>
-        <v>3.1581541758413545E-2</v>
+        <f t="shared" si="136"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AO49" s="18">
-        <f t="shared" si="146"/>
-        <v>3.1609779526980963E-2</v>
+        <f t="shared" si="136"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AP49" s="18">
-        <f t="shared" si="146"/>
-        <v>3.1638476618654376E-2</v>
+        <f t="shared" si="136"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AQ49" s="18">
-        <f t="shared" si="146"/>
-        <v>3.1667638895386929E-2</v>
-      </c>
-      <c r="AS49" s="19" t="s">
+        <f t="shared" si="136"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AS49" t="s">
         <v>59</v>
       </c>
-      <c r="AT49" s="23">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="s">
+      <c r="AT49" s="20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22">
+      <c r="F50" s="19">
         <f>F35/F34</f>
         <v>0.30013124266077224</v>
       </c>
-      <c r="G50" s="22">
-        <f t="shared" ref="G50:R50" si="147">G35/G34</f>
+      <c r="G50" s="19">
+        <f t="shared" ref="G50:R50" si="137">G35/G34</f>
         <v>0.28858204992033987</v>
       </c>
-      <c r="H50" s="22">
-        <f t="shared" si="147"/>
+      <c r="H50" s="19">
+        <f t="shared" si="137"/>
         <v>1.0582010582010581E-2</v>
       </c>
-      <c r="I50" s="22">
-        <f t="shared" si="147"/>
+      <c r="I50" s="19">
+        <f t="shared" si="137"/>
         <v>0.22259414225941423</v>
       </c>
-      <c r="J50" s="22">
-        <f t="shared" si="147"/>
+      <c r="J50" s="19">
+        <f t="shared" si="137"/>
         <v>0.14892307692307691</v>
       </c>
-      <c r="K50" s="22">
-        <f t="shared" si="147"/>
+      <c r="K50" s="19">
+        <f t="shared" si="137"/>
         <v>0.14834794335805798</v>
       </c>
-      <c r="L50" s="22">
-        <f t="shared" si="147"/>
+      <c r="L50" s="19">
+        <f t="shared" si="137"/>
         <v>0.22239712165504835</v>
       </c>
-      <c r="M50" s="22">
-        <f t="shared" si="147"/>
+      <c r="M50" s="19">
+        <f t="shared" si="137"/>
         <v>0.2312631027253669</v>
       </c>
-      <c r="N50" s="22">
-        <f t="shared" si="147"/>
+      <c r="N50" s="19">
+        <f t="shared" si="137"/>
         <v>0.26482888111291292</v>
       </c>
-      <c r="O50" s="22">
+      <c r="O50" s="19">
         <f>O35/O34</f>
         <v>0.24156802850960929</v>
       </c>
-      <c r="P50" s="22">
+      <c r="P50" s="19">
         <f>P35/P34</f>
         <v>0.28180727023319613</v>
       </c>
-      <c r="Q50" s="22">
-        <f t="shared" si="147"/>
+      <c r="Q50" s="19">
+        <f t="shared" si="137"/>
+        <v>0.27178851714167701</v>
+      </c>
+      <c r="R50" s="19">
+        <f t="shared" si="137"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="R50" s="22">
-        <f t="shared" si="147"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="AC50" s="19">
+        <f t="shared" ref="AC50:AQ50" si="138">AC35/AC34</f>
+        <v>0.33669149232052903</v>
+      </c>
+      <c r="AD50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.31585434041313265</v>
+      </c>
+      <c r="AE50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.31317755640199241</v>
+      </c>
+      <c r="AF50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.3105647961981356</v>
+      </c>
+      <c r="AG50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.25973921442369602</v>
+      </c>
+      <c r="AH50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.24039716760947824</v>
+      </c>
+      <c r="AI50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.43233315890672552</v>
+      </c>
+      <c r="AJ50" s="19">
+        <f t="shared" si="138"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="AC50" s="22">
-        <f t="shared" ref="AC50:AQ50" si="148">AC35/AC34</f>
-        <v>0.33669149232052903</v>
-      </c>
-      <c r="AD50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.31585434041313265</v>
-      </c>
-      <c r="AE50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.31317755640199241</v>
-      </c>
-      <c r="AF50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.3105647961981356</v>
-      </c>
-      <c r="AG50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.25973921442369602</v>
-      </c>
-      <c r="AH50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.24039716760947824</v>
-      </c>
-      <c r="AI50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.7436350362906553</v>
-      </c>
-      <c r="AJ50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.74363503629065519</v>
-      </c>
-      <c r="AK50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.7436350362906553</v>
-      </c>
-      <c r="AL50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.74363503629065519</v>
-      </c>
-      <c r="AM50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.75693271674007268</v>
-      </c>
-      <c r="AN50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.75577224551082478</v>
-      </c>
-      <c r="AO50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.75459289774577976</v>
-      </c>
-      <c r="AP50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.76070894159340663</v>
-      </c>
-      <c r="AQ50" s="22">
-        <f t="shared" si="148"/>
-        <v>0.76685287919297207</v>
-      </c>
-      <c r="AS50" s="19" t="s">
+      <c r="AK50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.27192307692307693</v>
+      </c>
+      <c r="AL50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.26407914201183436</v>
+      </c>
+      <c r="AM50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.25646147445380063</v>
+      </c>
+      <c r="AN50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.24906354730609481</v>
+      </c>
+      <c r="AO50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.2418790219030344</v>
+      </c>
+      <c r="AP50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.23490174242506226</v>
+      </c>
+      <c r="AQ50" s="19">
+        <f t="shared" si="138"/>
+        <v>0.22812573062433927</v>
+      </c>
+      <c r="AS50" t="s">
         <v>60</v>
       </c>
-      <c r="AT50" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="20" t="s">
+      <c r="AT50" s="20">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22">
+      <c r="F51" s="19">
         <f>(F30-F35)/F30</f>
         <v>0.50456100342075261</v>
       </c>
-      <c r="G51" s="22">
-        <f t="shared" ref="G51:R51" si="149">(G30-G35)/G30</f>
+      <c r="G51" s="19">
+        <f t="shared" ref="G51:R51" si="139">(G30-G35)/G30</f>
         <v>0.52165492957746484</v>
       </c>
-      <c r="H51" s="22">
-        <f t="shared" si="149"/>
+      <c r="H51" s="19">
+        <f t="shared" si="139"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="I51" s="22">
-        <f t="shared" si="149"/>
+      <c r="I51" s="19">
+        <f t="shared" si="139"/>
         <v>0.57710651828298887</v>
       </c>
-      <c r="J51" s="22">
-        <f t="shared" si="149"/>
+      <c r="J51" s="19">
+        <f t="shared" si="139"/>
         <v>0.69863013698630128</v>
       </c>
-      <c r="K51" s="22">
-        <f t="shared" si="149"/>
+      <c r="K51" s="19">
+        <f t="shared" si="139"/>
         <v>0.68345323741007191</v>
       </c>
-      <c r="L51" s="22">
-        <f t="shared" si="149"/>
+      <c r="L51" s="19">
+        <f t="shared" si="139"/>
         <v>0.57553648068669527</v>
       </c>
-      <c r="M51" s="22">
-        <f t="shared" si="149"/>
+      <c r="M51" s="19">
+        <f t="shared" si="139"/>
         <v>0.58480357562926377</v>
       </c>
-      <c r="N51" s="22">
-        <f t="shared" si="149"/>
+      <c r="N51" s="19">
+        <f t="shared" si="139"/>
         <v>0.53450345034503455</v>
       </c>
-      <c r="O51" s="22">
-        <f t="shared" si="149"/>
+      <c r="O51" s="19">
+        <f t="shared" si="139"/>
         <v>0.57232987832356919</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="19">
         <f>(P30-P35)/P30</f>
         <v>0.49508448540706607</v>
       </c>
-      <c r="Q51" s="22" t="e">
-        <f t="shared" si="149"/>
+      <c r="Q51" s="19">
+        <f t="shared" si="139"/>
+        <v>0.51732991014120666</v>
+      </c>
+      <c r="R51" s="19" t="e">
+        <f t="shared" si="139"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R51" s="22" t="e">
-        <f t="shared" si="149"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="AC51" s="22">
-        <f t="shared" ref="AC51:AG51" si="150">(AC30-AC35)/AC30</f>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="AC51" s="19">
+        <f t="shared" ref="AC51:AG51" si="140">(AC30-AC35)/AC30</f>
         <v>0.4683809895579194</v>
       </c>
-      <c r="AD51" s="22">
-        <f t="shared" si="150"/>
+      <c r="AD51" s="19">
+        <f t="shared" si="140"/>
         <v>0.50323579501470816</v>
       </c>
-      <c r="AE51" s="22">
-        <f t="shared" si="150"/>
+      <c r="AE51" s="19">
+        <f t="shared" si="140"/>
         <v>0.49477104874446082</v>
       </c>
-      <c r="AF51" s="22">
-        <f t="shared" si="150"/>
+      <c r="AF51" s="19">
+        <f t="shared" si="140"/>
         <v>0.48532396328718996</v>
       </c>
-      <c r="AG51" s="22">
-        <f t="shared" si="150"/>
+      <c r="AG51" s="19">
+        <f t="shared" si="140"/>
         <v>0.54683330992838075</v>
       </c>
-      <c r="AH51" s="22">
+      <c r="AH51" s="19">
         <f>(AH30-AH35)/AH30</f>
         <v>0.56412279443408408</v>
       </c>
-      <c r="AI51" s="22">
-        <f t="shared" ref="AI51:AQ51" si="151">(AI30-AI35)/AI30</f>
-        <v>-0.28438024307818793</v>
-      </c>
-      <c r="AJ51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.28438024307818788</v>
-      </c>
-      <c r="AK51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.28438024307818782</v>
-      </c>
-      <c r="AL51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.28438024307818771</v>
-      </c>
-      <c r="AM51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.30931966527388072</v>
-      </c>
-      <c r="AN51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.30931966527388077</v>
-      </c>
-      <c r="AO51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.30931966527388083</v>
-      </c>
-      <c r="AP51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.32203150668430697</v>
-      </c>
-      <c r="AQ51" s="22">
-        <f t="shared" si="151"/>
-        <v>-0.3348667640307566</v>
+      <c r="AI51" s="19">
+        <f t="shared" ref="AI51:AQ51" si="141">(AI30-AI35)/AI30</f>
+        <v>0.24628364047192233</v>
+      </c>
+      <c r="AJ51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ51" s="19" t="e">
+        <f t="shared" si="141"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AS51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="AT51" s="17">
         <f>NPV(AT49,AJ45:DI45)+Main!N5-Main!N6</f>
-        <v>-50907.092704295152</v>
-      </c>
-    </row>
-    <row r="52" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+        <v>16816.944130678548</v>
+      </c>
+    </row>
+    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22">
+      <c r="F52" s="19">
         <f>F41/F34</f>
         <v>0.16916488222698078</v>
       </c>
-      <c r="G52" s="22">
-        <f t="shared" ref="G52:R52" si="152">G41/G34</f>
+      <c r="G52" s="19">
+        <f t="shared" ref="G52:R52" si="142">G41/G34</f>
         <v>-1.2214551248008496E-2</v>
       </c>
-      <c r="H52" s="22">
-        <f t="shared" si="152"/>
+      <c r="H52" s="19">
+        <f t="shared" si="142"/>
         <v>-18.523809523809522</v>
       </c>
-      <c r="I52" s="22">
-        <f t="shared" si="152"/>
+      <c r="I52" s="19">
+        <f t="shared" si="142"/>
         <v>-2.9707112970711296</v>
       </c>
-      <c r="J52" s="22">
-        <f t="shared" si="152"/>
+      <c r="J52" s="19">
+        <f t="shared" si="142"/>
         <v>-2.1495384615384614</v>
       </c>
-      <c r="K52" s="22">
-        <f t="shared" si="152"/>
+      <c r="K52" s="19">
+        <f t="shared" si="142"/>
         <v>-2.0701281186783547</v>
       </c>
-      <c r="L52" s="22">
-        <f t="shared" si="152"/>
+      <c r="L52" s="19">
+        <f t="shared" si="142"/>
         <v>-0.41960872498313462</v>
       </c>
-      <c r="M52" s="22">
-        <f t="shared" si="152"/>
+      <c r="M52" s="19">
+        <f t="shared" si="142"/>
         <v>-5.2541928721174039E-2</v>
       </c>
-      <c r="N52" s="22">
-        <f t="shared" si="152"/>
+      <c r="N52" s="19">
+        <f t="shared" si="142"/>
         <v>0.10207390970384886</v>
       </c>
-      <c r="O52" s="22">
-        <f t="shared" si="152"/>
+      <c r="O52" s="19">
+        <f t="shared" si="142"/>
         <v>-8.6292478045055604E-2</v>
       </c>
-      <c r="P52" s="22">
-        <f t="shared" si="152"/>
+      <c r="P52" s="19">
+        <f t="shared" si="142"/>
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="Q52" s="22">
-        <f t="shared" si="152"/>
-        <v>0.21277105822012221</v>
-      </c>
-      <c r="R52" s="22">
-        <f t="shared" si="152"/>
-        <v>0.21929390448898761</v>
-      </c>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="AC52" s="22">
-        <f t="shared" ref="AC52:AQ52" si="153">AC41/AC34</f>
+      <c r="Q52" s="19">
+        <f t="shared" si="142"/>
+        <v>-1.8277571251549114E-2</v>
+      </c>
+      <c r="R52" s="19">
+        <f t="shared" si="142"/>
+        <v>0.25736900809742941</v>
+      </c>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="AC52" s="19">
+        <f t="shared" ref="AC52:AQ52" si="143">AC41/AC34</f>
         <v>0.1651781575450417</v>
       </c>
-      <c r="AD52" s="22">
-        <f t="shared" si="153"/>
+      <c r="AD52" s="19">
+        <f t="shared" si="143"/>
         <v>0.14711649774375707</v>
       </c>
-      <c r="AE52" s="22">
-        <f t="shared" si="153"/>
+      <c r="AE52" s="19">
+        <f t="shared" si="143"/>
         <v>0.15527029006738932</v>
       </c>
-      <c r="AF52" s="22">
-        <f t="shared" si="153"/>
+      <c r="AF52" s="19">
+        <f t="shared" si="143"/>
         <v>0.12535185523670264</v>
       </c>
-      <c r="AG52" s="22">
-        <f t="shared" si="153"/>
+      <c r="AG52" s="19">
+        <f t="shared" si="143"/>
         <v>-0.85793625241468086</v>
       </c>
-      <c r="AH52" s="22">
-        <f t="shared" si="153"/>
+      <c r="AH52" s="19">
+        <f t="shared" si="143"/>
         <v>-0.16381185964634673</v>
       </c>
-      <c r="AI52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.3395946322502512</v>
-      </c>
-      <c r="AJ52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.2940043489636321</v>
-      </c>
-      <c r="AK52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.2609140456448669</v>
-      </c>
-      <c r="AL52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.2711745711647922</v>
-      </c>
-      <c r="AM52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.2985715262877959</v>
-      </c>
-      <c r="AN52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.3117404504744528</v>
-      </c>
-      <c r="AO52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.3081330860206439</v>
-      </c>
-      <c r="AP52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.3117817545887331</v>
-      </c>
-      <c r="AQ52" s="22">
-        <f t="shared" si="153"/>
-        <v>-1.3154184609298891</v>
-      </c>
-      <c r="AS52" s="19" t="s">
+      <c r="AI52" s="19">
+        <f>AI41/AI34</f>
+        <v>-0.44453894353932782</v>
+      </c>
+      <c r="AJ52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.19674746187290459</v>
+      </c>
+      <c r="AK52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.21991820816503227</v>
+      </c>
+      <c r="AL52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.24242056754488708</v>
+      </c>
+      <c r="AM52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.2642738204041693</v>
+      </c>
+      <c r="AN52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.2854966909694337</v>
+      </c>
+      <c r="AO52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.30610736334531546</v>
+      </c>
+      <c r="AP52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.32612349709496985</v>
+      </c>
+      <c r="AQ52" s="19">
+        <f t="shared" si="143"/>
+        <v>0.34556224237107652</v>
+      </c>
+      <c r="AS52" t="s">
         <v>62</v>
       </c>
       <c r="AT52" s="1">
         <f>AT51/Main!N3</f>
-        <v>-98.50443634732035</v>
-      </c>
-    </row>
-    <row r="53" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="s">
+        <v>16.038486883510327</v>
+      </c>
+    </row>
+    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="AA53" s="23">
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="AA53" s="20">
         <f>AA26/Z26-1</f>
         <v>-9.0866633016087883E-3</v>
       </c>
-      <c r="AB53" s="23">
-        <f t="shared" ref="AB53:AH53" si="154">AB26/AA26-1</f>
+      <c r="AB53" s="20">
+        <f t="shared" ref="AB53:AH53" si="144">AB26/AA26-1</f>
         <v>2.7998191966112973E-2</v>
       </c>
-      <c r="AC53" s="23">
-        <f t="shared" si="154"/>
+      <c r="AC53" s="20">
+        <f t="shared" si="144"/>
         <v>2.2576932497140545E-2</v>
       </c>
-      <c r="AD53" s="23">
-        <f t="shared" si="154"/>
+      <c r="AD53" s="20">
+        <f t="shared" si="144"/>
         <v>-2.6643990531081463E-2</v>
       </c>
-      <c r="AE53" s="23">
-        <f t="shared" si="154"/>
+      <c r="AE53" s="20">
+        <f t="shared" si="144"/>
         <v>7.3574553749574445E-2</v>
       </c>
-      <c r="AF53" s="23">
-        <f t="shared" si="154"/>
+      <c r="AF53" s="20">
+        <f t="shared" si="144"/>
         <v>-4.7763078683775273E-2</v>
       </c>
-      <c r="AG53" s="23">
-        <f t="shared" si="154"/>
+      <c r="AG53" s="20">
+        <f t="shared" si="144"/>
         <v>-0.81422798616458314</v>
       </c>
-      <c r="AH53" s="23">
-        <f t="shared" si="154"/>
+      <c r="AH53" s="20">
+        <f t="shared" si="144"/>
         <v>1.1344394528426767</v>
       </c>
-      <c r="AI53" s="22"/>
-      <c r="AJ53" s="22"/>
-      <c r="AK53" s="22"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
-      <c r="AQ53" s="22"/>
-    </row>
-    <row r="54" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="20" t="s">
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="19"/>
+      <c r="AL53" s="19"/>
+      <c r="AM53" s="19"/>
+      <c r="AN53" s="19"/>
+      <c r="AO53" s="19"/>
+      <c r="AP53" s="19"/>
+      <c r="AQ53" s="19"/>
+    </row>
+    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23">
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20">
         <f>AC30/AC26</f>
         <v>0.18013517081637956</v>
       </c>
-      <c r="AD54" s="23">
-        <f t="shared" ref="AD54:AH54" si="155">AD30/AD26</f>
+      <c r="AD54" s="20">
+        <f t="shared" ref="AD54:AH54" si="145">AD30/AD26</f>
         <v>0.29163212217430867</v>
       </c>
-      <c r="AE54" s="23">
-        <f t="shared" si="155"/>
+      <c r="AE54" s="20">
+        <f t="shared" si="145"/>
         <v>0.28472561072802366</v>
       </c>
-      <c r="AF54" s="23">
-        <f t="shared" si="155"/>
+      <c r="AF54" s="20">
+        <f t="shared" si="145"/>
         <v>0.29161364111956389</v>
       </c>
-      <c r="AG54" s="23">
-        <f t="shared" si="155"/>
+      <c r="AG54" s="20">
+        <f t="shared" si="145"/>
         <v>0.33859733877041753</v>
       </c>
-      <c r="AH54" s="23">
-        <f t="shared" si="155"/>
+      <c r="AH54" s="20">
+        <f t="shared" si="145"/>
         <v>0.31058737146668441</v>
       </c>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="22"/>
-      <c r="AL54" s="22"/>
-      <c r="AM54" s="22"/>
-      <c r="AN54" s="22"/>
-      <c r="AO54" s="22"/>
-      <c r="AP54" s="22"/>
-      <c r="AQ54" s="22"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="19"/>
       <c r="AS54" s="4"/>
       <c r="AT54" s="17"/>
     </row>
@@ -5193,192 +5152,191 @@
       <c r="AP55" s="18"/>
       <c r="AQ55" s="18"/>
     </row>
-    <row r="56" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
+    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="27">
+      <c r="F56" s="3">
         <v>7.2</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="2">
         <v>3.16</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="2">
         <v>4.29</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="2">
         <v>4.71</v>
       </c>
-      <c r="J56" s="27">
+      <c r="J56" s="3">
         <v>2.12</v>
       </c>
-      <c r="K56" s="27">
+      <c r="K56" s="3">
         <v>10.210000000000001</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L56" s="3">
         <v>56.68</v>
       </c>
-      <c r="M56" s="27">
+      <c r="M56" s="3">
         <v>38.06</v>
       </c>
-      <c r="N56" s="27">
+      <c r="N56" s="3">
         <v>27.2</v>
       </c>
-      <c r="O56" s="27">
+      <c r="O56" s="3">
         <v>24.64</v>
       </c>
-      <c r="P56" s="27">
+      <c r="P56" s="3">
         <v>13.55</v>
       </c>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="23"/>
-      <c r="AG56" s="23"/>
-      <c r="AH56" s="23"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="23"/>
-      <c r="AK56" s="23"/>
-      <c r="AL56" s="23"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="23"/>
-      <c r="AO56" s="23"/>
-      <c r="AP56" s="23"/>
-      <c r="AQ56" s="23"/>
-    </row>
-    <row r="57" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="20" t="s">
+      <c r="Q56" s="3">
+        <v>6.97</v>
+      </c>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="20"/>
+      <c r="AO56" s="20"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="20"/>
+    </row>
+    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B57" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="28">
+      <c r="F57" s="16">
         <f>F56*F47</f>
         <v>747.72</v>
       </c>
-      <c r="G57" s="28">
-        <f t="shared" ref="G57:O57" si="156">G56*G47</f>
+      <c r="G57" s="16">
+        <f t="shared" ref="G57:O57" si="146">G56*G47</f>
         <v>329.41420000000005</v>
       </c>
-      <c r="H57" s="28">
-        <f t="shared" si="156"/>
+      <c r="H57" s="16">
+        <f t="shared" si="146"/>
         <v>447.52851000000004</v>
       </c>
-      <c r="I57" s="28">
-        <f t="shared" si="156"/>
+      <c r="I57" s="16">
+        <f t="shared" si="146"/>
         <v>507.24344999999994</v>
       </c>
-      <c r="J57" s="28">
-        <f t="shared" si="156"/>
+      <c r="J57" s="16">
+        <f t="shared" si="146"/>
         <v>322.89083999999997</v>
       </c>
-      <c r="K57" s="28">
-        <f t="shared" si="156"/>
+      <c r="K57" s="16">
+        <f t="shared" si="146"/>
         <v>4085.1333100000002</v>
       </c>
-      <c r="L57" s="28">
-        <f t="shared" si="156"/>
+      <c r="L57" s="16">
+        <f t="shared" si="146"/>
         <v>27247.83308</v>
       </c>
-      <c r="M57" s="28">
-        <f t="shared" si="156"/>
+      <c r="M57" s="16">
+        <f t="shared" si="146"/>
         <v>19537.339800000002</v>
       </c>
-      <c r="N57" s="28">
-        <f t="shared" si="156"/>
+      <c r="N57" s="16">
+        <f t="shared" si="146"/>
         <v>13976.012799999999</v>
       </c>
-      <c r="O57" s="28">
-        <f t="shared" si="156"/>
+      <c r="O57" s="16">
+        <f t="shared" si="146"/>
         <v>12712.0224</v>
       </c>
-      <c r="P57" s="28">
-        <f t="shared" ref="P57" si="157">P56*P47</f>
+      <c r="P57" s="16">
+        <f t="shared" ref="P57" si="147">P56*P47</f>
         <v>7002.9245500000006</v>
       </c>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="AD57" s="23"/>
-      <c r="AE57" s="23"/>
-      <c r="AF57" s="23"/>
-      <c r="AG57" s="23"/>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="23"/>
-      <c r="AJ57" s="23"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="23"/>
-      <c r="AM57" s="23"/>
-      <c r="AN57" s="23"/>
-      <c r="AO57" s="23"/>
-      <c r="AP57" s="23"/>
-      <c r="AQ57" s="23"/>
-    </row>
-    <row r="58" spans="2:46" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20" t="s">
+      <c r="Q57" s="16">
+        <f>Q56*Q47</f>
+        <v>7204.7914199999996</v>
+      </c>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+      <c r="AN57" s="20"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="20"/>
+      <c r="AQ57" s="20"/>
+    </row>
+    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B58" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28">
-        <f>M57-M61</f>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16">
+        <f>M57-M60</f>
         <v>23349.9398</v>
       </c>
-      <c r="N58" s="28">
-        <f>N57-N61</f>
+      <c r="N58" s="16">
+        <f>N57-N60</f>
         <v>17783.712799999998</v>
       </c>
-      <c r="O58" s="28">
-        <f t="shared" ref="O58" si="158">O57-O61</f>
+      <c r="O58" s="16">
+        <f>O57-O60</f>
         <v>17045.222399999999</v>
       </c>
-      <c r="P58" s="28">
-        <f t="shared" ref="P58" si="159">P57-P61</f>
+      <c r="P58" s="16">
+        <f>P57-P60</f>
         <v>11393.224549999999</v>
       </c>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="AD58" s="23"/>
-      <c r="AE58" s="23"/>
-      <c r="AF58" s="23"/>
-      <c r="AG58" s="23"/>
-      <c r="AH58" s="23"/>
-      <c r="AI58" s="23"/>
-      <c r="AJ58" s="23"/>
-      <c r="AK58" s="23"/>
-      <c r="AL58" s="23"/>
-      <c r="AM58" s="23"/>
-      <c r="AN58" s="23"/>
-      <c r="AO58" s="23"/>
-      <c r="AP58" s="23"/>
-      <c r="AQ58" s="23"/>
+      <c r="Q58" s="16">
+        <f>Q57-Q60</f>
+        <v>11824.29142</v>
+      </c>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="20"/>
+      <c r="AL58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AN58" s="20"/>
+      <c r="AO58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AQ58" s="20"/>
     </row>
     <row r="59" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
@@ -5418,87 +5376,134 @@
       <c r="AP59" s="18"/>
       <c r="AQ59" s="18"/>
     </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="60" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>56</v>
       </c>
+      <c r="K60" s="8">
+        <f t="shared" ref="K60" si="148">K61-K74</f>
+        <v>-4617.2999999999993</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" ref="L60" si="149">L61-L74</f>
+        <v>-3660.7999999999993</v>
+      </c>
+      <c r="M60" s="8">
+        <f>M61-M74</f>
+        <v>-3812.6000000000004</v>
+      </c>
+      <c r="N60" s="8">
+        <f>N61-N74</f>
+        <v>-3807.7</v>
+      </c>
+      <c r="O60" s="8">
+        <f>O61-O74</f>
+        <v>-4333.2</v>
+      </c>
+      <c r="P60" s="8">
+        <f>P61-P74</f>
+        <v>-4390.2999999999993</v>
+      </c>
+      <c r="Q60" s="8">
+        <f>Q61-Q74</f>
+        <v>-4619.5</v>
+      </c>
+      <c r="R60" s="8">
+        <f>Q60+R45</f>
+        <v>-4283.7623396119998</v>
+      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="AI60" s="7">
+        <f>R60</f>
+        <v>-4283.7623396119998</v>
+      </c>
+      <c r="AJ60" s="7">
+        <f>AI60+AJ45</f>
+        <v>-3375.4084144119988</v>
+      </c>
+      <c r="AK60" s="7">
+        <f>AJ60+AK45</f>
+        <v>-2174.4506254188382</v>
+      </c>
+      <c r="AL60" s="7">
+        <f>AK60+AL45</f>
+        <v>-678.99375732413637</v>
+      </c>
+      <c r="AM60" s="7">
+        <f>AL60+AM45</f>
+        <v>1141.5238325516159</v>
+      </c>
+      <c r="AN60" s="7">
+        <f>AM60+AN45</f>
+        <v>3320.216264419063</v>
+      </c>
+      <c r="AO60" s="7">
+        <f>AN60+AO45</f>
+        <v>5892.9454888914879</v>
+      </c>
+      <c r="AP60" s="7">
+        <f>AO60+AP45</f>
+        <v>7708.1010059969249</v>
+      </c>
+      <c r="AQ60" s="7">
+        <f>AP60+AQ45</f>
+        <v>9708.383674936129</v>
+      </c>
+    </row>
+    <row r="61" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
       <c r="K61" s="8">
-        <f t="shared" ref="K61" si="160">K62-K75</f>
-        <v>-4617.2999999999993</v>
+        <f>813.1+29</f>
+        <v>842.1</v>
       </c>
       <c r="L61" s="8">
-        <f t="shared" ref="L61" si="161">L62-L75</f>
-        <v>-3660.7999999999993</v>
+        <f>1811.2+28.4</f>
+        <v>1839.6000000000001</v>
       </c>
       <c r="M61" s="8">
-        <f>M62-M75</f>
-        <v>-3812.6000000000004</v>
+        <f>1612.5+27.7</f>
+        <v>1640.2</v>
       </c>
       <c r="N61" s="8">
-        <f>N62-N75</f>
-        <v>-3807.7</v>
+        <f>1592.5+27.8</f>
+        <v>1620.3</v>
       </c>
       <c r="O61" s="8">
-        <f>O62-O75</f>
-        <v>-4333.2</v>
+        <f>1164.9+23.7</f>
+        <v>1188.6000000000001</v>
       </c>
       <c r="P61" s="8">
-        <f>P62-P75</f>
-        <v>-4390.2999999999993</v>
+        <f>965.2+22.7</f>
+        <v>987.90000000000009</v>
       </c>
       <c r="Q61" s="8">
-        <f t="shared" ref="Q61:R61" si="162">P61+Q45</f>
-        <v>-4143.1361143599988</v>
-      </c>
-      <c r="R61" s="8">
-        <f t="shared" si="162"/>
-        <v>-3869.1984539719988</v>
-      </c>
+        <f>684.6+21.2</f>
+        <v>705.80000000000007</v>
+      </c>
+      <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
-      <c r="AI61" s="7">
-        <f>R61</f>
-        <v>-3869.1984539719988</v>
-      </c>
-      <c r="AJ61" s="7">
-        <f>AI61+AJ45</f>
-        <v>-7131.8978421183983</v>
-      </c>
-      <c r="AK61" s="7">
-        <f t="shared" ref="AK61:AQ61" si="163">AJ61+AK45</f>
-        <v>-10778.357018027727</v>
-      </c>
-      <c r="AL61" s="7">
-        <f t="shared" si="163"/>
-        <v>-14864.320308598761</v>
-      </c>
-      <c r="AM61" s="7">
-        <f t="shared" si="163"/>
-        <v>-19415.488892675221</v>
-      </c>
-      <c r="AN61" s="7">
-        <f t="shared" si="163"/>
-        <v>-24432.83785640727</v>
-      </c>
-      <c r="AO61" s="7">
-        <f t="shared" si="163"/>
-        <v>-29906.659734867906</v>
-      </c>
-      <c r="AP61" s="7">
-        <f t="shared" si="163"/>
-        <v>-32632.057077873251</v>
-      </c>
-      <c r="AQ61" s="7">
-        <f t="shared" si="163"/>
-        <v>-35451.556322732751</v>
-      </c>
     </row>
     <row r="62" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -5509,30 +5514,26 @@
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8">
-        <f>813.1+29</f>
-        <v>842.1</v>
+        <v>86</v>
       </c>
       <c r="L62" s="8">
-        <f>1811.2+28.4</f>
-        <v>1839.6000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="M62" s="8">
-        <f>1612.5+27.7</f>
-        <v>1640.2</v>
+        <v>129.6</v>
       </c>
       <c r="N62" s="8">
-        <f>1592.5+27.8</f>
-        <v>1620.3</v>
+        <v>168.5</v>
       </c>
       <c r="O62" s="8">
-        <f>1164.9+23.7</f>
-        <v>1188.6000000000001</v>
+        <v>105.8</v>
       </c>
       <c r="P62" s="8">
-        <f>965.2+22.7</f>
-        <v>987.90000000000009</v>
-      </c>
-      <c r="Q62" s="8"/>
+        <v>120.7</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>108.4</v>
+      </c>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
@@ -5542,7 +5543,7 @@
     </row>
     <row r="63" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -5553,24 +5554,26 @@
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8">
-        <v>86</v>
+        <v>87.9</v>
       </c>
       <c r="L63" s="8">
-        <v>88.5</v>
+        <v>84.2</v>
       </c>
       <c r="M63" s="8">
-        <v>129.6</v>
+        <v>93.1</v>
       </c>
       <c r="N63" s="8">
-        <v>168.5</v>
+        <v>81.5</v>
       </c>
       <c r="O63" s="8">
-        <v>105.8</v>
+        <v>110.1</v>
       </c>
       <c r="P63" s="8">
-        <v>120.7</v>
-      </c>
-      <c r="Q63" s="8"/>
+        <v>102.8</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>91</v>
+      </c>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
@@ -5580,7 +5583,7 @@
     </row>
     <row r="64" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -5591,24 +5594,26 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8">
-        <v>87.9</v>
+        <v>2200.3000000000002</v>
       </c>
       <c r="L64" s="8">
-        <v>84.2</v>
+        <v>2115.9</v>
       </c>
       <c r="M64" s="8">
-        <v>93.1</v>
+        <v>2032.9</v>
       </c>
       <c r="N64" s="8">
-        <v>81.5</v>
+        <v>1962.5</v>
       </c>
       <c r="O64" s="8">
-        <v>110.1</v>
+        <v>1881.5</v>
       </c>
       <c r="P64" s="8">
-        <v>102.8</v>
-      </c>
-      <c r="Q64" s="8"/>
+        <v>1815.3</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>1750.8</v>
+      </c>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
@@ -5618,7 +5623,7 @@
     </row>
     <row r="65" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -5629,24 +5634,27 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8">
-        <v>2200.3000000000002</v>
+        <v>4348.7</v>
       </c>
       <c r="L65" s="8">
-        <v>2115.9</v>
+        <f>4308.1</f>
+        <v>4308.1000000000004</v>
       </c>
       <c r="M65" s="8">
-        <v>2032.9</v>
+        <v>4302</v>
       </c>
       <c r="N65" s="8">
-        <v>1962.5</v>
+        <v>4155.8999999999996</v>
       </c>
       <c r="O65" s="8">
-        <v>1881.5</v>
+        <v>4144.2</v>
       </c>
       <c r="P65" s="8">
-        <v>1815.3</v>
-      </c>
-      <c r="Q65" s="8"/>
+        <v>4027.9</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>3873.1</v>
+      </c>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -5656,7 +5664,7 @@
     </row>
     <row r="66" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -5667,25 +5675,33 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8">
-        <v>4348.7</v>
+        <f>158.3+2491</f>
+        <v>2649.3</v>
       </c>
       <c r="L66" s="8">
-        <f>4308.1</f>
-        <v>4308.1000000000004</v>
+        <f>156.8+2472.1</f>
+        <v>2628.9</v>
       </c>
       <c r="M66" s="8">
-        <v>4302</v>
+        <f>154.7+2451.2</f>
+        <v>2605.8999999999996</v>
       </c>
       <c r="N66" s="8">
-        <v>4155.8999999999996</v>
+        <f>153.4+2429.8</f>
+        <v>2583.2000000000003</v>
       </c>
       <c r="O66" s="8">
-        <v>4144.2</v>
+        <f>151.8+2415.4</f>
+        <v>2567.2000000000003</v>
       </c>
       <c r="P66" s="8">
-        <v>4027.9</v>
-      </c>
-      <c r="Q66" s="8"/>
+        <f>148.1+2354.6</f>
+        <v>2502.6999999999998</v>
+      </c>
+      <c r="Q66" s="8">
+        <f>144.8+2307.4</f>
+        <v>2452.2000000000003</v>
+      </c>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
       <c r="T66" s="8"/>
@@ -5695,7 +5711,7 @@
     </row>
     <row r="67" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -5706,30 +5722,26 @@
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8">
-        <f>158.3+2491</f>
-        <v>2649.3</v>
+        <v>1.3</v>
       </c>
       <c r="L67" s="8">
-        <f>156.8+2472.1</f>
-        <v>2628.9</v>
+        <v>2.7</v>
       </c>
       <c r="M67" s="8">
-        <f>154.7+2451.2</f>
-        <v>2605.8999999999996</v>
+        <v>2.4</v>
       </c>
       <c r="N67" s="8">
-        <f>153.4+2429.8</f>
-        <v>2583.2000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="O67" s="8">
-        <f>151.8+2415.4</f>
-        <v>2567.2000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="P67" s="8">
-        <f>148.1+2354.6</f>
-        <v>2502.6999999999998</v>
-      </c>
-      <c r="Q67" s="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>0.4</v>
+      </c>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
@@ -5739,7 +5751,7 @@
     </row>
     <row r="68" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -5750,24 +5762,26 @@
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8">
-        <v>1.3</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="L68" s="8">
-        <v>2.7</v>
+        <v>261.2</v>
       </c>
       <c r="M68" s="8">
-        <v>2.4</v>
+        <v>251.4</v>
       </c>
       <c r="N68" s="8">
-        <v>0.6</v>
+        <v>249</v>
       </c>
       <c r="O68" s="8">
-        <v>0.6</v>
+        <v>347.4</v>
       </c>
       <c r="P68" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="Q68" s="8"/>
+        <v>260.60000000000002</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>224.4</v>
+      </c>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
@@ -5777,7 +5791,7 @@
     </row>
     <row r="69" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -5788,24 +5802,33 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8">
-        <v>273.10000000000002</v>
+        <f t="shared" ref="K69" si="150">SUM(K61:K68)</f>
+        <v>10488.699999999999</v>
       </c>
       <c r="L69" s="8">
-        <v>261.2</v>
+        <f t="shared" ref="L69" si="151">SUM(L61:L68)</f>
+        <v>11329.100000000002</v>
       </c>
       <c r="M69" s="8">
-        <v>251.4</v>
+        <f>SUM(M61:M68)</f>
+        <v>11057.499999999998</v>
       </c>
       <c r="N69" s="8">
-        <v>249</v>
+        <f>SUM(N61:N68)</f>
+        <v>10821.5</v>
       </c>
       <c r="O69" s="8">
-        <v>347.4</v>
+        <f>SUM(O61:O68)</f>
+        <v>10345.4</v>
       </c>
       <c r="P69" s="8">
-        <v>260.60000000000002</v>
-      </c>
-      <c r="Q69" s="8"/>
+        <f>SUM(P61:P68)</f>
+        <v>9818.2999999999993</v>
+      </c>
+      <c r="Q69" s="8">
+        <f>SUM(Q61:Q68)</f>
+        <v>9206.1</v>
+      </c>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
@@ -5814,9 +5837,6 @@
       <c r="W69" s="8"/>
     </row>
     <row r="70" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -5825,30 +5845,12 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
-      <c r="K70" s="8">
-        <f t="shared" ref="K70" si="164">SUM(K62:K69)</f>
-        <v>10488.699999999999</v>
-      </c>
-      <c r="L70" s="8">
-        <f t="shared" ref="L70" si="165">SUM(L62:L69)</f>
-        <v>11329.100000000002</v>
-      </c>
-      <c r="M70" s="8">
-        <f>SUM(M62:M69)</f>
-        <v>11057.499999999998</v>
-      </c>
-      <c r="N70" s="8">
-        <f>SUM(N62:N69)</f>
-        <v>10821.5</v>
-      </c>
-      <c r="O70" s="8">
-        <f>SUM(O62:O69)</f>
-        <v>10345.4</v>
-      </c>
-      <c r="P70" s="8">
-        <f>SUM(P62:P69)</f>
-        <v>9818.2999999999993</v>
-      </c>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
@@ -5858,6 +5860,9 @@
       <c r="W70" s="8"/>
     </row>
     <row r="71" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -5866,13 +5871,27 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
+      <c r="K71" s="8">
+        <v>264.89999999999998</v>
+      </c>
+      <c r="L71" s="8">
+        <v>235.2</v>
+      </c>
+      <c r="M71" s="8">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="N71" s="8">
+        <v>377.1</v>
+      </c>
+      <c r="O71" s="8">
+        <v>295.39999999999998</v>
+      </c>
+      <c r="P71" s="8">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>230.7</v>
+      </c>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
@@ -5882,7 +5901,7 @@
     </row>
     <row r="72" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -5893,24 +5912,26 @@
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8">
-        <v>264.89999999999998</v>
+        <v>291.7</v>
       </c>
       <c r="L72" s="8">
-        <v>235.2</v>
+        <v>286.7</v>
       </c>
       <c r="M72" s="8">
-        <v>267.60000000000002</v>
+        <v>393.3</v>
       </c>
       <c r="N72" s="8">
-        <v>377.1</v>
+        <v>367.5</v>
       </c>
       <c r="O72" s="8">
-        <v>295.39999999999998</v>
+        <v>365.3</v>
       </c>
       <c r="P72" s="8">
-        <v>308.89999999999998</v>
-      </c>
-      <c r="Q72" s="8"/>
+        <v>325.89999999999998</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>349.1</v>
+      </c>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
@@ -5920,7 +5941,7 @@
     </row>
     <row r="73" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -5931,24 +5952,26 @@
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8">
-        <v>291.7</v>
+        <v>404.3</v>
       </c>
       <c r="L73" s="8">
-        <v>286.7</v>
+        <v>402.1</v>
       </c>
       <c r="M73" s="8">
-        <v>393.3</v>
+        <v>392.1</v>
       </c>
       <c r="N73" s="8">
-        <v>367.5</v>
+        <v>408.6</v>
       </c>
       <c r="O73" s="8">
-        <v>365.3</v>
+        <v>379.8</v>
       </c>
       <c r="P73" s="8">
-        <v>325.89999999999998</v>
-      </c>
-      <c r="Q73" s="8"/>
+        <v>373.1</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>343.4</v>
+      </c>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
@@ -5958,7 +5981,7 @@
     </row>
     <row r="74" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -5969,24 +5992,33 @@
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8">
-        <v>404.3</v>
+        <f>20+5439.4</f>
+        <v>5459.4</v>
       </c>
       <c r="L74" s="8">
-        <v>402.1</v>
+        <f>20+5480.4</f>
+        <v>5500.4</v>
       </c>
       <c r="M74" s="8">
-        <v>392.1</v>
+        <f>20+5432.8</f>
+        <v>5452.8</v>
       </c>
       <c r="N74" s="8">
-        <v>408.6</v>
+        <f>5428</f>
+        <v>5428</v>
       </c>
       <c r="O74" s="8">
-        <v>379.8</v>
+        <f>20+5501.8</f>
+        <v>5521.8</v>
       </c>
       <c r="P74" s="8">
-        <v>373.1</v>
-      </c>
-      <c r="Q74" s="8"/>
+        <f>20+5358.2</f>
+        <v>5378.2</v>
+      </c>
+      <c r="Q74" s="8">
+        <f>128.1+5197.2</f>
+        <v>5325.3</v>
+      </c>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
@@ -5996,7 +6028,7 @@
     </row>
     <row r="75" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -6007,30 +6039,33 @@
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8">
-        <f>20+5439.4</f>
-        <v>5459.4</v>
+        <f>12.5+77.8</f>
+        <v>90.3</v>
       </c>
       <c r="L75" s="8">
-        <f>20+5480.4</f>
-        <v>5500.4</v>
+        <f>9.6+69.8</f>
+        <v>79.399999999999991</v>
       </c>
       <c r="M75" s="8">
-        <f>20+5432.8</f>
-        <v>5452.8</v>
+        <f>66.1+10.2</f>
+        <v>76.3</v>
       </c>
       <c r="N75" s="8">
-        <f>5428</f>
-        <v>5428</v>
+        <f>9.5+63.2</f>
+        <v>72.7</v>
       </c>
       <c r="O75" s="8">
-        <f>20+5501.8</f>
-        <v>5521.8</v>
+        <f>8.2+60.6</f>
+        <v>68.8</v>
       </c>
       <c r="P75" s="8">
-        <f>20+5358.2</f>
-        <v>5378.2</v>
-      </c>
-      <c r="Q75" s="8"/>
+        <f>6.6+55.3</f>
+        <v>61.9</v>
+      </c>
+      <c r="Q75" s="8">
+        <f>5.7+50.5</f>
+        <v>56.2</v>
+      </c>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
@@ -6040,7 +6075,7 @@
     </row>
     <row r="76" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -6051,30 +6086,33 @@
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8">
-        <f>12.5+77.8</f>
-        <v>90.3</v>
+        <f>591.1+4908.9</f>
+        <v>5500</v>
       </c>
       <c r="L76" s="8">
-        <f>9.6+69.8</f>
-        <v>79.399999999999991</v>
+        <f>604.8+4888.6</f>
+        <v>5493.4000000000005</v>
       </c>
       <c r="M76" s="8">
-        <f>66.1+10.2</f>
-        <v>76.3</v>
+        <f>4786.9+605.9</f>
+        <v>5392.7999999999993</v>
       </c>
       <c r="N76" s="8">
-        <f>9.5+63.2</f>
-        <v>72.7</v>
+        <f>605.2+4645.2</f>
+        <v>5250.4</v>
       </c>
       <c r="O76" s="8">
-        <f>8.2+60.6</f>
-        <v>68.8</v>
+        <f>597.1+4587.7</f>
+        <v>5184.8</v>
       </c>
       <c r="P76" s="8">
-        <f>6.6+55.3</f>
-        <v>61.9</v>
-      </c>
-      <c r="Q76" s="8"/>
+        <f>4433.7+582.2</f>
+        <v>5015.8999999999996</v>
+      </c>
+      <c r="Q76" s="8">
+        <f>565.6+4246.7</f>
+        <v>4812.3</v>
+      </c>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
@@ -6084,7 +6122,7 @@
     </row>
     <row r="77" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -6095,30 +6133,26 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8">
-        <f>591.1+4908.9</f>
-        <v>5500</v>
+        <v>524</v>
       </c>
       <c r="L77" s="8">
-        <f>604.8+4888.6</f>
-        <v>5493.4000000000005</v>
+        <v>519.5</v>
       </c>
       <c r="M77" s="8">
-        <f>4786.9+605.9</f>
-        <v>5392.7999999999993</v>
+        <v>515</v>
       </c>
       <c r="N77" s="8">
-        <f>605.2+4645.2</f>
-        <v>5250.4</v>
+        <v>510.4</v>
       </c>
       <c r="O77" s="8">
-        <f>597.1+4587.7</f>
-        <v>5184.8</v>
+        <v>520.70000000000005</v>
       </c>
       <c r="P77" s="8">
-        <f>4433.7+582.2</f>
-        <v>5015.8999999999996</v>
-      </c>
-      <c r="Q77" s="8"/>
+        <v>515.79999999999995</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>510.9</v>
+      </c>
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
@@ -6128,7 +6162,7 @@
     </row>
     <row r="78" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -6139,24 +6173,26 @@
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8">
-        <v>524</v>
+        <v>34</v>
       </c>
       <c r="L78" s="8">
-        <v>519.5</v>
+        <v>28.5</v>
       </c>
       <c r="M78" s="8">
-        <v>515</v>
+        <v>28.9</v>
       </c>
       <c r="N78" s="8">
-        <v>510.4</v>
+        <v>31.3</v>
       </c>
       <c r="O78" s="8">
-        <v>520.70000000000005</v>
+        <v>31.1</v>
       </c>
       <c r="P78" s="8">
-        <v>515.79999999999995</v>
-      </c>
-      <c r="Q78" s="8"/>
+        <v>31.2</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>31.5</v>
+      </c>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
       <c r="T78" s="8"/>
@@ -6166,7 +6202,7 @@
     </row>
     <row r="79" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -6177,24 +6213,26 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8">
-        <v>34</v>
+        <v>207.1</v>
       </c>
       <c r="L79" s="8">
-        <v>28.5</v>
+        <v>188.6</v>
       </c>
       <c r="M79" s="8">
-        <v>28.9</v>
+        <v>181.4</v>
       </c>
       <c r="N79" s="8">
-        <v>31.3</v>
+        <v>165</v>
       </c>
       <c r="O79" s="8">
-        <v>31.1</v>
+        <v>156</v>
       </c>
       <c r="P79" s="8">
-        <v>31.2</v>
-      </c>
-      <c r="Q79" s="8"/>
+        <v>134.19999999999999</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>125.7</v>
+      </c>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
       <c r="T79" s="8"/>
@@ -6204,7 +6242,7 @@
     </row>
     <row r="80" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -6215,24 +6253,26 @@
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8">
-        <v>207.1</v>
+        <v>-2287</v>
       </c>
       <c r="L80" s="8">
-        <v>188.6</v>
+        <v>-1404.7</v>
       </c>
       <c r="M80" s="8">
-        <v>181.4</v>
+        <v>-1642.7</v>
       </c>
       <c r="N80" s="8">
-        <v>165</v>
+        <v>-1789.5</v>
       </c>
       <c r="O80" s="8">
-        <v>156</v>
+        <v>-2178.3000000000002</v>
       </c>
       <c r="P80" s="8">
-        <v>134.19999999999999</v>
-      </c>
-      <c r="Q80" s="8"/>
+        <v>-2326.8000000000002</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>-2579</v>
+      </c>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
       <c r="T80" s="8"/>
@@ -6242,7 +6282,7 @@
     </row>
     <row r="81" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -6253,24 +6293,33 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8">
-        <v>-2287</v>
+        <f t="shared" ref="K81" si="152">SUM(K71:K80)</f>
+        <v>10488.699999999999</v>
       </c>
       <c r="L81" s="8">
-        <v>-1404.7</v>
+        <f t="shared" ref="L81" si="153">SUM(L71:L80)</f>
+        <v>11329.1</v>
       </c>
       <c r="M81" s="8">
-        <v>-1642.7</v>
+        <f t="shared" ref="M81" si="154">SUM(M71:M80)</f>
+        <v>11057.499999999998</v>
       </c>
       <c r="N81" s="8">
-        <v>-1789.5</v>
+        <f>SUM(N71:N80)</f>
+        <v>10821.499999999998</v>
       </c>
       <c r="O81" s="8">
-        <v>-2178.3000000000002</v>
+        <f>SUM(O71:O80)</f>
+        <v>10345.400000000001</v>
       </c>
       <c r="P81" s="8">
-        <v>-2326.8000000000002</v>
-      </c>
-      <c r="Q81" s="8"/>
+        <f>SUM(P71:P80)</f>
+        <v>9818.2999999999993</v>
+      </c>
+      <c r="Q81" s="8">
+        <f>SUM(Q71:Q80)</f>
+        <v>9206.1</v>
+      </c>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
       <c r="T81" s="8"/>
@@ -6278,53 +6327,65 @@
       <c r="V81" s="8"/>
       <c r="W81" s="8"/>
     </row>
-    <row r="82" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8">
-        <f t="shared" ref="K82" si="166">SUM(K72:K81)</f>
-        <v>10488.699999999999</v>
-      </c>
-      <c r="L82" s="8">
-        <f t="shared" ref="L82" si="167">SUM(L72:L81)</f>
-        <v>11329.1</v>
-      </c>
-      <c r="M82" s="8">
-        <f t="shared" ref="M82" si="168">SUM(M72:M81)</f>
-        <v>11057.499999999998</v>
-      </c>
-      <c r="N82" s="8">
-        <f>SUM(N72:N81)</f>
-        <v>10821.499999999998</v>
-      </c>
-      <c r="O82" s="8">
-        <f>SUM(O72:O81)</f>
-        <v>10345.400000000001</v>
-      </c>
-      <c r="P82" s="8">
-        <f>SUM(P72:P81)</f>
-        <v>9818.2999999999993</v>
-      </c>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
+    <row r="83" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8">
+        <f>K45</f>
+        <v>-465.3</v>
+      </c>
+      <c r="L83" s="8">
+        <f>L45</f>
+        <v>-269.49999999999994</v>
+      </c>
+      <c r="M83" s="8">
+        <f>M45</f>
+        <v>-126.9</v>
+      </c>
+      <c r="N83" s="8">
+        <f>N45</f>
+        <v>36.69999999999969</v>
+      </c>
+      <c r="O83" s="8">
+        <f>O45</f>
+        <v>-149.70000000000019</v>
+      </c>
+      <c r="P83" s="8">
+        <f>P45</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="AF83" s="7">
+        <f>AF45</f>
+        <v>415.50000000000017</v>
+      </c>
+      <c r="AG83" s="7">
+        <f>AG45</f>
+        <v>-1441.1999999999996</v>
+      </c>
+      <c r="AH83" s="7">
+        <f>AH45</f>
+        <v>-824.99999999999989</v>
+      </c>
     </row>
     <row r="84" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -6335,28 +6396,20 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8">
-        <f t="shared" ref="K84" si="169">K45</f>
-        <v>-465.3</v>
+        <v>-567.20000000000005</v>
       </c>
       <c r="L84" s="8">
-        <f t="shared" ref="L84" si="170">L45</f>
-        <v>-269.49999999999994</v>
-      </c>
-      <c r="M84" s="8">
-        <f>M45</f>
-        <v>-126.9</v>
-      </c>
-      <c r="N84" s="8">
-        <f>N45</f>
-        <v>36.69999999999969</v>
-      </c>
+        <f>-911.2-K84</f>
+        <v>-344</v>
+      </c>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
       <c r="O84" s="8">
-        <f>O45</f>
-        <v>-149.70000000000019</v>
+        <v>-337.4</v>
       </c>
       <c r="P84" s="8">
-        <f>P45</f>
-        <v>0.5</v>
+        <f>-459-O84</f>
+        <v>-121.60000000000002</v>
       </c>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
@@ -6366,21 +6419,18 @@
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
       <c r="AF84" s="7">
-        <f t="shared" ref="AF84:AG84" si="171">AF45</f>
-        <v>415.50000000000017</v>
-      </c>
-      <c r="AG84" s="25">
-        <f t="shared" si="171"/>
-        <v>-1441.1999999999996</v>
+        <v>-149.1</v>
+      </c>
+      <c r="AG84" s="7">
+        <v>-4589.3999999999996</v>
       </c>
       <c r="AH84" s="7">
-        <f>AH45</f>
-        <v>-824.99999999999989</v>
+        <v>-1269.8</v>
       </c>
     </row>
     <row r="85" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -6391,20 +6441,20 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8">
-        <v>-567.20000000000005</v>
+        <v>114.1</v>
       </c>
       <c r="L85" s="8">
-        <f>-911.2-K85</f>
-        <v>-344</v>
+        <f>219.8-K85</f>
+        <v>105.70000000000002</v>
       </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8">
-        <v>-337.4</v>
+        <v>98.7</v>
       </c>
       <c r="P85" s="8">
-        <f>-459-O85</f>
-        <v>-121.60000000000002</v>
+        <f>196.1-O85</f>
+        <v>97.399999999999991</v>
       </c>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
@@ -6414,18 +6464,18 @@
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
       <c r="AF85" s="7">
-        <v>-149.1</v>
-      </c>
-      <c r="AG85" s="25">
-        <v>-4589.3999999999996</v>
+        <v>450</v>
+      </c>
+      <c r="AG85" s="7">
+        <v>498.3</v>
       </c>
       <c r="AH85" s="7">
-        <v>-1269.8</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -6436,20 +6486,20 @@
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8">
-        <v>114.1</v>
+        <v>-6.2</v>
       </c>
       <c r="L86" s="8">
-        <f>219.8-K86</f>
-        <v>105.70000000000002</v>
+        <f>-12.3-K86</f>
+        <v>-6.1000000000000005</v>
       </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8">
-        <v>98.7</v>
+        <v>-0.1</v>
       </c>
       <c r="P86" s="8">
-        <f>196.1-O86</f>
-        <v>97.399999999999991</v>
+        <f>0.3-O86</f>
+        <v>0.4</v>
       </c>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
@@ -6459,18 +6509,18 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
       <c r="AF86" s="7">
-        <v>450</v>
-      </c>
-      <c r="AG86" s="25">
-        <v>498.3</v>
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="AG86" s="7">
+        <v>64</v>
       </c>
       <c r="AH86" s="7">
-        <v>425</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="87" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -6481,21 +6531,15 @@
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8">
-        <v>-6.2</v>
+        <v>0</v>
       </c>
       <c r="L87" s="8">
-        <f>-12.3-K87</f>
-        <v>-6.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
-      <c r="O87" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="P87" s="8">
-        <f>0.3-O87</f>
-        <v>0.4</v>
-      </c>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
@@ -6504,18 +6548,18 @@
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
       <c r="AF87" s="7">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="AG87" s="25">
-        <v>64</v>
+        <v>84.3</v>
+      </c>
+      <c r="AG87" s="7">
+        <v>2513.9</v>
       </c>
       <c r="AH87" s="7">
-        <v>-7.6</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="88" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -6533,8 +6577,13 @@
       </c>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
+      <c r="O88" s="8">
+        <v>135</v>
+      </c>
+      <c r="P88" s="8">
+        <f>96.4-O88</f>
+        <v>-38.599999999999994</v>
+      </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
@@ -6543,18 +6592,18 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
       <c r="AF88" s="7">
-        <v>84.3</v>
-      </c>
-      <c r="AG88" s="25">
-        <v>2513.9</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AG88" s="7">
+        <v>-93.6</v>
       </c>
       <c r="AH88" s="7">
-        <v>77.2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="89" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -6573,11 +6622,11 @@
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8">
-        <v>135</v>
+        <v>-63.9</v>
       </c>
       <c r="P89" s="8">
-        <f>96.4-O89</f>
-        <v>-38.599999999999994</v>
+        <f>-16.1-O89+9.5</f>
+        <v>57.3</v>
       </c>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
@@ -6587,18 +6636,19 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
       <c r="AF89" s="7">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AG89" s="25">
-        <v>-93.6</v>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="7">
+        <v>109</v>
       </c>
       <c r="AH89" s="7">
-        <v>14.1</v>
+        <f>-5.5-0.9</f>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="90" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -6609,19 +6659,20 @@
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8">
-        <v>0</v>
+        <v>42.3</v>
       </c>
       <c r="L90" s="8">
-        <v>0</v>
+        <f>24.5-K90</f>
+        <v>-17.799999999999997</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8">
-        <v>-63.9</v>
+        <v>-15.5</v>
       </c>
       <c r="P90" s="8">
-        <f>-16.1-O90+9.5</f>
-        <v>57.3</v>
+        <f>-32-O90</f>
+        <v>-16.5</v>
       </c>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
@@ -6631,19 +6682,18 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
       <c r="AF90" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG90" s="25">
-        <v>109</v>
+        <v>11.3</v>
+      </c>
+      <c r="AG90" s="7">
+        <v>-22</v>
       </c>
       <c r="AH90" s="7">
-        <f>-5.5-0.9</f>
-        <v>-6.4</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="91" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -6654,20 +6704,20 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8">
-        <v>42.3</v>
+        <v>12.1</v>
       </c>
       <c r="L91" s="8">
-        <f>24.5-K91</f>
-        <v>-17.799999999999997</v>
+        <f>15.5-K91</f>
+        <v>3.4000000000000004</v>
       </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8">
-        <v>-15.5</v>
+        <v>3.5</v>
       </c>
       <c r="P91" s="8">
-        <f>-32-O91</f>
-        <v>-16.5</v>
+        <f>6.8-O91</f>
+        <v>3.3</v>
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
@@ -6677,18 +6727,20 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
       <c r="AF91" s="7">
-        <v>11.3</v>
-      </c>
-      <c r="AG91" s="25">
-        <v>-22</v>
+        <v>15.8</v>
+      </c>
+      <c r="AG91" s="7">
+        <f>14.2+73.4+1.8</f>
+        <v>89.4</v>
       </c>
       <c r="AH91" s="7">
-        <v>-3.9</v>
+        <f>116.2+23.3</f>
+        <v>139.5</v>
       </c>
     </row>
     <row r="92" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -6699,21 +6751,16 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8">
-        <v>12.1</v>
+        <v>52.7</v>
       </c>
       <c r="L92" s="8">
-        <f>15.5-K92</f>
-        <v>3.4000000000000004</v>
+        <f>107.1-K92</f>
+        <v>54.399999999999991</v>
       </c>
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
-      <c r="O92" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="P92" s="8">
-        <f>6.8-O92</f>
-        <v>3.3</v>
-      </c>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
@@ -6721,21 +6768,10 @@
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
-      <c r="AF92" s="7">
-        <v>15.8</v>
-      </c>
-      <c r="AG92" s="25">
-        <f>14.2+73.4+1.8</f>
-        <v>89.4</v>
-      </c>
-      <c r="AH92" s="7">
-        <f>116.2+23.3</f>
-        <v>139.5</v>
-      </c>
     </row>
     <row r="93" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -6746,16 +6782,20 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8">
-        <v>52.7</v>
+        <v>5.4</v>
       </c>
       <c r="L93" s="8">
-        <f>107.1-K93</f>
-        <v>54.399999999999991</v>
+        <v>5.4</v>
       </c>
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
+      <c r="O93" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="P93" s="8">
+        <f>25.9-O93</f>
+        <v>19.399999999999999</v>
+      </c>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
@@ -6763,11 +6803,19 @@
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
-      <c r="AG93" s="25"/>
+      <c r="AF93" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG93" s="7">
+        <v>25.4</v>
+      </c>
+      <c r="AH93" s="7">
+        <v>43.1</v>
+      </c>
     </row>
     <row r="94" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -6778,19 +6826,19 @@
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="L94" s="8">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8">
-        <v>6.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P94" s="8">
-        <f>25.9-O94</f>
-        <v>19.399999999999999</v>
+        <f>-0.4-O94</f>
+        <v>0</v>
       </c>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
@@ -6800,18 +6848,19 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
       <c r="AF94" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG94" s="25">
-        <v>25.4</v>
+        <f>-17.4-5.8</f>
+        <v>-23.2</v>
+      </c>
+      <c r="AG94" s="7">
+        <v>-17.399999999999999</v>
       </c>
       <c r="AH94" s="7">
-        <v>43.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="95" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -6822,19 +6871,19 @@
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L95" s="8">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8">
-        <v>-0.4</v>
+        <v>5.8</v>
       </c>
       <c r="P95" s="8">
-        <f>-0.4-O95</f>
-        <v>0</v>
+        <f>6.7-O95</f>
+        <v>0.90000000000000036</v>
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
@@ -6844,19 +6893,18 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
       <c r="AF95" s="7">
-        <f>-17.4-5.8</f>
-        <v>-23.2</v>
-      </c>
-      <c r="AG95" s="25">
-        <v>-17.399999999999999</v>
+        <v>2.7</v>
+      </c>
+      <c r="AG95" s="7">
+        <v>45.4</v>
       </c>
       <c r="AH95" s="7">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="96" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -6867,19 +6915,19 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="L96" s="8">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="P96" s="8">
-        <f>6.7-O96</f>
-        <v>0.90000000000000036</v>
+        <f>5.2-O96</f>
+        <v>4.6000000000000005</v>
       </c>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
@@ -6889,18 +6937,18 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
       <c r="AF96" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="AG96" s="25">
-        <v>45.4</v>
+        <v>106.5</v>
+      </c>
+      <c r="AG96" s="7">
+        <v>43.6</v>
       </c>
       <c r="AH96" s="7">
-        <v>1.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -6911,19 +6959,19 @@
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8">
-        <v>3.7</v>
+        <v>-7.5</v>
       </c>
       <c r="L97" s="8">
-        <v>3.7</v>
+        <v>-7.5</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
       <c r="O97" s="8">
-        <v>0.6</v>
+        <v>-7.1</v>
       </c>
       <c r="P97" s="8">
-        <f>5.2-O97</f>
-        <v>4.6000000000000005</v>
+        <f>-14-O97</f>
+        <v>-6.9</v>
       </c>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
@@ -6933,18 +6981,18 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
       <c r="AF97" s="7">
-        <v>106.5</v>
-      </c>
-      <c r="AG97" s="25">
-        <v>43.6</v>
+        <v>25.7</v>
+      </c>
+      <c r="AG97" s="7">
+        <v>-4.9000000000000004</v>
       </c>
       <c r="AH97" s="7">
-        <v>22</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="98" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -6955,19 +7003,19 @@
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8">
-        <v>-7.5</v>
+        <v>-21.8</v>
       </c>
       <c r="L98" s="8">
-        <v>-7.5</v>
+        <v>-21.8</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8">
-        <v>-7.1</v>
+        <v>-48.7</v>
       </c>
       <c r="P98" s="8">
-        <f>-14-O98</f>
-        <v>-6.9</v>
+        <f>-90.7-O98-0.2</f>
+        <v>-42.2</v>
       </c>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
@@ -6977,18 +7025,18 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
       <c r="AF98" s="7">
-        <v>25.7</v>
-      </c>
-      <c r="AG98" s="25">
-        <v>-4.9000000000000004</v>
+        <v>-62.3</v>
+      </c>
+      <c r="AG98" s="7">
+        <v>3.4</v>
       </c>
       <c r="AH98" s="7">
-        <v>-24.9</v>
+        <v>-133.69999999999999</v>
       </c>
     </row>
     <row r="99" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6999,19 +7047,22 @@
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8">
-        <v>-21.8</v>
+        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
+        <v>56.70000000000001</v>
       </c>
       <c r="L99" s="8">
-        <v>-21.8</v>
+        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
+        <v>56.70000000000001</v>
       </c>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8">
-        <v>-48.7</v>
+        <f>63.6-30.6-80.4-32.8+8.2</f>
+        <v>-72</v>
       </c>
       <c r="P99" s="8">
-        <f>-90.7-O99-0.2</f>
-        <v>-42.2</v>
+        <f>46.4-26.3-58.4-82.7+14.9-O99</f>
+        <v>-34.099999999999994</v>
       </c>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
@@ -7021,18 +7072,21 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
       <c r="AF99" s="7">
-        <v>-62.3</v>
-      </c>
-      <c r="AG99" s="25">
-        <v>3.4</v>
+        <f>0.7+30.9+104.8-0.6-7.5+1.7</f>
+        <v>130</v>
+      </c>
+      <c r="AG99" s="7">
+        <f>159.3+76.8-176.4+102.5+43.2</f>
+        <v>205.40000000000003</v>
       </c>
       <c r="AH99" s="7">
-        <v>-133.69999999999999</v>
+        <f>-82.7-5.8+63.8+164.3-29.9</f>
+        <v>109.70000000000002</v>
       </c>
     </row>
     <row r="100" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -7043,22 +7097,22 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8">
-        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
-        <v>56.70000000000001</v>
+        <f>SUM(K84:K99)</f>
+        <v>-312.90000000000003</v>
       </c>
       <c r="L100" s="8">
-        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
-        <v>56.70000000000001</v>
+        <f>SUM(L84:L99)</f>
+        <v>-165.10000000000002</v>
       </c>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8">
-        <f>63.6-30.6-80.4-32.8+8.2</f>
-        <v>-72</v>
+        <f>SUM(O84:O99)</f>
+        <v>-295</v>
       </c>
       <c r="P100" s="8">
-        <f>46.4-26.3-58.4-82.7+14.9-O100</f>
-        <v>-34.099999999999994</v>
+        <f>SUM(P84:P99)</f>
+        <v>-76.600000000000023</v>
       </c>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
@@ -7068,201 +7122,181 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
       <c r="AF100" s="7">
-        <f>0.7+30.9+104.8-0.6-7.5+1.7</f>
-        <v>130</v>
-      </c>
-      <c r="AG100" s="25">
-        <f>159.3+76.8-176.4+102.5+43.2</f>
-        <v>205.40000000000003</v>
+        <f t="shared" ref="AF100:AG100" si="155">SUM(AF84:AF99)</f>
+        <v>579</v>
+      </c>
+      <c r="AG100" s="7">
+        <f t="shared" si="155"/>
+        <v>-1129.4999999999991</v>
       </c>
       <c r="AH100" s="7">
-        <f>-82.7-5.8+63.8+164.3-29.9</f>
-        <v>109.70000000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8">
-        <f>SUM(K85:K100)</f>
-        <v>-312.90000000000003</v>
-      </c>
-      <c r="L101" s="8">
-        <f>SUM(L85:L100)</f>
-        <v>-165.10000000000002</v>
-      </c>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8">
-        <f>SUM(O85:O100)</f>
-        <v>-295</v>
-      </c>
-      <c r="P101" s="8">
-        <f>SUM(P85:P100)</f>
-        <v>-76.600000000000023</v>
-      </c>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="AF101" s="7">
-        <f t="shared" ref="AF101:AG101" si="172">SUM(AF85:AF100)</f>
-        <v>579</v>
-      </c>
-      <c r="AG101" s="25">
-        <f t="shared" si="172"/>
-        <v>-1129.4999999999991</v>
-      </c>
-      <c r="AH101" s="7">
-        <f>SUM(AH85:AH100)</f>
+        <f>SUM(AH84:AH99)</f>
         <v>-614.09999999999991</v>
       </c>
     </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AG101" s="7"/>
+    </row>
     <row r="102" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AG102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O102" s="2">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="P102" s="2">
+        <f>-75.2-O102</f>
+        <v>-40.400000000000006</v>
+      </c>
+      <c r="AF102" s="7">
+        <v>-518.1</v>
+      </c>
+      <c r="AG102" s="7">
+        <v>-173.8</v>
+      </c>
+      <c r="AH102" s="7">
+        <v>-92.4</v>
+      </c>
     </row>
     <row r="103" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="O103" s="2">
-        <v>-34.799999999999997</v>
+        <v>7.2</v>
       </c>
       <c r="P103" s="2">
-        <f>-75.2-O103</f>
-        <v>-40.400000000000006</v>
+        <f>7.2-O103</f>
+        <v>0</v>
       </c>
       <c r="AF103" s="7">
-        <v>-518.1</v>
+        <v>0</v>
       </c>
       <c r="AG103" s="7">
-        <v>-173.8</v>
+        <v>6.2</v>
       </c>
       <c r="AH103" s="7">
-        <v>-92.4</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="104" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="O104" s="2">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="P104" s="2">
-        <f>7.2-O104</f>
-        <v>0</v>
-      </c>
-      <c r="AF104" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="AH104" s="7">
-        <v>34.200000000000003</v>
-      </c>
+        <f>-17.8-O104</f>
+        <v>-17.8</v>
+      </c>
+      <c r="AF104" s="7"/>
+      <c r="AG104" s="7"/>
+      <c r="AH104" s="7"/>
     </row>
     <row r="105" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="O105" s="2">
-        <v>0</v>
+        <v>-27.9</v>
       </c>
       <c r="P105" s="2">
-        <f>-17.8-O105</f>
-        <v>-17.8</v>
-      </c>
-      <c r="AF105" s="7"/>
-      <c r="AG105" s="7"/>
-      <c r="AH105" s="7"/>
+        <f>-27.9-O105+11.4</f>
+        <v>11.4</v>
+      </c>
+      <c r="AF105" s="7">
+        <f>-11.8+23.2-9.7</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="AG105" s="7">
+        <f>-9.3+19.8</f>
+        <v>10.5</v>
+      </c>
+      <c r="AH105" s="7">
+        <f>-11.8+9.7-8.2</f>
+        <v>-10.3</v>
+      </c>
     </row>
     <row r="106" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O106" s="2">
-        <v>-27.9</v>
+        <v>0.6</v>
       </c>
       <c r="P106" s="2">
-        <f>-27.9-O106+11.4</f>
-        <v>11.4</v>
+        <f>-0.6-O106</f>
+        <v>-1.2</v>
       </c>
       <c r="AF106" s="7">
-        <f>-11.8+23.2-9.7</f>
-        <v>1.6999999999999993</v>
+        <v>0.3</v>
       </c>
       <c r="AG106" s="7">
-        <f>-9.3+19.8</f>
-        <v>10.5</v>
+        <v>2.5</v>
       </c>
       <c r="AH106" s="7">
-        <f>-11.8+9.7-8.2</f>
-        <v>-10.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B107" s="7" t="s">
-        <v>89</v>
+      <c r="B107" t="s">
+        <v>87</v>
       </c>
       <c r="O107" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="P107" s="2">
-        <f>-0.6-O107</f>
-        <v>-1.2</v>
+        <f>SUM(O102:O106)</f>
+        <v>-54.9</v>
+      </c>
+      <c r="P107" s="8">
+        <f>SUM(P102:P106)</f>
+        <v>-48.000000000000007</v>
       </c>
       <c r="AF107" s="7">
-        <v>0.3</v>
+        <f>SUM(AF102:AF106)</f>
+        <v>-516.1</v>
       </c>
       <c r="AG107" s="7">
-        <v>2.5</v>
+        <f t="shared" ref="AG107:AH107" si="156">SUM(AG102:AG106)</f>
+        <v>-154.60000000000002</v>
       </c>
       <c r="AH107" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="O108" s="2">
-        <f>SUM(O103:O107)</f>
-        <v>-54.9</v>
-      </c>
-      <c r="P108" s="8">
-        <f>SUM(P103:P107)</f>
-        <v>-48.000000000000007</v>
-      </c>
-      <c r="AF108" s="7">
-        <f>SUM(AF103:AF107)</f>
-        <v>-516.1</v>
-      </c>
-      <c r="AG108" s="7">
-        <f t="shared" ref="AG108:AH108" si="173">SUM(AG103:AG107)</f>
-        <v>-154.60000000000002</v>
-      </c>
-      <c r="AH108" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="156"/>
         <v>-68.2</v>
       </c>
+    </row>
+    <row r="114" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16">
+        <v>185</v>
+      </c>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16">
+        <v>185</v>
+      </c>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="16"/>
+      <c r="W114" s="16"/>
     </row>
     <row r="115" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -7273,13 +7307,13 @@
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
       <c r="K115" s="16">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
       <c r="O115" s="16">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="P115" s="16"/>
       <c r="Q115" s="16"/>
@@ -7292,7 +7326,7 @@
     </row>
     <row r="116" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -7303,13 +7337,13 @@
       <c r="I116" s="16"/>
       <c r="J116" s="16"/>
       <c r="K116" s="16">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
       <c r="O116" s="16">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="P116" s="16"/>
       <c r="Q116" s="16"/>
@@ -7322,7 +7356,7 @@
     </row>
     <row r="117" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -7333,13 +7367,13 @@
       <c r="I117" s="16"/>
       <c r="J117" s="16"/>
       <c r="K117" s="16">
-        <v>55</v>
+        <v>725</v>
       </c>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
       <c r="N117" s="16"/>
       <c r="O117" s="16">
-        <v>56</v>
+        <v>729</v>
       </c>
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
@@ -7352,7 +7386,7 @@
     </row>
     <row r="118" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -7363,13 +7397,13 @@
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
       <c r="K118" s="16">
-        <v>725</v>
+        <v>3339</v>
       </c>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
       <c r="O118" s="16">
-        <v>729</v>
+        <v>3395</v>
       </c>
       <c r="P118" s="16"/>
       <c r="Q118" s="16"/>
@@ -7380,46 +7414,16 @@
       <c r="V118" s="16"/>
       <c r="W118" s="16"/>
     </row>
-    <row r="119" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16">
-        <v>3339</v>
-      </c>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16">
-        <v>3395</v>
-      </c>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="16"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="16"/>
-      <c r="T119" s="16"/>
-      <c r="U119" s="16"/>
-      <c r="V119" s="16"/>
-      <c r="W119" s="16"/>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B120" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O120" s="8">
+        <v>25.7</v>
+      </c>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B121" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="O121" s="8">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O122" s="16"/>
+      <c r="O121" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AMC.xlsx
+++ b/AMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC4D22-1EFA-4F63-B9F0-800B9D7FDC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DFC53-E4AE-4C77-BFCF-EED23C21D611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="1110" windowWidth="24870" windowHeight="19710" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FC916003-1684-4E2F-8AA8-31ACAC0E574C}</author>
+    <author>tc={19C99C37-30FD-483A-9FFA-FD797A500CD2}</author>
   </authors>
   <commentList>
     <comment ref="AD3" authorId="0" shapeId="0" xr:uid="{FC916003-1684-4E2F-8AA8-31ACAC0E574C}">
@@ -47,6 +48,14 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     5398 as well</t>
+      </text>
+    </comment>
+    <comment ref="R34" authorId="1" shapeId="0" xr:uid="{19C99C37-30FD-483A-9FFA-FD797A500CD2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Expected 1623m</t>
       </text>
     </comment>
   </commentList>
@@ -509,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -549,7 +558,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -979,6 +987,9 @@
   <threadedComment ref="AD3" dT="2022-07-04T19:46:36.54" personId="{06FC3560-C579-4F45-9E73-B6CE53E35EF7}" id="{FC916003-1684-4E2F-8AA8-31ACAC0E574C}">
     <text>5398 as well</text>
   </threadedComment>
+  <threadedComment ref="R34" dT="2023-04-16T17:56:17.78" personId="{06FC3560-C579-4F45-9E73-B6CE53E35EF7}" id="{19C99C37-30FD-483A-9FFA-FD797A500CD2}">
+    <text>Expected 1623m</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -987,7 +998,7 @@
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>7.32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -1024,7 +1035,7 @@
       </c>
       <c r="N4" s="15">
         <f>N2*N3</f>
-        <v>7675.2895663200006</v>
+        <v>5242.6841299999996</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -1062,7 +1073,7 @@
       </c>
       <c r="N7" s="15">
         <f>N4-N5+N6</f>
-        <v>12294.78956632</v>
+        <v>9862.1841299999996</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -1138,10 +1149,10 @@
   <dimension ref="A1:CU121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AT34" sqref="AT34"/>
+      <selection pane="bottomRight" activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2035,6 +2046,10 @@
       <c r="AH26" s="7">
         <v>4488.9139999999998</v>
       </c>
+      <c r="AI26" s="15">
+        <f>SUM(O26:R26)</f>
+        <v>8530.8327439999994</v>
+      </c>
     </row>
     <row r="27" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -2070,6 +2085,18 @@
       <c r="AF27" s="20">
         <f>AF26/AE26-1</f>
         <v>-4.7763078683775273E-2</v>
+      </c>
+      <c r="AG27" s="20">
+        <f>AG26/AF26-1</f>
+        <v>-0.81422798616458314</v>
+      </c>
+      <c r="AH27" s="20">
+        <f>AH26/AG26-1</f>
+        <v>1.1344394528426767</v>
+      </c>
+      <c r="AI27" s="20">
+        <f>AI26/AH26-1</f>
+        <v>0.90042240595386769</v>
       </c>
     </row>
     <row r="28" spans="2:43" x14ac:dyDescent="0.2">
@@ -2189,7 +2216,9 @@
       <c r="Q30" s="8">
         <v>545.29999999999995</v>
       </c>
-      <c r="R30" s="8"/>
+      <c r="R30" s="8">
+        <v>574.9</v>
+      </c>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
@@ -2217,7 +2246,7 @@
       </c>
       <c r="AI30" s="7">
         <f>SUM(O30:R30)</f>
-        <v>1640.1</v>
+        <v>2215</v>
       </c>
       <c r="AK30" s="7">
         <f>AJ30*1.1</f>
@@ -2291,7 +2320,9 @@
       <c r="Q31" s="8">
         <v>333.3</v>
       </c>
-      <c r="R31" s="8"/>
+      <c r="R31" s="8">
+        <v>337.6</v>
+      </c>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
@@ -2319,7 +2350,7 @@
       </c>
       <c r="AI31" s="7">
         <f>SUM(O31:R31)</f>
-        <v>982.5</v>
+        <v>1320.1</v>
       </c>
       <c r="AK31" s="7">
         <f t="shared" ref="AK31:AK33" si="7">AJ31*1.1</f>
@@ -2436,7 +2467,9 @@
       <c r="Q33" s="8">
         <v>89.8</v>
       </c>
-      <c r="R33" s="8"/>
+      <c r="R33" s="8">
+        <v>101.5</v>
+      </c>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
@@ -2461,8 +2494,8 @@
         <v>181.1</v>
       </c>
       <c r="AI33" s="7">
-        <f t="shared" ref="AI31:AI33" si="9">SUM(O33:R33)</f>
-        <v>236.7</v>
+        <f t="shared" ref="AI33" si="9">SUM(O33:R33)</f>
+        <v>338.2</v>
       </c>
       <c r="AK33" s="7">
         <f t="shared" si="7"/>
@@ -2549,11 +2582,11 @@
         <v>968.39999999999986</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" ref="R34:V34" si="16">+R28*R26</f>
-        <v>1623.1078616500001</v>
+        <f>SUM(R30:R33)</f>
+        <v>1014</v>
       </c>
       <c r="S34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="S34:V34" si="16">+S28*S26</f>
         <v>1320.0140970500001</v>
       </c>
       <c r="T34" s="10">
@@ -2595,7 +2628,7 @@
       </c>
       <c r="AI34" s="10">
         <f t="shared" si="20"/>
-        <v>2859.2999999999997</v>
+        <v>3873.2999999999997</v>
       </c>
       <c r="AJ34" s="9">
         <f>SUM(S34:V34)</f>
@@ -2674,11 +2707,10 @@
         <v>263.2</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" ref="R35:V35" si="22">+R34*0.28</f>
-        <v>454.4702012620001</v>
+        <v>270</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="S35:V35" si="22">+S34*0.28</f>
         <v>369.6039471740001</v>
       </c>
       <c r="T35" s="8">
@@ -2716,9 +2748,9 @@
       </c>
       <c r="AI35" s="7">
         <f>SUM(O35:R35)</f>
-        <v>1236.1702012620001</v>
-      </c>
-      <c r="AJ35" s="21">
+        <v>1051.7</v>
+      </c>
+      <c r="AJ35" s="7">
         <f>SUM(S35:V35)</f>
         <v>1759.5098598000004</v>
       </c>
@@ -2795,24 +2827,23 @@
         <v>58.5</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" ref="R36" si="26">Q36+3</f>
-        <v>61.5</v>
+        <v>62.9</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" ref="S36" si="27">R36+3</f>
-        <v>64.5</v>
+        <f t="shared" ref="S36" si="26">R36+3</f>
+        <v>65.900000000000006</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" ref="T36" si="28">S36+3</f>
-        <v>67.5</v>
+        <f t="shared" ref="T36" si="27">S36+3</f>
+        <v>68.900000000000006</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" ref="U36" si="29">T36+3</f>
-        <v>70.5</v>
+        <f t="shared" ref="U36" si="28">T36+3</f>
+        <v>71.900000000000006</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" ref="V36" si="30">U36+3</f>
-        <v>73.5</v>
+        <f t="shared" ref="V36" si="29">U36+3</f>
+        <v>74.900000000000006</v>
       </c>
       <c r="W36" s="8"/>
       <c r="AC36" s="7">
@@ -2837,39 +2868,39 @@
       </c>
       <c r="AI36" s="7">
         <f>SUM(O36:R36)</f>
-        <v>227.2</v>
-      </c>
-      <c r="AJ36" s="21">
+        <v>228.6</v>
+      </c>
+      <c r="AJ36" s="7">
         <f>SUM(S36:V36)</f>
-        <v>276</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="AK36" s="7">
-        <f t="shared" ref="AK36:AQ36" si="31">+AJ36*1.01</f>
-        <v>278.76</v>
+        <f t="shared" ref="AK36:AQ36" si="30">+AJ36*1.01</f>
+        <v>284.41600000000005</v>
       </c>
       <c r="AL36" s="7">
-        <f t="shared" si="31"/>
-        <v>281.54759999999999</v>
+        <f t="shared" si="30"/>
+        <v>287.26016000000004</v>
       </c>
       <c r="AM36" s="7">
-        <f t="shared" si="31"/>
-        <v>284.36307599999998</v>
+        <f t="shared" si="30"/>
+        <v>290.13276160000004</v>
       </c>
       <c r="AN36" s="7">
-        <f t="shared" si="31"/>
-        <v>287.20670675999997</v>
+        <f t="shared" si="30"/>
+        <v>293.03408921600004</v>
       </c>
       <c r="AO36" s="7">
-        <f t="shared" si="31"/>
-        <v>290.0787738276</v>
+        <f t="shared" si="30"/>
+        <v>295.96443010816006</v>
       </c>
       <c r="AP36" s="7">
-        <f t="shared" si="31"/>
-        <v>292.979561565876</v>
+        <f t="shared" si="30"/>
+        <v>298.92407440924165</v>
       </c>
       <c r="AQ36" s="7">
-        <f t="shared" si="31"/>
-        <v>295.90935718153474</v>
+        <f t="shared" si="30"/>
+        <v>301.91331515333405</v>
       </c>
     </row>
     <row r="37" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2916,24 +2947,23 @@
         <v>400.6</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" ref="R37" si="32">Q37+10</f>
-        <v>410.6</v>
+        <v>380.8</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" ref="S37:S38" si="33">R37+10</f>
-        <v>420.6</v>
+        <f t="shared" ref="S37:S38" si="31">R37+10</f>
+        <v>390.8</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:T38" si="34">S37+10</f>
-        <v>430.6</v>
+        <f t="shared" ref="T37:T38" si="32">S37+10</f>
+        <v>400.8</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" ref="U37:U38" si="35">T37+10</f>
-        <v>440.6</v>
+        <f t="shared" ref="U37:U38" si="33">T37+10</f>
+        <v>410.8</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" ref="V37:V38" si="36">U37+10</f>
-        <v>450.6</v>
+        <f t="shared" ref="V37:V38" si="34">U37+10</f>
+        <v>420.8</v>
       </c>
       <c r="W37" s="8"/>
       <c r="AC37" s="7">
@@ -2958,39 +2988,39 @@
       </c>
       <c r="AI37" s="7">
         <f>SUM(O37:R37)</f>
-        <v>1558.1999999999998</v>
-      </c>
-      <c r="AJ37" s="21">
+        <v>1528.3999999999999</v>
+      </c>
+      <c r="AJ37" s="7">
         <f>SUM(S37:V37)</f>
-        <v>1742.4</v>
+        <v>1623.2</v>
       </c>
       <c r="AK37" s="7">
-        <f t="shared" ref="AK37:AQ37" si="37">+AJ37*1.01</f>
-        <v>1759.8240000000001</v>
+        <f t="shared" ref="AK37:AQ37" si="35">+AJ37*1.01</f>
+        <v>1639.432</v>
       </c>
       <c r="AL37" s="7">
-        <f t="shared" si="37"/>
-        <v>1777.4222400000001</v>
+        <f t="shared" si="35"/>
+        <v>1655.8263200000001</v>
       </c>
       <c r="AM37" s="7">
-        <f t="shared" si="37"/>
-        <v>1795.1964624000002</v>
+        <f t="shared" si="35"/>
+        <v>1672.3845832000002</v>
       </c>
       <c r="AN37" s="7">
-        <f t="shared" si="37"/>
-        <v>1813.1484270240003</v>
+        <f t="shared" si="35"/>
+        <v>1689.1084290320002</v>
       </c>
       <c r="AO37" s="7">
-        <f t="shared" si="37"/>
-        <v>1831.2799112942403</v>
+        <f t="shared" si="35"/>
+        <v>1705.9995133223204</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="37"/>
-        <v>1849.5927104071827</v>
+        <f t="shared" si="35"/>
+        <v>1723.0595084555437</v>
       </c>
       <c r="AQ37" s="7">
-        <f t="shared" si="37"/>
-        <v>1868.0886375112545</v>
+        <f t="shared" si="35"/>
+        <v>1740.2901035400992</v>
       </c>
     </row>
     <row r="38" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3037,24 +3067,23 @@
         <v>223.2</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" ref="R38" si="38">Q38+10</f>
-        <v>233.2</v>
+        <v>217.4</v>
       </c>
       <c r="S38" s="8">
+        <f t="shared" si="31"/>
+        <v>227.4</v>
+      </c>
+      <c r="T38" s="8">
+        <f t="shared" si="32"/>
+        <v>237.4</v>
+      </c>
+      <c r="U38" s="8">
         <f t="shared" si="33"/>
-        <v>243.2</v>
-      </c>
-      <c r="T38" s="8">
+        <v>247.4</v>
+      </c>
+      <c r="V38" s="8">
         <f t="shared" si="34"/>
-        <v>253.2</v>
-      </c>
-      <c r="U38" s="8">
-        <f t="shared" si="35"/>
-        <v>263.2</v>
-      </c>
-      <c r="V38" s="8">
-        <f t="shared" si="36"/>
-        <v>273.2</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="W38" s="8"/>
       <c r="AC38" s="7">
@@ -3079,39 +3108,39 @@
       </c>
       <c r="AI38" s="7">
         <f>SUM(O38:R38)</f>
-        <v>902</v>
+        <v>886.19999999999993</v>
       </c>
       <c r="AJ38" s="7">
         <f>AI38*1.15</f>
-        <v>1037.3</v>
+        <v>1019.1299999999999</v>
       </c>
       <c r="AK38" s="7">
-        <f t="shared" ref="AK38:AQ38" si="39">+AJ38*1.01</f>
-        <v>1047.673</v>
+        <f t="shared" ref="AK38:AQ38" si="36">+AJ38*1.01</f>
+        <v>1029.3212999999998</v>
       </c>
       <c r="AL38" s="7">
-        <f t="shared" si="39"/>
-        <v>1058.1497300000001</v>
+        <f t="shared" si="36"/>
+        <v>1039.6145129999998</v>
       </c>
       <c r="AM38" s="7">
-        <f t="shared" si="39"/>
-        <v>1068.7312273</v>
+        <f t="shared" si="36"/>
+        <v>1050.0106581299997</v>
       </c>
       <c r="AN38" s="7">
-        <f t="shared" si="39"/>
-        <v>1079.4185395730001</v>
+        <f t="shared" si="36"/>
+        <v>1060.5107647112998</v>
       </c>
       <c r="AO38" s="7">
-        <f t="shared" si="39"/>
-        <v>1090.2127249687301</v>
+        <f t="shared" si="36"/>
+        <v>1071.1158723584128</v>
       </c>
       <c r="AP38" s="7">
-        <f t="shared" si="39"/>
-        <v>1101.1148522184174</v>
+        <f t="shared" si="36"/>
+        <v>1081.8270310819969</v>
       </c>
       <c r="AQ38" s="7">
-        <f t="shared" si="39"/>
-        <v>1112.1260007406015</v>
+        <f t="shared" si="36"/>
+        <v>1092.6453013928169</v>
       </c>
     </row>
     <row r="39" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3158,24 +3187,23 @@
         <v>40.6</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" ref="R39" si="40">Q39+5</f>
-        <v>45.6</v>
+        <v>46.4</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="41">R39+5</f>
-        <v>50.6</v>
+        <f t="shared" ref="S39" si="37">R39+5</f>
+        <v>51.4</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="42">S39+5</f>
-        <v>55.6</v>
+        <f t="shared" ref="T39" si="38">S39+5</f>
+        <v>56.4</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="43">T39+5</f>
-        <v>60.6</v>
+        <f t="shared" ref="U39" si="39">T39+5</f>
+        <v>61.4</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="44">U39+5</f>
-        <v>65.599999999999994</v>
+        <f t="shared" ref="V39" si="40">U39+5</f>
+        <v>66.400000000000006</v>
       </c>
       <c r="W39" s="8"/>
       <c r="AC39" s="7">
@@ -3200,39 +3228,39 @@
       </c>
       <c r="AI39" s="7">
         <f>SUM(O39:R39)</f>
-        <v>206.79999999999998</v>
-      </c>
-      <c r="AJ39" s="21">
+        <v>207.6</v>
+      </c>
+      <c r="AJ39" s="7">
         <f>SUM(S39:V39)</f>
-        <v>232.4</v>
+        <v>235.6</v>
       </c>
       <c r="AK39" s="7">
-        <f t="shared" ref="AK39:AQ39" si="45">+AJ39*1.01</f>
-        <v>234.72400000000002</v>
+        <f t="shared" ref="AK39:AQ39" si="41">+AJ39*1.01</f>
+        <v>237.95599999999999</v>
       </c>
       <c r="AL39" s="7">
-        <f t="shared" si="45"/>
-        <v>237.07124000000002</v>
+        <f t="shared" si="41"/>
+        <v>240.33555999999999</v>
       </c>
       <c r="AM39" s="7">
-        <f t="shared" si="45"/>
-        <v>239.44195240000002</v>
+        <f t="shared" si="41"/>
+        <v>242.73891559999998</v>
       </c>
       <c r="AN39" s="7">
-        <f t="shared" si="45"/>
-        <v>241.83637192400002</v>
+        <f t="shared" si="41"/>
+        <v>245.16630475599999</v>
       </c>
       <c r="AO39" s="7">
-        <f t="shared" si="45"/>
-        <v>244.25473564324002</v>
+        <f t="shared" si="41"/>
+        <v>247.61796780355999</v>
       </c>
       <c r="AP39" s="7">
-        <f t="shared" si="45"/>
-        <v>246.69728299967244</v>
+        <f t="shared" si="41"/>
+        <v>250.0941474815956</v>
       </c>
       <c r="AQ39" s="7">
-        <f t="shared" si="45"/>
-        <v>249.16425582966917</v>
+        <f t="shared" si="41"/>
+        <v>252.59508895641156</v>
       </c>
     </row>
     <row r="40" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3243,39 +3271,39 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <f t="shared" ref="F40" si="46">SUM(F35:F39)</f>
+        <f t="shared" ref="F40" si="42">SUM(F35:F39)</f>
         <v>1202.8</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40" si="47">SUM(G35:G39)</f>
+        <f t="shared" ref="G40" si="43">SUM(G35:G39)</f>
         <v>953</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:I40" si="48">SUM(H35:H39)</f>
+        <f t="shared" ref="H40:I40" si="44">SUM(H35:H39)</f>
         <v>369</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>474.5</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="49">SUM(J35:J39)</f>
+        <f t="shared" ref="J40:N40" si="45">SUM(J35:J39)</f>
         <v>511.79999999999995</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>455.3</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>631.29999999999995</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>803.3</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>1052.1000000000001</v>
       </c>
       <c r="O40" s="8">
@@ -3283,7 +3311,7 @@
         <v>853.50000000000011</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:R40" si="50">SUM(P35:P39)</f>
+        <f t="shared" ref="P40:R40" si="46">SUM(P35:P39)</f>
         <v>1085.4000000000001</v>
       </c>
       <c r="Q40" s="8">
@@ -3291,36 +3319,36 @@
         <v>986.1</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="50"/>
-        <v>1205.3702012619999</v>
+        <f t="shared" si="46"/>
+        <v>977.5</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" ref="S40:V40" si="51">SUM(S35:S39)</f>
-        <v>1148.5039471740001</v>
+        <f t="shared" ref="S40:V40" si="47">SUM(S35:S39)</f>
+        <v>1105.1039471740003</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="51"/>
-        <v>1309.1664225039999</v>
+        <f t="shared" si="47"/>
+        <v>1265.7664225040003</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="51"/>
-        <v>1268.0692888599999</v>
+        <f t="shared" si="47"/>
+        <v>1224.6692888600003</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="51"/>
-        <v>1317.3702012619999</v>
+        <f t="shared" si="47"/>
+        <v>1273.970201262</v>
       </c>
       <c r="W40" s="8"/>
       <c r="AC40" s="8">
-        <f t="shared" ref="AC40" si="52">SUM(AC35:AC39)</f>
+        <f t="shared" ref="AC40" si="48">SUM(AC35:AC39)</f>
         <v>2701.3999999999996</v>
       </c>
       <c r="AD40" s="8">
-        <f t="shared" ref="AD40" si="53">SUM(AD35:AD39)</f>
+        <f t="shared" ref="AD40" si="49">SUM(AD35:AD39)</f>
         <v>4331.9999999999991</v>
       </c>
       <c r="AE40" s="8">
-        <f t="shared" ref="AE40" si="54">SUM(AE35:AE39)</f>
+        <f t="shared" ref="AE40" si="50">SUM(AE35:AE39)</f>
         <v>4612.9000000000005</v>
       </c>
       <c r="AF40" s="8">
@@ -3337,39 +3365,39 @@
       </c>
       <c r="AI40" s="8">
         <f>SUM(AI35:AI39)</f>
-        <v>4130.3702012619997</v>
+        <v>3902.4999999999995</v>
       </c>
       <c r="AJ40" s="8">
         <f>SUM(AJ35:AJ39)</f>
-        <v>5047.6098597999999</v>
+        <v>4919.0398598000011</v>
       </c>
       <c r="AK40" s="8">
-        <f t="shared" ref="AK40:AQ40" si="55">SUM(AK35:AK39)</f>
-        <v>5098.0859583980009</v>
+        <f t="shared" ref="AK40:AQ40" si="51">SUM(AK35:AK39)</f>
+        <v>4968.2302583979999</v>
       </c>
       <c r="AL40" s="8">
-        <f t="shared" si="55"/>
-        <v>5149.0668179819813</v>
+        <f t="shared" si="51"/>
+        <v>5017.9125609819803</v>
       </c>
       <c r="AM40" s="8">
-        <f t="shared" si="55"/>
-        <v>5200.5574861618006</v>
+        <f t="shared" si="51"/>
+        <v>5068.0916865917998</v>
       </c>
       <c r="AN40" s="8">
-        <f t="shared" si="55"/>
-        <v>5252.5630610234184</v>
+        <f t="shared" si="51"/>
+        <v>5118.7726034577181</v>
       </c>
       <c r="AO40" s="8">
-        <f t="shared" si="55"/>
-        <v>5305.0886916336522</v>
+        <f t="shared" si="51"/>
+        <v>5169.9603294922954</v>
       </c>
       <c r="AP40" s="8">
-        <f t="shared" si="55"/>
-        <v>5358.139578549989</v>
+        <f t="shared" si="51"/>
+        <v>5221.6599327872191</v>
       </c>
       <c r="AQ40" s="8">
-        <f t="shared" si="55"/>
-        <v>5411.7209743354888</v>
+        <f t="shared" si="51"/>
+        <v>5273.8765321150913</v>
       </c>
     </row>
     <row r="41" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3380,35 +3408,35 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41" si="56">F34-F40</f>
+        <f t="shared" ref="F41" si="52">F34-F40</f>
         <v>244.90000000000009</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" ref="G41" si="57">G34-G40</f>
+        <f t="shared" ref="G41" si="53">G34-G40</f>
         <v>-11.5</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41:I41" si="58">H34-H40</f>
+        <f t="shared" ref="H41:I41" si="54">H34-H40</f>
         <v>-350.1</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>-355</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:M41" si="59">J34-J40</f>
+        <f t="shared" ref="J41:M41" si="55">J34-J40</f>
         <v>-349.29999999999995</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>-307</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>-186.59999999999997</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>-40.100000000000023</v>
       </c>
       <c r="N41" s="8">
@@ -3420,7 +3448,7 @@
         <v>-67.800000000000182</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:R41" si="60">P34-P40</f>
+        <f t="shared" ref="P41:R41" si="56">P34-P40</f>
         <v>81</v>
       </c>
       <c r="Q41" s="8">
@@ -3428,36 +3456,36 @@
         <v>-17.700000000000159</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="60"/>
-        <v>417.73766038800022</v>
+        <f t="shared" si="56"/>
+        <v>36.5</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" ref="S41:V41" si="61">S34-S40</f>
-        <v>171.51014987600001</v>
+        <f t="shared" ref="S41:V41" si="57">S34-S40</f>
+        <v>214.91014987599988</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="61"/>
-        <v>484.64222929600032</v>
+        <f t="shared" si="57"/>
+        <v>528.04222929599996</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="61"/>
-        <v>278.96388564000017</v>
+        <f t="shared" si="57"/>
+        <v>322.36388563999981</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="61"/>
-        <v>305.73766038800022</v>
+        <f t="shared" si="57"/>
+        <v>349.13766038800009</v>
       </c>
       <c r="W41" s="8"/>
       <c r="AC41" s="8">
-        <f t="shared" ref="AC41" si="62">AC34-AC40</f>
+        <f t="shared" ref="AC41" si="58">AC34-AC40</f>
         <v>534.50000000000045</v>
       </c>
       <c r="AD41" s="8">
-        <f t="shared" ref="AD41" si="63">AD34-AD40</f>
+        <f t="shared" ref="AD41" si="59">AD34-AD40</f>
         <v>747.24000000000069</v>
       </c>
       <c r="AE41" s="8">
-        <f t="shared" ref="AE41" si="64">AE34-AE40</f>
+        <f t="shared" ref="AE41" si="60">AE34-AE40</f>
         <v>847.89999999999964</v>
       </c>
       <c r="AF41" s="8">
@@ -3474,39 +3502,39 @@
       </c>
       <c r="AI41" s="8">
         <f>AI34-AI40</f>
-        <v>-1271.070201262</v>
+        <v>-29.199999999999818</v>
       </c>
       <c r="AJ41" s="8">
         <f>AJ34-AJ40</f>
-        <v>1236.353925200001</v>
+        <v>1364.9239251999998</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" ref="AK41:AQ41" si="65">AK34-AK40</f>
-        <v>1437.2363780020005</v>
+        <f t="shared" ref="AK41:AQ41" si="61">AK34-AK40</f>
+        <v>1567.0920780020015</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="65"/>
-        <v>1647.6684118740204</v>
+        <f t="shared" si="61"/>
+        <v>1778.8226688740215</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="65"/>
-        <v>1868.0471528884418</v>
+        <f t="shared" si="61"/>
+        <v>2000.5129524584427</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="65"/>
-        <v>2098.785763588834</v>
+        <f t="shared" si="61"/>
+        <v>2232.5762211545343</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="65"/>
-        <v>2340.3140859630903</v>
+        <f t="shared" si="61"/>
+        <v>2475.4424481044471</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="65"/>
-        <v>2593.0793101506233</v>
+        <f t="shared" si="61"/>
+        <v>2729.5589559133932</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="65"/>
-        <v>2857.5466699131484</v>
+        <f t="shared" si="61"/>
+        <v>2995.3911121335459</v>
       </c>
     </row>
     <row r="42" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3587,36 +3615,36 @@
         <v>-311</v>
       </c>
       <c r="AH42" s="7">
-        <f t="shared" ref="AH42" si="66">SUM(K42:N42)</f>
+        <f t="shared" ref="AH42" si="62">SUM(K42:N42)</f>
         <v>-414.9</v>
       </c>
       <c r="AI42" s="7">
-        <f t="shared" ref="AI42" si="67">SUM(O42:R42)</f>
+        <f t="shared" ref="AI42" si="63">SUM(O42:R42)</f>
         <v>-336.4</v>
       </c>
-      <c r="AJ42" s="21">
+      <c r="AJ42" s="7">
         <f>SUM(S42:V42)</f>
         <v>-328</v>
       </c>
       <c r="AK42" s="7">
         <f>AJ60*0.07</f>
-        <v>-236.27858900883993</v>
+        <v>-253.96532523600004</v>
       </c>
       <c r="AL42" s="7">
-        <f t="shared" ref="AL42:AO42" si="68">AK60*0.07</f>
-        <v>-152.21154377931867</v>
+        <f t="shared" ref="AL42:AO42" si="64">AK60*0.07</f>
+        <v>-162.04645254237997</v>
       </c>
       <c r="AM42" s="7">
-        <f t="shared" si="68"/>
-        <v>-47.52956301268955</v>
+        <f t="shared" si="64"/>
+        <v>-48.872117399165035</v>
       </c>
       <c r="AN42" s="7">
-        <f t="shared" si="68"/>
-        <v>79.906668278613125</v>
+        <f t="shared" si="64"/>
+        <v>87.742741054984407</v>
       </c>
       <c r="AO42" s="7">
-        <f t="shared" si="68"/>
-        <v>232.41513850933444</v>
+        <f t="shared" si="64"/>
+        <v>250.16506840965076</v>
       </c>
       <c r="AP42" s="7">
         <v>0</v>
@@ -3633,39 +3661,39 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <f t="shared" ref="F43" si="69">F41+F42</f>
+        <f t="shared" ref="F43" si="65">F41+F42</f>
         <v>170.8000000000001</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="70">G41+G42</f>
+        <f t="shared" ref="G43" si="66">G41+G42</f>
         <v>-82.8</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43:I43" si="71">H41+H42</f>
+        <f t="shared" ref="H43:I43" si="67">H41+H42</f>
         <v>-429.70000000000005</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>-437.8</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J43:N43" si="72">J41+J42</f>
+        <f t="shared" ref="J43:N43" si="68">J41+J42</f>
         <v>-426.59999999999997</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>-458.5</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>-274.69999999999993</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>-128.80000000000001</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>32.999999999999687</v>
       </c>
       <c r="O43" s="8">
@@ -3677,40 +3705,40 @@
         <v>0.5</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" ref="Q43:R43" si="73">Q41+Q42</f>
+        <f t="shared" ref="Q43:R43" si="69">Q41+Q42</f>
         <v>-109.60000000000015</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="73"/>
-        <v>335.73766038800022</v>
+        <f t="shared" si="69"/>
+        <v>-45.5</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:V43" si="74">S41+S42</f>
-        <v>89.510149876000014</v>
+        <f t="shared" ref="S43:V43" si="70">S41+S42</f>
+        <v>132.91014987599988</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="74"/>
-        <v>402.64222929600032</v>
+        <f t="shared" si="70"/>
+        <v>446.04222929599996</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="74"/>
-        <v>196.96388564000017</v>
+        <f t="shared" si="70"/>
+        <v>240.36388563999981</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="74"/>
-        <v>223.73766038800022</v>
+        <f t="shared" si="70"/>
+        <v>267.13766038800009</v>
       </c>
       <c r="W43" s="8"/>
       <c r="AC43" s="8">
-        <f t="shared" ref="AC43:AD43" si="75">AC41+AC42</f>
+        <f t="shared" ref="AC43:AD43" si="71">AC41+AC42</f>
         <v>423.80000000000047</v>
       </c>
       <c r="AD43" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>515.64000000000067</v>
       </c>
       <c r="AE43" s="8">
-        <f t="shared" ref="AE43" si="76">AE41+AE42</f>
+        <f t="shared" ref="AE43" si="72">AE41+AE42</f>
         <v>585.59999999999968</v>
       </c>
       <c r="AF43" s="8">
@@ -3722,44 +3750,44 @@
         <v>-1376.8999999999996</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" ref="AH43" si="77">AH41+AH42</f>
+        <f t="shared" ref="AH43" si="73">AH41+AH42</f>
         <v>-828.99999999999989</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" ref="AI43" si="78">AI41+AI42</f>
-        <v>-1607.470201262</v>
+        <f t="shared" ref="AI43" si="74">AI41+AI42</f>
+        <v>-365.5999999999998</v>
       </c>
       <c r="AJ43" s="8">
         <f>AJ41+AJ42</f>
-        <v>908.35392520000096</v>
+        <v>1036.9239251999998</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" ref="AK43" si="79">AK41+AK42</f>
-        <v>1200.9577889931606</v>
+        <f t="shared" ref="AK43" si="75">AK41+AK42</f>
+        <v>1313.1267527660013</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" ref="AL43" si="80">AL41+AL42</f>
-        <v>1495.4568680947018</v>
+        <f t="shared" ref="AL43" si="76">AL41+AL42</f>
+        <v>1616.7762163316415</v>
       </c>
       <c r="AM43" s="8">
-        <f t="shared" ref="AM43" si="81">AM41+AM42</f>
-        <v>1820.5175898757523</v>
+        <f t="shared" ref="AM43" si="77">AM41+AM42</f>
+        <v>1951.6408350592776</v>
       </c>
       <c r="AN43" s="8">
-        <f t="shared" ref="AN43" si="82">AN41+AN42</f>
-        <v>2178.6924318674473</v>
+        <f t="shared" ref="AN43" si="78">AN41+AN42</f>
+        <v>2320.3189622095188</v>
       </c>
       <c r="AO43" s="8">
-        <f t="shared" ref="AO43" si="83">AO41+AO42</f>
-        <v>2572.7292244724249</v>
+        <f t="shared" ref="AO43" si="79">AO41+AO42</f>
+        <v>2725.6075165140978</v>
       </c>
       <c r="AP43" s="8">
-        <f t="shared" ref="AP43" si="84">AP41+AP42</f>
-        <v>2593.0793101506233</v>
+        <f t="shared" ref="AP43" si="80">AP41+AP42</f>
+        <v>2729.5589559133932</v>
       </c>
       <c r="AQ43" s="8">
-        <f t="shared" ref="AQ43" si="85">AQ41+AQ42</f>
-        <v>2857.5466699131484</v>
+        <f t="shared" ref="AQ43" si="81">AQ41+AQ42</f>
+        <v>2995.3911121335459</v>
       </c>
     </row>
     <row r="44" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3834,18 +3862,18 @@
         <v>22.5</v>
       </c>
       <c r="AG44" s="7">
-        <f t="shared" ref="AG44" si="86">SUM(G44:J44)</f>
+        <f t="shared" ref="AG44" si="82">SUM(G44:J44)</f>
         <v>-64.3</v>
       </c>
       <c r="AH44" s="7">
-        <f t="shared" ref="AH44" si="87">SUM(K44:N44)</f>
+        <f t="shared" ref="AH44" si="83">SUM(K44:N44)</f>
         <v>4</v>
       </c>
       <c r="AI44" s="7">
-        <f t="shared" ref="AI44" si="88">SUM(O44:R44)</f>
+        <f t="shared" ref="AI44" si="84">SUM(O44:R44)</f>
         <v>1.9000000000000001</v>
       </c>
-      <c r="AJ44" s="21">
+      <c r="AJ44" s="7">
         <f>SUM(S44:V44)</f>
         <v>0</v>
       </c>
@@ -3866,11 +3894,11 @@
       </c>
       <c r="AP44" s="7">
         <f>AP43*-0.3</f>
-        <v>-777.92379304518693</v>
+        <v>-818.8676867740179</v>
       </c>
       <c r="AQ44" s="7">
         <f>AQ43*-0.3</f>
-        <v>-857.26400097394446</v>
+        <v>-898.61733364006375</v>
       </c>
     </row>
     <row r="45" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,39 +3909,39 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <f t="shared" ref="F45" si="89">F43+F44</f>
+        <f t="shared" ref="F45" si="85">F43+F44</f>
         <v>137.40000000000009</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45" si="90">G43+G44</f>
+        <f t="shared" ref="G45" si="86">G43+G44</f>
         <v>-151</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ref="H45:I45" si="91">H43+H44</f>
+        <f t="shared" ref="H45:I45" si="87">H43+H44</f>
         <v>-423.6</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>-433.2</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" ref="J45:N45" si="92">J43+J44</f>
+        <f t="shared" ref="J45:N45" si="88">J43+J44</f>
         <v>-433.4</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>-465.3</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>-126.9</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O45" s="8">
@@ -3921,317 +3949,317 @@
         <v>-149.70000000000019</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45:R45" si="93">P43+P44</f>
+        <f t="shared" ref="P45:R45" si="89">P43+P44</f>
         <v>0.5</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>-107.80000000000015</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="93"/>
-        <v>335.73766038800022</v>
+        <f t="shared" si="89"/>
+        <v>-45.5</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" ref="S45:V45" si="94">S43+S44</f>
-        <v>89.510149876000014</v>
+        <f t="shared" ref="S45:V45" si="90">S43+S44</f>
+        <v>132.91014987599988</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="94"/>
-        <v>402.64222929600032</v>
+        <f t="shared" si="90"/>
+        <v>446.04222929599996</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="94"/>
-        <v>196.96388564000017</v>
+        <f t="shared" si="90"/>
+        <v>240.36388563999981</v>
       </c>
       <c r="V45" s="8">
-        <f t="shared" si="94"/>
-        <v>223.73766038800022</v>
+        <f t="shared" si="90"/>
+        <v>267.13766038800009</v>
       </c>
       <c r="W45" s="8"/>
       <c r="AC45" s="8">
-        <f t="shared" ref="AC45:AD45" si="95">AC43+AC44</f>
+        <f t="shared" ref="AC45:AD45" si="91">AC43+AC44</f>
         <v>385.80000000000047</v>
       </c>
       <c r="AD45" s="8">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>502.04000000000065</v>
       </c>
       <c r="AE45" s="8">
-        <f t="shared" ref="AE45" si="96">AE43+AE44</f>
+        <f t="shared" ref="AE45" si="92">AE43+AE44</f>
         <v>571.99999999999966</v>
       </c>
       <c r="AF45" s="8">
-        <f t="shared" ref="AF45" si="97">AF43+AF44</f>
+        <f t="shared" ref="AF45" si="93">AF43+AF44</f>
         <v>415.50000000000017</v>
       </c>
       <c r="AG45" s="8">
-        <f t="shared" ref="AG45" si="98">AG43+AG44</f>
+        <f t="shared" ref="AG45" si="94">AG43+AG44</f>
         <v>-1441.1999999999996</v>
       </c>
       <c r="AH45" s="8">
-        <f t="shared" ref="AH45" si="99">AH43+AH44</f>
+        <f t="shared" ref="AH45" si="95">AH43+AH44</f>
         <v>-824.99999999999989</v>
       </c>
       <c r="AI45" s="8">
-        <f t="shared" ref="AI45" si="100">AI43+AI44</f>
-        <v>-1605.570201262</v>
+        <f t="shared" ref="AI45" si="96">AI43+AI44</f>
+        <v>-363.69999999999982</v>
       </c>
       <c r="AJ45" s="8">
-        <f t="shared" ref="AJ45" si="101">AJ43+AJ44</f>
-        <v>908.35392520000096</v>
+        <f t="shared" ref="AJ45" si="97">AJ43+AJ44</f>
+        <v>1036.9239251999998</v>
       </c>
       <c r="AK45" s="8">
-        <f t="shared" ref="AK45" si="102">AK43+AK44</f>
-        <v>1200.9577889931606</v>
+        <f t="shared" ref="AK45" si="98">AK43+AK44</f>
+        <v>1313.1267527660013</v>
       </c>
       <c r="AL45" s="8">
-        <f t="shared" ref="AL45" si="103">AL43+AL44</f>
-        <v>1495.4568680947018</v>
+        <f t="shared" ref="AL45" si="99">AL43+AL44</f>
+        <v>1616.7762163316415</v>
       </c>
       <c r="AM45" s="8">
-        <f t="shared" ref="AM45" si="104">AM43+AM44</f>
-        <v>1820.5175898757523</v>
+        <f t="shared" ref="AM45" si="100">AM43+AM44</f>
+        <v>1951.6408350592776</v>
       </c>
       <c r="AN45" s="8">
-        <f t="shared" ref="AN45" si="105">AN43+AN44</f>
-        <v>2178.6924318674473</v>
+        <f t="shared" ref="AN45" si="101">AN43+AN44</f>
+        <v>2320.3189622095188</v>
       </c>
       <c r="AO45" s="8">
-        <f t="shared" ref="AO45" si="106">AO43+AO44</f>
-        <v>2572.7292244724249</v>
+        <f t="shared" ref="AO45" si="102">AO43+AO44</f>
+        <v>2725.6075165140978</v>
       </c>
       <c r="AP45" s="8">
-        <f t="shared" ref="AP45" si="107">AP43+AP44</f>
-        <v>1815.1555171054365</v>
+        <f t="shared" ref="AP45" si="103">AP43+AP44</f>
+        <v>1910.6912691393754</v>
       </c>
       <c r="AQ45" s="8">
-        <f t="shared" ref="AQ45" si="108">AQ43+AQ44</f>
-        <v>2000.2826689392041</v>
+        <f t="shared" ref="AQ45" si="104">AQ43+AQ44</f>
+        <v>2096.773778493482</v>
       </c>
       <c r="AR45" s="7">
         <f>AQ45*(1+$AT$50)</f>
-        <v>1980.279842249812</v>
+        <v>2075.8060407085472</v>
       </c>
       <c r="AS45" s="7">
-        <f t="shared" ref="AR45:BW45" si="109">AR45*(1+$AT$50)</f>
-        <v>1960.4770438273138</v>
+        <f t="shared" ref="AS45:BW45" si="105">AR45*(1+$AT$50)</f>
+        <v>2055.0479803014618</v>
       </c>
       <c r="AT45" s="7">
-        <f t="shared" si="109"/>
-        <v>1940.8722733890406</v>
+        <f t="shared" si="105"/>
+        <v>2034.4975004984472</v>
       </c>
       <c r="AU45" s="7">
-        <f t="shared" si="109"/>
-        <v>1921.4635506551501</v>
+        <f t="shared" si="105"/>
+        <v>2014.1525254934627</v>
       </c>
       <c r="AV45" s="7">
-        <f t="shared" si="109"/>
-        <v>1902.2489151485986</v>
+        <f t="shared" si="105"/>
+        <v>1994.0110002385281</v>
       </c>
       <c r="AW45" s="7">
-        <f t="shared" si="109"/>
-        <v>1883.2264259971125</v>
+        <f t="shared" si="105"/>
+        <v>1974.0708902361428</v>
       </c>
       <c r="AX45" s="7">
-        <f t="shared" si="109"/>
-        <v>1864.3941617371413</v>
+        <f t="shared" si="105"/>
+        <v>1954.3301813337814</v>
       </c>
       <c r="AY45" s="7">
-        <f t="shared" si="109"/>
-        <v>1845.7502201197699</v>
+        <f t="shared" si="105"/>
+        <v>1934.7868795204436</v>
       </c>
       <c r="AZ45" s="7">
-        <f t="shared" si="109"/>
-        <v>1827.2927179185722</v>
+        <f t="shared" si="105"/>
+        <v>1915.4390107252391</v>
       </c>
       <c r="BA45" s="7">
-        <f t="shared" si="109"/>
-        <v>1809.0197907393865</v>
+        <f t="shared" si="105"/>
+        <v>1896.2846206179868</v>
       </c>
       <c r="BB45" s="7">
-        <f t="shared" si="109"/>
-        <v>1790.9295928319925</v>
+        <f t="shared" si="105"/>
+        <v>1877.3217744118069</v>
       </c>
       <c r="BC45" s="7">
-        <f t="shared" si="109"/>
-        <v>1773.0202969036725</v>
+        <f t="shared" si="105"/>
+        <v>1858.5485566676889</v>
       </c>
       <c r="BD45" s="7">
-        <f t="shared" si="109"/>
-        <v>1755.2900939346357</v>
+        <f t="shared" si="105"/>
+        <v>1839.963071101012</v>
       </c>
       <c r="BE45" s="7">
-        <f t="shared" si="109"/>
-        <v>1737.7371929952894</v>
+        <f t="shared" si="105"/>
+        <v>1821.5634403900019</v>
       </c>
       <c r="BF45" s="7">
-        <f t="shared" si="109"/>
-        <v>1720.3598210653365</v>
+        <f t="shared" si="105"/>
+        <v>1803.3478059861018</v>
       </c>
       <c r="BG45" s="7">
-        <f t="shared" si="109"/>
-        <v>1703.1562228546832</v>
+        <f t="shared" si="105"/>
+        <v>1785.3143279262408</v>
       </c>
       <c r="BH45" s="7">
-        <f t="shared" si="109"/>
-        <v>1686.1246606261363</v>
+        <f t="shared" si="105"/>
+        <v>1767.4611846469784</v>
       </c>
       <c r="BI45" s="7">
-        <f t="shared" si="109"/>
-        <v>1669.263414019875</v>
+        <f t="shared" si="105"/>
+        <v>1749.7865728005086</v>
       </c>
       <c r="BJ45" s="7">
-        <f t="shared" si="109"/>
-        <v>1652.5707798796761</v>
+        <f t="shared" si="105"/>
+        <v>1732.2887070725035</v>
       </c>
       <c r="BK45" s="7">
-        <f t="shared" si="109"/>
-        <v>1636.0450720808794</v>
+        <f t="shared" si="105"/>
+        <v>1714.9658200017784</v>
       </c>
       <c r="BL45" s="7">
-        <f t="shared" si="109"/>
-        <v>1619.6846213600707</v>
+        <f t="shared" si="105"/>
+        <v>1697.8161618017607</v>
       </c>
       <c r="BM45" s="7">
-        <f t="shared" si="109"/>
-        <v>1603.4877751464699</v>
+        <f t="shared" si="105"/>
+        <v>1680.8380001837431</v>
       </c>
       <c r="BN45" s="7">
-        <f t="shared" si="109"/>
-        <v>1587.452897395005</v>
+        <f t="shared" si="105"/>
+        <v>1664.0296201819058</v>
       </c>
       <c r="BO45" s="7">
-        <f t="shared" si="109"/>
-        <v>1571.5783684210551</v>
+        <f t="shared" si="105"/>
+        <v>1647.3893239800866</v>
       </c>
       <c r="BP45" s="7">
-        <f t="shared" si="109"/>
-        <v>1555.8625847368446</v>
+        <f t="shared" si="105"/>
+        <v>1630.9154307402857</v>
       </c>
       <c r="BQ45" s="7">
-        <f t="shared" si="109"/>
-        <v>1540.3039588894762</v>
+        <f t="shared" si="105"/>
+        <v>1614.6062764328829</v>
       </c>
       <c r="BR45" s="7">
-        <f t="shared" si="109"/>
-        <v>1524.9009193005816</v>
+        <f t="shared" si="105"/>
+        <v>1598.4602136685539</v>
       </c>
       <c r="BS45" s="7">
-        <f t="shared" si="109"/>
-        <v>1509.6519101075758</v>
+        <f t="shared" si="105"/>
+        <v>1582.4756115318685</v>
       </c>
       <c r="BT45" s="7">
-        <f t="shared" si="109"/>
-        <v>1494.5553910065</v>
+        <f t="shared" si="105"/>
+        <v>1566.6508554165498</v>
       </c>
       <c r="BU45" s="7">
-        <f t="shared" si="109"/>
-        <v>1479.6098370964351</v>
+        <f t="shared" si="105"/>
+        <v>1550.9843468623842</v>
       </c>
       <c r="BV45" s="7">
-        <f t="shared" si="109"/>
-        <v>1464.8137387254708</v>
+        <f t="shared" si="105"/>
+        <v>1535.4745033937604</v>
       </c>
       <c r="BW45" s="7">
-        <f t="shared" si="109"/>
-        <v>1450.165601338216</v>
+        <f t="shared" si="105"/>
+        <v>1520.1197583598228</v>
       </c>
       <c r="BX45" s="7">
-        <f t="shared" ref="BX45:CU45" si="110">BW45*(1+$AT$50)</f>
-        <v>1435.6639453248338</v>
+        <f t="shared" ref="BX45:CU45" si="106">BW45*(1+$AT$50)</f>
+        <v>1504.9185607762245</v>
       </c>
       <c r="BY45" s="7">
-        <f t="shared" si="110"/>
-        <v>1421.3073058715854</v>
+        <f t="shared" si="106"/>
+        <v>1489.8693751684623</v>
       </c>
       <c r="BZ45" s="7">
-        <f t="shared" si="110"/>
-        <v>1407.0942328128694</v>
+        <f t="shared" si="106"/>
+        <v>1474.9706814167776</v>
       </c>
       <c r="CA45" s="7">
-        <f t="shared" si="110"/>
-        <v>1393.0232904847408</v>
+        <f t="shared" si="106"/>
+        <v>1460.2209746026097</v>
       </c>
       <c r="CB45" s="7">
-        <f t="shared" si="110"/>
-        <v>1379.0930575798934</v>
+        <f t="shared" si="106"/>
+        <v>1445.6187648565835</v>
       </c>
       <c r="CC45" s="7">
-        <f t="shared" si="110"/>
-        <v>1365.3021270040945</v>
+        <f t="shared" si="106"/>
+        <v>1431.1625772080176</v>
       </c>
       <c r="CD45" s="7">
-        <f t="shared" si="110"/>
-        <v>1351.6491057340536</v>
+        <f t="shared" si="106"/>
+        <v>1416.8509514359375</v>
       </c>
       <c r="CE45" s="7">
-        <f t="shared" si="110"/>
-        <v>1338.132614676713</v>
+        <f t="shared" si="106"/>
+        <v>1402.6824419215782</v>
       </c>
       <c r="CF45" s="7">
-        <f t="shared" si="110"/>
-        <v>1324.7512885299459</v>
+        <f t="shared" si="106"/>
+        <v>1388.6556175023625</v>
       </c>
       <c r="CG45" s="7">
-        <f t="shared" si="110"/>
-        <v>1311.5037756446463</v>
+        <f t="shared" si="106"/>
+        <v>1374.7690613273389</v>
       </c>
       <c r="CH45" s="7">
-        <f t="shared" si="110"/>
-        <v>1298.3887378881998</v>
+        <f t="shared" si="106"/>
+        <v>1361.0213707140656</v>
       </c>
       <c r="CI45" s="7">
-        <f t="shared" si="110"/>
-        <v>1285.4048505093178</v>
+        <f t="shared" si="106"/>
+        <v>1347.4111570069249</v>
       </c>
       <c r="CJ45" s="7">
-        <f t="shared" si="110"/>
-        <v>1272.5508020042246</v>
+        <f t="shared" si="106"/>
+        <v>1333.9370454368557</v>
       </c>
       <c r="CK45" s="7">
-        <f t="shared" si="110"/>
-        <v>1259.8252939841823</v>
+        <f t="shared" si="106"/>
+        <v>1320.5976749824872</v>
       </c>
       <c r="CL45" s="7">
-        <f t="shared" si="110"/>
-        <v>1247.2270410443405</v>
+        <f t="shared" si="106"/>
+        <v>1307.3916982326623</v>
       </c>
       <c r="CM45" s="7">
-        <f t="shared" si="110"/>
-        <v>1234.7547706338971</v>
+        <f t="shared" si="106"/>
+        <v>1294.3177812503357</v>
       </c>
       <c r="CN45" s="7">
-        <f t="shared" si="110"/>
-        <v>1222.4072229275582</v>
+        <f t="shared" si="106"/>
+        <v>1281.3746034378323</v>
       </c>
       <c r="CO45" s="7">
-        <f t="shared" si="110"/>
-        <v>1210.1831506982826</v>
+        <f t="shared" si="106"/>
+        <v>1268.5608574034541</v>
       </c>
       <c r="CP45" s="7">
-        <f t="shared" si="110"/>
-        <v>1198.0813191912998</v>
+        <f t="shared" si="106"/>
+        <v>1255.8752488294194</v>
       </c>
       <c r="CQ45" s="7">
-        <f t="shared" si="110"/>
-        <v>1186.1005059993868</v>
+        <f t="shared" si="106"/>
+        <v>1243.3164963411252</v>
       </c>
       <c r="CR45" s="7">
-        <f t="shared" si="110"/>
-        <v>1174.2395009393929</v>
+        <f t="shared" si="106"/>
+        <v>1230.8833313777141</v>
       </c>
       <c r="CS45" s="7">
-        <f t="shared" si="110"/>
-        <v>1162.497105929999</v>
+        <f t="shared" si="106"/>
+        <v>1218.574498063937</v>
       </c>
       <c r="CT45" s="7">
-        <f t="shared" si="110"/>
-        <v>1150.872134870699</v>
+        <f t="shared" si="106"/>
+        <v>1206.3887530832976</v>
       </c>
       <c r="CU45" s="7">
-        <f t="shared" si="110"/>
-        <v>1139.363413521992</v>
+        <f t="shared" si="106"/>
+        <v>1194.3248655524646</v>
       </c>
     </row>
     <row r="46" spans="2:99" x14ac:dyDescent="0.2">
@@ -4239,39 +4267,39 @@
         <v>37</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" ref="F46" si="111">F45/F47</f>
+        <f t="shared" ref="F46" si="107">F45/F47</f>
         <v>1.3230621088107857</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" ref="G46" si="112">G45/G47</f>
+        <f t="shared" ref="G46" si="108">G45/G47</f>
         <v>-1.448510719938606</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" ref="H46:I46" si="113">H45/H47</f>
+        <f t="shared" ref="H46:I46" si="109">H45/H47</f>
         <v>-4.0606217467575423</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="113"/>
+        <f t="shared" si="109"/>
         <v>-4.0224708667997584</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" ref="J46:N46" si="114">J45/J47</f>
+        <f t="shared" ref="J46:N46" si="110">J45/J47</f>
         <v>-2.8455684899577829</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="110"/>
         <v>-1.1629272876776695</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="110"/>
         <v>-0.56060457927614393</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="110"/>
         <v>-0.24720939746361989</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="110"/>
         <v>7.1425235099955811E-2</v>
       </c>
       <c r="O46" s="3">
@@ -4279,48 +4307,48 @@
         <v>-0.29016688957376324</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" ref="P46:V46" si="115">P45/P47</f>
+        <f t="shared" ref="P46:V46" si="111">P45/P47</f>
         <v>9.674529479258776E-4</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="111"/>
         <v>-0.10428698850521353</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="115"/>
-        <v>0.32479656335482948</v>
+        <f t="shared" si="111"/>
+        <v>-4.1700691681582684E-2</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="115"/>
-        <v>8.6593172274752703E-2</v>
+        <f t="shared" si="111"/>
+        <v>0.12181198200729706</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="115"/>
-        <v>0.38952083059652581</v>
+        <f t="shared" si="111"/>
+        <v>0.40879713144699564</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="115"/>
-        <v>0.19054518068349593</v>
+        <f t="shared" si="111"/>
+        <v>0.22029319310902928</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="115"/>
-        <v>0.21644644542733504</v>
+        <f t="shared" si="111"/>
+        <v>0.2448313233489964</v>
       </c>
       <c r="W46" s="3"/>
       <c r="AC46" s="1">
-        <f t="shared" ref="AC46" si="116">AC45/AC47</f>
+        <f t="shared" ref="AC46" si="112">AC45/AC47</f>
         <v>3.9020147261105316</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" ref="AD46" si="117">AD45/AD47</f>
+        <f t="shared" ref="AD46" si="113">AD45/AD47</f>
         <v>3.9146640051151742</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" ref="AE46" si="118">AE45/AE47</f>
+        <f t="shared" ref="AE46" si="114">AE45/AE47</f>
         <v>4.3964490219438126</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" ref="AF46" si="119">AF45/AF47</f>
+        <f t="shared" ref="AF46" si="115">AF45/AF47</f>
         <v>4.0016565220741214</v>
       </c>
       <c r="AG46" s="1">
@@ -4328,44 +4356,44 @@
         <v>-12.303069364828003</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" ref="AH46:AI46" si="120">AH45/AH47</f>
+        <f t="shared" ref="AH46:AI46" si="116">AH45/AH47</f>
         <v>-1.7295633743466965</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="120"/>
-        <v>-2.07163465376731</v>
+        <f t="shared" si="116"/>
+        <v>-0.46074046579505579</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" ref="AJ46" si="121">AJ45/AJ47</f>
-        <v>0.87875227602966566</v>
+        <f t="shared" ref="AJ46" si="117">AJ45/AJ47</f>
+        <v>0.95033944839608131</v>
       </c>
       <c r="AK46" s="1">
-        <f t="shared" ref="AK46" si="122">AK45/AK47</f>
-        <v>1.1618206969942138</v>
+        <f t="shared" ref="AK46" si="118">AK45/AK47</f>
+        <v>1.2034789858446786</v>
       </c>
       <c r="AL46" s="1">
-        <f t="shared" ref="AL46" si="123">AL45/AL47</f>
-        <v>1.446722571549486</v>
+        <f t="shared" ref="AL46" si="119">AL45/AL47</f>
+        <v>1.4817733300079476</v>
       </c>
       <c r="AM46" s="1">
-        <f t="shared" ref="AM46" si="124">AM45/AM47</f>
-        <v>1.7611901388581759</v>
+        <f t="shared" ref="AM46" si="120">AM45/AM47</f>
+        <v>1.788676323867989</v>
       </c>
       <c r="AN46" s="1">
-        <f t="shared" ref="AN46" si="125">AN45/AN47</f>
-        <v>2.1076926957194422</v>
+        <f t="shared" ref="AN46" si="121">AN45/AN47</f>
+        <v>2.1265693548577813</v>
       </c>
       <c r="AO46" s="1">
-        <f t="shared" ref="AO46" si="126">AO45/AO47</f>
-        <v>2.4888885255990942</v>
+        <f t="shared" ref="AO46" si="122">AO45/AO47</f>
+        <v>2.498015795410081</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" ref="AP46" si="127">AP45/AP47</f>
-        <v>1.7560028065635374</v>
+        <f t="shared" ref="AP46" si="123">AP45/AP47</f>
+        <v>1.751146099188418</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" ref="AQ46" si="128">AQ45/AQ47</f>
-        <v>1.9350969916775542</v>
+        <f t="shared" ref="AQ46" si="124">AQ45/AQ47</f>
+        <v>1.9216904805051394</v>
       </c>
     </row>
     <row r="47" spans="2:99" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -4412,24 +4440,23 @@
         <v>1033.6859999999999</v>
       </c>
       <c r="R47" s="16">
-        <f t="shared" ref="R47:V47" si="129">+Q47</f>
-        <v>1033.6859999999999</v>
+        <v>1091.1089999999999</v>
       </c>
       <c r="S47" s="16">
-        <f t="shared" si="129"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" ref="S47:V47" si="125">+R47</f>
+        <v>1091.1089999999999</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="129"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="125"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" si="129"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="125"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="V47" s="16">
-        <f t="shared" si="129"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="125"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="W47" s="12"/>
       <c r="AC47" s="11">
@@ -4454,39 +4481,39 @@
       </c>
       <c r="AI47" s="11">
         <f>AVERAGE(O47:R47)</f>
-        <v>775.02575000000002</v>
+        <v>789.38149999999996</v>
       </c>
       <c r="AJ47" s="15">
         <f>AVERAGE(S47:V47)</f>
-        <v>1033.6859999999999</v>
+        <v>1091.1089999999999</v>
       </c>
       <c r="AK47" s="15">
-        <f t="shared" ref="AK47:AQ47" si="130">AJ47</f>
-        <v>1033.6859999999999</v>
+        <f t="shared" ref="AK47:AQ47" si="126">AJ47</f>
+        <v>1091.1089999999999</v>
       </c>
       <c r="AL47" s="15">
-        <f t="shared" si="130"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="126"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="AM47" s="15">
-        <f t="shared" si="130"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="126"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="AN47" s="15">
-        <f t="shared" si="130"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="126"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="AO47" s="15">
-        <f t="shared" si="130"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="126"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="AP47" s="15">
-        <f t="shared" si="130"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="126"/>
+        <v>1091.1089999999999</v>
       </c>
       <c r="AQ47" s="15">
-        <f t="shared" si="130"/>
-        <v>1033.6859999999999</v>
+        <f t="shared" si="126"/>
+        <v>1091.1089999999999</v>
       </c>
     </row>
     <row r="49" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4501,19 +4528,19 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="14">
-        <f t="shared" ref="J49" si="131">J34/F34-1</f>
+        <f t="shared" ref="J49" si="127">J34/F34-1</f>
         <v>-0.88775298749740972</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" ref="K49:M49" si="132">K34/G34-1</f>
+        <f t="shared" ref="K49:M49" si="128">K34/G34-1</f>
         <v>-0.84248539564524694</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>22.529100529100525</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>5.3866108786610871</v>
       </c>
       <c r="N49" s="14">
@@ -4525,16 +4552,16 @@
         <v>4.2980445043830064</v>
       </c>
       <c r="P49" s="14">
-        <f t="shared" ref="P49:R49" si="133">P34/L34-1</f>
+        <f t="shared" ref="P49:R49" si="129">P34/L34-1</f>
         <v>1.6228918371936141</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="133"/>
+        <f t="shared" si="129"/>
         <v>0.26886792452830188</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" si="133"/>
-        <v>0.38525890727148626</v>
+        <f t="shared" si="129"/>
+        <v>-0.1345907655543227</v>
       </c>
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
@@ -4542,11 +4569,11 @@
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
       <c r="AD49" s="18">
-        <f t="shared" ref="AD49:AE49" si="134">AD34/AC34-1</f>
+        <f t="shared" ref="AD49:AE49" si="130">AD34/AC34-1</f>
         <v>0.56965295590098575</v>
       </c>
       <c r="AE49" s="18">
-        <f t="shared" si="134"/>
+        <f t="shared" si="130"/>
         <v>7.5121474866318705E-2</v>
       </c>
       <c r="AF49" s="18">
@@ -4558,43 +4585,43 @@
         <v>-0.77291171632242728</v>
       </c>
       <c r="AH49" s="18">
-        <f t="shared" ref="AH49:AI49" si="135">AH34/AG34-1</f>
+        <f t="shared" ref="AH49:AI49" si="131">AH34/AG34-1</f>
         <v>1.0346909207984547</v>
       </c>
       <c r="AI49" s="18">
-        <f t="shared" si="135"/>
-        <v>0.13109695794928578</v>
+        <f t="shared" si="131"/>
+        <v>0.53222042011155479</v>
       </c>
       <c r="AJ49" s="18">
-        <f t="shared" ref="AJ49:AQ49" si="136">AJ34/AI34-1</f>
-        <v>1.1977280400797401</v>
+        <f t="shared" ref="AJ49:AQ49" si="132">AJ34/AI34-1</f>
+        <v>0.6223798272790646</v>
       </c>
       <c r="AK49" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="132"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AL49" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="132"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AM49" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="132"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AN49" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="132"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AO49" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="132"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AP49" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="132"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AQ49" s="18">
-        <f t="shared" si="136"/>
+        <f t="shared" si="132"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AS49" t="s">
@@ -4613,35 +4640,35 @@
         <v>0.30013124266077224</v>
       </c>
       <c r="G50" s="19">
-        <f t="shared" ref="G50:R50" si="137">G35/G34</f>
+        <f t="shared" ref="G50:R50" si="133">G35/G34</f>
         <v>0.28858204992033987</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>0.22259414225941423</v>
       </c>
       <c r="J50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>0.14892307692307691</v>
       </c>
       <c r="K50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>0.14834794335805798</v>
       </c>
       <c r="L50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>0.22239712165504835</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>0.2312631027253669</v>
       </c>
       <c r="N50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>0.26482888111291292</v>
       </c>
       <c r="O50" s="19">
@@ -4653,12 +4680,12 @@
         <v>0.28180727023319613</v>
       </c>
       <c r="Q50" s="19">
-        <f t="shared" si="137"/>
+        <f t="shared" si="133"/>
         <v>0.27178851714167701</v>
       </c>
       <c r="R50" s="19">
-        <f t="shared" si="137"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" si="133"/>
+        <v>0.26627218934911245</v>
       </c>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -4666,63 +4693,63 @@
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
       <c r="AC50" s="19">
-        <f t="shared" ref="AC50:AQ50" si="138">AC35/AC34</f>
+        <f t="shared" ref="AC50:AQ50" si="134">AC35/AC34</f>
         <v>0.33669149232052903</v>
       </c>
       <c r="AD50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.31585434041313265</v>
       </c>
       <c r="AE50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.31317755640199241</v>
       </c>
       <c r="AF50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.3105647961981356</v>
       </c>
       <c r="AG50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.25973921442369602</v>
       </c>
       <c r="AH50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.24039716760947824</v>
       </c>
       <c r="AI50" s="19">
-        <f t="shared" si="138"/>
-        <v>0.43233315890672552</v>
+        <f t="shared" si="134"/>
+        <v>0.27152557250922987</v>
       </c>
       <c r="AJ50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AK50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.27192307692307693</v>
       </c>
       <c r="AL50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.26407914201183436</v>
       </c>
       <c r="AM50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.25646147445380063</v>
       </c>
       <c r="AN50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.24906354730609481</v>
       </c>
       <c r="AO50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.2418790219030344</v>
       </c>
       <c r="AP50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.23490174242506226</v>
       </c>
       <c r="AQ50" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.22812573062433927</v>
       </c>
       <c r="AS50" t="s">
@@ -4741,39 +4768,39 @@
         <v>0.50456100342075261</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" ref="G51:R51" si="139">(G30-G35)/G30</f>
+        <f t="shared" ref="G51:R51" si="135">(G30-G35)/G30</f>
         <v>0.52165492957746484</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.57710651828298887</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.69863013698630128</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.68345323741007191</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.57553648068669527</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.58480357562926377</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.53450345034503455</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.57232987832356919</v>
       </c>
       <c r="P51" s="19">
@@ -4781,12 +4808,12 @@
         <v>0.49508448540706607</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" si="139"/>
+        <f t="shared" si="135"/>
         <v>0.51732991014120666</v>
       </c>
-      <c r="R51" s="19" t="e">
-        <f t="shared" si="139"/>
-        <v>#DIV/0!</v>
+      <c r="R51" s="19">
+        <f t="shared" si="135"/>
+        <v>0.53035310488780651</v>
       </c>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
@@ -4794,23 +4821,23 @@
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
       <c r="AC51" s="19">
-        <f t="shared" ref="AC51:AG51" si="140">(AC30-AC35)/AC30</f>
+        <f t="shared" ref="AC51:AG51" si="136">(AC30-AC35)/AC30</f>
         <v>0.4683809895579194</v>
       </c>
       <c r="AD51" s="19">
-        <f t="shared" si="140"/>
+        <f t="shared" si="136"/>
         <v>0.50323579501470816</v>
       </c>
       <c r="AE51" s="19">
-        <f t="shared" si="140"/>
+        <f t="shared" si="136"/>
         <v>0.49477104874446082</v>
       </c>
       <c r="AF51" s="19">
-        <f t="shared" si="140"/>
+        <f t="shared" si="136"/>
         <v>0.48532396328718996</v>
       </c>
       <c r="AG51" s="19">
-        <f t="shared" si="140"/>
+        <f t="shared" si="136"/>
         <v>0.54683330992838075</v>
       </c>
       <c r="AH51" s="19">
@@ -4818,39 +4845,39 @@
         <v>0.56412279443408408</v>
       </c>
       <c r="AI51" s="19">
-        <f t="shared" ref="AI51:AQ51" si="141">(AI30-AI35)/AI30</f>
-        <v>0.24628364047192233</v>
+        <f t="shared" ref="AI51:AQ51" si="137">(AI30-AI35)/AI30</f>
+        <v>0.52519187358916475</v>
       </c>
       <c r="AJ51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ51" s="19" t="e">
-        <f t="shared" si="141"/>
+        <f t="shared" si="137"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS51" s="4" t="s">
@@ -4858,7 +4885,7 @@
       </c>
       <c r="AT51" s="17">
         <f>NPV(AT49,AJ45:DI45)+Main!N5-Main!N6</f>
-        <v>16816.944130678548</v>
+        <v>18094.501114192612</v>
       </c>
     </row>
     <row r="52" spans="2:46" x14ac:dyDescent="0.2">
@@ -4870,52 +4897,52 @@
         <v>0.16916488222698078</v>
       </c>
       <c r="G52" s="19">
-        <f t="shared" ref="G52:R52" si="142">G41/G34</f>
+        <f t="shared" ref="G52:R52" si="138">G41/G34</f>
         <v>-1.2214551248008496E-2</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-18.523809523809522</v>
       </c>
       <c r="I52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-2.9707112970711296</v>
       </c>
       <c r="J52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-2.1495384615384614</v>
       </c>
       <c r="K52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-2.0701281186783547</v>
       </c>
       <c r="L52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-0.41960872498313462</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-5.2541928721174039E-2</v>
       </c>
       <c r="N52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>0.10207390970384886</v>
       </c>
       <c r="O52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-8.6292478045055604E-2</v>
       </c>
       <c r="P52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="Q52" s="19">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>-1.8277571251549114E-2</v>
       </c>
       <c r="R52" s="19">
-        <f t="shared" si="142"/>
-        <v>0.25736900809742941</v>
+        <f t="shared" si="138"/>
+        <v>3.5996055226824461E-2</v>
       </c>
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
@@ -4923,71 +4950,71 @@
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
       <c r="AC52" s="19">
-        <f t="shared" ref="AC52:AQ52" si="143">AC41/AC34</f>
+        <f t="shared" ref="AC52:AQ52" si="139">AC41/AC34</f>
         <v>0.1651781575450417</v>
       </c>
       <c r="AD52" s="19">
-        <f t="shared" si="143"/>
+        <f t="shared" si="139"/>
         <v>0.14711649774375707</v>
       </c>
       <c r="AE52" s="19">
-        <f t="shared" si="143"/>
+        <f t="shared" si="139"/>
         <v>0.15527029006738932</v>
       </c>
       <c r="AF52" s="19">
-        <f t="shared" si="143"/>
+        <f t="shared" si="139"/>
         <v>0.12535185523670264</v>
       </c>
       <c r="AG52" s="19">
-        <f t="shared" si="143"/>
+        <f t="shared" si="139"/>
         <v>-0.85793625241468086</v>
       </c>
       <c r="AH52" s="19">
-        <f t="shared" si="143"/>
+        <f t="shared" si="139"/>
         <v>-0.16381185964634673</v>
       </c>
       <c r="AI52" s="19">
         <f>AI41/AI34</f>
-        <v>-0.44453894353932782</v>
+        <v>-7.5387912116282804E-3</v>
       </c>
       <c r="AJ52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.19674746187290459</v>
+        <f t="shared" si="139"/>
+        <v>0.21720747793902181</v>
       </c>
       <c r="AK52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.21991820816503227</v>
+        <f t="shared" si="139"/>
+        <v>0.23978803146001182</v>
       </c>
       <c r="AL52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.24242056754488708</v>
+        <f t="shared" si="139"/>
+        <v>0.26171722286020377</v>
       </c>
       <c r="AM52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.2642738204041693</v>
+        <f t="shared" si="139"/>
+        <v>0.28301384143154412</v>
       </c>
       <c r="AN52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.2854966909694337</v>
+        <f t="shared" si="139"/>
+        <v>0.30369613446717264</v>
       </c>
       <c r="AO52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.30610736334531546</v>
+        <f t="shared" si="139"/>
+        <v>0.32378182289600421</v>
       </c>
       <c r="AP52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.32612349709496985</v>
+        <f t="shared" si="139"/>
+        <v>0.34328811646631169</v>
       </c>
       <c r="AQ52" s="19">
-        <f t="shared" si="143"/>
-        <v>0.34556224237107652</v>
+        <f t="shared" si="139"/>
+        <v>0.36223172849132196</v>
       </c>
       <c r="AS52" t="s">
         <v>62</v>
       </c>
       <c r="AT52" s="1">
         <f>AT51/Main!N3</f>
-        <v>16.038486883510327</v>
+        <v>17.256905685630741</v>
       </c>
     </row>
     <row r="53" spans="2:46" x14ac:dyDescent="0.2">
@@ -5017,31 +5044,31 @@
         <v>-9.0866633016087883E-3</v>
       </c>
       <c r="AB53" s="20">
-        <f t="shared" ref="AB53:AH53" si="144">AB26/AA26-1</f>
+        <f t="shared" ref="AB53:AH53" si="140">AB26/AA26-1</f>
         <v>2.7998191966112973E-2</v>
       </c>
       <c r="AC53" s="20">
-        <f t="shared" si="144"/>
+        <f t="shared" si="140"/>
         <v>2.2576932497140545E-2</v>
       </c>
       <c r="AD53" s="20">
-        <f t="shared" si="144"/>
+        <f t="shared" si="140"/>
         <v>-2.6643990531081463E-2</v>
       </c>
       <c r="AE53" s="20">
-        <f t="shared" si="144"/>
+        <f t="shared" si="140"/>
         <v>7.3574553749574445E-2</v>
       </c>
       <c r="AF53" s="20">
-        <f t="shared" si="144"/>
+        <f t="shared" si="140"/>
         <v>-4.7763078683775273E-2</v>
       </c>
       <c r="AG53" s="20">
-        <f t="shared" si="144"/>
+        <f t="shared" si="140"/>
         <v>-0.81422798616458314</v>
       </c>
       <c r="AH53" s="20">
-        <f t="shared" si="144"/>
+        <f t="shared" si="140"/>
         <v>1.1344394528426767</v>
       </c>
       <c r="AI53" s="19"/>
@@ -5083,23 +5110,23 @@
         <v>0.18013517081637956</v>
       </c>
       <c r="AD54" s="20">
-        <f t="shared" ref="AD54:AH54" si="145">AD30/AD26</f>
+        <f t="shared" ref="AD54:AH54" si="141">AD30/AD26</f>
         <v>0.29163212217430867</v>
       </c>
       <c r="AE54" s="20">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.28472561072802366</v>
       </c>
       <c r="AF54" s="20">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.29161364111956389</v>
       </c>
       <c r="AG54" s="20">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.33859733877041753</v>
       </c>
       <c r="AH54" s="20">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.31058737146668441</v>
       </c>
       <c r="AI54" s="20"/>
@@ -5222,43 +5249,43 @@
         <v>747.72</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" ref="G57:O57" si="146">G56*G47</f>
+        <f t="shared" ref="G57:O57" si="142">G56*G47</f>
         <v>329.41420000000005</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>447.52851000000004</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>507.24344999999994</v>
       </c>
       <c r="J57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>322.89083999999997</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>4085.1333100000002</v>
       </c>
       <c r="L57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>27247.83308</v>
       </c>
       <c r="M57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>19537.339800000002</v>
       </c>
       <c r="N57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>13976.012799999999</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="146"/>
+        <f t="shared" si="142"/>
         <v>12712.0224</v>
       </c>
       <c r="P57" s="16">
-        <f t="shared" ref="P57" si="147">P56*P47</f>
+        <f t="shared" ref="P57" si="143">P56*P47</f>
         <v>7002.9245500000006</v>
       </c>
       <c r="Q57" s="16">
@@ -5381,11 +5408,11 @@
         <v>56</v>
       </c>
       <c r="K60" s="8">
-        <f t="shared" ref="K60" si="148">K61-K74</f>
+        <f t="shared" ref="K60" si="144">K61-K74</f>
         <v>-4617.2999999999993</v>
       </c>
       <c r="L60" s="8">
-        <f t="shared" ref="L60" si="149">L61-L74</f>
+        <f t="shared" ref="L60" si="145">L61-L74</f>
         <v>-3660.7999999999993</v>
       </c>
       <c r="M60" s="8">
@@ -5410,7 +5437,7 @@
       </c>
       <c r="R60" s="8">
         <f>Q60+R45</f>
-        <v>-4283.7623396119998</v>
+        <v>-4665</v>
       </c>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
@@ -5419,39 +5446,39 @@
       <c r="W60" s="8"/>
       <c r="AI60" s="7">
         <f>R60</f>
-        <v>-4283.7623396119998</v>
+        <v>-4665</v>
       </c>
       <c r="AJ60" s="7">
-        <f>AI60+AJ45</f>
-        <v>-3375.4084144119988</v>
+        <f t="shared" ref="AJ60:AQ60" si="146">AI60+AJ45</f>
+        <v>-3628.0760748000002</v>
       </c>
       <c r="AK60" s="7">
-        <f>AJ60+AK45</f>
-        <v>-2174.4506254188382</v>
+        <f t="shared" si="146"/>
+        <v>-2314.9493220339991</v>
       </c>
       <c r="AL60" s="7">
-        <f>AK60+AL45</f>
-        <v>-678.99375732413637</v>
+        <f t="shared" si="146"/>
+        <v>-698.17310570235759</v>
       </c>
       <c r="AM60" s="7">
-        <f>AL60+AM45</f>
-        <v>1141.5238325516159</v>
+        <f t="shared" si="146"/>
+        <v>1253.46772935692</v>
       </c>
       <c r="AN60" s="7">
-        <f>AM60+AN45</f>
-        <v>3320.216264419063</v>
+        <f t="shared" si="146"/>
+        <v>3573.786691566439</v>
       </c>
       <c r="AO60" s="7">
-        <f>AN60+AO45</f>
-        <v>5892.9454888914879</v>
+        <f t="shared" si="146"/>
+        <v>6299.3942080805373</v>
       </c>
       <c r="AP60" s="7">
-        <f>AO60+AP45</f>
-        <v>7708.1010059969249</v>
+        <f t="shared" si="146"/>
+        <v>8210.0854772199127</v>
       </c>
       <c r="AQ60" s="7">
-        <f>AP60+AQ45</f>
-        <v>9708.383674936129</v>
+        <f t="shared" si="146"/>
+        <v>10306.859255713394</v>
       </c>
     </row>
     <row r="61" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5802,11 +5829,11 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8">
-        <f t="shared" ref="K69" si="150">SUM(K61:K68)</f>
+        <f t="shared" ref="K69" si="147">SUM(K61:K68)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" ref="L69" si="151">SUM(L61:L68)</f>
+        <f t="shared" ref="L69" si="148">SUM(L61:L68)</f>
         <v>11329.100000000002</v>
       </c>
       <c r="M69" s="8">
@@ -6293,15 +6320,15 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8">
-        <f t="shared" ref="K81" si="152">SUM(K71:K80)</f>
+        <f t="shared" ref="K81" si="149">SUM(K71:K80)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" ref="L81" si="153">SUM(L71:L80)</f>
+        <f t="shared" ref="L81" si="150">SUM(L71:L80)</f>
         <v>11329.1</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" ref="M81" si="154">SUM(M71:M80)</f>
+        <f t="shared" ref="M81" si="151">SUM(M71:M80)</f>
         <v>11057.499999999998</v>
       </c>
       <c r="N81" s="8">
@@ -6340,27 +6367,27 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8">
-        <f>K45</f>
+        <f t="shared" ref="K83:P83" si="152">K45</f>
         <v>-465.3</v>
       </c>
       <c r="L83" s="8">
-        <f>L45</f>
+        <f t="shared" si="152"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M83" s="8">
-        <f>M45</f>
+        <f t="shared" si="152"/>
         <v>-126.9</v>
       </c>
       <c r="N83" s="8">
-        <f>N45</f>
+        <f t="shared" si="152"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O83" s="8">
-        <f>O45</f>
+        <f t="shared" si="152"/>
         <v>-149.70000000000019</v>
       </c>
       <c r="P83" s="8">
-        <f>P45</f>
+        <f t="shared" si="152"/>
         <v>0.5</v>
       </c>
       <c r="Q83" s="8"/>
@@ -7122,11 +7149,11 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
       <c r="AF100" s="7">
-        <f t="shared" ref="AF100:AG100" si="155">SUM(AF84:AF99)</f>
+        <f t="shared" ref="AF100:AG100" si="153">SUM(AF84:AF99)</f>
         <v>579</v>
       </c>
       <c r="AG100" s="7">
-        <f t="shared" si="155"/>
+        <f t="shared" si="153"/>
         <v>-1129.4999999999991</v>
       </c>
       <c r="AH100" s="7">
@@ -7256,11 +7283,11 @@
         <v>-516.1</v>
       </c>
       <c r="AG107" s="7">
-        <f t="shared" ref="AG107:AH107" si="156">SUM(AG102:AG106)</f>
+        <f t="shared" ref="AG107:AH107" si="154">SUM(AG102:AG106)</f>
         <v>-154.60000000000002</v>
       </c>
       <c r="AH107" s="7">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>-68.2</v>
       </c>
     </row>

--- a/AMC.xlsx
+++ b/AMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DFC53-E4AE-4C77-BFCF-EED23C21D611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398076F-5A1E-144A-BAA5-279F600FB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
+    <workbookView xWindow="-21600" yWindow="-5340" windowWidth="21600" windowHeight="21120" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,10 @@
   <authors>
     <author>tc={FC916003-1684-4E2F-8AA8-31ACAC0E574C}</author>
     <author>tc={19C99C37-30FD-483A-9FFA-FD797A500CD2}</author>
+    <author>tc={455FA0F8-A331-CE46-8AE8-70D6C41F7482}</author>
   </authors>
   <commentList>
-    <comment ref="AD3" authorId="0" shapeId="0" xr:uid="{FC916003-1684-4E2F-8AA8-31ACAC0E574C}">
+    <comment ref="AH3" authorId="0" shapeId="0" xr:uid="{FC916003-1684-4E2F-8AA8-31ACAC0E574C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,12 +59,20 @@
     Expected 1623m</t>
       </text>
     </comment>
+    <comment ref="T34" authorId="2" shapeId="0" xr:uid="{455FA0F8-A331-CE46-8AE8-70D6C41F7482}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1793.8m was my estimate</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="138">
   <si>
     <t>Price</t>
   </si>
@@ -465,6 +474,18 @@
   </si>
   <si>
     <t>AMC Revenue/Domestic</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -494,6 +515,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -580,16 +607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -604,8 +631,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10768013" y="19049"/>
-          <a:ext cx="0" cy="20451366"/>
+          <a:off x="14300200" y="0"/>
+          <a:ext cx="0" cy="21207413"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -630,13 +657,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -984,11 +1011,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AD3" dT="2022-07-04T19:46:36.54" personId="{06FC3560-C579-4F45-9E73-B6CE53E35EF7}" id="{FC916003-1684-4E2F-8AA8-31ACAC0E574C}">
+  <threadedComment ref="AH3" dT="2022-07-04T19:46:36.54" personId="{06FC3560-C579-4F45-9E73-B6CE53E35EF7}" id="{FC916003-1684-4E2F-8AA8-31ACAC0E574C}">
     <text>5398 as well</text>
   </threadedComment>
   <threadedComment ref="R34" dT="2023-04-16T17:56:17.78" personId="{06FC3560-C579-4F45-9E73-B6CE53E35EF7}" id="{19C99C37-30FD-483A-9FFA-FD797A500CD2}">
     <text>Expected 1623m</text>
+  </threadedComment>
+  <threadedComment ref="T34" dT="2023-08-16T21:39:48.60" personId="{06FC3560-C579-4F45-9E73-B6CE53E35EF7}" id="{455FA0F8-A331-CE46-8AE8-70D6C41F7482}">
+    <text>1793.8m was my estimate</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1001,9 +1031,9 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>82</v>
       </c>
@@ -1014,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>83</v>
       </c>
@@ -1029,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
       <c r="M4" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1068,7 @@
         <v>5242.6841299999996</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>102</v>
       </c>
@@ -1053,7 +1083,7 @@
       </c>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>107</v>
       </c>
@@ -1067,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="M7" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +1106,7 @@
         <v>9862.1841299999996</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>113</v>
       </c>
@@ -1084,22 +1114,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
       <c r="M12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>1935</v>
       </c>
@@ -1107,7 +1137,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>505.6</v>
       </c>
@@ -1115,7 +1145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>950</v>
       </c>
@@ -1123,7 +1153,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>1435.5</v>
       </c>
@@ -1131,7 +1161,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>311.39999999999998</v>
       </c>
@@ -1146,30 +1176,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1ECA33-ACCE-4F6E-BC14-505D1708A040}">
-  <dimension ref="A1:CU121"/>
+  <dimension ref="A1:CY121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI27" sqref="AI27"/>
+      <selection pane="bottomRight" activeCell="T57" sqref="T57:Z83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="2"/>
-    <col min="14" max="23" width="8.5703125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="13" width="9.1640625" style="2"/>
+    <col min="14" max="27" width="8.5" style="2" customWidth="1"/>
+    <col min="50" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1230,95 +1260,107 @@
       <c r="V2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Y2">
+      <c r="W2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC2">
         <v>2012</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <v>2013</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <v>2014</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <v>2015</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>2016</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>2017</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <v>2018</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <v>2019</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <v>2020</v>
       </c>
-      <c r="AH2">
-        <f>AG2+1</f>
+      <c r="AL2">
+        <f>AK2+1</f>
         <v>2021</v>
       </c>
-      <c r="AI2">
-        <f t="shared" ref="AI2:AV2" si="0">AH2+1</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AZ2" si="0">AL2+1</f>
         <v>2022</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AT2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AU2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AV2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="15" t="s">
         <v>115</v>
       </c>
@@ -1343,35 +1385,39 @@
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
-      <c r="Y3" s="15">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AC3" s="15">
         <v>5317</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="AD3" s="15">
         <v>5326</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AE3" s="15">
         <v>5463</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AF3" s="15">
         <v>5484</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AG3" s="15">
         <v>5472</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AH3" s="15">
         <v>5747</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AI3" s="15">
         <v>5803</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AJ3" s="15">
         <v>5869</v>
       </c>
-      <c r="AG3" s="15">
+      <c r="AK3" s="15">
         <v>5798</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
         <v>118</v>
       </c>
@@ -1404,8 +1450,12 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
-    </row>
-    <row r="5" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+    </row>
+    <row r="5" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>116</v>
       </c>
@@ -1446,8 +1496,12 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>90</v>
       </c>
@@ -1484,8 +1538,12 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1507,8 +1565,12 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>117</v>
       </c>
@@ -1533,8 +1595,12 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>130</v>
       </c>
@@ -1563,8 +1629,12 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>131</v>
       </c>
@@ -1599,8 +1669,12 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>91</v>
       </c>
@@ -1640,8 +1714,12 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>103</v>
       </c>
@@ -1678,8 +1756,12 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
         <v>104</v>
       </c>
@@ -1722,8 +1804,12 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="1:48" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
@@ -1766,8 +1852,12 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
-    </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -1790,7 +1880,7 @@
         <v>907.9</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>105</v>
       </c>
@@ -1810,7 +1900,7 @@
         <v>501.2</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>108</v>
       </c>
@@ -1830,7 +1920,7 @@
         <v>268.7</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>109</v>
       </c>
@@ -1855,7 +1945,7 @@
         <v>0.46388667198723066</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>85</v>
       </c>
@@ -1878,7 +1968,7 @@
         <v>258.5</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>105</v>
       </c>
@@ -1899,7 +1989,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>108</v>
       </c>
@@ -1920,7 +2010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>109</v>
       </c>
@@ -1946,7 +2036,7 @@
         <v>0.5994659546061416</v>
       </c>
     </row>
-    <row r="26" spans="2:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:47" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="15" t="s">
         <v>63</v>
       </c>
@@ -2008,50 +2098,54 @@
         <v>3261.470276</v>
       </c>
       <c r="U26" s="16">
-        <f>+E26</f>
-        <v>2812.7875899999999</v>
+        <f>+E26*0.9</f>
+        <v>2531.5088310000001</v>
       </c>
       <c r="V26" s="16">
-        <f>+F26</f>
-        <v>2951.1052030000001</v>
+        <f>+F26*0.9</f>
+        <v>2655.9946827000003</v>
       </c>
       <c r="W26" s="16"/>
-      <c r="Y26" s="7">
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AC26" s="7">
         <v>10790</v>
       </c>
-      <c r="Z26" s="7">
+      <c r="AD26" s="7">
         <v>10922.050999999999</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AE26" s="7">
         <v>10822.806</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AF26" s="7">
         <v>11125.825000000001</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AG26" s="7">
         <v>11377.012000000001</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AH26" s="7">
         <v>11073.883</v>
       </c>
-      <c r="AE26" s="7">
+      <c r="AI26" s="7">
         <v>11888.638999999999</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AJ26" s="7">
         <v>11320.800999999999</v>
       </c>
-      <c r="AG26" s="7">
+      <c r="AK26" s="7">
         <v>2103.0880000000002</v>
       </c>
-      <c r="AH26" s="7">
+      <c r="AL26" s="7">
         <v>4488.9139999999998</v>
       </c>
-      <c r="AI26" s="15">
+      <c r="AM26" s="15">
         <f>SUM(O26:R26)</f>
         <v>8530.8327439999994</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>132</v>
       </c>
@@ -2078,28 +2172,32 @@
       <c r="V27" s="19">
         <v>1</v>
       </c>
-      <c r="AE27" s="20">
-        <f>AE26/AD26-1</f>
-        <v>7.3574553749574445E-2</v>
-      </c>
-      <c r="AF27" s="20">
-        <f>AF26/AE26-1</f>
-        <v>-4.7763078683775273E-2</v>
-      </c>
-      <c r="AG27" s="20">
-        <f>AG26/AF26-1</f>
-        <v>-0.81422798616458314</v>
-      </c>
-      <c r="AH27" s="20">
-        <f>AH26/AG26-1</f>
-        <v>1.1344394528426767</v>
-      </c>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
       <c r="AI27" s="20">
         <f>AI26/AH26-1</f>
+        <v>7.3574553749574445E-2</v>
+      </c>
+      <c r="AJ27" s="20">
+        <f>AJ26/AI26-1</f>
+        <v>-4.7763078683775273E-2</v>
+      </c>
+      <c r="AK27" s="20">
+        <f>AK26/AJ26-1</f>
+        <v>-0.81422798616458314</v>
+      </c>
+      <c r="AL27" s="20">
+        <f>AL26/AK26-1</f>
+        <v>1.1344394528426767</v>
+      </c>
+      <c r="AM27" s="20">
+        <f>AM26/AL26-1</f>
         <v>0.90042240595386769</v>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>133</v>
       </c>
@@ -2169,10 +2267,14 @@
       <c r="V28" s="19">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-    </row>
-    <row r="30" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+    </row>
+    <row r="30" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
@@ -2219,65 +2321,71 @@
       <c r="R30" s="8">
         <v>574.9</v>
       </c>
-      <c r="S30" s="8"/>
+      <c r="S30" s="8">
+        <v>534.1</v>
+      </c>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
-      <c r="AC30" s="7">
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AG30" s="7">
         <v>2049.4</v>
       </c>
-      <c r="AD30" s="7">
+      <c r="AH30" s="7">
         <v>3229.5</v>
       </c>
-      <c r="AE30" s="7">
+      <c r="AI30" s="7">
         <v>3385</v>
       </c>
-      <c r="AF30" s="7">
+      <c r="AJ30" s="7">
         <v>3301.3</v>
       </c>
-      <c r="AG30" s="7">
+      <c r="AK30" s="7">
         <f>SUM(G30:J30)</f>
         <v>712.09999999999991</v>
       </c>
-      <c r="AH30" s="7">
+      <c r="AL30" s="7">
         <f>SUM(K30:N30)</f>
         <v>1394.2</v>
       </c>
-      <c r="AI30" s="7">
+      <c r="AM30" s="7">
         <f>SUM(O30:R30)</f>
         <v>2215</v>
       </c>
-      <c r="AK30" s="7">
-        <f>AJ30*1.1</f>
+      <c r="AO30" s="7">
+        <f>AN30*1.1</f>
         <v>0</v>
       </c>
-      <c r="AL30" s="7">
-        <f>AK30*1.05</f>
+      <c r="AP30" s="7">
+        <f>AO30*1.05</f>
         <v>0</v>
       </c>
-      <c r="AM30" s="7">
-        <f t="shared" ref="AM30:AQ31" si="4">AL30*1.03</f>
+      <c r="AQ30" s="7">
+        <f t="shared" ref="AQ30:AU31" si="4">AP30*1.03</f>
         <v>0</v>
       </c>
-      <c r="AN30" s="7">
+      <c r="AR30" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AO30" s="7">
+      <c r="AS30" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP30" s="7">
+      <c r="AT30" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="7">
+      <c r="AU30" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7" t="s">
         <v>25</v>
       </c>
@@ -2323,65 +2431,71 @@
       <c r="R31" s="8">
         <v>337.6</v>
       </c>
-      <c r="S31" s="8"/>
+      <c r="S31" s="8">
+        <v>328.7</v>
+      </c>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="AC31" s="7">
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AG31" s="7">
         <v>1019.1</v>
       </c>
-      <c r="AD31" s="7">
+      <c r="AH31" s="7">
         <v>1548.4</v>
       </c>
-      <c r="AE31" s="7">
+      <c r="AI31" s="7">
         <v>1671.5</v>
       </c>
-      <c r="AF31" s="7">
+      <c r="AJ31" s="7">
         <v>1719.6</v>
       </c>
-      <c r="AG31" s="7">
-        <f t="shared" ref="AG31" si="5">SUM(G31:J31)</f>
+      <c r="AK31" s="7">
+        <f t="shared" ref="AK31" si="5">SUM(G31:J31)</f>
         <v>362.40000000000003</v>
       </c>
-      <c r="AH31" s="7">
-        <f t="shared" ref="AH31" si="6">SUM(K31:N31)</f>
+      <c r="AL31" s="7">
+        <f t="shared" ref="AL31" si="6">SUM(K31:N31)</f>
         <v>857.3</v>
       </c>
-      <c r="AI31" s="7">
+      <c r="AM31" s="7">
         <f>SUM(O31:R31)</f>
         <v>1320.1</v>
       </c>
-      <c r="AK31" s="7">
-        <f t="shared" ref="AK31:AK33" si="7">AJ31*1.1</f>
+      <c r="AO31" s="7">
+        <f t="shared" ref="AO31:AO33" si="7">AN31*1.1</f>
         <v>0</v>
       </c>
-      <c r="AL31" s="7">
-        <f t="shared" ref="AL31" si="8">AK31*1.05</f>
-        <v>0</v>
-      </c>
-      <c r="AM31" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AP31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AP31" si="8">AO31*1.05</f>
         <v>0</v>
       </c>
       <c r="AQ31" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:43" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR31" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS31" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT31" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="7" t="s">
         <v>81</v>
       </c>
@@ -2414,17 +2528,21 @@
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
-      <c r="AF32" s="7">
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AJ32" s="7">
         <v>143</v>
       </c>
-      <c r="AG32" s="7">
+      <c r="AK32" s="7">
         <v>80.5</v>
       </c>
-      <c r="AH32" s="7">
+      <c r="AL32" s="7">
         <v>95.3</v>
       </c>
     </row>
-    <row r="33" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="7" t="s">
         <v>26</v>
       </c>
@@ -2470,63 +2588,69 @@
       <c r="R33" s="8">
         <v>101.5</v>
       </c>
-      <c r="S33" s="8"/>
+      <c r="S33" s="8">
+        <v>91.6</v>
+      </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
-      <c r="AC33" s="7">
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AG33" s="7">
         <v>167.4</v>
       </c>
-      <c r="AD33" s="7">
+      <c r="AH33" s="7">
         <v>301.33999999999997</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AI33" s="7">
         <v>404.3</v>
       </c>
-      <c r="AF33" s="7">
+      <c r="AJ33" s="7">
         <v>307.10000000000002</v>
       </c>
-      <c r="AG33" s="7">
+      <c r="AK33" s="7">
         <v>87.4</v>
       </c>
-      <c r="AH33" s="7">
+      <c r="AL33" s="7">
         <v>181.1</v>
       </c>
-      <c r="AI33" s="7">
-        <f t="shared" ref="AI33" si="9">SUM(O33:R33)</f>
+      <c r="AM33" s="7">
+        <f t="shared" ref="AM33" si="9">SUM(O33:R33)</f>
         <v>338.2</v>
       </c>
-      <c r="AK33" s="7">
+      <c r="AO33" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="7">
-        <f t="shared" ref="AL33:AQ33" si="10">AK33*1.05</f>
-        <v>0</v>
-      </c>
-      <c r="AM33" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO33" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="AP33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AP33:AU33" si="10">AO33*1.05</f>
         <v>0</v>
       </c>
       <c r="AQ33" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:99" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR33" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS33" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:103" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2586,84 +2710,99 @@
         <v>1014</v>
       </c>
       <c r="S34" s="10">
-        <f t="shared" ref="S34:V34" si="16">+S28*S26</f>
-        <v>1320.0140970500001</v>
+        <f>SUM(S30:S33)</f>
+        <v>954.4</v>
       </c>
       <c r="T34" s="10">
+        <v>1347.9</v>
+      </c>
+      <c r="U34" s="10">
+        <f>+U28*U26</f>
+        <v>1392.3298570500001</v>
+      </c>
+      <c r="V34" s="10">
+        <f t="shared" ref="S34:Z34" si="16">+V28*V26</f>
+        <v>1460.7970754850003</v>
+      </c>
+      <c r="W34" s="10">
         <f t="shared" si="16"/>
-        <v>1793.8086518000002</v>
-      </c>
-      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="X34" s="10">
         <f t="shared" si="16"/>
-        <v>1547.0331745000001</v>
-      </c>
-      <c r="V34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="10">
         <f t="shared" si="16"/>
-        <v>1623.1078616500001</v>
-      </c>
-      <c r="W34" s="10"/>
-      <c r="AC34" s="10">
-        <f t="shared" ref="AC34" si="17">SUM(AC30:AC33)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="10"/>
+      <c r="AG34" s="10">
+        <f t="shared" ref="AG34" si="17">SUM(AG30:AG33)</f>
         <v>3235.9</v>
       </c>
-      <c r="AD34" s="10">
-        <f t="shared" ref="AD34" si="18">SUM(AD30:AD33)</f>
+      <c r="AH34" s="10">
+        <f t="shared" ref="AH34" si="18">SUM(AH30:AH33)</f>
         <v>5079.24</v>
       </c>
-      <c r="AE34" s="10">
-        <f t="shared" ref="AE34" si="19">SUM(AE30:AE33)</f>
+      <c r="AI34" s="10">
+        <f t="shared" ref="AI34" si="19">SUM(AI30:AI33)</f>
         <v>5460.8</v>
       </c>
-      <c r="AF34" s="10">
-        <f>SUM(AF30:AF33)</f>
+      <c r="AJ34" s="10">
+        <f>SUM(AJ30:AJ33)</f>
         <v>5471</v>
       </c>
-      <c r="AG34" s="10">
-        <f>SUM(AG30:AG33)</f>
+      <c r="AK34" s="10">
+        <f>SUM(AK30:AK33)</f>
         <v>1242.4000000000001</v>
       </c>
-      <c r="AH34" s="10">
-        <f t="shared" ref="AH34:AI34" si="20">SUM(AH30:AH33)</f>
+      <c r="AL34" s="10">
+        <f t="shared" ref="AL34:AM34" si="20">SUM(AL30:AL33)</f>
         <v>2527.9</v>
       </c>
-      <c r="AI34" s="10">
+      <c r="AM34" s="10">
         <f t="shared" si="20"/>
         <v>3873.2999999999997</v>
       </c>
-      <c r="AJ34" s="9">
+      <c r="AN34" s="9">
         <f>SUM(S34:V34)</f>
-        <v>6283.9637850000008</v>
-      </c>
-      <c r="AK34" s="10">
-        <f>+AJ34*1.04</f>
-        <v>6535.3223364000014</v>
-      </c>
-      <c r="AL34" s="10">
-        <f t="shared" ref="AL34:AQ34" si="21">+AK34*1.04</f>
-        <v>6796.7352298560018</v>
-      </c>
-      <c r="AM34" s="10">
-        <f t="shared" si="21"/>
-        <v>7068.6046390502424</v>
-      </c>
-      <c r="AN34" s="10">
-        <f t="shared" si="21"/>
-        <v>7351.3488246122524</v>
+        <v>5155.4269325350006</v>
       </c>
       <c r="AO34" s="10">
-        <f t="shared" si="21"/>
-        <v>7645.4027775967425</v>
+        <f>+AN34*1.04</f>
+        <v>5361.644009836401</v>
       </c>
       <c r="AP34" s="10">
-        <f t="shared" si="21"/>
-        <v>7951.2188887006123</v>
+        <f t="shared" ref="AP34:AU34" si="21">+AO34*1.04</f>
+        <v>5576.1097702298575</v>
       </c>
       <c r="AQ34" s="10">
         <f t="shared" si="21"/>
-        <v>8269.2676442486372</v>
-      </c>
-    </row>
-    <row r="35" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5799.1541610390523</v>
+      </c>
+      <c r="AR34" s="10">
+        <f t="shared" si="21"/>
+        <v>6031.1203274806148</v>
+      </c>
+      <c r="AS34" s="10">
+        <f t="shared" si="21"/>
+        <v>6272.36514057984</v>
+      </c>
+      <c r="AT34" s="10">
+        <f t="shared" si="21"/>
+        <v>6523.2597462030335</v>
+      </c>
+      <c r="AU34" s="10">
+        <f t="shared" si="21"/>
+        <v>6784.1901360511547</v>
+      </c>
+    </row>
+    <row r="35" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
@@ -2710,80 +2849,82 @@
         <v>270</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" ref="S35:V35" si="22">+S34*0.28</f>
-        <v>369.6039471740001</v>
+        <v>246.2</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="22"/>
-        <v>502.2664225040001</v>
+        <v>383.1</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="22"/>
-        <v>433.16928886000005</v>
+        <f t="shared" ref="S35:V35" si="22">+U34*0.28</f>
+        <v>389.85235997400008</v>
       </c>
       <c r="V35" s="8">
         <f t="shared" si="22"/>
-        <v>454.4702012620001</v>
+        <v>409.02318113580014</v>
       </c>
       <c r="W35" s="8"/>
-      <c r="AC35" s="7">
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AG35" s="7">
         <v>1089.5</v>
       </c>
-      <c r="AD35" s="7">
+      <c r="AH35" s="7">
         <v>1604.3</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AI35" s="7">
         <v>1710.2</v>
       </c>
-      <c r="AF35" s="7">
+      <c r="AJ35" s="7">
         <v>1699.1</v>
       </c>
-      <c r="AG35" s="7">
-        <f t="shared" ref="AG35:AG39" si="23">SUM(G35:J35)</f>
+      <c r="AK35" s="7">
+        <f t="shared" ref="AK35:AK39" si="23">SUM(G35:J35)</f>
         <v>322.7</v>
       </c>
-      <c r="AH35" s="7">
-        <f t="shared" ref="AH35:AH39" si="24">SUM(K35:N35)</f>
+      <c r="AL35" s="7">
+        <f t="shared" ref="AL35:AL39" si="24">SUM(K35:N35)</f>
         <v>607.70000000000005</v>
       </c>
-      <c r="AI35" s="7">
+      <c r="AM35" s="7">
         <f>SUM(O35:R35)</f>
         <v>1051.7</v>
       </c>
-      <c r="AJ35" s="7">
+      <c r="AN35" s="7">
         <f>SUM(S35:V35)</f>
-        <v>1759.5098598000004</v>
-      </c>
-      <c r="AK35" s="7">
-        <f>+AJ35*1.01</f>
-        <v>1777.1049583980005</v>
-      </c>
-      <c r="AL35" s="7">
-        <f t="shared" ref="AL35:AQ35" si="25">+AK35*1.01</f>
-        <v>1794.8760079819806</v>
-      </c>
-      <c r="AM35" s="7">
-        <f t="shared" si="25"/>
-        <v>1812.8247680618003</v>
-      </c>
-      <c r="AN35" s="7">
-        <f t="shared" si="25"/>
-        <v>1830.9530157424183</v>
+        <v>1428.1755411098002</v>
       </c>
       <c r="AO35" s="7">
-        <f t="shared" si="25"/>
-        <v>1849.2625458998425</v>
+        <f>+AN35*1.01</f>
+        <v>1442.4572965208981</v>
       </c>
       <c r="AP35" s="7">
-        <f t="shared" si="25"/>
-        <v>1867.7551713588409</v>
+        <f t="shared" ref="AP35:AU35" si="25">+AO35*1.01</f>
+        <v>1456.881869486107</v>
       </c>
       <c r="AQ35" s="7">
         <f t="shared" si="25"/>
-        <v>1886.4327230724293</v>
-      </c>
-    </row>
-    <row r="36" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1471.4506881809682</v>
+      </c>
+      <c r="AR35" s="7">
+        <f t="shared" si="25"/>
+        <v>1486.1651950627779</v>
+      </c>
+      <c r="AS35" s="7">
+        <f t="shared" si="25"/>
+        <v>1501.0268470134058</v>
+      </c>
+      <c r="AT35" s="7">
+        <f t="shared" si="25"/>
+        <v>1516.03711548354</v>
+      </c>
+      <c r="AU35" s="7">
+        <f t="shared" si="25"/>
+        <v>1531.1974866383755</v>
+      </c>
+    </row>
+    <row r="36" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7" t="s">
         <v>25</v>
       </c>
@@ -2830,80 +2971,82 @@
         <v>62.9</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" ref="S36" si="26">R36+3</f>
-        <v>65.900000000000006</v>
+        <v>61.4</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" ref="T36" si="27">S36+3</f>
-        <v>68.900000000000006</v>
+        <v>91.7</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" ref="U36" si="28">T36+3</f>
-        <v>71.900000000000006</v>
+        <f t="shared" ref="U36" si="26">T36+3</f>
+        <v>94.7</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" ref="V36" si="29">U36+3</f>
-        <v>74.900000000000006</v>
+        <f t="shared" ref="V36" si="27">U36+3</f>
+        <v>97.7</v>
       </c>
       <c r="W36" s="8"/>
-      <c r="AC36" s="7">
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AG36" s="7">
         <v>142.19999999999999</v>
       </c>
-      <c r="AD36" s="7">
+      <c r="AH36" s="7">
         <v>252.1</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AI36" s="7">
         <v>270.89999999999998</v>
       </c>
-      <c r="AF36" s="7">
+      <c r="AJ36" s="7">
         <v>278.7</v>
       </c>
-      <c r="AG36" s="7">
+      <c r="AK36" s="7">
         <f t="shared" si="23"/>
         <v>88.800000000000011</v>
       </c>
-      <c r="AH36" s="7">
+      <c r="AL36" s="7">
         <f t="shared" si="24"/>
         <v>137.9</v>
       </c>
-      <c r="AI36" s="7">
+      <c r="AM36" s="7">
         <f>SUM(O36:R36)</f>
         <v>228.6</v>
       </c>
-      <c r="AJ36" s="7">
+      <c r="AN36" s="7">
         <f>SUM(S36:V36)</f>
-        <v>281.60000000000002</v>
-      </c>
-      <c r="AK36" s="7">
-        <f t="shared" ref="AK36:AQ36" si="30">+AJ36*1.01</f>
-        <v>284.41600000000005</v>
-      </c>
-      <c r="AL36" s="7">
-        <f t="shared" si="30"/>
-        <v>287.26016000000004</v>
-      </c>
-      <c r="AM36" s="7">
-        <f t="shared" si="30"/>
-        <v>290.13276160000004</v>
-      </c>
-      <c r="AN36" s="7">
-        <f t="shared" si="30"/>
-        <v>293.03408921600004</v>
+        <v>345.5</v>
       </c>
       <c r="AO36" s="7">
-        <f t="shared" si="30"/>
-        <v>295.96443010816006</v>
+        <f t="shared" ref="AO36:AU36" si="28">+AN36*1.01</f>
+        <v>348.95499999999998</v>
       </c>
       <c r="AP36" s="7">
-        <f t="shared" si="30"/>
-        <v>298.92407440924165</v>
+        <f t="shared" si="28"/>
+        <v>352.44454999999999</v>
       </c>
       <c r="AQ36" s="7">
-        <f t="shared" si="30"/>
-        <v>301.91331515333405</v>
-      </c>
-    </row>
-    <row r="37" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>355.96899550000001</v>
+      </c>
+      <c r="AR36" s="7">
+        <f t="shared" si="28"/>
+        <v>359.52868545500002</v>
+      </c>
+      <c r="AS36" s="7">
+        <f t="shared" si="28"/>
+        <v>363.12397230955003</v>
+      </c>
+      <c r="AT36" s="7">
+        <f t="shared" si="28"/>
+        <v>366.75521203264555</v>
+      </c>
+      <c r="AU36" s="7">
+        <f t="shared" si="28"/>
+        <v>370.42276415297198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
@@ -2950,80 +3093,82 @@
         <v>380.8</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" ref="S37:S38" si="31">R37+10</f>
-        <v>390.8</v>
+        <v>383.2</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" ref="T37:T38" si="32">S37+10</f>
-        <v>400.8</v>
+        <v>412</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" ref="U37:U38" si="33">T37+10</f>
-        <v>410.8</v>
+        <f t="shared" ref="U37:U38" si="29">T37+10</f>
+        <v>422</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" ref="V37:V38" si="34">U37+10</f>
-        <v>420.8</v>
+        <f t="shared" ref="V37:V38" si="30">U37+10</f>
+        <v>432</v>
       </c>
       <c r="W37" s="8"/>
-      <c r="AC37" s="7">
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AG37" s="7">
         <v>873.5</v>
       </c>
-      <c r="AD37" s="7">
+      <c r="AH37" s="7">
         <v>1548</v>
       </c>
-      <c r="AE37" s="7">
+      <c r="AI37" s="7">
         <v>1654.7</v>
       </c>
-      <c r="AF37" s="7">
+      <c r="AJ37" s="7">
         <v>1686.6</v>
       </c>
-      <c r="AG37" s="7">
+      <c r="AK37" s="7">
         <f t="shared" si="23"/>
         <v>856</v>
       </c>
-      <c r="AH37" s="7">
+      <c r="AL37" s="7">
         <f t="shared" si="24"/>
         <v>1141.8</v>
       </c>
-      <c r="AI37" s="7">
+      <c r="AM37" s="7">
         <f>SUM(O37:R37)</f>
         <v>1528.3999999999999</v>
       </c>
-      <c r="AJ37" s="7">
+      <c r="AN37" s="7">
         <f>SUM(S37:V37)</f>
-        <v>1623.2</v>
-      </c>
-      <c r="AK37" s="7">
-        <f t="shared" ref="AK37:AQ37" si="35">+AJ37*1.01</f>
-        <v>1639.432</v>
-      </c>
-      <c r="AL37" s="7">
-        <f t="shared" si="35"/>
-        <v>1655.8263200000001</v>
-      </c>
-      <c r="AM37" s="7">
-        <f t="shared" si="35"/>
-        <v>1672.3845832000002</v>
-      </c>
-      <c r="AN37" s="7">
-        <f t="shared" si="35"/>
-        <v>1689.1084290320002</v>
+        <v>1649.2</v>
       </c>
       <c r="AO37" s="7">
-        <f t="shared" si="35"/>
-        <v>1705.9995133223204</v>
+        <f t="shared" ref="AO37:AU37" si="31">+AN37*1.01</f>
+        <v>1665.692</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="35"/>
-        <v>1723.0595084555437</v>
+        <f t="shared" si="31"/>
+        <v>1682.3489200000001</v>
       </c>
       <c r="AQ37" s="7">
-        <f t="shared" si="35"/>
-        <v>1740.2901035400992</v>
-      </c>
-    </row>
-    <row r="38" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>1699.1724092000002</v>
+      </c>
+      <c r="AR37" s="7">
+        <f t="shared" si="31"/>
+        <v>1716.1641332920001</v>
+      </c>
+      <c r="AS37" s="7">
+        <f t="shared" si="31"/>
+        <v>1733.3257746249201</v>
+      </c>
+      <c r="AT37" s="7">
+        <f t="shared" si="31"/>
+        <v>1750.6590323711694</v>
+      </c>
+      <c r="AU37" s="7">
+        <f t="shared" si="31"/>
+        <v>1768.165622694881</v>
+      </c>
+    </row>
+    <row r="38" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="7" t="s">
         <v>29</v>
       </c>
@@ -3070,80 +3215,82 @@
         <v>217.4</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="31"/>
-        <v>227.4</v>
+        <v>205.7</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="32"/>
-        <v>237.4</v>
+        <v>220.8</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="33"/>
-        <v>247.4</v>
+        <f t="shared" si="29"/>
+        <v>230.8</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="34"/>
-        <v>257.39999999999998</v>
+        <f t="shared" si="30"/>
+        <v>240.8</v>
       </c>
       <c r="W38" s="8"/>
-      <c r="AC38" s="7">
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AG38" s="7">
         <v>505.5</v>
       </c>
-      <c r="AD38" s="7">
+      <c r="AH38" s="7">
         <v>794.4</v>
       </c>
-      <c r="AE38" s="7">
+      <c r="AI38" s="7">
         <v>797.8</v>
       </c>
-      <c r="AF38" s="7">
+      <c r="AJ38" s="7">
         <v>967.8</v>
       </c>
-      <c r="AG38" s="7">
+      <c r="AK38" s="7">
         <f t="shared" si="23"/>
         <v>884.1</v>
       </c>
-      <c r="AH38" s="7">
+      <c r="AL38" s="7">
         <f t="shared" si="24"/>
         <v>828</v>
       </c>
-      <c r="AI38" s="7">
+      <c r="AM38" s="7">
         <f>SUM(O38:R38)</f>
         <v>886.19999999999993</v>
       </c>
-      <c r="AJ38" s="7">
-        <f>AI38*1.15</f>
+      <c r="AN38" s="7">
+        <f>AM38*1.15</f>
         <v>1019.1299999999999</v>
       </c>
-      <c r="AK38" s="7">
-        <f t="shared" ref="AK38:AQ38" si="36">+AJ38*1.01</f>
+      <c r="AO38" s="7">
+        <f t="shared" ref="AO38:AU38" si="32">+AN38*1.01</f>
         <v>1029.3212999999998</v>
       </c>
-      <c r="AL38" s="7">
-        <f t="shared" si="36"/>
+      <c r="AP38" s="7">
+        <f t="shared" si="32"/>
         <v>1039.6145129999998</v>
       </c>
-      <c r="AM38" s="7">
-        <f t="shared" si="36"/>
+      <c r="AQ38" s="7">
+        <f t="shared" si="32"/>
         <v>1050.0106581299997</v>
       </c>
-      <c r="AN38" s="7">
-        <f t="shared" si="36"/>
+      <c r="AR38" s="7">
+        <f t="shared" si="32"/>
         <v>1060.5107647112998</v>
       </c>
-      <c r="AO38" s="7">
-        <f t="shared" si="36"/>
+      <c r="AS38" s="7">
+        <f t="shared" si="32"/>
         <v>1071.1158723584128</v>
       </c>
-      <c r="AP38" s="7">
-        <f t="shared" si="36"/>
+      <c r="AT38" s="7">
+        <f t="shared" si="32"/>
         <v>1081.8270310819969</v>
       </c>
-      <c r="AQ38" s="7">
-        <f t="shared" si="36"/>
+      <c r="AU38" s="7">
+        <f t="shared" si="32"/>
         <v>1092.6453013928169</v>
       </c>
     </row>
-    <row r="39" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7" t="s">
         <v>30</v>
       </c>
@@ -3190,80 +3337,82 @@
         <v>46.4</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" ref="S39" si="37">R39+5</f>
-        <v>51.4</v>
+        <v>72.3</v>
       </c>
       <c r="T39" s="8">
-        <f t="shared" ref="T39" si="38">S39+5</f>
-        <v>56.4</v>
+        <v>58.1</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="39">T39+5</f>
-        <v>61.4</v>
+        <f t="shared" ref="U39" si="33">T39+5</f>
+        <v>63.1</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="40">U39+5</f>
-        <v>66.400000000000006</v>
+        <f t="shared" ref="V39" si="34">U39+5</f>
+        <v>68.099999999999994</v>
       </c>
       <c r="W39" s="8"/>
-      <c r="AC39" s="7">
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AG39" s="7">
         <v>90.7</v>
       </c>
-      <c r="AD39" s="7">
+      <c r="AH39" s="7">
         <v>133.19999999999999</v>
       </c>
-      <c r="AE39" s="7">
+      <c r="AI39" s="7">
         <v>179.3</v>
       </c>
-      <c r="AF39" s="7">
+      <c r="AJ39" s="7">
         <v>153</v>
       </c>
-      <c r="AG39" s="7">
+      <c r="AK39" s="7">
         <f t="shared" si="23"/>
         <v>156.70000000000002</v>
       </c>
-      <c r="AH39" s="7">
+      <c r="AL39" s="7">
         <f t="shared" si="24"/>
         <v>226.6</v>
       </c>
-      <c r="AI39" s="7">
+      <c r="AM39" s="7">
         <f>SUM(O39:R39)</f>
         <v>207.6</v>
       </c>
-      <c r="AJ39" s="7">
+      <c r="AN39" s="7">
         <f>SUM(S39:V39)</f>
-        <v>235.6</v>
-      </c>
-      <c r="AK39" s="7">
-        <f t="shared" ref="AK39:AQ39" si="41">+AJ39*1.01</f>
-        <v>237.95599999999999</v>
-      </c>
-      <c r="AL39" s="7">
-        <f t="shared" si="41"/>
-        <v>240.33555999999999</v>
-      </c>
-      <c r="AM39" s="7">
-        <f t="shared" si="41"/>
-        <v>242.73891559999998</v>
-      </c>
-      <c r="AN39" s="7">
-        <f t="shared" si="41"/>
-        <v>245.16630475599999</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="AO39" s="7">
-        <f t="shared" si="41"/>
-        <v>247.61796780355999</v>
+        <f t="shared" ref="AO39:AU39" si="35">+AN39*1.01</f>
+        <v>264.21600000000001</v>
       </c>
       <c r="AP39" s="7">
-        <f t="shared" si="41"/>
-        <v>250.0941474815956</v>
+        <f t="shared" si="35"/>
+        <v>266.85816</v>
       </c>
       <c r="AQ39" s="7">
-        <f t="shared" si="41"/>
-        <v>252.59508895641156</v>
-      </c>
-    </row>
-    <row r="40" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="35"/>
+        <v>269.52674159999998</v>
+      </c>
+      <c r="AR39" s="7">
+        <f t="shared" si="35"/>
+        <v>272.22200901599996</v>
+      </c>
+      <c r="AS39" s="7">
+        <f t="shared" si="35"/>
+        <v>274.94422910615998</v>
+      </c>
+      <c r="AT39" s="7">
+        <f t="shared" si="35"/>
+        <v>277.69367139722158</v>
+      </c>
+      <c r="AU39" s="7">
+        <f t="shared" si="35"/>
+        <v>280.47060811119377</v>
+      </c>
+    </row>
+    <row r="40" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
@@ -3271,39 +3420,39 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <f t="shared" ref="F40" si="42">SUM(F35:F39)</f>
+        <f t="shared" ref="F40" si="36">SUM(F35:F39)</f>
         <v>1202.8</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40" si="43">SUM(G35:G39)</f>
+        <f t="shared" ref="G40" si="37">SUM(G35:G39)</f>
         <v>953</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:I40" si="44">SUM(H35:H39)</f>
+        <f t="shared" ref="H40:I40" si="38">SUM(H35:H39)</f>
         <v>369</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>474.5</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="45">SUM(J35:J39)</f>
+        <f t="shared" ref="J40:N40" si="39">SUM(J35:J39)</f>
         <v>511.79999999999995</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>455.3</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>631.29999999999995</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>803.3</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>1052.1000000000001</v>
       </c>
       <c r="O40" s="8">
@@ -3311,7 +3460,7 @@
         <v>853.50000000000011</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:R40" si="46">SUM(P35:P39)</f>
+        <f t="shared" ref="P40:R40" si="40">SUM(P35:P39)</f>
         <v>1085.4000000000001</v>
       </c>
       <c r="Q40" s="8">
@@ -3319,88 +3468,92 @@
         <v>986.1</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>977.5</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" ref="S40:V40" si="47">SUM(S35:S39)</f>
-        <v>1105.1039471740003</v>
+        <f t="shared" ref="S40:V40" si="41">SUM(S35:S39)</f>
+        <v>968.8</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="47"/>
-        <v>1265.7664225040003</v>
+        <f t="shared" si="41"/>
+        <v>1165.6999999999998</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="47"/>
-        <v>1224.6692888600003</v>
+        <f t="shared" si="41"/>
+        <v>1200.452359974</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="47"/>
-        <v>1273.970201262</v>
+        <f t="shared" si="41"/>
+        <v>1247.6231811358</v>
       </c>
       <c r="W40" s="8"/>
-      <c r="AC40" s="8">
-        <f t="shared" ref="AC40" si="48">SUM(AC35:AC39)</f>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AG40" s="8">
+        <f t="shared" ref="AG40" si="42">SUM(AG35:AG39)</f>
         <v>2701.3999999999996</v>
       </c>
-      <c r="AD40" s="8">
-        <f t="shared" ref="AD40" si="49">SUM(AD35:AD39)</f>
+      <c r="AH40" s="8">
+        <f t="shared" ref="AH40" si="43">SUM(AH35:AH39)</f>
         <v>4331.9999999999991</v>
       </c>
-      <c r="AE40" s="8">
-        <f t="shared" ref="AE40" si="50">SUM(AE35:AE39)</f>
+      <c r="AI40" s="8">
+        <f t="shared" ref="AI40" si="44">SUM(AI35:AI39)</f>
         <v>4612.9000000000005</v>
-      </c>
-      <c r="AF40" s="8">
-        <f>SUM(AF35:AF39)</f>
-        <v>4785.2</v>
-      </c>
-      <c r="AG40" s="8">
-        <f>SUM(AG35:AG39)</f>
-        <v>2308.2999999999997</v>
-      </c>
-      <c r="AH40" s="8">
-        <f>SUM(AH35:AH39)</f>
-        <v>2942</v>
-      </c>
-      <c r="AI40" s="8">
-        <f>SUM(AI35:AI39)</f>
-        <v>3902.4999999999995</v>
       </c>
       <c r="AJ40" s="8">
         <f>SUM(AJ35:AJ39)</f>
-        <v>4919.0398598000011</v>
+        <v>4785.2</v>
       </c>
       <c r="AK40" s="8">
-        <f t="shared" ref="AK40:AQ40" si="51">SUM(AK35:AK39)</f>
-        <v>4968.2302583979999</v>
+        <f>SUM(AK35:AK39)</f>
+        <v>2308.2999999999997</v>
       </c>
       <c r="AL40" s="8">
-        <f t="shared" si="51"/>
-        <v>5017.9125609819803</v>
+        <f>SUM(AL35:AL39)</f>
+        <v>2942</v>
       </c>
       <c r="AM40" s="8">
-        <f t="shared" si="51"/>
-        <v>5068.0916865917998</v>
+        <f>SUM(AM35:AM39)</f>
+        <v>3902.4999999999995</v>
       </c>
       <c r="AN40" s="8">
-        <f t="shared" si="51"/>
-        <v>5118.7726034577181</v>
+        <f>SUM(AN35:AN39)</f>
+        <v>4703.6055411098005</v>
       </c>
       <c r="AO40" s="8">
-        <f t="shared" si="51"/>
-        <v>5169.9603294922954</v>
+        <f t="shared" ref="AO40:AU40" si="45">SUM(AO35:AO39)</f>
+        <v>4750.641596520898</v>
       </c>
       <c r="AP40" s="8">
-        <f t="shared" si="51"/>
-        <v>5221.6599327872191</v>
+        <f t="shared" si="45"/>
+        <v>4798.1480124861064</v>
       </c>
       <c r="AQ40" s="8">
-        <f t="shared" si="51"/>
-        <v>5273.8765321150913</v>
-      </c>
-    </row>
-    <row r="41" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>4846.1294926109676</v>
+      </c>
+      <c r="AR40" s="8">
+        <f t="shared" si="45"/>
+        <v>4894.5907875370776</v>
+      </c>
+      <c r="AS40" s="8">
+        <f t="shared" si="45"/>
+        <v>4943.5366954124484</v>
+      </c>
+      <c r="AT40" s="8">
+        <f t="shared" si="45"/>
+        <v>4992.9720623665735</v>
+      </c>
+      <c r="AU40" s="8">
+        <f t="shared" si="45"/>
+        <v>5042.9017829902386</v>
+      </c>
+    </row>
+    <row r="41" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -3408,35 +3561,35 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41" si="52">F34-F40</f>
+        <f t="shared" ref="F41" si="46">F34-F40</f>
         <v>244.90000000000009</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" ref="G41" si="53">G34-G40</f>
+        <f t="shared" ref="G41" si="47">G34-G40</f>
         <v>-11.5</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41:I41" si="54">H34-H40</f>
+        <f t="shared" ref="H41:I41" si="48">H34-H40</f>
         <v>-350.1</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="48"/>
         <v>-355</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:M41" si="55">J34-J40</f>
+        <f t="shared" ref="J41:M41" si="49">J34-J40</f>
         <v>-349.29999999999995</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>-307</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>-186.59999999999997</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="49"/>
         <v>-40.100000000000023</v>
       </c>
       <c r="N41" s="8">
@@ -3448,7 +3601,7 @@
         <v>-67.800000000000182</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:R41" si="56">P34-P40</f>
+        <f t="shared" ref="P41:R41" si="50">P34-P40</f>
         <v>81</v>
       </c>
       <c r="Q41" s="8">
@@ -3456,88 +3609,92 @@
         <v>-17.700000000000159</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="50"/>
         <v>36.5</v>
       </c>
       <c r="S41" s="8">
-        <f t="shared" ref="S41:V41" si="57">S34-S40</f>
-        <v>214.91014987599988</v>
+        <f>S34-S40</f>
+        <v>-14.399999999999977</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" si="57"/>
-        <v>528.04222929599996</v>
+        <f t="shared" ref="S41:V41" si="51">T34-T40</f>
+        <v>182.20000000000027</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="57"/>
-        <v>322.36388563999981</v>
+        <f t="shared" si="51"/>
+        <v>191.87749707600005</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="57"/>
-        <v>349.13766038800009</v>
+        <f t="shared" si="51"/>
+        <v>213.17389434920028</v>
       </c>
       <c r="W41" s="8"/>
-      <c r="AC41" s="8">
-        <f t="shared" ref="AC41" si="58">AC34-AC40</f>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AG41" s="8">
+        <f t="shared" ref="AG41" si="52">AG34-AG40</f>
         <v>534.50000000000045</v>
       </c>
-      <c r="AD41" s="8">
-        <f t="shared" ref="AD41" si="59">AD34-AD40</f>
+      <c r="AH41" s="8">
+        <f t="shared" ref="AH41" si="53">AH34-AH40</f>
         <v>747.24000000000069</v>
       </c>
-      <c r="AE41" s="8">
-        <f t="shared" ref="AE41" si="60">AE34-AE40</f>
+      <c r="AI41" s="8">
+        <f t="shared" ref="AI41" si="54">AI34-AI40</f>
         <v>847.89999999999964</v>
-      </c>
-      <c r="AF41" s="8">
-        <f>AF34-AF40</f>
-        <v>685.80000000000018</v>
-      </c>
-      <c r="AG41" s="8">
-        <f>AG34-AG40</f>
-        <v>-1065.8999999999996</v>
-      </c>
-      <c r="AH41" s="8">
-        <f>AH34-AH40</f>
-        <v>-414.09999999999991</v>
-      </c>
-      <c r="AI41" s="8">
-        <f>AI34-AI40</f>
-        <v>-29.199999999999818</v>
       </c>
       <c r="AJ41" s="8">
         <f>AJ34-AJ40</f>
-        <v>1364.9239251999998</v>
+        <v>685.80000000000018</v>
       </c>
       <c r="AK41" s="8">
-        <f t="shared" ref="AK41:AQ41" si="61">AK34-AK40</f>
-        <v>1567.0920780020015</v>
+        <f>AK34-AK40</f>
+        <v>-1065.8999999999996</v>
       </c>
       <c r="AL41" s="8">
-        <f t="shared" si="61"/>
-        <v>1778.8226688740215</v>
+        <f>AL34-AL40</f>
+        <v>-414.09999999999991</v>
       </c>
       <c r="AM41" s="8">
-        <f t="shared" si="61"/>
-        <v>2000.5129524584427</v>
+        <f>AM34-AM40</f>
+        <v>-29.199999999999818</v>
       </c>
       <c r="AN41" s="8">
-        <f t="shared" si="61"/>
-        <v>2232.5762211545343</v>
+        <f>AN34-AN40</f>
+        <v>451.82139142520009</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" si="61"/>
-        <v>2475.4424481044471</v>
+        <f t="shared" ref="AO41:AU41" si="55">AO34-AO40</f>
+        <v>611.00241331550296</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="61"/>
-        <v>2729.5589559133932</v>
+        <f t="shared" si="55"/>
+        <v>777.96175774375115</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="61"/>
-        <v>2995.3911121335459</v>
-      </c>
-    </row>
-    <row r="42" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="55"/>
+        <v>953.02466842808462</v>
+      </c>
+      <c r="AR41" s="8">
+        <f t="shared" si="55"/>
+        <v>1136.5295399435372</v>
+      </c>
+      <c r="AS41" s="8">
+        <f t="shared" si="55"/>
+        <v>1328.8284451673917</v>
+      </c>
+      <c r="AT41" s="8">
+        <f t="shared" si="55"/>
+        <v>1530.28768383646</v>
+      </c>
+      <c r="AU41" s="8">
+        <f t="shared" si="55"/>
+        <v>1741.2883530609161</v>
+      </c>
+    </row>
+    <row r="42" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -3586,10 +3743,10 @@
         <v>-82</v>
       </c>
       <c r="S42" s="8">
-        <v>-82</v>
+        <v>-90.7</v>
       </c>
       <c r="T42" s="8">
-        <v>-82</v>
+        <v>-92</v>
       </c>
       <c r="U42" s="8">
         <v>-82</v>
@@ -3598,62 +3755,66 @@
         <v>-82</v>
       </c>
       <c r="W42" s="8"/>
-      <c r="AC42" s="7">
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AG42" s="7">
         <v>-110.7</v>
       </c>
-      <c r="AD42" s="7">
+      <c r="AH42" s="7">
         <v>-231.6</v>
       </c>
-      <c r="AE42" s="7">
+      <c r="AI42" s="7">
         <v>-262.3</v>
       </c>
-      <c r="AF42" s="7">
+      <c r="AJ42" s="7">
         <v>-292.8</v>
       </c>
-      <c r="AG42" s="7">
+      <c r="AK42" s="7">
         <f>SUM(G42:J42)</f>
         <v>-311</v>
       </c>
-      <c r="AH42" s="7">
-        <f t="shared" ref="AH42" si="62">SUM(K42:N42)</f>
+      <c r="AL42" s="7">
+        <f t="shared" ref="AL42" si="56">SUM(K42:N42)</f>
         <v>-414.9</v>
       </c>
-      <c r="AI42" s="7">
-        <f t="shared" ref="AI42" si="63">SUM(O42:R42)</f>
+      <c r="AM42" s="7">
+        <f t="shared" ref="AM42" si="57">SUM(O42:R42)</f>
         <v>-336.4</v>
       </c>
-      <c r="AJ42" s="7">
+      <c r="AN42" s="7">
         <f>SUM(S42:V42)</f>
-        <v>-328</v>
-      </c>
-      <c r="AK42" s="7">
-        <f>AJ60*0.07</f>
-        <v>-253.96532523600004</v>
-      </c>
-      <c r="AL42" s="7">
-        <f t="shared" ref="AL42:AO42" si="64">AK60*0.07</f>
-        <v>-162.04645254237997</v>
-      </c>
-      <c r="AM42" s="7">
-        <f t="shared" si="64"/>
-        <v>-48.872117399165035</v>
-      </c>
-      <c r="AN42" s="7">
-        <f t="shared" si="64"/>
-        <v>87.742741054984407</v>
+        <v>-346.7</v>
       </c>
       <c r="AO42" s="7">
-        <f t="shared" si="64"/>
-        <v>250.16506840965076</v>
+        <f>AN60*0.07</f>
+        <v>-319.19150260023599</v>
       </c>
       <c r="AP42" s="7">
+        <f t="shared" ref="AP42:AS42" si="58">AO60*0.07</f>
+        <v>-298.76473885016736</v>
+      </c>
+      <c r="AQ42" s="7">
+        <f t="shared" si="58"/>
+        <v>-265.22094752761649</v>
+      </c>
+      <c r="AR42" s="7">
+        <f t="shared" si="58"/>
+        <v>-217.07468706458371</v>
+      </c>
+      <c r="AS42" s="7">
+        <f t="shared" si="58"/>
+        <v>-152.71284736305694</v>
+      </c>
+      <c r="AT42" s="7">
         <v>0</v>
       </c>
-      <c r="AQ42" s="7">
+      <c r="AU42" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7" t="s">
         <v>34</v>
       </c>
@@ -3661,39 +3822,39 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <f t="shared" ref="F43" si="65">F41+F42</f>
+        <f t="shared" ref="F43" si="59">F41+F42</f>
         <v>170.8000000000001</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="66">G41+G42</f>
+        <f t="shared" ref="G43" si="60">G41+G42</f>
         <v>-82.8</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43:I43" si="67">H41+H42</f>
+        <f t="shared" ref="H43:I43" si="61">H41+H42</f>
         <v>-429.70000000000005</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>-437.8</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J43:N43" si="68">J41+J42</f>
+        <f t="shared" ref="J43:N43" si="62">J41+J42</f>
         <v>-426.59999999999997</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>-458.5</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>-274.69999999999993</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>-128.80000000000001</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>32.999999999999687</v>
       </c>
       <c r="O43" s="8">
@@ -3705,92 +3866,96 @@
         <v>0.5</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" ref="Q43:R43" si="69">Q41+Q42</f>
+        <f t="shared" ref="Q43:R43" si="63">Q41+Q42</f>
         <v>-109.60000000000015</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>-45.5</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:V43" si="70">S41+S42</f>
-        <v>132.91014987599988</v>
+        <f t="shared" ref="S43:V43" si="64">S41+S42</f>
+        <v>-105.09999999999998</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="70"/>
-        <v>446.04222929599996</v>
+        <f t="shared" si="64"/>
+        <v>90.200000000000273</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="70"/>
-        <v>240.36388563999981</v>
+        <f t="shared" si="64"/>
+        <v>109.87749707600005</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="70"/>
-        <v>267.13766038800009</v>
+        <f t="shared" si="64"/>
+        <v>131.17389434920028</v>
       </c>
       <c r="W43" s="8"/>
-      <c r="AC43" s="8">
-        <f t="shared" ref="AC43:AD43" si="71">AC41+AC42</f>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AG43" s="8">
+        <f t="shared" ref="AG43:AH43" si="65">AG41+AG42</f>
         <v>423.80000000000047</v>
       </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="71"/>
+      <c r="AH43" s="8">
+        <f t="shared" si="65"/>
         <v>515.64000000000067</v>
       </c>
-      <c r="AE43" s="8">
-        <f t="shared" ref="AE43" si="72">AE41+AE42</f>
+      <c r="AI43" s="8">
+        <f t="shared" ref="AI43" si="66">AI41+AI42</f>
         <v>585.59999999999968</v>
-      </c>
-      <c r="AF43" s="8">
-        <f>AF41+AF42</f>
-        <v>393.00000000000017</v>
-      </c>
-      <c r="AG43" s="8">
-        <f>AG41+AG42</f>
-        <v>-1376.8999999999996</v>
-      </c>
-      <c r="AH43" s="8">
-        <f t="shared" ref="AH43" si="73">AH41+AH42</f>
-        <v>-828.99999999999989</v>
-      </c>
-      <c r="AI43" s="8">
-        <f t="shared" ref="AI43" si="74">AI41+AI42</f>
-        <v>-365.5999999999998</v>
       </c>
       <c r="AJ43" s="8">
         <f>AJ41+AJ42</f>
-        <v>1036.9239251999998</v>
+        <v>393.00000000000017</v>
       </c>
       <c r="AK43" s="8">
-        <f t="shared" ref="AK43" si="75">AK41+AK42</f>
-        <v>1313.1267527660013</v>
+        <f>AK41+AK42</f>
+        <v>-1376.8999999999996</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" ref="AL43" si="76">AL41+AL42</f>
-        <v>1616.7762163316415</v>
+        <f t="shared" ref="AL43" si="67">AL41+AL42</f>
+        <v>-828.99999999999989</v>
       </c>
       <c r="AM43" s="8">
-        <f t="shared" ref="AM43" si="77">AM41+AM42</f>
-        <v>1951.6408350592776</v>
+        <f t="shared" ref="AM43" si="68">AM41+AM42</f>
+        <v>-365.5999999999998</v>
       </c>
       <c r="AN43" s="8">
-        <f t="shared" ref="AN43" si="78">AN41+AN42</f>
-        <v>2320.3189622095188</v>
+        <f>AN41+AN42</f>
+        <v>105.1213914252001</v>
       </c>
       <c r="AO43" s="8">
-        <f t="shared" ref="AO43" si="79">AO41+AO42</f>
-        <v>2725.6075165140978</v>
+        <f t="shared" ref="AO43" si="69">AO41+AO42</f>
+        <v>291.81091071526697</v>
       </c>
       <c r="AP43" s="8">
-        <f t="shared" ref="AP43" si="80">AP41+AP42</f>
-        <v>2729.5589559133932</v>
+        <f t="shared" ref="AP43" si="70">AP41+AP42</f>
+        <v>479.19701889358379</v>
       </c>
       <c r="AQ43" s="8">
-        <f t="shared" ref="AQ43" si="81">AQ41+AQ42</f>
-        <v>2995.3911121335459</v>
-      </c>
-    </row>
-    <row r="44" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AQ43" si="71">AQ41+AQ42</f>
+        <v>687.80372090046808</v>
+      </c>
+      <c r="AR43" s="8">
+        <f t="shared" ref="AR43" si="72">AR41+AR42</f>
+        <v>919.45485287895349</v>
+      </c>
+      <c r="AS43" s="8">
+        <f t="shared" ref="AS43" si="73">AS41+AS42</f>
+        <v>1176.1155978043348</v>
+      </c>
+      <c r="AT43" s="8">
+        <f t="shared" ref="AT43" si="74">AT41+AT42</f>
+        <v>1530.28768383646</v>
+      </c>
+      <c r="AU43" s="8">
+        <f t="shared" ref="AU43" si="75">AU41+AU42</f>
+        <v>1741.2883530609161</v>
+      </c>
+    </row>
+    <row r="44" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7" t="s">
         <v>35</v>
       </c>
@@ -3849,59 +4014,63 @@
         <v>0</v>
       </c>
       <c r="W44" s="8"/>
-      <c r="AC44" s="7">
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AG44" s="7">
         <v>-38</v>
       </c>
-      <c r="AD44" s="7">
+      <c r="AH44" s="7">
         <v>-13.6</v>
       </c>
-      <c r="AE44" s="7">
+      <c r="AI44" s="7">
         <v>-13.6</v>
       </c>
-      <c r="AF44" s="7">
+      <c r="AJ44" s="7">
         <v>22.5</v>
       </c>
-      <c r="AG44" s="7">
-        <f t="shared" ref="AG44" si="82">SUM(G44:J44)</f>
+      <c r="AK44" s="7">
+        <f t="shared" ref="AK44" si="76">SUM(G44:J44)</f>
         <v>-64.3</v>
       </c>
-      <c r="AH44" s="7">
-        <f t="shared" ref="AH44" si="83">SUM(K44:N44)</f>
+      <c r="AL44" s="7">
+        <f t="shared" ref="AL44" si="77">SUM(K44:N44)</f>
         <v>4</v>
       </c>
-      <c r="AI44" s="7">
-        <f t="shared" ref="AI44" si="84">SUM(O44:R44)</f>
+      <c r="AM44" s="7">
+        <f t="shared" ref="AM44" si="78">SUM(O44:R44)</f>
         <v>1.9000000000000001</v>
       </c>
-      <c r="AJ44" s="7">
+      <c r="AN44" s="7">
         <f>SUM(S44:V44)</f>
         <v>0</v>
       </c>
-      <c r="AK44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="7">
-        <v>0</v>
-      </c>
       <c r="AO44" s="7">
         <v>0</v>
       </c>
       <c r="AP44" s="7">
-        <f>AP43*-0.3</f>
-        <v>-818.8676867740179</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="7">
-        <f>AQ43*-0.3</f>
-        <v>-898.61733364006375</v>
-      </c>
-    </row>
-    <row r="45" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="7">
+        <f>AT43*-0.3</f>
+        <v>-459.08630515093802</v>
+      </c>
+      <c r="AU44" s="7">
+        <f>AU43*-0.3</f>
+        <v>-522.38650591827479</v>
+      </c>
+    </row>
+    <row r="45" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3909,39 +4078,39 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <f t="shared" ref="F45" si="85">F43+F44</f>
+        <f t="shared" ref="F45" si="79">F43+F44</f>
         <v>137.40000000000009</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45" si="86">G43+G44</f>
+        <f t="shared" ref="G45" si="80">G43+G44</f>
         <v>-151</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ref="H45:I45" si="87">H43+H44</f>
+        <f t="shared" ref="H45:I45" si="81">H43+H44</f>
         <v>-423.6</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>-433.2</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" ref="J45:N45" si="88">J43+J44</f>
+        <f t="shared" ref="J45:N45" si="82">J43+J44</f>
         <v>-433.4</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>-465.3</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>-126.9</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O45" s="8">
@@ -3949,357 +4118,361 @@
         <v>-149.70000000000019</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45:R45" si="89">P43+P44</f>
+        <f t="shared" ref="P45:R45" si="83">P43+P44</f>
         <v>0.5</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>-107.80000000000015</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>-45.5</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" ref="S45:V45" si="90">S43+S44</f>
-        <v>132.91014987599988</v>
+        <f t="shared" ref="S45:V45" si="84">S43+S44</f>
+        <v>-105.09999999999998</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="90"/>
-        <v>446.04222929599996</v>
+        <f t="shared" si="84"/>
+        <v>90.200000000000273</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="90"/>
-        <v>240.36388563999981</v>
+        <f t="shared" si="84"/>
+        <v>109.87749707600005</v>
       </c>
       <c r="V45" s="8">
-        <f t="shared" si="90"/>
-        <v>267.13766038800009</v>
+        <f t="shared" si="84"/>
+        <v>131.17389434920028</v>
       </c>
       <c r="W45" s="8"/>
-      <c r="AC45" s="8">
-        <f t="shared" ref="AC45:AD45" si="91">AC43+AC44</f>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AG45" s="8">
+        <f t="shared" ref="AG45:AH45" si="85">AG43+AG44</f>
         <v>385.80000000000047</v>
       </c>
-      <c r="AD45" s="8">
-        <f t="shared" si="91"/>
+      <c r="AH45" s="8">
+        <f t="shared" si="85"/>
         <v>502.04000000000065</v>
       </c>
-      <c r="AE45" s="8">
-        <f t="shared" ref="AE45" si="92">AE43+AE44</f>
+      <c r="AI45" s="8">
+        <f t="shared" ref="AI45" si="86">AI43+AI44</f>
         <v>571.99999999999966</v>
       </c>
-      <c r="AF45" s="8">
-        <f t="shared" ref="AF45" si="93">AF43+AF44</f>
+      <c r="AJ45" s="8">
+        <f t="shared" ref="AJ45" si="87">AJ43+AJ44</f>
         <v>415.50000000000017</v>
       </c>
-      <c r="AG45" s="8">
-        <f t="shared" ref="AG45" si="94">AG43+AG44</f>
+      <c r="AK45" s="8">
+        <f t="shared" ref="AK45" si="88">AK43+AK44</f>
         <v>-1441.1999999999996</v>
       </c>
-      <c r="AH45" s="8">
-        <f t="shared" ref="AH45" si="95">AH43+AH44</f>
+      <c r="AL45" s="8">
+        <f t="shared" ref="AL45" si="89">AL43+AL44</f>
         <v>-824.99999999999989</v>
       </c>
-      <c r="AI45" s="8">
-        <f t="shared" ref="AI45" si="96">AI43+AI44</f>
+      <c r="AM45" s="8">
+        <f t="shared" ref="AM45" si="90">AM43+AM44</f>
         <v>-363.69999999999982</v>
       </c>
-      <c r="AJ45" s="8">
-        <f t="shared" ref="AJ45" si="97">AJ43+AJ44</f>
-        <v>1036.9239251999998</v>
-      </c>
-      <c r="AK45" s="8">
-        <f t="shared" ref="AK45" si="98">AK43+AK44</f>
-        <v>1313.1267527660013</v>
-      </c>
-      <c r="AL45" s="8">
-        <f t="shared" ref="AL45" si="99">AL43+AL44</f>
-        <v>1616.7762163316415</v>
-      </c>
-      <c r="AM45" s="8">
-        <f t="shared" ref="AM45" si="100">AM43+AM44</f>
-        <v>1951.6408350592776</v>
-      </c>
       <c r="AN45" s="8">
-        <f t="shared" ref="AN45" si="101">AN43+AN44</f>
-        <v>2320.3189622095188</v>
+        <f t="shared" ref="AN45" si="91">AN43+AN44</f>
+        <v>105.1213914252001</v>
       </c>
       <c r="AO45" s="8">
-        <f t="shared" ref="AO45" si="102">AO43+AO44</f>
-        <v>2725.6075165140978</v>
+        <f t="shared" ref="AO45" si="92">AO43+AO44</f>
+        <v>291.81091071526697</v>
       </c>
       <c r="AP45" s="8">
-        <f t="shared" ref="AP45" si="103">AP43+AP44</f>
-        <v>1910.6912691393754</v>
+        <f t="shared" ref="AP45" si="93">AP43+AP44</f>
+        <v>479.19701889358379</v>
       </c>
       <c r="AQ45" s="8">
-        <f t="shared" ref="AQ45" si="104">AQ43+AQ44</f>
-        <v>2096.773778493482</v>
-      </c>
-      <c r="AR45" s="7">
-        <f>AQ45*(1+$AT$50)</f>
-        <v>2075.8060407085472</v>
-      </c>
-      <c r="AS45" s="7">
-        <f t="shared" ref="AS45:BW45" si="105">AR45*(1+$AT$50)</f>
-        <v>2055.0479803014618</v>
-      </c>
-      <c r="AT45" s="7">
-        <f t="shared" si="105"/>
-        <v>2034.4975004984472</v>
-      </c>
-      <c r="AU45" s="7">
-        <f t="shared" si="105"/>
-        <v>2014.1525254934627</v>
+        <f t="shared" ref="AQ45" si="94">AQ43+AQ44</f>
+        <v>687.80372090046808</v>
+      </c>
+      <c r="AR45" s="8">
+        <f t="shared" ref="AR45" si="95">AR43+AR44</f>
+        <v>919.45485287895349</v>
+      </c>
+      <c r="AS45" s="8">
+        <f t="shared" ref="AS45" si="96">AS43+AS44</f>
+        <v>1176.1155978043348</v>
+      </c>
+      <c r="AT45" s="8">
+        <f t="shared" ref="AT45" si="97">AT43+AT44</f>
+        <v>1071.2013786855221</v>
+      </c>
+      <c r="AU45" s="8">
+        <f t="shared" ref="AU45" si="98">AU43+AU44</f>
+        <v>1218.9018471426411</v>
       </c>
       <c r="AV45" s="7">
-        <f t="shared" si="105"/>
-        <v>1994.0110002385281</v>
+        <f>AU45*(1+$AX$50)</f>
+        <v>1206.7128286712148</v>
       </c>
       <c r="AW45" s="7">
-        <f t="shared" si="105"/>
-        <v>1974.0708902361428</v>
+        <f t="shared" ref="AW45:CA45" si="99">AV45*(1+$AX$50)</f>
+        <v>1194.6457003845026</v>
       </c>
       <c r="AX45" s="7">
-        <f t="shared" si="105"/>
-        <v>1954.3301813337814</v>
+        <f t="shared" si="99"/>
+        <v>1182.6992433806574</v>
       </c>
       <c r="AY45" s="7">
-        <f t="shared" si="105"/>
-        <v>1934.7868795204436</v>
+        <f t="shared" si="99"/>
+        <v>1170.872250946851</v>
       </c>
       <c r="AZ45" s="7">
-        <f t="shared" si="105"/>
-        <v>1915.4390107252391</v>
+        <f t="shared" si="99"/>
+        <v>1159.1635284373824</v>
       </c>
       <c r="BA45" s="7">
-        <f t="shared" si="105"/>
-        <v>1896.2846206179868</v>
+        <f t="shared" si="99"/>
+        <v>1147.5718931530087</v>
       </c>
       <c r="BB45" s="7">
-        <f t="shared" si="105"/>
-        <v>1877.3217744118069</v>
+        <f t="shared" si="99"/>
+        <v>1136.0961742214786</v>
       </c>
       <c r="BC45" s="7">
-        <f t="shared" si="105"/>
-        <v>1858.5485566676889</v>
+        <f t="shared" si="99"/>
+        <v>1124.7352124792637</v>
       </c>
       <c r="BD45" s="7">
-        <f t="shared" si="105"/>
-        <v>1839.963071101012</v>
+        <f t="shared" si="99"/>
+        <v>1113.4878603544712</v>
       </c>
       <c r="BE45" s="7">
-        <f t="shared" si="105"/>
-        <v>1821.5634403900019</v>
+        <f t="shared" si="99"/>
+        <v>1102.3529817509266</v>
       </c>
       <c r="BF45" s="7">
-        <f t="shared" si="105"/>
-        <v>1803.3478059861018</v>
+        <f t="shared" si="99"/>
+        <v>1091.3294519334172</v>
       </c>
       <c r="BG45" s="7">
-        <f t="shared" si="105"/>
-        <v>1785.3143279262408</v>
+        <f t="shared" si="99"/>
+        <v>1080.416157414083</v>
       </c>
       <c r="BH45" s="7">
-        <f t="shared" si="105"/>
-        <v>1767.4611846469784</v>
+        <f t="shared" si="99"/>
+        <v>1069.6119958399422</v>
       </c>
       <c r="BI45" s="7">
-        <f t="shared" si="105"/>
-        <v>1749.7865728005086</v>
+        <f t="shared" si="99"/>
+        <v>1058.9158758815429</v>
       </c>
       <c r="BJ45" s="7">
-        <f t="shared" si="105"/>
-        <v>1732.2887070725035</v>
+        <f t="shared" si="99"/>
+        <v>1048.3267171227274</v>
       </c>
       <c r="BK45" s="7">
-        <f t="shared" si="105"/>
-        <v>1714.9658200017784</v>
+        <f t="shared" si="99"/>
+        <v>1037.8434499515001</v>
       </c>
       <c r="BL45" s="7">
-        <f t="shared" si="105"/>
-        <v>1697.8161618017607</v>
+        <f t="shared" si="99"/>
+        <v>1027.4650154519852</v>
       </c>
       <c r="BM45" s="7">
-        <f t="shared" si="105"/>
-        <v>1680.8380001837431</v>
+        <f t="shared" si="99"/>
+        <v>1017.1903652974653</v>
       </c>
       <c r="BN45" s="7">
-        <f t="shared" si="105"/>
-        <v>1664.0296201819058</v>
+        <f t="shared" si="99"/>
+        <v>1007.0184616444907</v>
       </c>
       <c r="BO45" s="7">
-        <f t="shared" si="105"/>
-        <v>1647.3893239800866</v>
+        <f t="shared" si="99"/>
+        <v>996.94827702804582</v>
       </c>
       <c r="BP45" s="7">
-        <f t="shared" si="105"/>
-        <v>1630.9154307402857</v>
+        <f t="shared" si="99"/>
+        <v>986.97879425776534</v>
       </c>
       <c r="BQ45" s="7">
-        <f t="shared" si="105"/>
-        <v>1614.6062764328829</v>
+        <f t="shared" si="99"/>
+        <v>977.10900631518768</v>
       </c>
       <c r="BR45" s="7">
-        <f t="shared" si="105"/>
-        <v>1598.4602136685539</v>
+        <f t="shared" si="99"/>
+        <v>967.33791625203582</v>
       </c>
       <c r="BS45" s="7">
-        <f t="shared" si="105"/>
-        <v>1582.4756115318685</v>
+        <f t="shared" si="99"/>
+        <v>957.66453708951542</v>
       </c>
       <c r="BT45" s="7">
-        <f t="shared" si="105"/>
-        <v>1566.6508554165498</v>
+        <f t="shared" si="99"/>
+        <v>948.08789171862031</v>
       </c>
       <c r="BU45" s="7">
-        <f t="shared" si="105"/>
-        <v>1550.9843468623842</v>
+        <f t="shared" si="99"/>
+        <v>938.60701280143405</v>
       </c>
       <c r="BV45" s="7">
-        <f t="shared" si="105"/>
-        <v>1535.4745033937604</v>
+        <f t="shared" si="99"/>
+        <v>929.2209426734197</v>
       </c>
       <c r="BW45" s="7">
-        <f t="shared" si="105"/>
-        <v>1520.1197583598228</v>
+        <f t="shared" si="99"/>
+        <v>919.92873324668551</v>
       </c>
       <c r="BX45" s="7">
-        <f t="shared" ref="BX45:CU45" si="106">BW45*(1+$AT$50)</f>
-        <v>1504.9185607762245</v>
+        <f t="shared" si="99"/>
+        <v>910.72944591421867</v>
       </c>
       <c r="BY45" s="7">
-        <f t="shared" si="106"/>
-        <v>1489.8693751684623</v>
+        <f t="shared" si="99"/>
+        <v>901.62215145507651</v>
       </c>
       <c r="BZ45" s="7">
-        <f t="shared" si="106"/>
-        <v>1474.9706814167776</v>
+        <f t="shared" si="99"/>
+        <v>892.6059299405257</v>
       </c>
       <c r="CA45" s="7">
-        <f t="shared" si="106"/>
-        <v>1460.2209746026097</v>
+        <f t="shared" si="99"/>
+        <v>883.67987064112049</v>
       </c>
       <c r="CB45" s="7">
-        <f t="shared" si="106"/>
-        <v>1445.6187648565835</v>
+        <f t="shared" ref="CB45:CY45" si="100">CA45*(1+$AX$50)</f>
+        <v>874.84307193470931</v>
       </c>
       <c r="CC45" s="7">
-        <f t="shared" si="106"/>
-        <v>1431.1625772080176</v>
+        <f t="shared" si="100"/>
+        <v>866.09464121536223</v>
       </c>
       <c r="CD45" s="7">
-        <f t="shared" si="106"/>
-        <v>1416.8509514359375</v>
+        <f t="shared" si="100"/>
+        <v>857.4336948032086</v>
       </c>
       <c r="CE45" s="7">
-        <f t="shared" si="106"/>
-        <v>1402.6824419215782</v>
+        <f t="shared" si="100"/>
+        <v>848.85935785517654</v>
       </c>
       <c r="CF45" s="7">
-        <f t="shared" si="106"/>
-        <v>1388.6556175023625</v>
+        <f t="shared" si="100"/>
+        <v>840.37076427662475</v>
       </c>
       <c r="CG45" s="7">
-        <f t="shared" si="106"/>
-        <v>1374.7690613273389</v>
+        <f t="shared" si="100"/>
+        <v>831.96705663385853</v>
       </c>
       <c r="CH45" s="7">
-        <f t="shared" si="106"/>
-        <v>1361.0213707140656</v>
+        <f t="shared" si="100"/>
+        <v>823.64738606751996</v>
       </c>
       <c r="CI45" s="7">
-        <f t="shared" si="106"/>
-        <v>1347.4111570069249</v>
+        <f t="shared" si="100"/>
+        <v>815.41091220684473</v>
       </c>
       <c r="CJ45" s="7">
-        <f t="shared" si="106"/>
-        <v>1333.9370454368557</v>
+        <f t="shared" si="100"/>
+        <v>807.25680308477627</v>
       </c>
       <c r="CK45" s="7">
-        <f t="shared" si="106"/>
-        <v>1320.5976749824872</v>
+        <f t="shared" si="100"/>
+        <v>799.18423505392855</v>
       </c>
       <c r="CL45" s="7">
-        <f t="shared" si="106"/>
-        <v>1307.3916982326623</v>
+        <f t="shared" si="100"/>
+        <v>791.19239270338926</v>
       </c>
       <c r="CM45" s="7">
-        <f t="shared" si="106"/>
-        <v>1294.3177812503357</v>
+        <f t="shared" si="100"/>
+        <v>783.28046877635541</v>
       </c>
       <c r="CN45" s="7">
-        <f t="shared" si="106"/>
-        <v>1281.3746034378323</v>
+        <f t="shared" si="100"/>
+        <v>775.44766408859186</v>
       </c>
       <c r="CO45" s="7">
-        <f t="shared" si="106"/>
-        <v>1268.5608574034541</v>
+        <f t="shared" si="100"/>
+        <v>767.6931874477059</v>
       </c>
       <c r="CP45" s="7">
-        <f t="shared" si="106"/>
-        <v>1255.8752488294194</v>
+        <f t="shared" si="100"/>
+        <v>760.01625557322882</v>
       </c>
       <c r="CQ45" s="7">
-        <f t="shared" si="106"/>
-        <v>1243.3164963411252</v>
+        <f t="shared" si="100"/>
+        <v>752.41609301749656</v>
       </c>
       <c r="CR45" s="7">
-        <f t="shared" si="106"/>
-        <v>1230.8833313777141</v>
+        <f t="shared" si="100"/>
+        <v>744.89193208732161</v>
       </c>
       <c r="CS45" s="7">
-        <f t="shared" si="106"/>
-        <v>1218.574498063937</v>
+        <f t="shared" si="100"/>
+        <v>737.44301276644842</v>
       </c>
       <c r="CT45" s="7">
-        <f t="shared" si="106"/>
-        <v>1206.3887530832976</v>
+        <f t="shared" si="100"/>
+        <v>730.06858263878394</v>
       </c>
       <c r="CU45" s="7">
-        <f t="shared" si="106"/>
-        <v>1194.3248655524646</v>
-      </c>
-    </row>
-    <row r="46" spans="2:99" x14ac:dyDescent="0.2">
+        <f t="shared" si="100"/>
+        <v>722.76789681239609</v>
+      </c>
+      <c r="CV45" s="7">
+        <f t="shared" si="100"/>
+        <v>715.54021784427209</v>
+      </c>
+      <c r="CW45" s="7">
+        <f t="shared" si="100"/>
+        <v>708.38481566582936</v>
+      </c>
+      <c r="CX45" s="7">
+        <f t="shared" si="100"/>
+        <v>701.30096750917107</v>
+      </c>
+      <c r="CY45" s="7">
+        <f t="shared" si="100"/>
+        <v>694.28795783407941</v>
+      </c>
+    </row>
+    <row r="46" spans="2:103" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" ref="F46" si="107">F45/F47</f>
+        <f t="shared" ref="F46" si="101">F45/F47</f>
         <v>1.3230621088107857</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" ref="G46" si="108">G45/G47</f>
+        <f t="shared" ref="G46" si="102">G45/G47</f>
         <v>-1.448510719938606</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" ref="H46:I46" si="109">H45/H47</f>
+        <f t="shared" ref="H46:I46" si="103">H45/H47</f>
         <v>-4.0606217467575423</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>-4.0224708667997584</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" ref="J46:N46" si="110">J45/J47</f>
+        <f t="shared" ref="J46:N46" si="104">J45/J47</f>
         <v>-2.8455684899577829</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>-1.1629272876776695</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>-0.56060457927614393</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>-0.24720939746361989</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>7.1425235099955811E-2</v>
       </c>
       <c r="O46" s="3">
@@ -4307,96 +4480,100 @@
         <v>-0.29016688957376324</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" ref="P46:V46" si="111">P45/P47</f>
+        <f t="shared" ref="P46:V46" si="105">P45/P47</f>
         <v>9.674529479258776E-4</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>-0.10428698850521353</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="105"/>
         <v>-4.1700691681582684E-2</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="111"/>
-        <v>0.12181198200729706</v>
+        <f t="shared" si="105"/>
+        <v>-9.6324015290864609E-2</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="111"/>
-        <v>0.40879713144699564</v>
+        <f t="shared" si="105"/>
+        <v>5.9598063261163917E-2</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="111"/>
-        <v>0.22029319310902928</v>
+        <f t="shared" si="105"/>
+        <v>7.2599623300596286E-2</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="111"/>
-        <v>0.2448313233489964</v>
+        <f t="shared" si="105"/>
+        <v>8.6670843166705619E-2</v>
       </c>
       <c r="W46" s="3"/>
-      <c r="AC46" s="1">
-        <f t="shared" ref="AC46" si="112">AC45/AC47</f>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AG46" s="1">
+        <f t="shared" ref="AG46" si="106">AG45/AG47</f>
         <v>3.9020147261105316</v>
       </c>
-      <c r="AD46" s="1">
-        <f t="shared" ref="AD46" si="113">AD45/AD47</f>
+      <c r="AH46" s="1">
+        <f t="shared" ref="AH46" si="107">AH45/AH47</f>
         <v>3.9146640051151742</v>
       </c>
-      <c r="AE46" s="1">
-        <f t="shared" ref="AE46" si="114">AE45/AE47</f>
+      <c r="AI46" s="1">
+        <f t="shared" ref="AI46" si="108">AI45/AI47</f>
         <v>4.3964490219438126</v>
       </c>
-      <c r="AF46" s="1">
-        <f t="shared" ref="AF46" si="115">AF45/AF47</f>
+      <c r="AJ46" s="1">
+        <f t="shared" ref="AJ46" si="109">AJ45/AJ47</f>
         <v>4.0016565220741214</v>
       </c>
-      <c r="AG46" s="1">
-        <f>AG45/AG47</f>
+      <c r="AK46" s="1">
+        <f>AK45/AK47</f>
         <v>-12.303069364828003</v>
       </c>
-      <c r="AH46" s="1">
-        <f t="shared" ref="AH46:AI46" si="116">AH45/AH47</f>
+      <c r="AL46" s="1">
+        <f t="shared" ref="AL46:AM46" si="110">AL45/AL47</f>
         <v>-1.7295633743466965</v>
       </c>
-      <c r="AI46" s="1">
-        <f t="shared" si="116"/>
+      <c r="AM46" s="1">
+        <f t="shared" si="110"/>
         <v>-0.46074046579505579</v>
       </c>
-      <c r="AJ46" s="1">
-        <f t="shared" ref="AJ46" si="117">AJ45/AJ47</f>
-        <v>0.95033944839608131</v>
-      </c>
-      <c r="AK46" s="1">
-        <f t="shared" ref="AK46" si="118">AK45/AK47</f>
-        <v>1.2034789858446786</v>
-      </c>
-      <c r="AL46" s="1">
-        <f t="shared" ref="AL46" si="119">AL45/AL47</f>
-        <v>1.4817733300079476</v>
-      </c>
-      <c r="AM46" s="1">
-        <f t="shared" ref="AM46" si="120">AM45/AM47</f>
-        <v>1.788676323867989</v>
-      </c>
       <c r="AN46" s="1">
-        <f t="shared" ref="AN46" si="121">AN45/AN47</f>
-        <v>2.1265693548577813</v>
+        <f t="shared" ref="AN46" si="111">AN45/AN47</f>
+        <v>7.4666376461225051E-2</v>
       </c>
       <c r="AO46" s="1">
-        <f t="shared" ref="AO46" si="122">AO45/AO47</f>
-        <v>2.498015795410081</v>
+        <f t="shared" ref="AO46" si="112">AO45/AO47</f>
+        <v>0.20726954827707733</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" ref="AP46" si="123">AP45/AP47</f>
-        <v>1.751146099188418</v>
+        <f t="shared" ref="AP46" si="113">AP45/AP47</f>
+        <v>0.34036749824858015</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" ref="AQ46" si="124">AQ45/AQ47</f>
-        <v>1.9216904805051394</v>
-      </c>
-    </row>
-    <row r="47" spans="2:99" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AQ46" si="114">AQ45/AQ47</f>
+        <v>0.48853816392573457</v>
+      </c>
+      <c r="AR46" s="1">
+        <f t="shared" ref="AR46" si="115">AR45/AR47</f>
+        <v>0.65307699273568243</v>
+      </c>
+      <c r="AS46" s="1">
+        <f t="shared" ref="AS46" si="116">AS45/AS47</f>
+        <v>0.83537982894816942</v>
+      </c>
+      <c r="AT46" s="1">
+        <f t="shared" ref="AT46" si="117">AT45/AT47</f>
+        <v>0.76086060431980473</v>
+      </c>
+      <c r="AU46" s="1">
+        <f t="shared" ref="AU46" si="118">AU45/AU47</f>
+        <v>0.86577035324722251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:103" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
         <v>1</v>
       </c>
@@ -4443,80 +4620,83 @@
         <v>1091.1089999999999</v>
       </c>
       <c r="S47" s="16">
-        <f t="shared" ref="S47:V47" si="125">+R47</f>
+        <f t="shared" ref="S47:V47" si="119">+R47</f>
         <v>1091.1089999999999</v>
       </c>
       <c r="T47" s="16">
-        <f t="shared" si="125"/>
-        <v>1091.1089999999999</v>
+        <v>1513.472</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" si="125"/>
-        <v>1091.1089999999999</v>
+        <f t="shared" si="119"/>
+        <v>1513.472</v>
       </c>
       <c r="V47" s="16">
-        <f t="shared" si="125"/>
-        <v>1091.1089999999999</v>
-      </c>
-      <c r="W47" s="12"/>
-      <c r="AC47" s="11">
+        <f t="shared" si="119"/>
+        <v>1513.472</v>
+      </c>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="12"/>
+      <c r="AG47" s="11">
         <v>98.872</v>
       </c>
-      <c r="AD47" s="11">
+      <c r="AH47" s="11">
         <v>128.24600000000001</v>
       </c>
-      <c r="AE47" s="11">
+      <c r="AI47" s="11">
         <v>130.10499999999999</v>
       </c>
-      <c r="AF47" s="11">
+      <c r="AJ47" s="11">
         <v>103.83199999999999</v>
       </c>
-      <c r="AG47" s="11">
+      <c r="AK47" s="11">
         <f>AVERAGE(G47:J47)</f>
         <v>117.14150000000001</v>
       </c>
-      <c r="AH47" s="11">
+      <c r="AL47" s="11">
         <f>AVERAGE(K47:N47)</f>
         <v>476.99900000000002</v>
       </c>
-      <c r="AI47" s="11">
+      <c r="AM47" s="11">
         <f>AVERAGE(O47:R47)</f>
         <v>789.38149999999996</v>
       </c>
-      <c r="AJ47" s="15">
+      <c r="AN47" s="15">
         <f>AVERAGE(S47:V47)</f>
-        <v>1091.1089999999999</v>
-      </c>
-      <c r="AK47" s="15">
-        <f t="shared" ref="AK47:AQ47" si="126">AJ47</f>
-        <v>1091.1089999999999</v>
-      </c>
-      <c r="AL47" s="15">
-        <f t="shared" si="126"/>
-        <v>1091.1089999999999</v>
-      </c>
-      <c r="AM47" s="15">
-        <f t="shared" si="126"/>
-        <v>1091.1089999999999</v>
-      </c>
-      <c r="AN47" s="15">
-        <f t="shared" si="126"/>
-        <v>1091.1089999999999</v>
+        <v>1407.8812499999999</v>
       </c>
       <c r="AO47" s="15">
-        <f t="shared" si="126"/>
-        <v>1091.1089999999999</v>
+        <f t="shared" ref="AO47:AU47" si="120">AN47</f>
+        <v>1407.8812499999999</v>
       </c>
       <c r="AP47" s="15">
-        <f t="shared" si="126"/>
-        <v>1091.1089999999999</v>
+        <f t="shared" si="120"/>
+        <v>1407.8812499999999</v>
       </c>
       <c r="AQ47" s="15">
-        <f t="shared" si="126"/>
-        <v>1091.1089999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="120"/>
+        <v>1407.8812499999999</v>
+      </c>
+      <c r="AR47" s="15">
+        <f t="shared" si="120"/>
+        <v>1407.8812499999999</v>
+      </c>
+      <c r="AS47" s="15">
+        <f t="shared" si="120"/>
+        <v>1407.8812499999999</v>
+      </c>
+      <c r="AT47" s="15">
+        <f t="shared" si="120"/>
+        <v>1407.8812499999999</v>
+      </c>
+      <c r="AU47" s="15">
+        <f t="shared" si="120"/>
+        <v>1407.8812499999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="13" t="s">
         <v>38</v>
       </c>
@@ -4528,19 +4708,19 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="14">
-        <f t="shared" ref="J49" si="127">J34/F34-1</f>
+        <f t="shared" ref="J49" si="121">J34/F34-1</f>
         <v>-0.88775298749740972</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" ref="K49:M49" si="128">K34/G34-1</f>
+        <f t="shared" ref="K49:M49" si="122">K34/G34-1</f>
         <v>-0.84248539564524694</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>22.529100529100525</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>5.3866108786610871</v>
       </c>
       <c r="N49" s="14">
@@ -4552,86 +4732,102 @@
         <v>4.2980445043830064</v>
       </c>
       <c r="P49" s="14">
-        <f t="shared" ref="P49:R49" si="129">P34/L34-1</f>
+        <f t="shared" ref="P49:V49" si="123">P34/L34-1</f>
         <v>1.6228918371936141</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>0.26886792452830188</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>-0.1345907655543227</v>
       </c>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
+      <c r="S49" s="14">
+        <f t="shared" si="123"/>
+        <v>0.21471299478172345</v>
+      </c>
+      <c r="T49" s="14">
+        <f t="shared" si="123"/>
+        <v>0.15560699588477367</v>
+      </c>
+      <c r="U49" s="14">
+        <f t="shared" si="123"/>
+        <v>0.43776317332713788</v>
+      </c>
+      <c r="V49" s="14">
+        <f t="shared" si="123"/>
+        <v>0.44062827957100614</v>
+      </c>
       <c r="W49" s="14"/>
-      <c r="AD49" s="18">
-        <f t="shared" ref="AD49:AE49" si="130">AD34/AC34-1</f>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AH49" s="18">
+        <f t="shared" ref="AH49:AI49" si="124">AH34/AG34-1</f>
         <v>0.56965295590098575</v>
       </c>
-      <c r="AE49" s="18">
-        <f t="shared" si="130"/>
+      <c r="AI49" s="18">
+        <f t="shared" si="124"/>
         <v>7.5121474866318705E-2</v>
       </c>
-      <c r="AF49" s="18">
-        <f>AF34/AE34-1</f>
+      <c r="AJ49" s="18">
+        <f>AJ34/AI34-1</f>
         <v>1.8678581892763724E-3</v>
       </c>
-      <c r="AG49" s="18">
-        <f>AG34/AF34-1</f>
+      <c r="AK49" s="18">
+        <f>AK34/AJ34-1</f>
         <v>-0.77291171632242728</v>
       </c>
-      <c r="AH49" s="18">
-        <f t="shared" ref="AH49:AI49" si="131">AH34/AG34-1</f>
+      <c r="AL49" s="18">
+        <f t="shared" ref="AL49:AM49" si="125">AL34/AK34-1</f>
         <v>1.0346909207984547</v>
       </c>
-      <c r="AI49" s="18">
-        <f t="shared" si="131"/>
+      <c r="AM49" s="18">
+        <f t="shared" si="125"/>
         <v>0.53222042011155479</v>
       </c>
-      <c r="AJ49" s="18">
-        <f t="shared" ref="AJ49:AQ49" si="132">AJ34/AI34-1</f>
-        <v>0.6223798272790646</v>
-      </c>
-      <c r="AK49" s="18">
-        <f t="shared" si="132"/>
+      <c r="AN49" s="18">
+        <f t="shared" ref="AN49:AU49" si="126">AN34/AM34-1</f>
+        <v>0.33101668668448125</v>
+      </c>
+      <c r="AO49" s="18">
+        <f t="shared" si="126"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AL49" s="18">
-        <f t="shared" si="132"/>
+      <c r="AP49" s="18">
+        <f t="shared" si="126"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AM49" s="18">
-        <f t="shared" si="132"/>
+      <c r="AQ49" s="18">
+        <f t="shared" si="126"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AN49" s="18">
-        <f t="shared" si="132"/>
+      <c r="AR49" s="18">
+        <f t="shared" si="126"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AO49" s="18">
-        <f t="shared" si="132"/>
+      <c r="AS49" s="18">
+        <f t="shared" si="126"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AP49" s="18">
-        <f t="shared" si="132"/>
+      <c r="AT49" s="18">
+        <f t="shared" si="126"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AQ49" s="18">
-        <f t="shared" si="132"/>
+      <c r="AU49" s="18">
+        <f t="shared" si="126"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AS49" t="s">
+      <c r="AW49" t="s">
         <v>59</v>
       </c>
-      <c r="AT49" s="20">
+      <c r="AX49" s="20">
         <v>0.08</v>
       </c>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
         <v>58</v>
       </c>
@@ -4640,35 +4836,35 @@
         <v>0.30013124266077224</v>
       </c>
       <c r="G50" s="19">
-        <f t="shared" ref="G50:R50" si="133">G35/G34</f>
+        <f t="shared" ref="G50:R50" si="127">G35/G34</f>
         <v>0.28858204992033987</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.22259414225941423</v>
       </c>
       <c r="J50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.14892307692307691</v>
       </c>
       <c r="K50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.14834794335805798</v>
       </c>
       <c r="L50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.22239712165504835</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.2312631027253669</v>
       </c>
       <c r="N50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.26482888111291292</v>
       </c>
       <c r="O50" s="19">
@@ -4680,11 +4876,11 @@
         <v>0.28180727023319613</v>
       </c>
       <c r="Q50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.27178851714167701</v>
       </c>
       <c r="R50" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="127"/>
         <v>0.26627218934911245</v>
       </c>
       <c r="S50" s="19"/>
@@ -4692,74 +4888,78 @@
       <c r="U50" s="19"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
-      <c r="AC50" s="19">
-        <f t="shared" ref="AC50:AQ50" si="134">AC35/AC34</f>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AG50" s="19">
+        <f t="shared" ref="AG50:AU50" si="128">AG35/AG34</f>
         <v>0.33669149232052903</v>
       </c>
-      <c r="AD50" s="19">
-        <f t="shared" si="134"/>
+      <c r="AH50" s="19">
+        <f t="shared" si="128"/>
         <v>0.31585434041313265</v>
       </c>
-      <c r="AE50" s="19">
-        <f t="shared" si="134"/>
+      <c r="AI50" s="19">
+        <f t="shared" si="128"/>
         <v>0.31317755640199241</v>
       </c>
-      <c r="AF50" s="19">
-        <f t="shared" si="134"/>
+      <c r="AJ50" s="19">
+        <f t="shared" si="128"/>
         <v>0.3105647961981356</v>
       </c>
-      <c r="AG50" s="19">
-        <f t="shared" si="134"/>
+      <c r="AK50" s="19">
+        <f t="shared" si="128"/>
         <v>0.25973921442369602</v>
       </c>
-      <c r="AH50" s="19">
-        <f t="shared" si="134"/>
+      <c r="AL50" s="19">
+        <f t="shared" si="128"/>
         <v>0.24039716760947824</v>
       </c>
-      <c r="AI50" s="19">
-        <f t="shared" si="134"/>
+      <c r="AM50" s="19">
+        <f t="shared" si="128"/>
         <v>0.27152557250922987</v>
       </c>
-      <c r="AJ50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AK50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.27192307692307693</v>
-      </c>
-      <c r="AL50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.26407914201183436</v>
-      </c>
-      <c r="AM50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.25646147445380063</v>
-      </c>
       <c r="AN50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.24906354730609481</v>
+        <f t="shared" si="128"/>
+        <v>0.27702371884990423</v>
       </c>
       <c r="AO50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.2418790219030344</v>
+        <f t="shared" si="128"/>
+        <v>0.26903265003692617</v>
       </c>
       <c r="AP50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.23490174242506226</v>
+        <f t="shared" si="128"/>
+        <v>0.26127209282432251</v>
       </c>
       <c r="AQ50" s="19">
-        <f t="shared" si="134"/>
-        <v>0.22812573062433927</v>
-      </c>
-      <c r="AS50" t="s">
+        <f t="shared" si="128"/>
+        <v>0.25373539783900551</v>
+      </c>
+      <c r="AR50" s="19">
+        <f t="shared" si="128"/>
+        <v>0.24641610751672649</v>
+      </c>
+      <c r="AS50" s="19">
+        <f t="shared" si="128"/>
+        <v>0.23930795056912862</v>
+      </c>
+      <c r="AT50" s="19">
+        <f t="shared" si="128"/>
+        <v>0.23240483661040379</v>
+      </c>
+      <c r="AU50" s="19">
+        <f t="shared" si="128"/>
+        <v>0.22570085093894984</v>
+      </c>
+      <c r="AW50" t="s">
         <v>60</v>
       </c>
-      <c r="AT50" s="20">
+      <c r="AX50" s="20">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
         <v>106</v>
       </c>
@@ -4768,39 +4968,39 @@
         <v>0.50456100342075261</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" ref="G51:R51" si="135">(G30-G35)/G30</f>
+        <f t="shared" ref="G51:R51" si="129">(G30-G35)/G30</f>
         <v>0.52165492957746484</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.57710651828298887</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.69863013698630128</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.68345323741007191</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.57553648068669527</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.58480357562926377</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.53450345034503455</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.57232987832356919</v>
       </c>
       <c r="P51" s="19">
@@ -4808,11 +5008,11 @@
         <v>0.49508448540706607</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.51732991014120666</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>0.53035310488780651</v>
       </c>
       <c r="S51" s="19"/>
@@ -4820,75 +5020,79 @@
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
-      <c r="AC51" s="19">
-        <f t="shared" ref="AC51:AG51" si="136">(AC30-AC35)/AC30</f>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AG51" s="19">
+        <f t="shared" ref="AG51:AK51" si="130">(AG30-AG35)/AG30</f>
         <v>0.4683809895579194</v>
       </c>
-      <c r="AD51" s="19">
-        <f t="shared" si="136"/>
+      <c r="AH51" s="19">
+        <f t="shared" si="130"/>
         <v>0.50323579501470816</v>
       </c>
-      <c r="AE51" s="19">
-        <f t="shared" si="136"/>
+      <c r="AI51" s="19">
+        <f t="shared" si="130"/>
         <v>0.49477104874446082</v>
       </c>
-      <c r="AF51" s="19">
-        <f t="shared" si="136"/>
+      <c r="AJ51" s="19">
+        <f t="shared" si="130"/>
         <v>0.48532396328718996</v>
       </c>
-      <c r="AG51" s="19">
-        <f t="shared" si="136"/>
+      <c r="AK51" s="19">
+        <f t="shared" si="130"/>
         <v>0.54683330992838075</v>
       </c>
-      <c r="AH51" s="19">
-        <f>(AH30-AH35)/AH30</f>
+      <c r="AL51" s="19">
+        <f>(AL30-AL35)/AL30</f>
         <v>0.56412279443408408</v>
       </c>
-      <c r="AI51" s="19">
-        <f t="shared" ref="AI51:AQ51" si="137">(AI30-AI35)/AI30</f>
+      <c r="AM51" s="19">
+        <f t="shared" ref="AM51:AU51" si="131">(AM30-AM35)/AM30</f>
         <v>0.52519187358916475</v>
       </c>
-      <c r="AJ51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AN51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AO51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AP51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AQ51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AR51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AS51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AT51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ51" s="19" t="e">
-        <f t="shared" si="137"/>
+      <c r="AU51" s="19" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS51" s="4" t="s">
+      <c r="AW51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AT51" s="17">
-        <f>NPV(AT49,AJ45:DI45)+Main!N5-Main!N6</f>
-        <v>18094.501114192612</v>
-      </c>
-    </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AX51" s="17">
+        <f>NPV(AX49,AN45:DM45)+Main!N5-Main!N6</f>
+        <v>6452.9056533687499</v>
+      </c>
+    </row>
+    <row r="52" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
         <v>57</v>
       </c>
@@ -4897,51 +5101,51 @@
         <v>0.16916488222698078</v>
       </c>
       <c r="G52" s="19">
-        <f t="shared" ref="G52:R52" si="138">G41/G34</f>
+        <f t="shared" ref="G52:R52" si="132">G41/G34</f>
         <v>-1.2214551248008496E-2</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-18.523809523809522</v>
       </c>
       <c r="I52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-2.9707112970711296</v>
       </c>
       <c r="J52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-2.1495384615384614</v>
       </c>
       <c r="K52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-2.0701281186783547</v>
       </c>
       <c r="L52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-0.41960872498313462</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-5.2541928721174039E-2</v>
       </c>
       <c r="N52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>0.10207390970384886</v>
       </c>
       <c r="O52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-8.6292478045055604E-2</v>
       </c>
       <c r="P52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="Q52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-1.8277571251549114E-2</v>
       </c>
       <c r="R52" s="19">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>3.5996055226824461E-2</v>
       </c>
       <c r="S52" s="19"/>
@@ -4949,75 +5153,79 @@
       <c r="U52" s="19"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
-      <c r="AC52" s="19">
-        <f t="shared" ref="AC52:AQ52" si="139">AC41/AC34</f>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AG52" s="19">
+        <f t="shared" ref="AG52:AU52" si="133">AG41/AG34</f>
         <v>0.1651781575450417</v>
       </c>
-      <c r="AD52" s="19">
-        <f t="shared" si="139"/>
+      <c r="AH52" s="19">
+        <f t="shared" si="133"/>
         <v>0.14711649774375707</v>
       </c>
-      <c r="AE52" s="19">
-        <f t="shared" si="139"/>
+      <c r="AI52" s="19">
+        <f t="shared" si="133"/>
         <v>0.15527029006738932</v>
       </c>
-      <c r="AF52" s="19">
-        <f t="shared" si="139"/>
+      <c r="AJ52" s="19">
+        <f t="shared" si="133"/>
         <v>0.12535185523670264</v>
       </c>
-      <c r="AG52" s="19">
-        <f t="shared" si="139"/>
+      <c r="AK52" s="19">
+        <f t="shared" si="133"/>
         <v>-0.85793625241468086</v>
       </c>
-      <c r="AH52" s="19">
-        <f t="shared" si="139"/>
+      <c r="AL52" s="19">
+        <f t="shared" si="133"/>
         <v>-0.16381185964634673</v>
       </c>
-      <c r="AI52" s="19">
-        <f>AI41/AI34</f>
+      <c r="AM52" s="19">
+        <f>AM41/AM34</f>
         <v>-7.5387912116282804E-3</v>
       </c>
-      <c r="AJ52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.21720747793902181</v>
-      </c>
-      <c r="AK52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.23978803146001182</v>
-      </c>
-      <c r="AL52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.26171722286020377</v>
-      </c>
-      <c r="AM52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.28301384143154412</v>
-      </c>
       <c r="AN52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.30369613446717264</v>
+        <f t="shared" si="133"/>
+        <v>8.76399563678876E-2</v>
       </c>
       <c r="AO52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.32378182289600421</v>
+        <f t="shared" si="133"/>
+        <v>0.11395803454958331</v>
       </c>
       <c r="AP52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.34328811646631169</v>
+        <f t="shared" si="133"/>
+        <v>0.13951693739911475</v>
       </c>
       <c r="AQ52" s="19">
-        <f t="shared" si="139"/>
-        <v>0.36223172849132196</v>
-      </c>
-      <c r="AS52" t="s">
+        <f t="shared" si="133"/>
+        <v>0.16433856420490955</v>
+      </c>
+      <c r="AR52" s="19">
+        <f t="shared" si="133"/>
+        <v>0.18844418254515255</v>
+      </c>
+      <c r="AS52" s="19">
+        <f t="shared" si="133"/>
+        <v>0.2118544465101963</v>
+      </c>
+      <c r="AT52" s="19">
+        <f t="shared" si="133"/>
+        <v>0.23458941439932515</v>
+      </c>
+      <c r="AU52" s="19">
+        <f t="shared" si="133"/>
+        <v>0.25666856590703702</v>
+      </c>
+      <c r="AW52" t="s">
         <v>62</v>
       </c>
-      <c r="AT52" s="1">
-        <f>AT51/Main!N3</f>
-        <v>17.256905685630741</v>
-      </c>
-    </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AX52" s="1">
+        <f>AX51/Main!N3</f>
+        <v>6.1542003040423019</v>
+      </c>
+    </row>
+    <row r="53" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
         <v>64</v>
       </c>
@@ -5039,49 +5247,53 @@
       <c r="U53" s="19"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
-      <c r="AA53" s="20">
-        <f>AA26/Z26-1</f>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AE53" s="20">
+        <f>AE26/AD26-1</f>
         <v>-9.0866633016087883E-3</v>
       </c>
-      <c r="AB53" s="20">
-        <f t="shared" ref="AB53:AH53" si="140">AB26/AA26-1</f>
+      <c r="AF53" s="20">
+        <f t="shared" ref="AF53:AL53" si="134">AF26/AE26-1</f>
         <v>2.7998191966112973E-2</v>
       </c>
-      <c r="AC53" s="20">
-        <f t="shared" si="140"/>
+      <c r="AG53" s="20">
+        <f t="shared" si="134"/>
         <v>2.2576932497140545E-2</v>
       </c>
-      <c r="AD53" s="20">
-        <f t="shared" si="140"/>
+      <c r="AH53" s="20">
+        <f t="shared" si="134"/>
         <v>-2.6643990531081463E-2</v>
       </c>
-      <c r="AE53" s="20">
-        <f t="shared" si="140"/>
+      <c r="AI53" s="20">
+        <f t="shared" si="134"/>
         <v>7.3574553749574445E-2</v>
       </c>
-      <c r="AF53" s="20">
-        <f t="shared" si="140"/>
+      <c r="AJ53" s="20">
+        <f t="shared" si="134"/>
         <v>-4.7763078683775273E-2</v>
       </c>
-      <c r="AG53" s="20">
-        <f t="shared" si="140"/>
+      <c r="AK53" s="20">
+        <f t="shared" si="134"/>
         <v>-0.81422798616458314</v>
       </c>
-      <c r="AH53" s="20">
-        <f t="shared" si="140"/>
+      <c r="AL53" s="20">
+        <f t="shared" si="134"/>
         <v>1.1344394528426767</v>
       </c>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
       <c r="AM53" s="19"/>
       <c r="AN53" s="19"/>
       <c r="AO53" s="19"/>
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
-    </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AR53" s="19"/>
+      <c r="AS53" s="19"/>
+      <c r="AT53" s="19"/>
+      <c r="AU53" s="19"/>
+    </row>
+    <row r="54" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
         <v>65</v>
       </c>
@@ -5103,45 +5315,49 @@
       <c r="U54" s="19"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20">
-        <f>AC30/AC26</f>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20">
+        <f>AG30/AG26</f>
         <v>0.18013517081637956</v>
       </c>
-      <c r="AD54" s="20">
-        <f t="shared" ref="AD54:AH54" si="141">AD30/AD26</f>
+      <c r="AH54" s="20">
+        <f t="shared" ref="AH54:AL54" si="135">AH30/AH26</f>
         <v>0.29163212217430867</v>
       </c>
-      <c r="AE54" s="20">
-        <f t="shared" si="141"/>
+      <c r="AI54" s="20">
+        <f t="shared" si="135"/>
         <v>0.28472561072802366</v>
       </c>
-      <c r="AF54" s="20">
-        <f t="shared" si="141"/>
+      <c r="AJ54" s="20">
+        <f t="shared" si="135"/>
         <v>0.29161364111956389</v>
       </c>
-      <c r="AG54" s="20">
-        <f t="shared" si="141"/>
+      <c r="AK54" s="20">
+        <f t="shared" si="135"/>
         <v>0.33859733877041753</v>
       </c>
-      <c r="AH54" s="20">
-        <f t="shared" si="141"/>
+      <c r="AL54" s="20">
+        <f t="shared" si="135"/>
         <v>0.31058737146668441</v>
       </c>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="19"/>
-      <c r="AK54" s="19"/>
-      <c r="AL54" s="19"/>
-      <c r="AM54" s="19"/>
+      <c r="AM54" s="20"/>
       <c r="AN54" s="19"/>
       <c r="AO54" s="19"/>
       <c r="AP54" s="19"/>
       <c r="AQ54" s="19"/>
-      <c r="AS54" s="4"/>
-      <c r="AT54" s="17"/>
-    </row>
-    <row r="55" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR54" s="19"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="19"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="17"/>
+    </row>
+    <row r="55" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="13"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5164,10 +5380,10 @@
       <c r="U55" s="14"/>
       <c r="V55" s="14"/>
       <c r="W55" s="14"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="18"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
       <c r="AH55" s="18"/>
       <c r="AI55" s="18"/>
       <c r="AJ55" s="18"/>
@@ -5178,8 +5394,12 @@
       <c r="AO55" s="18"/>
       <c r="AP55" s="18"/>
       <c r="AQ55" s="18"/>
-    </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AR55" s="18"/>
+      <c r="AS55" s="18"/>
+      <c r="AT55" s="18"/>
+      <c r="AU55" s="18"/>
+    </row>
+    <row r="56" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B56" s="11" t="s">
         <v>120</v>
       </c>
@@ -5225,10 +5445,10 @@
       <c r="U56" s="19"/>
       <c r="V56" s="19"/>
       <c r="W56" s="19"/>
-      <c r="AD56" s="20"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="20"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
       <c r="AH56" s="20"/>
       <c r="AI56" s="20"/>
       <c r="AJ56" s="20"/>
@@ -5239,8 +5459,12 @@
       <c r="AO56" s="20"/>
       <c r="AP56" s="20"/>
       <c r="AQ56" s="20"/>
-    </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AR56" s="20"/>
+      <c r="AS56" s="20"/>
+      <c r="AT56" s="20"/>
+      <c r="AU56" s="20"/>
+    </row>
+    <row r="57" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
         <v>121</v>
       </c>
@@ -5249,43 +5473,43 @@
         <v>747.72</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" ref="G57:O57" si="142">G56*G47</f>
+        <f t="shared" ref="G57:O57" si="136">G56*G47</f>
         <v>329.41420000000005</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>447.52851000000004</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>507.24344999999994</v>
       </c>
       <c r="J57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>322.89083999999997</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>4085.1333100000002</v>
       </c>
       <c r="L57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>27247.83308</v>
       </c>
       <c r="M57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>19537.339800000002</v>
       </c>
       <c r="N57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>13976.012799999999</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>12712.0224</v>
       </c>
       <c r="P57" s="16">
-        <f t="shared" ref="P57" si="143">P56*P47</f>
+        <f t="shared" ref="P57" si="137">P56*P47</f>
         <v>7002.9245500000006</v>
       </c>
       <c r="Q57" s="16">
@@ -5298,10 +5522,10 @@
       <c r="U57" s="19"/>
       <c r="V57" s="19"/>
       <c r="W57" s="19"/>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
       <c r="AH57" s="20"/>
       <c r="AI57" s="20"/>
       <c r="AJ57" s="20"/>
@@ -5312,8 +5536,12 @@
       <c r="AO57" s="20"/>
       <c r="AP57" s="20"/>
       <c r="AQ57" s="20"/>
-    </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AR57" s="20"/>
+      <c r="AS57" s="20"/>
+      <c r="AT57" s="20"/>
+      <c r="AU57" s="20"/>
+    </row>
+    <row r="58" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B58" s="11" t="s">
         <v>122</v>
       </c>
@@ -5350,10 +5578,10 @@
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
-      <c r="AD58" s="20"/>
-      <c r="AE58" s="20"/>
-      <c r="AF58" s="20"/>
-      <c r="AG58" s="20"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
       <c r="AH58" s="20"/>
       <c r="AI58" s="20"/>
       <c r="AJ58" s="20"/>
@@ -5364,8 +5592,12 @@
       <c r="AO58" s="20"/>
       <c r="AP58" s="20"/>
       <c r="AQ58" s="20"/>
-    </row>
-    <row r="59" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR58" s="20"/>
+      <c r="AS58" s="20"/>
+      <c r="AT58" s="20"/>
+      <c r="AU58" s="20"/>
+    </row>
+    <row r="59" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="13"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -5388,10 +5620,10 @@
       <c r="U59" s="14"/>
       <c r="V59" s="14"/>
       <c r="W59" s="14"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
       <c r="AH59" s="18"/>
       <c r="AI59" s="18"/>
       <c r="AJ59" s="18"/>
@@ -5402,17 +5634,21 @@
       <c r="AO59" s="18"/>
       <c r="AP59" s="18"/>
       <c r="AQ59" s="18"/>
-    </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AR59" s="18"/>
+      <c r="AS59" s="18"/>
+      <c r="AT59" s="18"/>
+      <c r="AU59" s="18"/>
+    </row>
+    <row r="60" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>56</v>
       </c>
       <c r="K60" s="8">
-        <f t="shared" ref="K60" si="144">K61-K74</f>
+        <f t="shared" ref="K60" si="138">K61-K74</f>
         <v>-4617.2999999999993</v>
       </c>
       <c r="L60" s="8">
-        <f t="shared" ref="L60" si="145">L61-L74</f>
+        <f t="shared" ref="L60" si="139">L61-L74</f>
         <v>-3660.7999999999993</v>
       </c>
       <c r="M60" s="8">
@@ -5439,49 +5675,59 @@
         <f>Q60+R45</f>
         <v>-4665</v>
       </c>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
+      <c r="S60" s="8">
+        <f>R60+S45</f>
+        <v>-4770.1000000000004</v>
+      </c>
+      <c r="T60" s="8">
+        <f>S60+T45</f>
+        <v>-4679.8999999999996</v>
+      </c>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
-      <c r="AI60" s="7">
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AM60" s="7">
         <f>R60</f>
         <v>-4665</v>
       </c>
-      <c r="AJ60" s="7">
-        <f t="shared" ref="AJ60:AQ60" si="146">AI60+AJ45</f>
-        <v>-3628.0760748000002</v>
-      </c>
-      <c r="AK60" s="7">
-        <f t="shared" si="146"/>
-        <v>-2314.9493220339991</v>
-      </c>
-      <c r="AL60" s="7">
-        <f t="shared" si="146"/>
-        <v>-698.17310570235759</v>
-      </c>
-      <c r="AM60" s="7">
-        <f t="shared" si="146"/>
-        <v>1253.46772935692</v>
-      </c>
       <c r="AN60" s="7">
-        <f t="shared" si="146"/>
-        <v>3573.786691566439</v>
+        <f t="shared" ref="AN60:AU60" si="140">AM60+AN45</f>
+        <v>-4559.8786085747997</v>
       </c>
       <c r="AO60" s="7">
-        <f t="shared" si="146"/>
-        <v>6299.3942080805373</v>
+        <f t="shared" si="140"/>
+        <v>-4268.0676978595329</v>
       </c>
       <c r="AP60" s="7">
-        <f t="shared" si="146"/>
-        <v>8210.0854772199127</v>
+        <f t="shared" si="140"/>
+        <v>-3788.8706789659491</v>
       </c>
       <c r="AQ60" s="7">
-        <f t="shared" si="146"/>
-        <v>10306.859255713394</v>
-      </c>
-    </row>
-    <row r="61" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="140"/>
+        <v>-3101.0669580654812</v>
+      </c>
+      <c r="AR60" s="7">
+        <f t="shared" si="140"/>
+        <v>-2181.6121051865275</v>
+      </c>
+      <c r="AS60" s="7">
+        <f t="shared" si="140"/>
+        <v>-1005.4965073821927</v>
+      </c>
+      <c r="AT60" s="7">
+        <f t="shared" si="140"/>
+        <v>65.704871303329355</v>
+      </c>
+      <c r="AU60" s="7">
+        <f t="shared" si="140"/>
+        <v>1284.6067184459705</v>
+      </c>
+    </row>
+    <row r="61" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7" t="s">
         <v>3</v>
       </c>
@@ -5522,13 +5768,23 @@
         <v>705.80000000000007</v>
       </c>
       <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
+      <c r="S61" s="8">
+        <f>495.6+23.1</f>
+        <v>518.70000000000005</v>
+      </c>
+      <c r="T61" s="8">
+        <f>435.3+22.9</f>
+        <v>458.2</v>
+      </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
-    </row>
-    <row r="62" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+    </row>
+    <row r="62" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7" t="s">
         <v>40</v>
       </c>
@@ -5562,13 +5818,21 @@
         <v>108.4</v>
       </c>
       <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
+      <c r="S62" s="8">
+        <v>105.7</v>
+      </c>
+      <c r="T62" s="8">
+        <v>137.80000000000001</v>
+      </c>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
-    </row>
-    <row r="63" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+    </row>
+    <row r="63" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7" t="s">
         <v>41</v>
       </c>
@@ -5602,13 +5866,21 @@
         <v>91</v>
       </c>
       <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
+      <c r="S63" s="8">
+        <v>116.1</v>
+      </c>
+      <c r="T63" s="8">
+        <v>111.7</v>
+      </c>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
-    </row>
-    <row r="64" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+    </row>
+    <row r="64" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="7" t="s">
         <v>42</v>
       </c>
@@ -5642,13 +5914,22 @@
         <v>1750.8</v>
       </c>
       <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
+      <c r="S64" s="8">
+        <f>1670.2</f>
+        <v>1670.2</v>
+      </c>
+      <c r="T64" s="8">
+        <v>1618.2</v>
+      </c>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="8"/>
-    </row>
-    <row r="65" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+    </row>
+    <row r="65" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="7" t="s">
         <v>43</v>
       </c>
@@ -5683,13 +5964,21 @@
         <v>3873.1</v>
       </c>
       <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
+      <c r="S65" s="8">
+        <v>3740.3</v>
+      </c>
+      <c r="T65" s="8">
+        <v>3688.3</v>
+      </c>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
-    </row>
-    <row r="66" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+    </row>
+    <row r="66" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7" t="s">
         <v>44</v>
       </c>
@@ -5730,13 +6019,23 @@
         <v>2452.2000000000003</v>
       </c>
       <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
+      <c r="S66" s="8">
+        <f>2342.7+147.4</f>
+        <v>2490.1</v>
+      </c>
+      <c r="T66" s="8">
+        <f>147.1+2310.2</f>
+        <v>2457.2999999999997</v>
+      </c>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
-    </row>
-    <row r="67" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+    </row>
+    <row r="67" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7" t="s">
         <v>45</v>
       </c>
@@ -5770,13 +6069,21 @@
         <v>0.4</v>
       </c>
       <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
+      <c r="S67" s="8">
+        <v>0</v>
+      </c>
+      <c r="T67" s="8">
+        <v>0</v>
+      </c>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
-    </row>
-    <row r="68" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+    </row>
+    <row r="68" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="7" t="s">
         <v>46</v>
       </c>
@@ -5810,13 +6117,21 @@
         <v>224.4</v>
       </c>
       <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
+      <c r="S68" s="8">
+        <v>206.5</v>
+      </c>
+      <c r="T68" s="8">
+        <v>198.2</v>
+      </c>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="8"/>
-    </row>
-    <row r="69" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+    </row>
+    <row r="69" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="7" t="s">
         <v>39</v>
       </c>
@@ -5829,11 +6144,11 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8">
-        <f t="shared" ref="K69" si="147">SUM(K61:K68)</f>
+        <f t="shared" ref="K69" si="141">SUM(K61:K68)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" ref="L69" si="148">SUM(L61:L68)</f>
+        <f t="shared" ref="L69" si="142">SUM(L61:L68)</f>
         <v>11329.100000000002</v>
       </c>
       <c r="M69" s="8">
@@ -5856,14 +6171,27 @@
         <f>SUM(Q61:Q68)</f>
         <v>9206.1</v>
       </c>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
+      <c r="R69" s="8">
+        <f>SUM(R61:R68)</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="8">
+        <f>SUM(S61:S68)</f>
+        <v>8847.6</v>
+      </c>
+      <c r="T69" s="8">
+        <f>SUM(T61:T68)</f>
+        <v>8669.7000000000007</v>
+      </c>
       <c r="U69" s="8"/>
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
-    </row>
-    <row r="70" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+    </row>
+    <row r="70" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -5885,8 +6213,12 @@
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
-    </row>
-    <row r="71" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+    </row>
+    <row r="71" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="7" t="s">
         <v>47</v>
       </c>
@@ -5920,13 +6252,21 @@
         <v>230.7</v>
       </c>
       <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
+      <c r="S71" s="8">
+        <v>257</v>
+      </c>
+      <c r="T71" s="8">
+        <v>285.5</v>
+      </c>
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
-    </row>
-    <row r="72" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+    </row>
+    <row r="72" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="7" t="s">
         <v>48</v>
       </c>
@@ -5960,13 +6300,21 @@
         <v>349.1</v>
       </c>
       <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
+      <c r="S72" s="8">
+        <v>490.6</v>
+      </c>
+      <c r="T72" s="8">
+        <v>328.6</v>
+      </c>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
       <c r="W72" s="8"/>
-    </row>
-    <row r="73" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+    </row>
+    <row r="73" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="7" t="s">
         <v>49</v>
       </c>
@@ -6000,13 +6348,21 @@
         <v>343.4</v>
       </c>
       <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
+      <c r="S73" s="8">
+        <v>391.7</v>
+      </c>
+      <c r="T73" s="8">
+        <v>385.3</v>
+      </c>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
-    </row>
-    <row r="74" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+    </row>
+    <row r="74" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="7" t="s">
         <v>4</v>
       </c>
@@ -6047,13 +6403,23 @@
         <v>5325.3</v>
       </c>
       <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
+      <c r="S74" s="8">
+        <f>20+4862</f>
+        <v>4882</v>
+      </c>
+      <c r="T74" s="8">
+        <f>20+4795.6</f>
+        <v>4815.6000000000004</v>
+      </c>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
-    </row>
-    <row r="75" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+    </row>
+    <row r="75" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="7" t="s">
         <v>50</v>
       </c>
@@ -6094,13 +6460,23 @@
         <v>56.2</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
+      <c r="S75" s="8">
+        <f>6.5+52</f>
+        <v>58.5</v>
+      </c>
+      <c r="T75" s="8">
+        <f>6.4+51</f>
+        <v>57.4</v>
+      </c>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
-    </row>
-    <row r="76" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+    </row>
+    <row r="76" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="7" t="s">
         <v>51</v>
       </c>
@@ -6141,13 +6517,23 @@
         <v>4812.3</v>
       </c>
       <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
+      <c r="S76" s="8">
+        <f>4172.2+546.5</f>
+        <v>4718.7</v>
+      </c>
+      <c r="T76" s="8">
+        <f>4104.3+528.5</f>
+        <v>4632.8</v>
+      </c>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
-    </row>
-    <row r="77" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+    </row>
+    <row r="77" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="7" t="s">
         <v>52</v>
       </c>
@@ -6181,13 +6567,21 @@
         <v>510.9</v>
       </c>
       <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
+      <c r="S77" s="8">
+        <v>502.5</v>
+      </c>
+      <c r="T77" s="8">
+        <v>497.3</v>
+      </c>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
-    </row>
-    <row r="78" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+    </row>
+    <row r="78" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="7" t="s">
         <v>45</v>
       </c>
@@ -6221,13 +6615,21 @@
         <v>31.5</v>
       </c>
       <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
+      <c r="S78" s="8">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="T78" s="8">
+        <v>32.5</v>
+      </c>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
-    </row>
-    <row r="79" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+    </row>
+    <row r="79" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="7" t="s">
         <v>53</v>
       </c>
@@ -6261,13 +6663,22 @@
         <v>125.7</v>
       </c>
       <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
+      <c r="S79" s="8">
+        <v>104.2</v>
+      </c>
+      <c r="T79" s="8">
+        <f>101.9+115.4</f>
+        <v>217.3</v>
+      </c>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
-    </row>
-    <row r="80" spans="2:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+    </row>
+    <row r="80" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="7" t="s">
         <v>54</v>
       </c>
@@ -6301,13 +6712,21 @@
         <v>-2579</v>
       </c>
       <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
+      <c r="S80" s="8">
+        <v>-2590.3000000000002</v>
+      </c>
+      <c r="T80" s="8">
+        <v>-2582.6</v>
+      </c>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
-    </row>
-    <row r="81" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+    </row>
+    <row r="81" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="7" t="s">
         <v>55</v>
       </c>
@@ -6320,15 +6739,15 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8">
-        <f t="shared" ref="K81" si="149">SUM(K71:K80)</f>
+        <f t="shared" ref="K81" si="143">SUM(K71:K80)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" ref="L81" si="150">SUM(L71:L80)</f>
+        <f t="shared" ref="L81" si="144">SUM(L71:L80)</f>
         <v>11329.1</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" ref="M81" si="151">SUM(M71:M80)</f>
+        <f t="shared" ref="M81" si="145">SUM(M71:M80)</f>
         <v>11057.499999999998</v>
       </c>
       <c r="N81" s="8">
@@ -6348,13 +6767,23 @@
         <v>9206.1</v>
       </c>
       <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
+      <c r="S81" s="8">
+        <f>SUM(S71:S80)</f>
+        <v>8847.6000000000022</v>
+      </c>
+      <c r="T81" s="8">
+        <f>SUM(T71:T80)</f>
+        <v>8669.6999999999989</v>
+      </c>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
       <c r="W81" s="8"/>
-    </row>
-    <row r="83" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+    </row>
+    <row r="83" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="7" t="s">
         <v>66</v>
       </c>
@@ -6367,27 +6796,27 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8">
-        <f t="shared" ref="K83:P83" si="152">K45</f>
+        <f t="shared" ref="K83:P83" si="146">K45</f>
         <v>-465.3</v>
       </c>
       <c r="L83" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="146"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="146"/>
         <v>-126.9</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="146"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="146"/>
         <v>-149.70000000000019</v>
       </c>
       <c r="P83" s="8">
-        <f t="shared" si="152"/>
+        <f t="shared" si="146"/>
         <v>0.5</v>
       </c>
       <c r="Q83" s="8"/>
@@ -6397,20 +6826,24 @@
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
-      <c r="AF83" s="7">
-        <f>AF45</f>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="8"/>
+      <c r="AJ83" s="7">
+        <f>AJ45</f>
         <v>415.50000000000017</v>
       </c>
-      <c r="AG83" s="7">
-        <f>AG45</f>
+      <c r="AK83" s="7">
+        <f>AK45</f>
         <v>-1441.1999999999996</v>
       </c>
-      <c r="AH83" s="7">
-        <f>AH45</f>
+      <c r="AL83" s="7">
+        <f>AL45</f>
         <v>-824.99999999999989</v>
       </c>
     </row>
-    <row r="84" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="7" t="s">
         <v>67</v>
       </c>
@@ -6445,17 +6878,21 @@
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
-      <c r="AF84" s="7">
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AJ84" s="7">
         <v>-149.1</v>
       </c>
-      <c r="AG84" s="7">
+      <c r="AK84" s="7">
         <v>-4589.3999999999996</v>
       </c>
-      <c r="AH84" s="7">
+      <c r="AL84" s="7">
         <v>-1269.8</v>
       </c>
     </row>
-    <row r="85" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="7" t="s">
         <v>68</v>
       </c>
@@ -6490,17 +6927,21 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
-      <c r="AF85" s="7">
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8"/>
+      <c r="AJ85" s="7">
         <v>450</v>
       </c>
-      <c r="AG85" s="7">
+      <c r="AK85" s="7">
         <v>498.3</v>
       </c>
-      <c r="AH85" s="7">
+      <c r="AL85" s="7">
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="7" t="s">
         <v>45</v>
       </c>
@@ -6535,17 +6976,21 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
-      <c r="AF86" s="7">
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AJ86" s="7">
         <v>-33.700000000000003</v>
       </c>
-      <c r="AG86" s="7">
+      <c r="AK86" s="7">
         <v>64</v>
       </c>
-      <c r="AH86" s="7">
+      <c r="AL86" s="7">
         <v>-7.6</v>
       </c>
     </row>
-    <row r="87" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="7" t="s">
         <v>119</v>
       </c>
@@ -6574,17 +7019,21 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
-      <c r="AF87" s="7">
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AJ87" s="7">
         <v>84.3</v>
       </c>
-      <c r="AG87" s="7">
+      <c r="AK87" s="7">
         <v>2513.9</v>
       </c>
-      <c r="AH87" s="7">
+      <c r="AL87" s="7">
         <v>77.2</v>
       </c>
     </row>
-    <row r="88" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="7" t="s">
         <v>70</v>
       </c>
@@ -6618,17 +7067,21 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
-      <c r="AF88" s="7">
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AJ88" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="AG88" s="7">
+      <c r="AK88" s="7">
         <v>-93.6</v>
       </c>
-      <c r="AH88" s="7">
+      <c r="AL88" s="7">
         <v>14.1</v>
       </c>
     </row>
-    <row r="89" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="7" t="s">
         <v>71</v>
       </c>
@@ -6662,18 +7115,22 @@
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
-      <c r="AF89" s="7">
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AJ89" s="7">
         <v>0</v>
       </c>
-      <c r="AG89" s="7">
+      <c r="AK89" s="7">
         <v>109</v>
       </c>
-      <c r="AH89" s="7">
+      <c r="AL89" s="7">
         <f>-5.5-0.9</f>
         <v>-6.4</v>
       </c>
     </row>
-    <row r="90" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="7" t="s">
         <v>80</v>
       </c>
@@ -6708,17 +7165,21 @@
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
-      <c r="AF90" s="7">
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AJ90" s="7">
         <v>11.3</v>
       </c>
-      <c r="AG90" s="7">
+      <c r="AK90" s="7">
         <v>-22</v>
       </c>
-      <c r="AH90" s="7">
+      <c r="AL90" s="7">
         <v>-3.9</v>
       </c>
     </row>
-    <row r="91" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="7" t="s">
         <v>79</v>
       </c>
@@ -6753,19 +7214,23 @@
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
-      <c r="AF91" s="7">
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AJ91" s="7">
         <v>15.8</v>
       </c>
-      <c r="AG91" s="7">
+      <c r="AK91" s="7">
         <f>14.2+73.4+1.8</f>
         <v>89.4</v>
       </c>
-      <c r="AH91" s="7">
+      <c r="AL91" s="7">
         <f>116.2+23.3</f>
         <v>139.5</v>
       </c>
     </row>
-    <row r="92" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="7" t="s">
         <v>123</v>
       </c>
@@ -6795,8 +7260,12 @@
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
-    </row>
-    <row r="93" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+    </row>
+    <row r="93" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="7" t="s">
         <v>72</v>
       </c>
@@ -6830,17 +7299,21 @@
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
-      <c r="AF93" s="7">
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AJ93" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG93" s="7">
+      <c r="AK93" s="7">
         <v>25.4</v>
       </c>
-      <c r="AH93" s="7">
+      <c r="AL93" s="7">
         <v>43.1</v>
       </c>
     </row>
-    <row r="94" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="7" t="s">
         <v>73</v>
       </c>
@@ -6874,18 +7347,22 @@
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
-      <c r="AF94" s="7">
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8"/>
+      <c r="AJ94" s="7">
         <f>-17.4-5.8</f>
         <v>-23.2</v>
       </c>
-      <c r="AG94" s="7">
+      <c r="AK94" s="7">
         <v>-17.399999999999999</v>
       </c>
-      <c r="AH94" s="7">
+      <c r="AL94" s="7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="7" t="s">
         <v>74</v>
       </c>
@@ -6919,17 +7396,21 @@
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
-      <c r="AF95" s="7">
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+      <c r="AJ95" s="7">
         <v>2.7</v>
       </c>
-      <c r="AG95" s="7">
+      <c r="AK95" s="7">
         <v>45.4</v>
       </c>
-      <c r="AH95" s="7">
+      <c r="AL95" s="7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="7" t="s">
         <v>75</v>
       </c>
@@ -6963,17 +7444,21 @@
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
-      <c r="AF96" s="7">
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AJ96" s="7">
         <v>106.5</v>
       </c>
-      <c r="AG96" s="7">
+      <c r="AK96" s="7">
         <v>43.6</v>
       </c>
-      <c r="AH96" s="7">
+      <c r="AL96" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="7" t="s">
         <v>76</v>
       </c>
@@ -7007,17 +7492,21 @@
       <c r="U97" s="8"/>
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
-      <c r="AF97" s="7">
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+      <c r="AJ97" s="7">
         <v>25.7</v>
       </c>
-      <c r="AG97" s="7">
+      <c r="AK97" s="7">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="AH97" s="7">
+      <c r="AL97" s="7">
         <v>-24.9</v>
       </c>
     </row>
-    <row r="98" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="7" t="s">
         <v>77</v>
       </c>
@@ -7051,17 +7540,21 @@
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
-      <c r="AF98" s="7">
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+      <c r="AJ98" s="7">
         <v>-62.3</v>
       </c>
-      <c r="AG98" s="7">
+      <c r="AK98" s="7">
         <v>3.4</v>
       </c>
-      <c r="AH98" s="7">
+      <c r="AL98" s="7">
         <v>-133.69999999999999</v>
       </c>
     </row>
-    <row r="99" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="7" t="s">
         <v>78</v>
       </c>
@@ -7098,20 +7591,24 @@
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
-      <c r="AF99" s="7">
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+      <c r="AJ99" s="7">
         <f>0.7+30.9+104.8-0.6-7.5+1.7</f>
         <v>130</v>
       </c>
-      <c r="AG99" s="7">
+      <c r="AK99" s="7">
         <f>159.3+76.8-176.4+102.5+43.2</f>
         <v>205.40000000000003</v>
       </c>
-      <c r="AH99" s="7">
+      <c r="AL99" s="7">
         <f>-82.7-5.8+63.8+164.3-29.9</f>
         <v>109.70000000000002</v>
       </c>
     </row>
-    <row r="100" spans="2:34" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="7" t="s">
         <v>69</v>
       </c>
@@ -7143,28 +7640,37 @@
       </c>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
+      <c r="S100" s="8">
+        <v>-189.9</v>
+      </c>
+      <c r="T100" s="8">
+        <f>-203.3-S100</f>
+        <v>-13.400000000000006</v>
+      </c>
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
-      <c r="AF100" s="7">
-        <f t="shared" ref="AF100:AG100" si="153">SUM(AF84:AF99)</f>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8"/>
+      <c r="AJ100" s="7">
+        <f t="shared" ref="AJ100:AK100" si="147">SUM(AJ84:AJ99)</f>
         <v>579</v>
       </c>
-      <c r="AG100" s="7">
-        <f t="shared" si="153"/>
+      <c r="AK100" s="7">
+        <f t="shared" si="147"/>
         <v>-1129.4999999999991</v>
       </c>
-      <c r="AH100" s="7">
-        <f>SUM(AH84:AH99)</f>
+      <c r="AL100" s="7">
+        <f>SUM(AL84:AL99)</f>
         <v>-614.09999999999991</v>
       </c>
     </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AG101" s="7"/>
-    </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:38" x14ac:dyDescent="0.15">
+      <c r="AK101" s="7"/>
+    </row>
+    <row r="102" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B102" s="7" t="s">
         <v>86</v>
       </c>
@@ -7175,17 +7681,24 @@
         <f>-75.2-O102</f>
         <v>-40.400000000000006</v>
       </c>
-      <c r="AF102" s="7">
+      <c r="S102" s="2">
+        <v>-47.4</v>
+      </c>
+      <c r="T102" s="2">
+        <f>-96-S102</f>
+        <v>-48.6</v>
+      </c>
+      <c r="AJ102" s="7">
         <v>-518.1</v>
       </c>
-      <c r="AG102" s="7">
+      <c r="AK102" s="7">
         <v>-173.8</v>
       </c>
-      <c r="AH102" s="7">
+      <c r="AL102" s="7">
         <v>-92.4</v>
       </c>
     </row>
-    <row r="103" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B103" s="7" t="s">
         <v>73</v>
       </c>
@@ -7196,17 +7709,17 @@
         <f>7.2-O103</f>
         <v>0</v>
       </c>
-      <c r="AF103" s="7">
+      <c r="AJ103" s="7">
         <v>0</v>
       </c>
-      <c r="AG103" s="7">
+      <c r="AK103" s="7">
         <v>6.2</v>
       </c>
-      <c r="AH103" s="7">
+      <c r="AL103" s="7">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B104" s="7" t="s">
         <v>124</v>
       </c>
@@ -7217,11 +7730,11 @@
         <f>-17.8-O104</f>
         <v>-17.8</v>
       </c>
-      <c r="AF104" s="7"/>
-      <c r="AG104" s="7"/>
-      <c r="AH104" s="7"/>
-    </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AJ104" s="7"/>
+      <c r="AK104" s="7"/>
+      <c r="AL104" s="7"/>
+    </row>
+    <row r="105" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B105" s="7" t="s">
         <v>88</v>
       </c>
@@ -7232,20 +7745,20 @@
         <f>-27.9-O105+11.4</f>
         <v>11.4</v>
       </c>
-      <c r="AF105" s="7">
+      <c r="AJ105" s="7">
         <f>-11.8+23.2-9.7</f>
         <v>1.6999999999999993</v>
       </c>
-      <c r="AG105" s="7">
+      <c r="AK105" s="7">
         <f>-9.3+19.8</f>
         <v>10.5</v>
       </c>
-      <c r="AH105" s="7">
+      <c r="AL105" s="7">
         <f>-11.8+9.7-8.2</f>
         <v>-10.3</v>
       </c>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B106" s="7" t="s">
         <v>89</v>
       </c>
@@ -7256,17 +7769,17 @@
         <f>-0.6-O106</f>
         <v>-1.2</v>
       </c>
-      <c r="AF106" s="7">
+      <c r="AJ106" s="7">
         <v>0.3</v>
       </c>
-      <c r="AG106" s="7">
+      <c r="AK106" s="7">
         <v>2.5</v>
       </c>
-      <c r="AH106" s="7">
+      <c r="AL106" s="7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>87</v>
       </c>
@@ -7278,20 +7791,20 @@
         <f>SUM(P102:P106)</f>
         <v>-48.000000000000007</v>
       </c>
-      <c r="AF107" s="7">
-        <f>SUM(AF102:AF106)</f>
+      <c r="AJ107" s="7">
+        <f>SUM(AJ102:AJ106)</f>
         <v>-516.1</v>
       </c>
-      <c r="AG107" s="7">
-        <f t="shared" ref="AG107:AH107" si="154">SUM(AG102:AG106)</f>
+      <c r="AK107" s="7">
+        <f t="shared" ref="AK107:AL107" si="148">SUM(AK102:AK106)</f>
         <v>-154.60000000000002</v>
       </c>
-      <c r="AH107" s="7">
-        <f t="shared" si="154"/>
+      <c r="AL107" s="7">
+        <f t="shared" si="148"/>
         <v>-68.2</v>
       </c>
     </row>
-    <row r="114" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B114" s="15" t="s">
         <v>92</v>
       </c>
@@ -7320,8 +7833,12 @@
       <c r="U114" s="16"/>
       <c r="V114" s="16"/>
       <c r="W114" s="16"/>
-    </row>
-    <row r="115" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X114" s="16"/>
+      <c r="Y114" s="16"/>
+      <c r="Z114" s="16"/>
+      <c r="AA114" s="16"/>
+    </row>
+    <row r="115" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B115" s="15" t="s">
         <v>93</v>
       </c>
@@ -7350,8 +7867,12 @@
       <c r="U115" s="16"/>
       <c r="V115" s="16"/>
       <c r="W115" s="16"/>
-    </row>
-    <row r="116" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X115" s="16"/>
+      <c r="Y115" s="16"/>
+      <c r="Z115" s="16"/>
+      <c r="AA115" s="16"/>
+    </row>
+    <row r="116" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B116" s="15" t="s">
         <v>94</v>
       </c>
@@ -7380,8 +7901,12 @@
       <c r="U116" s="16"/>
       <c r="V116" s="16"/>
       <c r="W116" s="16"/>
-    </row>
-    <row r="117" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X116" s="16"/>
+      <c r="Y116" s="16"/>
+      <c r="Z116" s="16"/>
+      <c r="AA116" s="16"/>
+    </row>
+    <row r="117" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B117" s="15" t="s">
         <v>95</v>
       </c>
@@ -7410,8 +7935,12 @@
       <c r="U117" s="16"/>
       <c r="V117" s="16"/>
       <c r="W117" s="16"/>
-    </row>
-    <row r="118" spans="2:23" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X117" s="16"/>
+      <c r="Y117" s="16"/>
+      <c r="Z117" s="16"/>
+      <c r="AA117" s="16"/>
+    </row>
+    <row r="118" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B118" s="15" t="s">
         <v>96</v>
       </c>
@@ -7440,8 +7969,12 @@
       <c r="U118" s="16"/>
       <c r="V118" s="16"/>
       <c r="W118" s="16"/>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X118" s="16"/>
+      <c r="Y118" s="16"/>
+      <c r="Z118" s="16"/>
+      <c r="AA118" s="16"/>
+    </row>
+    <row r="120" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B120" s="15" t="s">
         <v>97</v>
       </c>
@@ -7449,7 +7982,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.15">
       <c r="O121" s="16"/>
     </row>
   </sheetData>

--- a/AMC.xlsx
+++ b/AMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398076F-5A1E-144A-BAA5-279F600FB734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647443E-07DC-4F3B-AC03-F8D01CAC1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-5340" windowWidth="21600" windowHeight="21120" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
+    <workbookView xWindow="-28185" yWindow="2685" windowWidth="28230" windowHeight="18075" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -491,12 +491,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -515,12 +515,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -591,7 +585,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{CB89B15E-DE8E-4E75-A6A6-F797161981BC}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -607,16 +603,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25308</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>25308</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>114665</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -631,8 +627,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14300200" y="0"/>
-          <a:ext cx="0" cy="21207413"/>
+          <a:off x="14693808" y="236986"/>
+          <a:ext cx="0" cy="20411574"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -715,9 +711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -755,7 +751,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -861,7 +857,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1003,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1027,13 +1023,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A416C95-5A89-4DF8-9664-BB610037C5AD}">
   <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>82</v>
       </c>
@@ -1041,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>83</v>
       </c>
@@ -1052,23 +1048,22 @@
         <v>1</v>
       </c>
       <c r="N3" s="15">
-        <f>516.820595+531.716231</f>
-        <v>1048.536826</v>
+        <v>153</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M4" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="15">
         <f>N2*N3</f>
-        <v>5242.6841299999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+        <v>671.67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>102</v>
       </c>
@@ -1083,7 +1078,7 @@
       </c>
       <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>107</v>
       </c>
@@ -1097,16 +1092,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
         <v>5</v>
       </c>
       <c r="N7" s="15">
         <f>N4-N5+N6</f>
-        <v>9862.1841299999996</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+        <v>5291.17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>113</v>
       </c>
@@ -1114,22 +1109,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1935</v>
       </c>
@@ -1137,7 +1132,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>505.6</v>
       </c>
@@ -1145,7 +1140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>950</v>
       </c>
@@ -1153,7 +1148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1435.5</v>
       </c>
@@ -1161,7 +1156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>311.39999999999998</v>
       </c>
@@ -1178,28 +1173,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1ECA33-ACCE-4F6E-BC14-505D1708A040}">
   <dimension ref="A1:CY121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T57" sqref="T57:Z83"/>
+      <selection pane="bottomRight" activeCell="X76" sqref="X76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="13" width="9.1640625" style="2"/>
-    <col min="14" max="27" width="8.5" style="2" customWidth="1"/>
-    <col min="50" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="2"/>
+    <col min="14" max="27" width="8.42578125" style="2" customWidth="1"/>
+    <col min="50" max="50" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1360,7 +1355,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>115</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="4" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>118</v>
       </c>
@@ -1455,7 +1450,7 @@
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
     </row>
-    <row r="5" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>116</v>
       </c>
@@ -1501,7 +1496,7 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
     </row>
-    <row r="6" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>90</v>
       </c>
@@ -1543,7 +1538,7 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
     </row>
-    <row r="7" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1570,7 +1565,7 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>117</v>
       </c>
@@ -1600,7 +1595,7 @@
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
     </row>
-    <row r="9" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>130</v>
       </c>
@@ -1634,7 +1629,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>131</v>
       </c>
@@ -1674,7 +1669,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>91</v>
       </c>
@@ -1719,7 +1714,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>103</v>
       </c>
@@ -1761,7 +1756,7 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
     </row>
-    <row r="13" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>104</v>
       </c>
@@ -1809,7 +1804,7 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
     </row>
-    <row r="14" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
@@ -1857,7 +1852,7 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -1880,7 +1875,7 @@
         <v>907.9</v>
       </c>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>105</v>
       </c>
@@ -1900,7 +1895,7 @@
         <v>501.2</v>
       </c>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>108</v>
       </c>
@@ -1920,7 +1915,7 @@
         <v>268.7</v>
       </c>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>109</v>
       </c>
@@ -1945,7 +1940,7 @@
         <v>0.46388667198723066</v>
       </c>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>85</v>
       </c>
@@ -1968,7 +1963,7 @@
         <v>258.5</v>
       </c>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>105</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>149.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>108</v>
       </c>
@@ -2010,7 +2005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>109</v>
       </c>
@@ -2036,7 +2031,7 @@
         <v>0.5994659546061416</v>
       </c>
     </row>
-    <row r="26" spans="2:47" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:47" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>63</v>
       </c>
@@ -2145,7 +2140,7 @@
         <v>8530.8327439999994</v>
       </c>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>132</v>
       </c>
@@ -2197,7 +2192,7 @@
         <v>0.90042240595386769</v>
       </c>
     </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>133</v>
       </c>
@@ -2274,7 +2269,7 @@
       <c r="AI28" s="20"/>
       <c r="AJ28" s="20"/>
     </row>
-    <row r="30" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
@@ -2319,16 +2314,26 @@
         <v>545.29999999999995</v>
       </c>
       <c r="R30" s="8">
-        <v>574.9</v>
+        <v>561.29999999999995</v>
       </c>
       <c r="S30" s="8">
         <v>534.1</v>
       </c>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
+      <c r="T30" s="8">
+        <v>744.1</v>
+      </c>
+      <c r="U30" s="8">
+        <v>797.7</v>
+      </c>
+      <c r="V30" s="8">
+        <v>614.6</v>
+      </c>
+      <c r="W30" s="8">
+        <v>530.5</v>
+      </c>
+      <c r="X30" s="8">
+        <v>564.4</v>
+      </c>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -2354,7 +2359,7 @@
       </c>
       <c r="AM30" s="7">
         <f>SUM(O30:R30)</f>
-        <v>2215</v>
+        <v>2201.3999999999996</v>
       </c>
       <c r="AO30" s="7">
         <f>AN30*1.1</f>
@@ -2385,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>25</v>
       </c>
@@ -2429,16 +2434,26 @@
         <v>333.3</v>
       </c>
       <c r="R31" s="8">
-        <v>337.6</v>
+        <v>331.2</v>
       </c>
       <c r="S31" s="8">
         <v>328.7</v>
       </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
+      <c r="T31" s="8">
+        <v>488.2</v>
+      </c>
+      <c r="U31" s="8">
+        <v>482.7</v>
+      </c>
+      <c r="V31" s="8">
+        <v>370.2</v>
+      </c>
+      <c r="W31" s="8">
+        <v>321.2</v>
+      </c>
+      <c r="X31" s="8">
+        <v>367.1</v>
+      </c>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
@@ -2464,7 +2479,7 @@
       </c>
       <c r="AM31" s="7">
         <f>SUM(O31:R31)</f>
-        <v>1320.1</v>
+        <v>1313.7</v>
       </c>
       <c r="AO31" s="7">
         <f t="shared" ref="AO31:AO33" si="7">AN31*1.1</f>
@@ -2495,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:47" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>81</v>
       </c>
@@ -2525,7 +2540,9 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
+      <c r="U32" s="8">
+        <v>125.5</v>
+      </c>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -2542,7 +2559,7 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="33" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>26</v>
       </c>
@@ -2586,16 +2603,22 @@
         <v>89.8</v>
       </c>
       <c r="R33" s="8">
-        <v>101.5</v>
+        <v>98.4</v>
       </c>
       <c r="S33" s="8">
         <v>91.6</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
+      <c r="V33" s="8">
+        <v>119.6</v>
+      </c>
+      <c r="W33" s="8">
+        <v>99.7</v>
+      </c>
+      <c r="X33" s="8">
+        <v>99.1</v>
+      </c>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
@@ -2619,7 +2642,7 @@
       </c>
       <c r="AM33" s="7">
         <f t="shared" ref="AM33" si="9">SUM(O33:R33)</f>
-        <v>338.2</v>
+        <v>335.1</v>
       </c>
       <c r="AO33" s="7">
         <f t="shared" si="7"/>
@@ -2650,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:103" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:103" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2730,7 @@
       </c>
       <c r="R34" s="10">
         <f>SUM(R30:R33)</f>
-        <v>1014</v>
+        <v>990.9</v>
       </c>
       <c r="S34" s="10">
         <f>SUM(S30:S33)</f>
@@ -2717,23 +2740,23 @@
         <v>1347.9</v>
       </c>
       <c r="U34" s="10">
-        <f>+U28*U26</f>
-        <v>1392.3298570500001</v>
+        <f>SUM(U30:U33)</f>
+        <v>1405.9</v>
       </c>
       <c r="V34" s="10">
-        <f t="shared" ref="S34:Z34" si="16">+V28*V26</f>
-        <v>1460.7970754850003</v>
+        <f>SUM(V30:V33)</f>
+        <v>1104.3999999999999</v>
       </c>
       <c r="W34" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>SUM(W30:W33)</f>
+        <v>951.40000000000009</v>
       </c>
       <c r="X34" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>SUM(X30:X33)</f>
+        <v>1030.5999999999999</v>
       </c>
       <c r="Y34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="V34:Z34" si="16">+Y28*Y26</f>
         <v>0</v>
       </c>
       <c r="Z34" s="10">
@@ -2767,42 +2790,42 @@
       </c>
       <c r="AM34" s="10">
         <f t="shared" si="20"/>
-        <v>3873.2999999999997</v>
+        <v>3850.1999999999994</v>
       </c>
       <c r="AN34" s="9">
         <f>SUM(S34:V34)</f>
-        <v>5155.4269325350006</v>
+        <v>4812.6000000000004</v>
       </c>
       <c r="AO34" s="10">
         <f>+AN34*1.04</f>
-        <v>5361.644009836401</v>
+        <v>5005.1040000000003</v>
       </c>
       <c r="AP34" s="10">
         <f t="shared" ref="AP34:AU34" si="21">+AO34*1.04</f>
-        <v>5576.1097702298575</v>
+        <v>5205.3081600000005</v>
       </c>
       <c r="AQ34" s="10">
         <f t="shared" si="21"/>
-        <v>5799.1541610390523</v>
+        <v>5413.5204864000007</v>
       </c>
       <c r="AR34" s="10">
         <f t="shared" si="21"/>
-        <v>6031.1203274806148</v>
+        <v>5630.0613058560011</v>
       </c>
       <c r="AS34" s="10">
         <f t="shared" si="21"/>
-        <v>6272.36514057984</v>
+        <v>5855.263758090241</v>
       </c>
       <c r="AT34" s="10">
         <f t="shared" si="21"/>
-        <v>6523.2597462030335</v>
+        <v>6089.4743084138508</v>
       </c>
       <c r="AU34" s="10">
         <f t="shared" si="21"/>
-        <v>6784.1901360511547</v>
-      </c>
-    </row>
-    <row r="35" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>6333.0532807504051</v>
+      </c>
+    </row>
+    <row r="35" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
@@ -2855,15 +2878,17 @@
         <v>383.1</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" ref="S35:V35" si="22">+U34*0.28</f>
-        <v>389.85235997400008</v>
+        <v>398.5</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" si="22"/>
-        <v>409.02318113580014</v>
-      </c>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
+        <v>263.3</v>
+      </c>
+      <c r="W35" s="8">
+        <v>239.3</v>
+      </c>
+      <c r="X35" s="8">
+        <v>272.3</v>
+      </c>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
@@ -2880,11 +2905,11 @@
         <v>1699.1</v>
       </c>
       <c r="AK35" s="7">
-        <f t="shared" ref="AK35:AK39" si="23">SUM(G35:J35)</f>
+        <f t="shared" ref="AK35:AK39" si="22">SUM(G35:J35)</f>
         <v>322.7</v>
       </c>
       <c r="AL35" s="7">
-        <f t="shared" ref="AL35:AL39" si="24">SUM(K35:N35)</f>
+        <f t="shared" ref="AL35:AL39" si="23">SUM(K35:N35)</f>
         <v>607.70000000000005</v>
       </c>
       <c r="AM35" s="7">
@@ -2893,38 +2918,38 @@
       </c>
       <c r="AN35" s="7">
         <f>SUM(S35:V35)</f>
-        <v>1428.1755411098002</v>
+        <v>1291.0999999999999</v>
       </c>
       <c r="AO35" s="7">
         <f>+AN35*1.01</f>
-        <v>1442.4572965208981</v>
+        <v>1304.011</v>
       </c>
       <c r="AP35" s="7">
-        <f t="shared" ref="AP35:AU35" si="25">+AO35*1.01</f>
-        <v>1456.881869486107</v>
+        <f t="shared" ref="AP35:AU35" si="24">+AO35*1.01</f>
+        <v>1317.0511099999999</v>
       </c>
       <c r="AQ35" s="7">
-        <f t="shared" si="25"/>
-        <v>1471.4506881809682</v>
+        <f t="shared" si="24"/>
+        <v>1330.2216211</v>
       </c>
       <c r="AR35" s="7">
-        <f t="shared" si="25"/>
-        <v>1486.1651950627779</v>
+        <f t="shared" si="24"/>
+        <v>1343.5238373110001</v>
       </c>
       <c r="AS35" s="7">
-        <f t="shared" si="25"/>
-        <v>1501.0268470134058</v>
+        <f t="shared" si="24"/>
+        <v>1356.9590756841101</v>
       </c>
       <c r="AT35" s="7">
-        <f t="shared" si="25"/>
-        <v>1516.03711548354</v>
+        <f t="shared" si="24"/>
+        <v>1370.5286664409512</v>
       </c>
       <c r="AU35" s="7">
-        <f t="shared" si="25"/>
-        <v>1531.1974866383755</v>
-      </c>
-    </row>
-    <row r="36" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="24"/>
+        <v>1384.2339531053606</v>
+      </c>
+    </row>
+    <row r="36" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>25</v>
       </c>
@@ -2977,15 +3002,17 @@
         <v>91.7</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" ref="U36" si="26">T36+3</f>
-        <v>94.7</v>
+        <v>90.1</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" ref="V36" si="27">U36+3</f>
-        <v>97.7</v>
-      </c>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W36" s="8">
+        <v>63</v>
+      </c>
+      <c r="X36" s="8">
+        <v>69.900000000000006</v>
+      </c>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
@@ -3002,11 +3029,11 @@
         <v>278.7</v>
       </c>
       <c r="AK36" s="7">
+        <f t="shared" si="22"/>
+        <v>88.800000000000011</v>
+      </c>
+      <c r="AL36" s="7">
         <f t="shared" si="23"/>
-        <v>88.800000000000011</v>
-      </c>
-      <c r="AL36" s="7">
-        <f t="shared" si="24"/>
         <v>137.9</v>
       </c>
       <c r="AM36" s="7">
@@ -3015,38 +3042,38 @@
       </c>
       <c r="AN36" s="7">
         <f>SUM(S36:V36)</f>
-        <v>345.5</v>
+        <v>315.60000000000002</v>
       </c>
       <c r="AO36" s="7">
-        <f t="shared" ref="AO36:AU36" si="28">+AN36*1.01</f>
-        <v>348.95499999999998</v>
+        <f t="shared" ref="AO36:AU36" si="25">+AN36*1.01</f>
+        <v>318.75600000000003</v>
       </c>
       <c r="AP36" s="7">
-        <f t="shared" si="28"/>
-        <v>352.44454999999999</v>
+        <f t="shared" si="25"/>
+        <v>321.94356000000005</v>
       </c>
       <c r="AQ36" s="7">
-        <f t="shared" si="28"/>
-        <v>355.96899550000001</v>
+        <f t="shared" si="25"/>
+        <v>325.16299560000004</v>
       </c>
       <c r="AR36" s="7">
-        <f t="shared" si="28"/>
-        <v>359.52868545500002</v>
+        <f t="shared" si="25"/>
+        <v>328.41462555600003</v>
       </c>
       <c r="AS36" s="7">
-        <f t="shared" si="28"/>
-        <v>363.12397230955003</v>
+        <f t="shared" si="25"/>
+        <v>331.69877181156005</v>
       </c>
       <c r="AT36" s="7">
-        <f t="shared" si="28"/>
-        <v>366.75521203264555</v>
+        <f t="shared" si="25"/>
+        <v>335.01575952967568</v>
       </c>
       <c r="AU36" s="7">
-        <f t="shared" si="28"/>
-        <v>370.42276415297198</v>
-      </c>
-    </row>
-    <row r="37" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="25"/>
+        <v>338.36591712497244</v>
+      </c>
+    </row>
+    <row r="37" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
@@ -3099,15 +3126,17 @@
         <v>412</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" ref="U37:U38" si="29">T37+10</f>
-        <v>422</v>
+        <v>449.8</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" ref="V37:V38" si="30">U37+10</f>
-        <v>432</v>
-      </c>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
+        <v>446.5</v>
+      </c>
+      <c r="W37" s="8">
+        <v>393.8</v>
+      </c>
+      <c r="X37" s="8">
+        <v>389.5</v>
+      </c>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
@@ -3124,11 +3153,11 @@
         <v>1686.6</v>
       </c>
       <c r="AK37" s="7">
+        <f t="shared" si="22"/>
+        <v>856</v>
+      </c>
+      <c r="AL37" s="7">
         <f t="shared" si="23"/>
-        <v>856</v>
-      </c>
-      <c r="AL37" s="7">
-        <f t="shared" si="24"/>
         <v>1141.8</v>
       </c>
       <c r="AM37" s="7">
@@ -3137,38 +3166,38 @@
       </c>
       <c r="AN37" s="7">
         <f>SUM(S37:V37)</f>
-        <v>1649.2</v>
+        <v>1691.5</v>
       </c>
       <c r="AO37" s="7">
-        <f t="shared" ref="AO37:AU37" si="31">+AN37*1.01</f>
-        <v>1665.692</v>
+        <f t="shared" ref="AO37:AU37" si="26">+AN37*1.01</f>
+        <v>1708.415</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="31"/>
-        <v>1682.3489200000001</v>
+        <f t="shared" si="26"/>
+        <v>1725.4991499999999</v>
       </c>
       <c r="AQ37" s="7">
-        <f t="shared" si="31"/>
-        <v>1699.1724092000002</v>
+        <f t="shared" si="26"/>
+        <v>1742.7541414999998</v>
       </c>
       <c r="AR37" s="7">
-        <f t="shared" si="31"/>
-        <v>1716.1641332920001</v>
+        <f t="shared" si="26"/>
+        <v>1760.1816829149998</v>
       </c>
       <c r="AS37" s="7">
-        <f t="shared" si="31"/>
-        <v>1733.3257746249201</v>
+        <f t="shared" si="26"/>
+        <v>1777.7834997441498</v>
       </c>
       <c r="AT37" s="7">
-        <f t="shared" si="31"/>
-        <v>1750.6590323711694</v>
+        <f t="shared" si="26"/>
+        <v>1795.5613347415913</v>
       </c>
       <c r="AU37" s="7">
-        <f t="shared" si="31"/>
-        <v>1768.165622694881</v>
-      </c>
-    </row>
-    <row r="38" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="26"/>
+        <v>1813.5169480890072</v>
+      </c>
+    </row>
+    <row r="38" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>29</v>
       </c>
@@ -3221,15 +3250,17 @@
         <v>220.8</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="29"/>
-        <v>230.8</v>
+        <v>224.3</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="30"/>
-        <v>240.8</v>
-      </c>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
+        <v>222.7</v>
+      </c>
+      <c r="W38" s="8">
+        <v>224.5</v>
+      </c>
+      <c r="X38" s="8">
+        <v>218.4</v>
+      </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
@@ -3246,11 +3277,11 @@
         <v>967.8</v>
       </c>
       <c r="AK38" s="7">
+        <f t="shared" si="22"/>
+        <v>884.1</v>
+      </c>
+      <c r="AL38" s="7">
         <f t="shared" si="23"/>
-        <v>884.1</v>
-      </c>
-      <c r="AL38" s="7">
-        <f t="shared" si="24"/>
         <v>828</v>
       </c>
       <c r="AM38" s="7">
@@ -3262,35 +3293,35 @@
         <v>1019.1299999999999</v>
       </c>
       <c r="AO38" s="7">
-        <f t="shared" ref="AO38:AU38" si="32">+AN38*1.01</f>
+        <f t="shared" ref="AO38:AU38" si="27">+AN38*1.01</f>
         <v>1029.3212999999998</v>
       </c>
       <c r="AP38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1039.6145129999998</v>
       </c>
       <c r="AQ38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1050.0106581299997</v>
       </c>
       <c r="AR38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1060.5107647112998</v>
       </c>
       <c r="AS38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1071.1158723584128</v>
       </c>
       <c r="AT38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1081.8270310819969</v>
       </c>
       <c r="AU38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>1092.6453013928169</v>
       </c>
     </row>
-    <row r="39" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>30</v>
       </c>
@@ -3343,15 +3374,18 @@
         <v>58.1</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="33">T39+5</f>
+        <f t="shared" ref="U39" si="28">T39+5</f>
         <v>63.1</v>
       </c>
       <c r="V39" s="8">
-        <f t="shared" ref="V39" si="34">U39+5</f>
-        <v>68.099999999999994</v>
-      </c>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
+        <v>57.1</v>
+      </c>
+      <c r="W39" s="8">
+        <v>57.7</v>
+      </c>
+      <c r="X39" s="8">
+        <v>49</v>
+      </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
@@ -3368,11 +3402,11 @@
         <v>153</v>
       </c>
       <c r="AK39" s="7">
+        <f t="shared" si="22"/>
+        <v>156.70000000000002</v>
+      </c>
+      <c r="AL39" s="7">
         <f t="shared" si="23"/>
-        <v>156.70000000000002</v>
-      </c>
-      <c r="AL39" s="7">
-        <f t="shared" si="24"/>
         <v>226.6</v>
       </c>
       <c r="AM39" s="7">
@@ -3381,38 +3415,38 @@
       </c>
       <c r="AN39" s="7">
         <f>SUM(S39:V39)</f>
-        <v>261.60000000000002</v>
+        <v>250.6</v>
       </c>
       <c r="AO39" s="7">
-        <f t="shared" ref="AO39:AU39" si="35">+AN39*1.01</f>
-        <v>264.21600000000001</v>
+        <f t="shared" ref="AO39:AU39" si="29">+AN39*1.01</f>
+        <v>253.10599999999999</v>
       </c>
       <c r="AP39" s="7">
-        <f t="shared" si="35"/>
-        <v>266.85816</v>
+        <f t="shared" si="29"/>
+        <v>255.63705999999999</v>
       </c>
       <c r="AQ39" s="7">
-        <f t="shared" si="35"/>
-        <v>269.52674159999998</v>
+        <f t="shared" si="29"/>
+        <v>258.1934306</v>
       </c>
       <c r="AR39" s="7">
-        <f t="shared" si="35"/>
-        <v>272.22200901599996</v>
+        <f t="shared" si="29"/>
+        <v>260.77536490599999</v>
       </c>
       <c r="AS39" s="7">
-        <f t="shared" si="35"/>
-        <v>274.94422910615998</v>
+        <f t="shared" si="29"/>
+        <v>263.38311855505998</v>
       </c>
       <c r="AT39" s="7">
-        <f t="shared" si="35"/>
-        <v>277.69367139722158</v>
+        <f t="shared" si="29"/>
+        <v>266.01694974061058</v>
       </c>
       <c r="AU39" s="7">
-        <f t="shared" si="35"/>
-        <v>280.47060811119377</v>
-      </c>
-    </row>
-    <row r="40" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="29"/>
+        <v>268.6771192380167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>31</v>
       </c>
@@ -3420,39 +3454,39 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <f t="shared" ref="F40" si="36">SUM(F35:F39)</f>
+        <f t="shared" ref="F40" si="30">SUM(F35:F39)</f>
         <v>1202.8</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40" si="37">SUM(G35:G39)</f>
+        <f t="shared" ref="G40" si="31">SUM(G35:G39)</f>
         <v>953</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:I40" si="38">SUM(H35:H39)</f>
+        <f t="shared" ref="H40:I40" si="32">SUM(H35:H39)</f>
         <v>369</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="32"/>
         <v>474.5</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="39">SUM(J35:J39)</f>
+        <f t="shared" ref="J40:N40" si="33">SUM(J35:J39)</f>
         <v>511.79999999999995</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>455.3</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>631.29999999999995</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>803.3</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="33"/>
         <v>1052.1000000000001</v>
       </c>
       <c r="O40" s="8">
@@ -3460,7 +3494,7 @@
         <v>853.50000000000011</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:R40" si="40">SUM(P35:P39)</f>
+        <f t="shared" ref="P40:R40" si="34">SUM(P35:P39)</f>
         <v>1085.4000000000001</v>
       </c>
       <c r="Q40" s="8">
@@ -3468,40 +3502,46 @@
         <v>986.1</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>977.5</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" ref="S40:V40" si="41">SUM(S35:S39)</f>
+        <f t="shared" ref="S40:X40" si="35">SUM(S35:S39)</f>
         <v>968.8</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="35"/>
         <v>1165.6999999999998</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="41"/>
-        <v>1200.452359974</v>
+        <f t="shared" si="35"/>
+        <v>1225.8</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="41"/>
-        <v>1247.6231811358</v>
-      </c>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
+        <f t="shared" si="35"/>
+        <v>1062</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" si="35"/>
+        <v>978.30000000000007</v>
+      </c>
+      <c r="X40" s="8">
+        <f t="shared" si="35"/>
+        <v>999.1</v>
+      </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40" si="42">SUM(AG35:AG39)</f>
+        <f t="shared" ref="AG40" si="36">SUM(AG35:AG39)</f>
         <v>2701.3999999999996</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" ref="AH40" si="43">SUM(AH35:AH39)</f>
+        <f t="shared" ref="AH40" si="37">SUM(AH35:AH39)</f>
         <v>4331.9999999999991</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" ref="AI40" si="44">SUM(AI35:AI39)</f>
+        <f t="shared" ref="AI40" si="38">SUM(AI35:AI39)</f>
         <v>4612.9000000000005</v>
       </c>
       <c r="AJ40" s="8">
@@ -3522,38 +3562,38 @@
       </c>
       <c r="AN40" s="8">
         <f>SUM(AN35:AN39)</f>
-        <v>4703.6055411098005</v>
+        <v>4567.93</v>
       </c>
       <c r="AO40" s="8">
-        <f t="shared" ref="AO40:AU40" si="45">SUM(AO35:AO39)</f>
-        <v>4750.641596520898</v>
+        <f t="shared" ref="AO40:AU40" si="39">SUM(AO35:AO39)</f>
+        <v>4613.6092999999992</v>
       </c>
       <c r="AP40" s="8">
-        <f t="shared" si="45"/>
-        <v>4798.1480124861064</v>
+        <f t="shared" si="39"/>
+        <v>4659.7453929999992</v>
       </c>
       <c r="AQ40" s="8">
-        <f t="shared" si="45"/>
-        <v>4846.1294926109676</v>
+        <f t="shared" si="39"/>
+        <v>4706.3428469299997</v>
       </c>
       <c r="AR40" s="8">
-        <f t="shared" si="45"/>
-        <v>4894.5907875370776</v>
+        <f t="shared" si="39"/>
+        <v>4753.4062753992994</v>
       </c>
       <c r="AS40" s="8">
-        <f t="shared" si="45"/>
-        <v>4943.5366954124484</v>
+        <f t="shared" si="39"/>
+        <v>4800.9403381532929</v>
       </c>
       <c r="AT40" s="8">
-        <f t="shared" si="45"/>
-        <v>4992.9720623665735</v>
+        <f t="shared" si="39"/>
+        <v>4848.949741534826</v>
       </c>
       <c r="AU40" s="8">
-        <f t="shared" si="45"/>
-        <v>5042.9017829902386</v>
-      </c>
-    </row>
-    <row r="41" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="39"/>
+        <v>4897.4392389501736</v>
+      </c>
+    </row>
+    <row r="41" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
@@ -3561,35 +3601,35 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41" si="46">F34-F40</f>
+        <f t="shared" ref="F41" si="40">F34-F40</f>
         <v>244.90000000000009</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" ref="G41" si="47">G34-G40</f>
+        <f t="shared" ref="G41" si="41">G34-G40</f>
         <v>-11.5</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41:I41" si="48">H34-H40</f>
+        <f t="shared" ref="H41:I41" si="42">H34-H40</f>
         <v>-350.1</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>-355</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:M41" si="49">J34-J40</f>
+        <f t="shared" ref="J41:M41" si="43">J34-J40</f>
         <v>-349.29999999999995</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>-307</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>-186.59999999999997</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="43"/>
         <v>-40.100000000000023</v>
       </c>
       <c r="N41" s="8">
@@ -3601,7 +3641,7 @@
         <v>-67.800000000000182</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:R41" si="50">P34-P40</f>
+        <f t="shared" ref="P41:R41" si="44">P34-P40</f>
         <v>81</v>
       </c>
       <c r="Q41" s="8">
@@ -3609,40 +3649,46 @@
         <v>-17.700000000000159</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="50"/>
-        <v>36.5</v>
+        <f t="shared" si="44"/>
+        <v>13.399999999999977</v>
       </c>
       <c r="S41" s="8">
         <f>S34-S40</f>
         <v>-14.399999999999977</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" ref="S41:V41" si="51">T34-T40</f>
+        <f t="shared" ref="T41:X42" si="45">T34-T40</f>
         <v>182.20000000000027</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="51"/>
-        <v>191.87749707600005</v>
+        <f t="shared" si="45"/>
+        <v>180.10000000000014</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="51"/>
-        <v>213.17389434920028</v>
-      </c>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
+        <f t="shared" si="45"/>
+        <v>42.399999999999864</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="45"/>
+        <v>-26.899999999999977</v>
+      </c>
+      <c r="X41" s="8">
+        <f t="shared" si="45"/>
+        <v>31.499999999999886</v>
+      </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AG41" s="8">
-        <f t="shared" ref="AG41" si="52">AG34-AG40</f>
+        <f t="shared" ref="AG41" si="46">AG34-AG40</f>
         <v>534.50000000000045</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" ref="AH41" si="53">AH34-AH40</f>
+        <f t="shared" ref="AH41" si="47">AH34-AH40</f>
         <v>747.24000000000069</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" ref="AI41" si="54">AI34-AI40</f>
+        <f t="shared" ref="AI41" si="48">AI34-AI40</f>
         <v>847.89999999999964</v>
       </c>
       <c r="AJ41" s="8">
@@ -3659,42 +3705,42 @@
       </c>
       <c r="AM41" s="8">
         <f>AM34-AM40</f>
-        <v>-29.199999999999818</v>
+        <v>-52.300000000000182</v>
       </c>
       <c r="AN41" s="8">
         <f>AN34-AN40</f>
-        <v>451.82139142520009</v>
+        <v>244.67000000000007</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" ref="AO41:AU41" si="55">AO34-AO40</f>
-        <v>611.00241331550296</v>
+        <f t="shared" ref="AO41:AU41" si="49">AO34-AO40</f>
+        <v>391.4947000000011</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="55"/>
-        <v>777.96175774375115</v>
+        <f t="shared" si="49"/>
+        <v>545.56276700000126</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="55"/>
-        <v>953.02466842808462</v>
+        <f t="shared" si="49"/>
+        <v>707.17763947000094</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="55"/>
-        <v>1136.5295399435372</v>
+        <f t="shared" si="49"/>
+        <v>876.65503045670175</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="55"/>
-        <v>1328.8284451673917</v>
+        <f t="shared" si="49"/>
+        <v>1054.3234199369481</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="55"/>
-        <v>1530.28768383646</v>
+        <f t="shared" si="49"/>
+        <v>1240.5245668790249</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="55"/>
-        <v>1741.2883530609161</v>
-      </c>
-    </row>
-    <row r="42" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="49"/>
+        <v>1435.6140418002315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -3749,13 +3795,17 @@
         <v>-92</v>
       </c>
       <c r="U42" s="8">
-        <v>-82</v>
+        <v>-93.4</v>
       </c>
       <c r="V42" s="8">
-        <v>-82</v>
-      </c>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
+        <v>-64.400000000000006</v>
+      </c>
+      <c r="W42" s="8">
+        <v>-91</v>
+      </c>
+      <c r="X42" s="8">
+        <v>-108.2</v>
+      </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
@@ -3776,36 +3826,36 @@
         <v>-311</v>
       </c>
       <c r="AL42" s="7">
-        <f t="shared" ref="AL42" si="56">SUM(K42:N42)</f>
+        <f t="shared" ref="AL42" si="50">SUM(K42:N42)</f>
         <v>-414.9</v>
       </c>
       <c r="AM42" s="7">
-        <f t="shared" ref="AM42" si="57">SUM(O42:R42)</f>
+        <f t="shared" ref="AM42" si="51">SUM(O42:R42)</f>
         <v>-336.4</v>
       </c>
       <c r="AN42" s="7">
         <f>SUM(S42:V42)</f>
-        <v>-346.7</v>
+        <v>-340.5</v>
       </c>
       <c r="AO42" s="7">
         <f>AN60*0.07</f>
-        <v>-319.19150260023599</v>
+        <v>-6.6310999999999956</v>
       </c>
       <c r="AP42" s="7">
-        <f t="shared" ref="AP42:AS42" si="58">AO60*0.07</f>
-        <v>-298.76473885016736</v>
+        <f t="shared" ref="AP42:AS42" si="52">AO60*0.07</f>
+        <v>20.309352000000082</v>
       </c>
       <c r="AQ42" s="7">
-        <f t="shared" si="58"/>
-        <v>-265.22094752761649</v>
+        <f t="shared" si="52"/>
+        <v>59.920400330000177</v>
       </c>
       <c r="AR42" s="7">
-        <f t="shared" si="58"/>
-        <v>-217.07468706458371</v>
+        <f t="shared" si="52"/>
+        <v>113.61726311600026</v>
       </c>
       <c r="AS42" s="7">
-        <f t="shared" si="58"/>
-        <v>-152.71284736305694</v>
+        <f t="shared" si="52"/>
+        <v>182.93632366608941</v>
       </c>
       <c r="AT42" s="7">
         <v>0</v>
@@ -3814,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>34</v>
       </c>
@@ -3822,39 +3872,39 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <f t="shared" ref="F43" si="59">F41+F42</f>
+        <f t="shared" ref="F43" si="53">F41+F42</f>
         <v>170.8000000000001</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="60">G41+G42</f>
+        <f t="shared" ref="G43" si="54">G41+G42</f>
         <v>-82.8</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43:I43" si="61">H41+H42</f>
+        <f t="shared" ref="H43:I43" si="55">H41+H42</f>
         <v>-429.70000000000005</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="61"/>
+        <f t="shared" si="55"/>
         <v>-437.8</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J43:N43" si="62">J41+J42</f>
+        <f t="shared" ref="J43:N43" si="56">J41+J42</f>
         <v>-426.59999999999997</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>-458.5</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>-274.69999999999993</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>-128.80000000000001</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="56"/>
         <v>32.999999999999687</v>
       </c>
       <c r="O43" s="8">
@@ -3866,44 +3916,50 @@
         <v>0.5</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" ref="Q43:R43" si="63">Q41+Q42</f>
+        <f t="shared" ref="Q43:R43" si="57">Q41+Q42</f>
         <v>-109.60000000000015</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="63"/>
-        <v>-45.5</v>
+        <f t="shared" si="57"/>
+        <v>-68.600000000000023</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:V43" si="64">S41+S42</f>
+        <f t="shared" ref="S43:X43" si="58">S41+S42</f>
         <v>-105.09999999999998</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>90.200000000000273</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="64"/>
-        <v>109.87749707600005</v>
+        <f t="shared" si="58"/>
+        <v>86.700000000000131</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="64"/>
-        <v>131.17389434920028</v>
-      </c>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
+        <f t="shared" si="58"/>
+        <v>-22.000000000000142</v>
+      </c>
+      <c r="W43" s="8">
+        <f t="shared" si="58"/>
+        <v>-117.89999999999998</v>
+      </c>
+      <c r="X43" s="8">
+        <f t="shared" si="58"/>
+        <v>-76.700000000000117</v>
+      </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AG43" s="8">
-        <f t="shared" ref="AG43:AH43" si="65">AG41+AG42</f>
+        <f t="shared" ref="AG43:AH43" si="59">AG41+AG42</f>
         <v>423.80000000000047</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="65"/>
+        <f t="shared" si="59"/>
         <v>515.64000000000067</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" ref="AI43" si="66">AI41+AI42</f>
+        <f t="shared" ref="AI43" si="60">AI41+AI42</f>
         <v>585.59999999999968</v>
       </c>
       <c r="AJ43" s="8">
@@ -3915,47 +3971,47 @@
         <v>-1376.8999999999996</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" ref="AL43" si="67">AL41+AL42</f>
+        <f t="shared" ref="AL43" si="61">AL41+AL42</f>
         <v>-828.99999999999989</v>
       </c>
       <c r="AM43" s="8">
-        <f t="shared" ref="AM43" si="68">AM41+AM42</f>
-        <v>-365.5999999999998</v>
+        <f t="shared" ref="AM43" si="62">AM41+AM42</f>
+        <v>-388.70000000000016</v>
       </c>
       <c r="AN43" s="8">
         <f>AN41+AN42</f>
-        <v>105.1213914252001</v>
+        <v>-95.829999999999927</v>
       </c>
       <c r="AO43" s="8">
-        <f t="shared" ref="AO43" si="69">AO41+AO42</f>
-        <v>291.81091071526697</v>
+        <f t="shared" ref="AO43" si="63">AO41+AO42</f>
+        <v>384.8636000000011</v>
       </c>
       <c r="AP43" s="8">
-        <f t="shared" ref="AP43" si="70">AP41+AP42</f>
-        <v>479.19701889358379</v>
+        <f t="shared" ref="AP43" si="64">AP41+AP42</f>
+        <v>565.87211900000136</v>
       </c>
       <c r="AQ43" s="8">
-        <f t="shared" ref="AQ43" si="71">AQ41+AQ42</f>
-        <v>687.80372090046808</v>
+        <f t="shared" ref="AQ43" si="65">AQ41+AQ42</f>
+        <v>767.09803980000106</v>
       </c>
       <c r="AR43" s="8">
-        <f t="shared" ref="AR43" si="72">AR41+AR42</f>
-        <v>919.45485287895349</v>
+        <f t="shared" ref="AR43" si="66">AR41+AR42</f>
+        <v>990.27229357270198</v>
       </c>
       <c r="AS43" s="8">
-        <f t="shared" ref="AS43" si="73">AS41+AS42</f>
-        <v>1176.1155978043348</v>
+        <f t="shared" ref="AS43" si="67">AS41+AS42</f>
+        <v>1237.2597436030376</v>
       </c>
       <c r="AT43" s="8">
-        <f t="shared" ref="AT43" si="74">AT41+AT42</f>
-        <v>1530.28768383646</v>
+        <f t="shared" ref="AT43" si="68">AT41+AT42</f>
+        <v>1240.5245668790249</v>
       </c>
       <c r="AU43" s="8">
-        <f t="shared" ref="AU43" si="75">AU41+AU42</f>
-        <v>1741.2883530609161</v>
-      </c>
-    </row>
-    <row r="44" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AU43" si="69">AU41+AU42</f>
+        <v>1435.6140418002315</v>
+      </c>
+    </row>
+    <row r="44" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>35</v>
       </c>
@@ -4008,13 +4064,17 @@
         <v>0</v>
       </c>
       <c r="U44" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V44" s="8">
+        <v>-1.2</v>
+      </c>
+      <c r="W44" s="8">
         <v>0</v>
       </c>
-      <c r="V44" s="8">
-        <v>0</v>
-      </c>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
+      <c r="X44" s="8">
+        <v>0.7</v>
+      </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
@@ -4031,20 +4091,20 @@
         <v>22.5</v>
       </c>
       <c r="AK44" s="7">
-        <f t="shared" ref="AK44" si="76">SUM(G44:J44)</f>
+        <f t="shared" ref="AK44" si="70">SUM(G44:J44)</f>
         <v>-64.3</v>
       </c>
       <c r="AL44" s="7">
-        <f t="shared" ref="AL44" si="77">SUM(K44:N44)</f>
+        <f t="shared" ref="AL44" si="71">SUM(K44:N44)</f>
         <v>4</v>
       </c>
       <c r="AM44" s="7">
-        <f t="shared" ref="AM44" si="78">SUM(O44:R44)</f>
+        <f t="shared" ref="AM44" si="72">SUM(O44:R44)</f>
         <v>1.9000000000000001</v>
       </c>
       <c r="AN44" s="7">
         <f>SUM(S44:V44)</f>
-        <v>0</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="AO44" s="7">
         <v>0</v>
@@ -4063,14 +4123,14 @@
       </c>
       <c r="AT44" s="7">
         <f>AT43*-0.3</f>
-        <v>-459.08630515093802</v>
+        <v>-372.15737006370745</v>
       </c>
       <c r="AU44" s="7">
         <f>AU43*-0.3</f>
-        <v>-522.38650591827479</v>
-      </c>
-    </row>
-    <row r="45" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-430.68421254006944</v>
+      </c>
+    </row>
+    <row r="45" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4078,39 +4138,39 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <f t="shared" ref="F45" si="79">F43+F44</f>
+        <f t="shared" ref="F45" si="73">F43+F44</f>
         <v>137.40000000000009</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45" si="80">G43+G44</f>
+        <f t="shared" ref="G45" si="74">G43+G44</f>
         <v>-151</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ref="H45:I45" si="81">H43+H44</f>
+        <f t="shared" ref="H45:I45" si="75">H43+H44</f>
         <v>-423.6</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>-433.2</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" ref="J45:N45" si="82">J43+J44</f>
+        <f t="shared" ref="J45:N45" si="76">J43+J44</f>
         <v>-433.4</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>-465.3</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>-126.9</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O45" s="8">
@@ -4118,361 +4178,367 @@
         <v>-149.70000000000019</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45:R45" si="83">P43+P44</f>
+        <f t="shared" ref="P45:R45" si="77">P43+P44</f>
         <v>0.5</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>-107.80000000000015</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="83"/>
-        <v>-45.5</v>
+        <f t="shared" si="77"/>
+        <v>-68.600000000000023</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" ref="S45:V45" si="84">S43+S44</f>
+        <f t="shared" ref="S45:X45" si="78">S43+S44</f>
         <v>-105.09999999999998</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>90.200000000000273</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="84"/>
-        <v>109.87749707600005</v>
+        <f t="shared" si="78"/>
+        <v>89.000000000000128</v>
       </c>
       <c r="V45" s="8">
-        <f t="shared" si="84"/>
-        <v>131.17389434920028</v>
-      </c>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
+        <f t="shared" si="78"/>
+        <v>-23.200000000000141</v>
+      </c>
+      <c r="W45" s="8">
+        <f t="shared" si="78"/>
+        <v>-117.89999999999998</v>
+      </c>
+      <c r="X45" s="8">
+        <f t="shared" si="78"/>
+        <v>-76.000000000000114</v>
+      </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AG45" s="8">
-        <f t="shared" ref="AG45:AH45" si="85">AG43+AG44</f>
+        <f t="shared" ref="AG45:AH45" si="79">AG43+AG44</f>
         <v>385.80000000000047</v>
       </c>
       <c r="AH45" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>502.04000000000065</v>
       </c>
       <c r="AI45" s="8">
-        <f t="shared" ref="AI45" si="86">AI43+AI44</f>
+        <f t="shared" ref="AI45" si="80">AI43+AI44</f>
         <v>571.99999999999966</v>
       </c>
       <c r="AJ45" s="8">
-        <f t="shared" ref="AJ45" si="87">AJ43+AJ44</f>
+        <f t="shared" ref="AJ45" si="81">AJ43+AJ44</f>
         <v>415.50000000000017</v>
       </c>
       <c r="AK45" s="8">
-        <f t="shared" ref="AK45" si="88">AK43+AK44</f>
+        <f t="shared" ref="AK45" si="82">AK43+AK44</f>
         <v>-1441.1999999999996</v>
       </c>
       <c r="AL45" s="8">
-        <f t="shared" ref="AL45" si="89">AL43+AL44</f>
+        <f t="shared" ref="AL45" si="83">AL43+AL44</f>
         <v>-824.99999999999989</v>
       </c>
       <c r="AM45" s="8">
-        <f t="shared" ref="AM45" si="90">AM43+AM44</f>
-        <v>-363.69999999999982</v>
+        <f t="shared" ref="AM45" si="84">AM43+AM44</f>
+        <v>-386.80000000000018</v>
       </c>
       <c r="AN45" s="8">
-        <f t="shared" ref="AN45" si="91">AN43+AN44</f>
-        <v>105.1213914252001</v>
+        <f t="shared" ref="AN45" si="85">AN43+AN44</f>
+        <v>-94.729999999999933</v>
       </c>
       <c r="AO45" s="8">
-        <f t="shared" ref="AO45" si="92">AO43+AO44</f>
-        <v>291.81091071526697</v>
+        <f t="shared" ref="AO45" si="86">AO43+AO44</f>
+        <v>384.8636000000011</v>
       </c>
       <c r="AP45" s="8">
-        <f t="shared" ref="AP45" si="93">AP43+AP44</f>
-        <v>479.19701889358379</v>
+        <f t="shared" ref="AP45" si="87">AP43+AP44</f>
+        <v>565.87211900000136</v>
       </c>
       <c r="AQ45" s="8">
-        <f t="shared" ref="AQ45" si="94">AQ43+AQ44</f>
-        <v>687.80372090046808</v>
+        <f t="shared" ref="AQ45" si="88">AQ43+AQ44</f>
+        <v>767.09803980000106</v>
       </c>
       <c r="AR45" s="8">
-        <f t="shared" ref="AR45" si="95">AR43+AR44</f>
-        <v>919.45485287895349</v>
+        <f t="shared" ref="AR45" si="89">AR43+AR44</f>
+        <v>990.27229357270198</v>
       </c>
       <c r="AS45" s="8">
-        <f t="shared" ref="AS45" si="96">AS43+AS44</f>
-        <v>1176.1155978043348</v>
+        <f t="shared" ref="AS45" si="90">AS43+AS44</f>
+        <v>1237.2597436030376</v>
       </c>
       <c r="AT45" s="8">
-        <f t="shared" ref="AT45" si="97">AT43+AT44</f>
-        <v>1071.2013786855221</v>
+        <f t="shared" ref="AT45" si="91">AT43+AT44</f>
+        <v>868.36719681531736</v>
       </c>
       <c r="AU45" s="8">
-        <f t="shared" ref="AU45" si="98">AU43+AU44</f>
-        <v>1218.9018471426411</v>
+        <f t="shared" ref="AU45" si="92">AU43+AU44</f>
+        <v>1004.929829260162</v>
       </c>
       <c r="AV45" s="7">
         <f>AU45*(1+$AX$50)</f>
-        <v>1206.7128286712148</v>
+        <v>994.88053096756039</v>
       </c>
       <c r="AW45" s="7">
-        <f t="shared" ref="AW45:CA45" si="99">AV45*(1+$AX$50)</f>
-        <v>1194.6457003845026</v>
+        <f t="shared" ref="AW45:CA45" si="93">AV45*(1+$AX$50)</f>
+        <v>984.93172565788473</v>
       </c>
       <c r="AX45" s="7">
-        <f t="shared" si="99"/>
-        <v>1182.6992433806574</v>
+        <f t="shared" si="93"/>
+        <v>975.08240840130588</v>
       </c>
       <c r="AY45" s="7">
-        <f t="shared" si="99"/>
-        <v>1170.872250946851</v>
+        <f t="shared" si="93"/>
+        <v>965.33158431729282</v>
       </c>
       <c r="AZ45" s="7">
-        <f t="shared" si="99"/>
-        <v>1159.1635284373824</v>
+        <f t="shared" si="93"/>
+        <v>955.67826847411993</v>
       </c>
       <c r="BA45" s="7">
-        <f t="shared" si="99"/>
-        <v>1147.5718931530087</v>
+        <f t="shared" si="93"/>
+        <v>946.12148578937877</v>
       </c>
       <c r="BB45" s="7">
-        <f t="shared" si="99"/>
-        <v>1136.0961742214786</v>
+        <f t="shared" si="93"/>
+        <v>936.660270931485</v>
       </c>
       <c r="BC45" s="7">
-        <f t="shared" si="99"/>
-        <v>1124.7352124792637</v>
+        <f t="shared" si="93"/>
+        <v>927.29366822217014</v>
       </c>
       <c r="BD45" s="7">
-        <f t="shared" si="99"/>
-        <v>1113.4878603544712</v>
+        <f t="shared" si="93"/>
+        <v>918.02073153994843</v>
       </c>
       <c r="BE45" s="7">
-        <f t="shared" si="99"/>
-        <v>1102.3529817509266</v>
+        <f t="shared" si="93"/>
+        <v>908.84052422454897</v>
       </c>
       <c r="BF45" s="7">
-        <f t="shared" si="99"/>
-        <v>1091.3294519334172</v>
+        <f t="shared" si="93"/>
+        <v>899.7521189823035</v>
       </c>
       <c r="BG45" s="7">
-        <f t="shared" si="99"/>
-        <v>1080.416157414083</v>
+        <f t="shared" si="93"/>
+        <v>890.75459779248047</v>
       </c>
       <c r="BH45" s="7">
-        <f t="shared" si="99"/>
-        <v>1069.6119958399422</v>
+        <f t="shared" si="93"/>
+        <v>881.8470518145557</v>
       </c>
       <c r="BI45" s="7">
-        <f t="shared" si="99"/>
-        <v>1058.9158758815429</v>
+        <f t="shared" si="93"/>
+        <v>873.02858129641015</v>
       </c>
       <c r="BJ45" s="7">
-        <f t="shared" si="99"/>
-        <v>1048.3267171227274</v>
+        <f t="shared" si="93"/>
+        <v>864.29829548344605</v>
       </c>
       <c r="BK45" s="7">
-        <f t="shared" si="99"/>
-        <v>1037.8434499515001</v>
+        <f t="shared" si="93"/>
+        <v>855.6553125286116</v>
       </c>
       <c r="BL45" s="7">
-        <f t="shared" si="99"/>
-        <v>1027.4650154519852</v>
+        <f t="shared" si="93"/>
+        <v>847.09875940332552</v>
       </c>
       <c r="BM45" s="7">
-        <f t="shared" si="99"/>
-        <v>1017.1903652974653</v>
+        <f t="shared" si="93"/>
+        <v>838.6277718092922</v>
       </c>
       <c r="BN45" s="7">
-        <f t="shared" si="99"/>
-        <v>1007.0184616444907</v>
+        <f t="shared" si="93"/>
+        <v>830.24149409119923</v>
       </c>
       <c r="BO45" s="7">
-        <f t="shared" si="99"/>
-        <v>996.94827702804582</v>
+        <f t="shared" si="93"/>
+        <v>821.93907915028728</v>
       </c>
       <c r="BP45" s="7">
-        <f t="shared" si="99"/>
-        <v>986.97879425776534</v>
+        <f t="shared" si="93"/>
+        <v>813.71968835878442</v>
       </c>
       <c r="BQ45" s="7">
-        <f t="shared" si="99"/>
-        <v>977.10900631518768</v>
+        <f t="shared" si="93"/>
+        <v>805.58249147519655</v>
       </c>
       <c r="BR45" s="7">
-        <f t="shared" si="99"/>
-        <v>967.33791625203582</v>
+        <f t="shared" si="93"/>
+        <v>797.5266665604446</v>
       </c>
       <c r="BS45" s="7">
-        <f t="shared" si="99"/>
-        <v>957.66453708951542</v>
+        <f t="shared" si="93"/>
+        <v>789.55139989484019</v>
       </c>
       <c r="BT45" s="7">
-        <f t="shared" si="99"/>
-        <v>948.08789171862031</v>
+        <f t="shared" si="93"/>
+        <v>781.65588589589174</v>
       </c>
       <c r="BU45" s="7">
-        <f t="shared" si="99"/>
-        <v>938.60701280143405</v>
+        <f t="shared" si="93"/>
+        <v>773.83932703693279</v>
       </c>
       <c r="BV45" s="7">
-        <f t="shared" si="99"/>
-        <v>929.2209426734197</v>
+        <f t="shared" si="93"/>
+        <v>766.10093376656346</v>
       </c>
       <c r="BW45" s="7">
-        <f t="shared" si="99"/>
-        <v>919.92873324668551</v>
+        <f t="shared" si="93"/>
+        <v>758.43992442889783</v>
       </c>
       <c r="BX45" s="7">
-        <f t="shared" si="99"/>
-        <v>910.72944591421867</v>
+        <f t="shared" si="93"/>
+        <v>750.85552518460884</v>
       </c>
       <c r="BY45" s="7">
-        <f t="shared" si="99"/>
-        <v>901.62215145507651</v>
+        <f t="shared" si="93"/>
+        <v>743.3469699327627</v>
       </c>
       <c r="BZ45" s="7">
-        <f t="shared" si="99"/>
-        <v>892.6059299405257</v>
+        <f t="shared" si="93"/>
+        <v>735.91350023343512</v>
       </c>
       <c r="CA45" s="7">
-        <f t="shared" si="99"/>
-        <v>883.67987064112049</v>
+        <f t="shared" si="93"/>
+        <v>728.55436523110075</v>
       </c>
       <c r="CB45" s="7">
-        <f t="shared" ref="CB45:CY45" si="100">CA45*(1+$AX$50)</f>
-        <v>874.84307193470931</v>
+        <f t="shared" ref="CB45:CY45" si="94">CA45*(1+$AX$50)</f>
+        <v>721.2688215787897</v>
       </c>
       <c r="CC45" s="7">
-        <f t="shared" si="100"/>
-        <v>866.09464121536223</v>
+        <f t="shared" si="94"/>
+        <v>714.05613336300178</v>
       </c>
       <c r="CD45" s="7">
-        <f t="shared" si="100"/>
-        <v>857.4336948032086</v>
+        <f t="shared" si="94"/>
+        <v>706.91557202937179</v>
       </c>
       <c r="CE45" s="7">
-        <f t="shared" si="100"/>
-        <v>848.85935785517654</v>
+        <f t="shared" si="94"/>
+        <v>699.84641630907811</v>
       </c>
       <c r="CF45" s="7">
-        <f t="shared" si="100"/>
-        <v>840.37076427662475</v>
+        <f t="shared" si="94"/>
+        <v>692.84795214598728</v>
       </c>
       <c r="CG45" s="7">
-        <f t="shared" si="100"/>
-        <v>831.96705663385853</v>
+        <f t="shared" si="94"/>
+        <v>685.91947262452743</v>
       </c>
       <c r="CH45" s="7">
-        <f t="shared" si="100"/>
-        <v>823.64738606751996</v>
+        <f t="shared" si="94"/>
+        <v>679.06027789828215</v>
       </c>
       <c r="CI45" s="7">
-        <f t="shared" si="100"/>
-        <v>815.41091220684473</v>
+        <f t="shared" si="94"/>
+        <v>672.26967511929934</v>
       </c>
       <c r="CJ45" s="7">
-        <f t="shared" si="100"/>
-        <v>807.25680308477627</v>
+        <f t="shared" si="94"/>
+        <v>665.54697836810635</v>
       </c>
       <c r="CK45" s="7">
-        <f t="shared" si="100"/>
-        <v>799.18423505392855</v>
+        <f t="shared" si="94"/>
+        <v>658.89150858442531</v>
       </c>
       <c r="CL45" s="7">
-        <f t="shared" si="100"/>
-        <v>791.19239270338926</v>
+        <f t="shared" si="94"/>
+        <v>652.30259349858102</v>
       </c>
       <c r="CM45" s="7">
-        <f t="shared" si="100"/>
-        <v>783.28046877635541</v>
+        <f t="shared" si="94"/>
+        <v>645.77956756359515</v>
       </c>
       <c r="CN45" s="7">
-        <f t="shared" si="100"/>
-        <v>775.44766408859186</v>
+        <f t="shared" si="94"/>
+        <v>639.32177188795924</v>
       </c>
       <c r="CO45" s="7">
-        <f t="shared" si="100"/>
-        <v>767.6931874477059</v>
+        <f t="shared" si="94"/>
+        <v>632.92855416907969</v>
       </c>
       <c r="CP45" s="7">
-        <f t="shared" si="100"/>
-        <v>760.01625557322882</v>
+        <f t="shared" si="94"/>
+        <v>626.59926862738894</v>
       </c>
       <c r="CQ45" s="7">
-        <f t="shared" si="100"/>
-        <v>752.41609301749656</v>
+        <f t="shared" si="94"/>
+        <v>620.33327594111506</v>
       </c>
       <c r="CR45" s="7">
-        <f t="shared" si="100"/>
-        <v>744.89193208732161</v>
+        <f t="shared" si="94"/>
+        <v>614.12994318170388</v>
       </c>
       <c r="CS45" s="7">
-        <f t="shared" si="100"/>
-        <v>737.44301276644842</v>
+        <f t="shared" si="94"/>
+        <v>607.98864374988682</v>
       </c>
       <c r="CT45" s="7">
-        <f t="shared" si="100"/>
-        <v>730.06858263878394</v>
+        <f t="shared" si="94"/>
+        <v>601.90875731238793</v>
       </c>
       <c r="CU45" s="7">
-        <f t="shared" si="100"/>
-        <v>722.76789681239609</v>
+        <f t="shared" si="94"/>
+        <v>595.88966973926404</v>
       </c>
       <c r="CV45" s="7">
-        <f t="shared" si="100"/>
-        <v>715.54021784427209</v>
+        <f t="shared" si="94"/>
+        <v>589.93077304187136</v>
       </c>
       <c r="CW45" s="7">
-        <f t="shared" si="100"/>
-        <v>708.38481566582936</v>
+        <f t="shared" si="94"/>
+        <v>584.03146531145262</v>
       </c>
       <c r="CX45" s="7">
-        <f t="shared" si="100"/>
-        <v>701.30096750917107</v>
+        <f t="shared" si="94"/>
+        <v>578.19115065833807</v>
       </c>
       <c r="CY45" s="7">
-        <f t="shared" si="100"/>
-        <v>694.28795783407941</v>
-      </c>
-    </row>
-    <row r="46" spans="2:103" x14ac:dyDescent="0.15">
+        <f t="shared" si="94"/>
+        <v>572.40923915175472</v>
+      </c>
+    </row>
+    <row r="46" spans="2:103" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" ref="F46" si="101">F45/F47</f>
+        <f t="shared" ref="F46" si="95">F45/F47</f>
         <v>1.3230621088107857</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" ref="G46" si="102">G45/G47</f>
+        <f t="shared" ref="G46" si="96">G45/G47</f>
         <v>-1.448510719938606</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" ref="H46:I46" si="103">H45/H47</f>
+        <f t="shared" ref="H46:I46" si="97">H45/H47</f>
         <v>-4.0606217467575423</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>-4.0224708667997584</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" ref="J46:N46" si="104">J45/J47</f>
+        <f t="shared" ref="J46:N46" si="98">J45/J47</f>
         <v>-2.8455684899577829</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>-1.1629272876776695</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>-0.56060457927614393</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>-0.24720939746361989</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>7.1425235099955811E-2</v>
       </c>
       <c r="O46" s="3">
@@ -4480,52 +4546,58 @@
         <v>-0.29016688957376324</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" ref="P46:V46" si="105">P45/P47</f>
+        <f t="shared" ref="P46:X46" si="99">P45/P47</f>
         <v>9.674529479258776E-4</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>-0.10428698850521353</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="105"/>
-        <v>-4.1700691681582684E-2</v>
+        <f t="shared" si="99"/>
+        <v>-6.2871812073770836E-2</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="105"/>
-        <v>-9.6324015290864609E-2</v>
+        <f t="shared" si="99"/>
+        <v>-0.76494777830343152</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="105"/>
-        <v>5.9598063261163917E-2</v>
+        <f t="shared" si="99"/>
+        <v>0.59598142018011768</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="105"/>
-        <v>7.2599623300596286E-2</v>
+        <f t="shared" si="99"/>
+        <v>0.54733191068035281</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="105"/>
-        <v>8.6670843166705619E-2</v>
-      </c>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
+        <f t="shared" si="99"/>
+        <v>-0.10612020858110027</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="99"/>
+        <v>-0.44758950841081041</v>
+      </c>
+      <c r="X46" s="3">
+        <f t="shared" si="99"/>
+        <v>-0.23633237038257893</v>
+      </c>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AG46" s="1">
-        <f t="shared" ref="AG46" si="106">AG45/AG47</f>
+        <f t="shared" ref="AG46" si="100">AG45/AG47</f>
         <v>3.9020147261105316</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" ref="AH46" si="107">AH45/AH47</f>
+        <f t="shared" ref="AH46" si="101">AH45/AH47</f>
         <v>3.9146640051151742</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" ref="AI46" si="108">AI45/AI47</f>
+        <f t="shared" ref="AI46" si="102">AI45/AI47</f>
         <v>4.3964490219438126</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" ref="AJ46" si="109">AJ45/AJ47</f>
+        <f t="shared" ref="AJ46" si="103">AJ45/AJ47</f>
         <v>4.0016565220741214</v>
       </c>
       <c r="AK46" s="1">
@@ -4533,47 +4605,47 @@
         <v>-12.303069364828003</v>
       </c>
       <c r="AL46" s="1">
-        <f t="shared" ref="AL46:AM46" si="110">AL45/AL47</f>
+        <f t="shared" ref="AL46:AM46" si="104">AL45/AL47</f>
         <v>-1.7295633743466965</v>
       </c>
       <c r="AM46" s="1">
-        <f t="shared" si="110"/>
-        <v>-0.46074046579505579</v>
+        <f t="shared" si="104"/>
+        <v>-0.49000388278671364</v>
       </c>
       <c r="AN46" s="1">
-        <f t="shared" ref="AN46" si="111">AN45/AN47</f>
-        <v>7.4666376461225051E-2</v>
+        <f t="shared" ref="AN46" si="105">AN45/AN47</f>
+        <v>-0.565578407359146</v>
       </c>
       <c r="AO46" s="1">
-        <f t="shared" ref="AO46" si="112">AO45/AO47</f>
-        <v>0.20726954827707733</v>
+        <f t="shared" ref="AO46" si="106">AO45/AO47</f>
+        <v>2.2977994504223394</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" ref="AP46" si="113">AP45/AP47</f>
-        <v>0.34036749824858015</v>
+        <f t="shared" ref="AP46" si="107">AP45/AP47</f>
+        <v>3.3784973274882946</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" ref="AQ46" si="114">AQ45/AQ47</f>
-        <v>0.48853816392573457</v>
+        <f t="shared" ref="AQ46" si="108">AQ45/AQ47</f>
+        <v>4.5799016957501077</v>
       </c>
       <c r="AR46" s="1">
-        <f t="shared" ref="AR46" si="115">AR45/AR47</f>
-        <v>0.65307699273568243</v>
+        <f t="shared" ref="AR46" si="109">AR45/AR47</f>
+        <v>5.9123469508153477</v>
       </c>
       <c r="AS46" s="1">
-        <f t="shared" ref="AS46" si="116">AS45/AS47</f>
-        <v>0.83537982894816942</v>
+        <f t="shared" ref="AS46" si="110">AS45/AS47</f>
+        <v>7.3869671199893574</v>
       </c>
       <c r="AT46" s="1">
-        <f t="shared" ref="AT46" si="117">AT45/AT47</f>
-        <v>0.76086060431980473</v>
+        <f t="shared" ref="AT46" si="111">AT45/AT47</f>
+        <v>5.1845216528843414</v>
       </c>
       <c r="AU46" s="1">
-        <f t="shared" ref="AU46" si="118">AU45/AU47</f>
-        <v>0.86577035324722251</v>
-      </c>
-    </row>
-    <row r="47" spans="2:103" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AU46" si="112">AU45/AU47</f>
+        <v>5.999858675611331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:103" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>1</v>
       </c>
@@ -4620,22 +4692,23 @@
         <v>1091.1089999999999</v>
       </c>
       <c r="S47" s="16">
-        <f t="shared" ref="S47:V47" si="119">+R47</f>
-        <v>1091.1089999999999</v>
+        <v>137.39500000000001</v>
       </c>
       <c r="T47" s="16">
-        <v>1513.472</v>
+        <v>151.34700000000001</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" si="119"/>
-        <v>1513.472</v>
+        <v>162.607</v>
       </c>
       <c r="V47" s="16">
-        <f t="shared" si="119"/>
-        <v>1513.472</v>
-      </c>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
+        <v>218.62</v>
+      </c>
+      <c r="W47" s="16">
+        <v>263.411</v>
+      </c>
+      <c r="X47" s="16">
+        <v>321.58100000000002</v>
+      </c>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
       <c r="AA47" s="12"/>
@@ -4665,38 +4738,38 @@
       </c>
       <c r="AN47" s="15">
         <f>AVERAGE(S47:V47)</f>
-        <v>1407.8812499999999</v>
+        <v>167.49225000000001</v>
       </c>
       <c r="AO47" s="15">
-        <f t="shared" ref="AO47:AU47" si="120">AN47</f>
-        <v>1407.8812499999999</v>
+        <f t="shared" ref="AO47:AU47" si="113">AN47</f>
+        <v>167.49225000000001</v>
       </c>
       <c r="AP47" s="15">
-        <f t="shared" si="120"/>
-        <v>1407.8812499999999</v>
+        <f t="shared" si="113"/>
+        <v>167.49225000000001</v>
       </c>
       <c r="AQ47" s="15">
-        <f t="shared" si="120"/>
-        <v>1407.8812499999999</v>
+        <f t="shared" si="113"/>
+        <v>167.49225000000001</v>
       </c>
       <c r="AR47" s="15">
-        <f t="shared" si="120"/>
-        <v>1407.8812499999999</v>
+        <f t="shared" si="113"/>
+        <v>167.49225000000001</v>
       </c>
       <c r="AS47" s="15">
-        <f t="shared" si="120"/>
-        <v>1407.8812499999999</v>
+        <f t="shared" si="113"/>
+        <v>167.49225000000001</v>
       </c>
       <c r="AT47" s="15">
-        <f t="shared" si="120"/>
-        <v>1407.8812499999999</v>
+        <f t="shared" si="113"/>
+        <v>167.49225000000001</v>
       </c>
       <c r="AU47" s="15">
-        <f t="shared" si="120"/>
-        <v>1407.8812499999999</v>
-      </c>
-    </row>
-    <row r="49" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="113"/>
+        <v>167.49225000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>38</v>
       </c>
@@ -4708,19 +4781,19 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="14">
-        <f t="shared" ref="J49" si="121">J34/F34-1</f>
+        <f t="shared" ref="J49" si="114">J34/F34-1</f>
         <v>-0.88775298749740972</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" ref="K49:M49" si="122">K34/G34-1</f>
+        <f t="shared" ref="K49:M49" si="115">K34/G34-1</f>
         <v>-0.84248539564524694</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>22.529100529100525</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="122"/>
+        <f t="shared" si="115"/>
         <v>5.3866108786610871</v>
       </c>
       <c r="N49" s="14">
@@ -4732,44 +4805,50 @@
         <v>4.2980445043830064</v>
       </c>
       <c r="P49" s="14">
-        <f t="shared" ref="P49:V49" si="123">P34/L34-1</f>
+        <f t="shared" ref="P49:X49" si="116">P34/L34-1</f>
         <v>1.6228918371936141</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>0.26886792452830188</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" si="123"/>
-        <v>-0.1345907655543227</v>
+        <f t="shared" si="116"/>
+        <v>-0.15430570965264134</v>
       </c>
       <c r="S49" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>0.21471299478172345</v>
       </c>
       <c r="T49" s="14">
-        <f t="shared" si="123"/>
+        <f t="shared" si="116"/>
         <v>0.15560699588477367</v>
       </c>
       <c r="U49" s="14">
-        <f t="shared" si="123"/>
-        <v>0.43776317332713788</v>
+        <f t="shared" si="116"/>
+        <v>0.45177612556794733</v>
       </c>
       <c r="V49" s="14">
-        <f t="shared" si="123"/>
-        <v>0.44062827957100614</v>
-      </c>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
+        <f>V34/R34-1</f>
+        <v>0.11454233525078195</v>
+      </c>
+      <c r="W49" s="14">
+        <f t="shared" si="116"/>
+        <v>-3.1433361274098015E-3</v>
+      </c>
+      <c r="X49" s="14">
+        <f t="shared" si="116"/>
+        <v>-0.23540321982342916</v>
+      </c>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
       <c r="AH49" s="18">
-        <f t="shared" ref="AH49:AI49" si="124">AH34/AG34-1</f>
+        <f t="shared" ref="AH49:AI49" si="117">AH34/AG34-1</f>
         <v>0.56965295590098575</v>
       </c>
       <c r="AI49" s="18">
-        <f t="shared" si="124"/>
+        <f t="shared" si="117"/>
         <v>7.5121474866318705E-2</v>
       </c>
       <c r="AJ49" s="18">
@@ -4781,43 +4860,43 @@
         <v>-0.77291171632242728</v>
       </c>
       <c r="AL49" s="18">
-        <f t="shared" ref="AL49:AM49" si="125">AL34/AK34-1</f>
+        <f t="shared" ref="AL49:AM49" si="118">AL34/AK34-1</f>
         <v>1.0346909207984547</v>
       </c>
       <c r="AM49" s="18">
-        <f t="shared" si="125"/>
-        <v>0.53222042011155479</v>
+        <f t="shared" si="118"/>
+        <v>0.5230824004114083</v>
       </c>
       <c r="AN49" s="18">
-        <f t="shared" ref="AN49:AU49" si="126">AN34/AM34-1</f>
-        <v>0.33101668668448125</v>
+        <f t="shared" ref="AN49:AU49" si="119">AN34/AM34-1</f>
+        <v>0.24996104098488425</v>
       </c>
       <c r="AO49" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AP49" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AQ49" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AR49" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AS49" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AT49" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AU49" s="18">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AW49" t="s">
@@ -4827,7 +4906,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="50" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>58</v>
       </c>
@@ -4836,35 +4915,35 @@
         <v>0.30013124266077224</v>
       </c>
       <c r="G50" s="19">
-        <f t="shared" ref="G50:R50" si="127">G35/G34</f>
+        <f t="shared" ref="G50:R50" si="120">G35/G34</f>
         <v>0.28858204992033987</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>0.22259414225941423</v>
       </c>
       <c r="J50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>0.14892307692307691</v>
       </c>
       <c r="K50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>0.14834794335805798</v>
       </c>
       <c r="L50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>0.22239712165504835</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>0.2312631027253669</v>
       </c>
       <c r="N50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>0.26482888111291292</v>
       </c>
       <c r="O50" s="19">
@@ -4876,12 +4955,12 @@
         <v>0.28180727023319613</v>
       </c>
       <c r="Q50" s="19">
-        <f t="shared" si="127"/>
+        <f t="shared" si="120"/>
         <v>0.27178851714167701</v>
       </c>
       <c r="R50" s="19">
-        <f t="shared" si="127"/>
-        <v>0.26627218934911245</v>
+        <f t="shared" si="120"/>
+        <v>0.27247956403269757</v>
       </c>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -4893,64 +4972,64 @@
       <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
       <c r="AG50" s="19">
-        <f t="shared" ref="AG50:AU50" si="128">AG35/AG34</f>
+        <f t="shared" ref="AG50:AU50" si="121">AG35/AG34</f>
         <v>0.33669149232052903</v>
       </c>
       <c r="AH50" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>0.31585434041313265</v>
       </c>
       <c r="AI50" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>0.31317755640199241</v>
       </c>
       <c r="AJ50" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>0.3105647961981356</v>
       </c>
       <c r="AK50" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>0.25973921442369602</v>
       </c>
       <c r="AL50" s="19">
-        <f t="shared" si="128"/>
+        <f t="shared" si="121"/>
         <v>0.24039716760947824</v>
       </c>
       <c r="AM50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.27152557250922987</v>
+        <f t="shared" si="121"/>
+        <v>0.27315464131733425</v>
       </c>
       <c r="AN50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.27702371884990423</v>
+        <f t="shared" si="121"/>
+        <v>0.26827494493620907</v>
       </c>
       <c r="AO50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.26903265003692617</v>
+        <f t="shared" si="121"/>
+        <v>0.26053624460151076</v>
       </c>
       <c r="AP50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.26127209282432251</v>
+        <f t="shared" si="121"/>
+        <v>0.25302077600723638</v>
       </c>
       <c r="AQ50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.25373539783900551</v>
+        <f t="shared" si="121"/>
+        <v>0.24572209977625842</v>
       </c>
       <c r="AR50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.24641610751672649</v>
+        <f t="shared" si="121"/>
+        <v>0.2386339622827125</v>
       </c>
       <c r="AS50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.23930795056912862</v>
+        <f t="shared" si="121"/>
+        <v>0.2317502902937881</v>
       </c>
       <c r="AT50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.23240483661040379</v>
+        <f t="shared" si="121"/>
+        <v>0.22506518576608267</v>
       </c>
       <c r="AU50" s="19">
-        <f t="shared" si="128"/>
-        <v>0.22570085093894984</v>
+        <f t="shared" si="121"/>
+        <v>0.21857292079206103</v>
       </c>
       <c r="AW50" t="s">
         <v>60</v>
@@ -4959,7 +5038,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="51" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>106</v>
       </c>
@@ -4968,39 +5047,39 @@
         <v>0.50456100342075261</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" ref="G51:R51" si="129">(G30-G35)/G30</f>
+        <f t="shared" ref="G51:R51" si="122">(G30-G35)/G30</f>
         <v>0.52165492957746484</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.57710651828298887</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.69863013698630128</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.68345323741007191</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.57553648068669527</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.58480357562926377</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.53450345034503455</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.57232987832356919</v>
       </c>
       <c r="P51" s="19">
@@ -5008,12 +5087,12 @@
         <v>0.49508448540706607</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" si="129"/>
+        <f t="shared" si="122"/>
         <v>0.51732991014120666</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" si="129"/>
-        <v>0.53035310488780651</v>
+        <f t="shared" si="122"/>
+        <v>0.51897381079636551</v>
       </c>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
@@ -5025,23 +5104,23 @@
       <c r="Z51" s="19"/>
       <c r="AA51" s="19"/>
       <c r="AG51" s="19">
-        <f t="shared" ref="AG51:AK51" si="130">(AG30-AG35)/AG30</f>
+        <f t="shared" ref="AG51:AK51" si="123">(AG30-AG35)/AG30</f>
         <v>0.4683809895579194</v>
       </c>
       <c r="AH51" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="123"/>
         <v>0.50323579501470816</v>
       </c>
       <c r="AI51" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="123"/>
         <v>0.49477104874446082</v>
       </c>
       <c r="AJ51" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="123"/>
         <v>0.48532396328718996</v>
       </c>
       <c r="AK51" s="19">
-        <f t="shared" si="130"/>
+        <f t="shared" si="123"/>
         <v>0.54683330992838075</v>
       </c>
       <c r="AL51" s="19">
@@ -5049,39 +5128,39 @@
         <v>0.56412279443408408</v>
       </c>
       <c r="AM51" s="19">
-        <f t="shared" ref="AM51:AU51" si="131">(AM30-AM35)/AM30</f>
-        <v>0.52519187358916475</v>
+        <f t="shared" ref="AM51:AU51" si="124">(AM30-AM35)/AM30</f>
+        <v>0.52225856273280624</v>
       </c>
       <c r="AN51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU51" s="19" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="124"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW51" s="4" t="s">
@@ -5089,10 +5168,10 @@
       </c>
       <c r="AX51" s="17">
         <f>NPV(AX49,AN45:DM45)+Main!N5-Main!N6</f>
-        <v>6452.9056533687499</v>
-      </c>
-    </row>
-    <row r="52" spans="2:50" x14ac:dyDescent="0.15">
+        <v>5065.6043555995375</v>
+      </c>
+    </row>
+    <row r="52" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
         <v>57</v>
       </c>
@@ -5101,52 +5180,52 @@
         <v>0.16916488222698078</v>
       </c>
       <c r="G52" s="19">
-        <f t="shared" ref="G52:R52" si="132">G41/G34</f>
+        <f t="shared" ref="G52:R52" si="125">G41/G34</f>
         <v>-1.2214551248008496E-2</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-18.523809523809522</v>
       </c>
       <c r="I52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-2.9707112970711296</v>
       </c>
       <c r="J52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-2.1495384615384614</v>
       </c>
       <c r="K52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-2.0701281186783547</v>
       </c>
       <c r="L52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-0.41960872498313462</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-5.2541928721174039E-2</v>
       </c>
       <c r="N52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>0.10207390970384886</v>
       </c>
       <c r="O52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-8.6292478045055604E-2</v>
       </c>
       <c r="P52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="Q52" s="19">
-        <f t="shared" si="132"/>
+        <f t="shared" si="125"/>
         <v>-1.8277571251549114E-2</v>
       </c>
       <c r="R52" s="19">
-        <f t="shared" si="132"/>
-        <v>3.5996055226824461E-2</v>
+        <f t="shared" si="125"/>
+        <v>1.3523059844585707E-2</v>
       </c>
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
@@ -5158,74 +5237,74 @@
       <c r="Z52" s="19"/>
       <c r="AA52" s="19"/>
       <c r="AG52" s="19">
-        <f t="shared" ref="AG52:AU52" si="133">AG41/AG34</f>
+        <f t="shared" ref="AG52:AU52" si="126">AG41/AG34</f>
         <v>0.1651781575450417</v>
       </c>
       <c r="AH52" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>0.14711649774375707</v>
       </c>
       <c r="AI52" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>0.15527029006738932</v>
       </c>
       <c r="AJ52" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>0.12535185523670264</v>
       </c>
       <c r="AK52" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>-0.85793625241468086</v>
       </c>
       <c r="AL52" s="19">
-        <f t="shared" si="133"/>
+        <f t="shared" si="126"/>
         <v>-0.16381185964634673</v>
       </c>
       <c r="AM52" s="19">
         <f>AM41/AM34</f>
-        <v>-7.5387912116282804E-3</v>
+        <v>-1.3583709937146173E-2</v>
       </c>
       <c r="AN52" s="19">
-        <f t="shared" si="133"/>
-        <v>8.76399563678876E-2</v>
+        <f t="shared" si="126"/>
+        <v>5.083946307609194E-2</v>
       </c>
       <c r="AO52" s="19">
-        <f t="shared" si="133"/>
-        <v>0.11395803454958331</v>
+        <f t="shared" si="126"/>
+        <v>7.8219093948897186E-2</v>
       </c>
       <c r="AP52" s="19">
-        <f t="shared" si="133"/>
-        <v>0.13951693739911475</v>
+        <f t="shared" si="126"/>
+        <v>0.10480892777729441</v>
       </c>
       <c r="AQ52" s="19">
-        <f t="shared" si="133"/>
-        <v>0.16433856420490955</v>
+        <f t="shared" si="126"/>
+        <v>0.13063174716833392</v>
       </c>
       <c r="AR52" s="19">
-        <f t="shared" si="133"/>
-        <v>0.18844418254515255</v>
+        <f t="shared" si="126"/>
+        <v>0.15570967753847825</v>
       </c>
       <c r="AS52" s="19">
-        <f t="shared" si="133"/>
-        <v>0.2118544465101963</v>
+        <f t="shared" si="126"/>
+        <v>0.18006420607102203</v>
       </c>
       <c r="AT52" s="19">
-        <f t="shared" si="133"/>
-        <v>0.23458941439932515</v>
+        <f t="shared" si="126"/>
+        <v>0.20371620012666564</v>
       </c>
       <c r="AU52" s="19">
-        <f t="shared" si="133"/>
-        <v>0.25666856590703702</v>
+        <f t="shared" si="126"/>
+        <v>0.22668592512301194</v>
       </c>
       <c r="AW52" t="s">
         <v>62</v>
       </c>
       <c r="AX52" s="1">
         <f>AX51/Main!N3</f>
-        <v>6.1542003040423019</v>
-      </c>
-    </row>
-    <row r="53" spans="2:50" x14ac:dyDescent="0.15">
+        <v>33.108525199996976</v>
+      </c>
+    </row>
+    <row r="53" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>64</v>
       </c>
@@ -5256,31 +5335,31 @@
         <v>-9.0866633016087883E-3</v>
       </c>
       <c r="AF53" s="20">
-        <f t="shared" ref="AF53:AL53" si="134">AF26/AE26-1</f>
+        <f t="shared" ref="AF53:AL53" si="127">AF26/AE26-1</f>
         <v>2.7998191966112973E-2</v>
       </c>
       <c r="AG53" s="20">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>2.2576932497140545E-2</v>
       </c>
       <c r="AH53" s="20">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>-2.6643990531081463E-2</v>
       </c>
       <c r="AI53" s="20">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>7.3574553749574445E-2</v>
       </c>
       <c r="AJ53" s="20">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>-4.7763078683775273E-2</v>
       </c>
       <c r="AK53" s="20">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>-0.81422798616458314</v>
       </c>
       <c r="AL53" s="20">
-        <f t="shared" si="134"/>
+        <f t="shared" si="127"/>
         <v>1.1344394528426767</v>
       </c>
       <c r="AM53" s="19"/>
@@ -5293,7 +5372,7 @@
       <c r="AT53" s="19"/>
       <c r="AU53" s="19"/>
     </row>
-    <row r="54" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>65</v>
       </c>
@@ -5326,23 +5405,23 @@
         <v>0.18013517081637956</v>
       </c>
       <c r="AH54" s="20">
-        <f t="shared" ref="AH54:AL54" si="135">AH30/AH26</f>
+        <f t="shared" ref="AH54:AL54" si="128">AH30/AH26</f>
         <v>0.29163212217430867</v>
       </c>
       <c r="AI54" s="20">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>0.28472561072802366</v>
       </c>
       <c r="AJ54" s="20">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>0.29161364111956389</v>
       </c>
       <c r="AK54" s="20">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>0.33859733877041753</v>
       </c>
       <c r="AL54" s="20">
-        <f t="shared" si="135"/>
+        <f t="shared" si="128"/>
         <v>0.31058737146668441</v>
       </c>
       <c r="AM54" s="20"/>
@@ -5357,7 +5436,7 @@
       <c r="AW54" s="4"/>
       <c r="AX54" s="17"/>
     </row>
-    <row r="55" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5399,7 +5478,7 @@
       <c r="AT55" s="18"/>
       <c r="AU55" s="18"/>
     </row>
-    <row r="56" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
         <v>120</v>
       </c>
@@ -5464,7 +5543,7 @@
       <c r="AT56" s="20"/>
       <c r="AU56" s="20"/>
     </row>
-    <row r="57" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>121</v>
       </c>
@@ -5473,43 +5552,43 @@
         <v>747.72</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" ref="G57:O57" si="136">G56*G47</f>
+        <f t="shared" ref="G57:O57" si="129">G56*G47</f>
         <v>329.41420000000005</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>447.52851000000004</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>507.24344999999994</v>
       </c>
       <c r="J57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>322.89083999999997</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>4085.1333100000002</v>
       </c>
       <c r="L57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>27247.83308</v>
       </c>
       <c r="M57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>19537.339800000002</v>
       </c>
       <c r="N57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>13976.012799999999</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="129"/>
         <v>12712.0224</v>
       </c>
       <c r="P57" s="16">
-        <f t="shared" ref="P57" si="137">P56*P47</f>
+        <f t="shared" ref="P57" si="130">P56*P47</f>
         <v>7002.9245500000006</v>
       </c>
       <c r="Q57" s="16">
@@ -5541,7 +5620,7 @@
       <c r="AT57" s="20"/>
       <c r="AU57" s="20"/>
     </row>
-    <row r="58" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>122</v>
       </c>
@@ -5597,7 +5676,7 @@
       <c r="AT58" s="20"/>
       <c r="AU58" s="20"/>
     </row>
-    <row r="59" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:50" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -5639,16 +5718,16 @@
       <c r="AT59" s="18"/>
       <c r="AU59" s="18"/>
     </row>
-    <row r="60" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>56</v>
       </c>
       <c r="K60" s="8">
-        <f t="shared" ref="K60" si="138">K61-K74</f>
+        <f t="shared" ref="K60" si="131">K61-K74</f>
         <v>-4617.2999999999993</v>
       </c>
       <c r="L60" s="8">
-        <f t="shared" ref="L60" si="139">L61-L74</f>
+        <f t="shared" ref="L60" si="132">L61-L74</f>
         <v>-3660.7999999999993</v>
       </c>
       <c r="M60" s="8">
@@ -5672,62 +5751,74 @@
         <v>-4619.5</v>
       </c>
       <c r="R60" s="8">
-        <f>Q60+R45</f>
-        <v>-4665</v>
+        <f t="shared" ref="R60:X60" si="133">R61-R74</f>
+        <v>0</v>
       </c>
       <c r="S60" s="8">
-        <f>R60+S45</f>
-        <v>-4770.1000000000004</v>
+        <f t="shared" si="133"/>
+        <v>-4363.3</v>
       </c>
       <c r="T60" s="8">
-        <f>S60+T45</f>
-        <v>-4679.8999999999996</v>
-      </c>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
+        <f t="shared" si="133"/>
+        <v>-4357.4000000000005</v>
+      </c>
+      <c r="U60" s="8">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="8">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="8">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="8">
+        <f t="shared" si="133"/>
+        <v>-3517.2</v>
+      </c>
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
       <c r="AM60" s="7">
         <f>R60</f>
-        <v>-4665</v>
+        <v>0</v>
       </c>
       <c r="AN60" s="7">
-        <f t="shared" ref="AN60:AU60" si="140">AM60+AN45</f>
-        <v>-4559.8786085747997</v>
+        <f t="shared" ref="AN60:AU60" si="134">AM60+AN45</f>
+        <v>-94.729999999999933</v>
       </c>
       <c r="AO60" s="7">
-        <f t="shared" si="140"/>
-        <v>-4268.0676978595329</v>
+        <f t="shared" si="134"/>
+        <v>290.13360000000114</v>
       </c>
       <c r="AP60" s="7">
-        <f t="shared" si="140"/>
-        <v>-3788.8706789659491</v>
+        <f t="shared" si="134"/>
+        <v>856.0057190000025</v>
       </c>
       <c r="AQ60" s="7">
-        <f t="shared" si="140"/>
-        <v>-3101.0669580654812</v>
+        <f t="shared" si="134"/>
+        <v>1623.1037588000036</v>
       </c>
       <c r="AR60" s="7">
-        <f t="shared" si="140"/>
-        <v>-2181.6121051865275</v>
+        <f t="shared" si="134"/>
+        <v>2613.3760523727055</v>
       </c>
       <c r="AS60" s="7">
-        <f t="shared" si="140"/>
-        <v>-1005.4965073821927</v>
+        <f t="shared" si="134"/>
+        <v>3850.6357959757433</v>
       </c>
       <c r="AT60" s="7">
-        <f t="shared" si="140"/>
-        <v>65.704871303329355</v>
+        <f t="shared" si="134"/>
+        <v>4719.0029927910609</v>
       </c>
       <c r="AU60" s="7">
-        <f t="shared" si="140"/>
-        <v>1284.6067184459705</v>
-      </c>
-    </row>
-    <row r="61" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="134"/>
+        <v>5723.9328220512234</v>
+      </c>
+    </row>
+    <row r="61" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>3</v>
       </c>
@@ -5779,12 +5870,15 @@
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
-      <c r="X61" s="8"/>
+      <c r="X61" s="8">
+        <f>770+48.3</f>
+        <v>818.3</v>
+      </c>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
         <v>40</v>
       </c>
@@ -5827,12 +5921,14 @@
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
+      <c r="X62" s="8">
+        <v>156</v>
+      </c>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>41</v>
       </c>
@@ -5875,12 +5971,14 @@
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
+      <c r="X63" s="8">
+        <v>100.9</v>
+      </c>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
     </row>
-    <row r="64" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:50" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>42</v>
       </c>
@@ -5924,12 +6022,14 @@
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
+      <c r="X64" s="8">
+        <v>1478.9</v>
+      </c>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
     </row>
-    <row r="65" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>43</v>
       </c>
@@ -5973,12 +6073,14 @@
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
+      <c r="X65" s="8">
+        <v>3371.7</v>
+      </c>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
     </row>
-    <row r="66" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>44</v>
       </c>
@@ -6030,12 +6132,15 @@
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
+      <c r="X66" s="8">
+        <f>145.5+2325.5</f>
+        <v>2471</v>
+      </c>
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
     </row>
-    <row r="67" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>45</v>
       </c>
@@ -6078,12 +6183,14 @@
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
-      <c r="X67" s="8"/>
+      <c r="X67" s="8">
+        <v>0</v>
+      </c>
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
     </row>
-    <row r="68" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>46</v>
       </c>
@@ -6126,12 +6233,14 @@
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
       <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
+      <c r="X68" s="8">
+        <v>197.6</v>
+      </c>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>39</v>
       </c>
@@ -6144,54 +6253,66 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8">
-        <f t="shared" ref="K69" si="141">SUM(K61:K68)</f>
+        <f t="shared" ref="K69" si="135">SUM(K61:K68)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" ref="L69" si="142">SUM(L61:L68)</f>
+        <f t="shared" ref="L69" si="136">SUM(L61:L68)</f>
         <v>11329.100000000002</v>
       </c>
       <c r="M69" s="8">
-        <f>SUM(M61:M68)</f>
+        <f t="shared" ref="M69:T69" si="137">SUM(M61:M68)</f>
         <v>11057.499999999998</v>
       </c>
       <c r="N69" s="8">
-        <f>SUM(N61:N68)</f>
+        <f t="shared" si="137"/>
         <v>10821.5</v>
       </c>
       <c r="O69" s="8">
-        <f>SUM(O61:O68)</f>
+        <f t="shared" si="137"/>
         <v>10345.4</v>
       </c>
       <c r="P69" s="8">
-        <f>SUM(P61:P68)</f>
+        <f t="shared" si="137"/>
         <v>9818.2999999999993</v>
       </c>
       <c r="Q69" s="8">
-        <f>SUM(Q61:Q68)</f>
+        <f t="shared" si="137"/>
         <v>9206.1</v>
       </c>
       <c r="R69" s="8">
-        <f>SUM(R61:R68)</f>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="S69" s="8">
-        <f>SUM(S61:S68)</f>
+        <f t="shared" si="137"/>
         <v>8847.6</v>
       </c>
       <c r="T69" s="8">
-        <f>SUM(T61:T68)</f>
+        <f t="shared" si="137"/>
         <v>8669.7000000000007</v>
       </c>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
+      <c r="U69" s="8">
+        <f t="shared" ref="U69" si="138">SUM(U61:U68)</f>
+        <v>0</v>
+      </c>
+      <c r="V69" s="8">
+        <f t="shared" ref="V69" si="139">SUM(V61:V68)</f>
+        <v>0</v>
+      </c>
+      <c r="W69" s="8">
+        <f t="shared" ref="W69" si="140">SUM(W61:W68)</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="8">
+        <f t="shared" ref="X69" si="141">SUM(X61:X68)</f>
+        <v>8594.4</v>
+      </c>
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8"/>
     </row>
-    <row r="70" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -6218,7 +6339,7 @@
       <c r="Z70" s="8"/>
       <c r="AA70" s="8"/>
     </row>
-    <row r="71" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>47</v>
       </c>
@@ -6261,12 +6382,14 @@
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
+      <c r="X71" s="8">
+        <v>301.10000000000002</v>
+      </c>
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
       <c r="AA71" s="8"/>
     </row>
-    <row r="72" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>48</v>
       </c>
@@ -6309,12 +6432,14 @@
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
       <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
+      <c r="X72" s="8">
+        <v>311.39999999999998</v>
+      </c>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
       <c r="AA72" s="8"/>
     </row>
-    <row r="73" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>49</v>
       </c>
@@ -6357,12 +6482,14 @@
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
       <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
+      <c r="X73" s="8">
+        <v>399.1</v>
+      </c>
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
       <c r="AA73" s="8"/>
     </row>
-    <row r="74" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>4</v>
       </c>
@@ -6414,12 +6541,15 @@
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
+      <c r="X74" s="8">
+        <f>123.1+4212.4</f>
+        <v>4335.5</v>
+      </c>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8"/>
     </row>
-    <row r="75" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>50</v>
       </c>
@@ -6471,12 +6601,15 @@
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
+      <c r="X75" s="8">
+        <f>46.3+512.2</f>
+        <v>558.5</v>
+      </c>
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
       <c r="AA75" s="8"/>
     </row>
-    <row r="76" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>51</v>
       </c>
@@ -6528,12 +6661,15 @@
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
+      <c r="X76" s="8">
+        <f>3773.7+4.3</f>
+        <v>3778</v>
+      </c>
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
       <c r="AA76" s="8"/>
     </row>
-    <row r="77" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>52</v>
       </c>
@@ -6576,12 +6712,14 @@
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
+      <c r="X77" s="8">
+        <v>475.5</v>
+      </c>
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
       <c r="AA77" s="8"/>
     </row>
-    <row r="78" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>45</v>
       </c>
@@ -6624,12 +6762,14 @@
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
+      <c r="X78" s="8">
+        <v>33</v>
+      </c>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
       <c r="AA78" s="8"/>
     </row>
-    <row r="79" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>53</v>
       </c>
@@ -6673,12 +6813,14 @@
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
+      <c r="X79" s="8">
+        <v>99.2</v>
+      </c>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
       <c r="AA79" s="8"/>
     </row>
-    <row r="80" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>54</v>
       </c>
@@ -6721,12 +6863,14 @@
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
       <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
+      <c r="X80" s="8">
+        <v>-1696.6</v>
+      </c>
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8"/>
     </row>
-    <row r="81" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>55</v>
       </c>
@@ -6739,15 +6883,15 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8">
-        <f t="shared" ref="K81" si="143">SUM(K71:K80)</f>
+        <f t="shared" ref="K81" si="142">SUM(K71:K80)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" ref="L81" si="144">SUM(L71:L80)</f>
+        <f t="shared" ref="L81" si="143">SUM(L71:L80)</f>
         <v>11329.1</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" ref="M81" si="145">SUM(M71:M80)</f>
+        <f t="shared" ref="M81" si="144">SUM(M71:M80)</f>
         <v>11057.499999999998</v>
       </c>
       <c r="N81" s="8">
@@ -6775,15 +6919,27 @@
         <f>SUM(T71:T80)</f>
         <v>8669.6999999999989</v>
       </c>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
+      <c r="U81" s="8">
+        <f t="shared" ref="U81:X81" si="145">SUM(U71:U80)</f>
+        <v>0</v>
+      </c>
+      <c r="V81" s="8">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="W81" s="8">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="8">
+        <f t="shared" si="145"/>
+        <v>8594.7000000000007</v>
+      </c>
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8"/>
     </row>
-    <row r="83" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
         <v>66</v>
       </c>
@@ -6843,7 +6999,7 @@
         <v>-824.99999999999989</v>
       </c>
     </row>
-    <row r="84" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
         <v>67</v>
       </c>
@@ -6892,7 +7048,7 @@
         <v>-1269.8</v>
       </c>
     </row>
-    <row r="85" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7" t="s">
         <v>68</v>
       </c>
@@ -6941,7 +7097,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
         <v>45</v>
       </c>
@@ -6990,7 +7146,7 @@
         <v>-7.6</v>
       </c>
     </row>
-    <row r="87" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
         <v>119</v>
       </c>
@@ -7033,7 +7189,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="88" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
         <v>70</v>
       </c>
@@ -7081,7 +7237,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="89" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7" t="s">
         <v>71</v>
       </c>
@@ -7130,7 +7286,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="90" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
         <v>80</v>
       </c>
@@ -7179,7 +7335,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="91" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>79</v>
       </c>
@@ -7230,7 +7386,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="92" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
         <v>123</v>
       </c>
@@ -7265,7 +7421,7 @@
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
     </row>
-    <row r="93" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>72</v>
       </c>
@@ -7313,7 +7469,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="94" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>73</v>
       </c>
@@ -7362,7 +7518,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
         <v>74</v>
       </c>
@@ -7410,7 +7566,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="96" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
         <v>75</v>
       </c>
@@ -7458,7 +7614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
         <v>76</v>
       </c>
@@ -7506,7 +7662,7 @@
         <v>-24.9</v>
       </c>
     </row>
-    <row r="98" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
         <v>77</v>
       </c>
@@ -7554,7 +7710,7 @@
         <v>-133.69999999999999</v>
       </c>
     </row>
-    <row r="99" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>78</v>
       </c>
@@ -7608,7 +7764,7 @@
         <v>109.70000000000002</v>
       </c>
     </row>
-    <row r="100" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
         <v>69</v>
       </c>
@@ -7667,10 +7823,10 @@
         <v>-614.09999999999991</v>
       </c>
     </row>
-    <row r="101" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AK101" s="7"/>
     </row>
-    <row r="102" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>86</v>
       </c>
@@ -7698,7 +7854,7 @@
         <v>-92.4</v>
       </c>
     </row>
-    <row r="103" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>73</v>
       </c>
@@ -7719,7 +7875,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="104" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
         <v>124</v>
       </c>
@@ -7734,7 +7890,7 @@
       <c r="AK104" s="7"/>
       <c r="AL104" s="7"/>
     </row>
-    <row r="105" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
         <v>88</v>
       </c>
@@ -7758,7 +7914,7 @@
         <v>-10.3</v>
       </c>
     </row>
-    <row r="106" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
         <v>89</v>
       </c>
@@ -7779,7 +7935,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>87</v>
       </c>
@@ -7804,7 +7960,7 @@
         <v>-68.2</v>
       </c>
     </row>
-    <row r="114" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
         <v>92</v>
       </c>
@@ -7838,7 +7994,7 @@
       <c r="Z114" s="16"/>
       <c r="AA114" s="16"/>
     </row>
-    <row r="115" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
         <v>93</v>
       </c>
@@ -7872,7 +8028,7 @@
       <c r="Z115" s="16"/>
       <c r="AA115" s="16"/>
     </row>
-    <row r="116" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="15" t="s">
         <v>94</v>
       </c>
@@ -7906,7 +8062,7 @@
       <c r="Z116" s="16"/>
       <c r="AA116" s="16"/>
     </row>
-    <row r="117" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="15" t="s">
         <v>95</v>
       </c>
@@ -7940,7 +8096,7 @@
       <c r="Z117" s="16"/>
       <c r="AA117" s="16"/>
     </row>
-    <row r="118" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
         <v>96</v>
       </c>
@@ -7974,7 +8130,7 @@
       <c r="Z118" s="16"/>
       <c r="AA118" s="16"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B120" s="15" t="s">
         <v>97</v>
       </c>
@@ -7982,7 +8138,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
       <c r="O121" s="16"/>
     </row>
   </sheetData>

--- a/AMC.xlsx
+++ b/AMC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647443E-07DC-4F3B-AC03-F8D01CAC1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D7A168-F360-44B2-95FE-44AC8FE8DFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28185" yWindow="2685" windowWidth="28230" windowHeight="18075" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
+    <workbookView xWindow="-41385" yWindow="6150" windowWidth="22815" windowHeight="13590" activeTab="1" xr2:uid="{8D27557D-2DB7-4671-BB85-E2F62711DC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
   <si>
     <t>Price</t>
   </si>
@@ -486,6 +486,33 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Equity Issuance</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Deferred Financing</t>
+  </si>
+  <si>
+    <t>Restricted Unit Witholdings</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Litigation</t>
   </si>
 </sst>
 </file>
@@ -539,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -579,6 +606,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -611,7 +642,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>25308</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>114665</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -653,15 +684,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>89994</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>89994</xdr:colOff>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -677,8 +708,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20955000" y="0"/>
-          <a:ext cx="0" cy="17306925"/>
+          <a:off x="24329477" y="0"/>
+          <a:ext cx="0" cy="18535978"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1171,19 +1202,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1ECA33-ACCE-4F6E-BC14-505D1708A040}">
-  <dimension ref="A1:CY121"/>
+  <dimension ref="A1:CY132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X76" sqref="X76"/>
+      <selection pane="bottomRight" activeCell="T119" sqref="T119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="13" width="9.140625" style="2"/>
     <col min="14" max="27" width="8.42578125" style="2" customWidth="1"/>
     <col min="50" max="50" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2474,7 +2505,7 @@
         <v>362.40000000000003</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" ref="AL31" si="6">SUM(K31:N31)</f>
+        <f>SUM(K31:N31)</f>
         <v>857.3</v>
       </c>
       <c r="AM31" s="7">
@@ -2482,11 +2513,11 @@
         <v>1313.7</v>
       </c>
       <c r="AO31" s="7">
-        <f t="shared" ref="AO31:AO33" si="7">AN31*1.1</f>
+        <f t="shared" ref="AO31:AO33" si="6">AN31*1.1</f>
         <v>0</v>
       </c>
       <c r="AP31" s="7">
-        <f t="shared" ref="AP31" si="8">AO31*1.05</f>
+        <f t="shared" ref="AP31" si="7">AO31*1.05</f>
         <v>0</v>
       </c>
       <c r="AQ31" s="7">
@@ -2540,9 +2571,7 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
-      <c r="U32" s="8">
-        <v>125.5</v>
-      </c>
+      <c r="U32" s="8"/>
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
@@ -2558,6 +2587,10 @@
       <c r="AL32" s="7">
         <v>95.3</v>
       </c>
+      <c r="AM32" s="7">
+        <f>SUM(O32:R32)</f>
+        <v>61.199999999999996</v>
+      </c>
     </row>
     <row r="33" spans="2:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
@@ -2608,8 +2641,12 @@
       <c r="S33" s="8">
         <v>91.6</v>
       </c>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
+      <c r="T33" s="8">
+        <v>115.6</v>
+      </c>
+      <c r="U33" s="8">
+        <v>125.5</v>
+      </c>
       <c r="V33" s="8">
         <v>119.6</v>
       </c>
@@ -2641,35 +2678,35 @@
         <v>181.1</v>
       </c>
       <c r="AM33" s="7">
-        <f t="shared" ref="AM33" si="9">SUM(O33:R33)</f>
+        <f>SUM(O33:R33)</f>
         <v>335.1</v>
       </c>
       <c r="AO33" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP33" s="7">
-        <f t="shared" ref="AP33:AU33" si="10">AO33*1.05</f>
+        <f t="shared" ref="AP33:AU33" si="8">AO33*1.05</f>
         <v>0</v>
       </c>
       <c r="AQ33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2681,39 +2718,39 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10">
-        <f t="shared" ref="F34" si="11">SUM(F30:F33)</f>
+        <f t="shared" ref="F34" si="9">SUM(F30:F33)</f>
         <v>1447.7</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" ref="G34" si="12">SUM(G30:G33)</f>
+        <f t="shared" ref="G34" si="10">SUM(G30:G33)</f>
         <v>941.5</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" ref="H34:I34" si="13">SUM(H30:H33)</f>
+        <f t="shared" ref="H34:I34" si="11">SUM(H30:H33)</f>
         <v>18.900000000000002</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>119.5</v>
       </c>
       <c r="J34" s="10">
-        <f t="shared" ref="J34:N34" si="14">SUM(J30:J33)</f>
+        <f t="shared" ref="J34:N34" si="12">SUM(J30:J33)</f>
         <v>162.5</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>148.30000000000001</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>444.7</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>763.19999999999993</v>
       </c>
       <c r="N34" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1171.6999999999998</v>
       </c>
       <c r="O34" s="10">
@@ -2721,11 +2758,11 @@
         <v>785.69999999999993</v>
       </c>
       <c r="P34" s="10">
-        <f t="shared" ref="P34:Q34" si="15">SUM(P30:P33)</f>
+        <f t="shared" ref="P34:Q34" si="13">SUM(P30:P33)</f>
         <v>1166.4000000000001</v>
       </c>
       <c r="Q34" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>968.39999999999986</v>
       </c>
       <c r="R34" s="10">
@@ -2737,6 +2774,7 @@
         <v>954.4</v>
       </c>
       <c r="T34" s="10">
+        <f>+T33+T31+T30</f>
         <v>1347.9</v>
       </c>
       <c r="U34" s="10">
@@ -2756,24 +2794,24 @@
         <v>1030.5999999999999</v>
       </c>
       <c r="Y34" s="10">
-        <f t="shared" ref="V34:Z34" si="16">+Y28*Y26</f>
+        <f t="shared" ref="Y34:Z34" si="14">+Y28*Y26</f>
         <v>0</v>
       </c>
       <c r="Z34" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA34" s="10"/>
       <c r="AG34" s="10">
-        <f t="shared" ref="AG34" si="17">SUM(AG30:AG33)</f>
+        <f t="shared" ref="AG34" si="15">SUM(AG30:AG33)</f>
         <v>3235.9</v>
       </c>
       <c r="AH34" s="10">
-        <f t="shared" ref="AH34" si="18">SUM(AH30:AH33)</f>
+        <f t="shared" ref="AH34" si="16">SUM(AH30:AH33)</f>
         <v>5079.24</v>
       </c>
       <c r="AI34" s="10">
-        <f t="shared" ref="AI34" si="19">SUM(AI30:AI33)</f>
+        <f t="shared" ref="AI34" si="17">SUM(AI30:AI33)</f>
         <v>5460.8</v>
       </c>
       <c r="AJ34" s="10">
@@ -2785,12 +2823,12 @@
         <v>1242.4000000000001</v>
       </c>
       <c r="AL34" s="10">
-        <f t="shared" ref="AL34:AM34" si="20">SUM(AL30:AL33)</f>
+        <f>SUM(AL30:AL33)</f>
         <v>2527.9</v>
       </c>
       <c r="AM34" s="10">
-        <f t="shared" si="20"/>
-        <v>3850.1999999999994</v>
+        <f t="shared" ref="AL34:AM34" si="18">SUM(AM30:AM33)</f>
+        <v>3911.3999999999992</v>
       </c>
       <c r="AN34" s="9">
         <f>SUM(S34:V34)</f>
@@ -2801,27 +2839,27 @@
         <v>5005.1040000000003</v>
       </c>
       <c r="AP34" s="10">
-        <f t="shared" ref="AP34:AU34" si="21">+AO34*1.04</f>
+        <f t="shared" ref="AP34:AU34" si="19">+AO34*1.04</f>
         <v>5205.3081600000005</v>
       </c>
       <c r="AQ34" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5413.5204864000007</v>
       </c>
       <c r="AR34" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5630.0613058560011</v>
       </c>
       <c r="AS34" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5855.263758090241</v>
       </c>
       <c r="AT34" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6089.4743084138508</v>
       </c>
       <c r="AU34" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6333.0532807504051</v>
       </c>
     </row>
@@ -2905,11 +2943,11 @@
         <v>1699.1</v>
       </c>
       <c r="AK35" s="7">
-        <f t="shared" ref="AK35:AK39" si="22">SUM(G35:J35)</f>
+        <f t="shared" ref="AK35:AK39" si="20">SUM(G35:J35)</f>
         <v>322.7</v>
       </c>
       <c r="AL35" s="7">
-        <f t="shared" ref="AL35:AL39" si="23">SUM(K35:N35)</f>
+        <f t="shared" ref="AL35:AL39" si="21">SUM(K35:N35)</f>
         <v>607.70000000000005</v>
       </c>
       <c r="AM35" s="7">
@@ -2925,27 +2963,27 @@
         <v>1304.011</v>
       </c>
       <c r="AP35" s="7">
-        <f t="shared" ref="AP35:AU35" si="24">+AO35*1.01</f>
+        <f t="shared" ref="AP35:AU35" si="22">+AO35*1.01</f>
         <v>1317.0511099999999</v>
       </c>
       <c r="AQ35" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1330.2216211</v>
       </c>
       <c r="AR35" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1343.5238373110001</v>
       </c>
       <c r="AS35" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1356.9590756841101</v>
       </c>
       <c r="AT35" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1370.5286664409512</v>
       </c>
       <c r="AU35" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1384.2339531053606</v>
       </c>
     </row>
@@ -3029,11 +3067,11 @@
         <v>278.7</v>
       </c>
       <c r="AK36" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>88.800000000000011</v>
       </c>
       <c r="AL36" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>137.9</v>
       </c>
       <c r="AM36" s="7">
@@ -3045,31 +3083,31 @@
         <v>315.60000000000002</v>
       </c>
       <c r="AO36" s="7">
-        <f t="shared" ref="AO36:AU36" si="25">+AN36*1.01</f>
+        <f t="shared" ref="AO36:AU36" si="23">+AN36*1.01</f>
         <v>318.75600000000003</v>
       </c>
       <c r="AP36" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>321.94356000000005</v>
       </c>
       <c r="AQ36" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>325.16299560000004</v>
       </c>
       <c r="AR36" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>328.41462555600003</v>
       </c>
       <c r="AS36" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>331.69877181156005</v>
       </c>
       <c r="AT36" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>335.01575952967568</v>
       </c>
       <c r="AU36" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>338.36591712497244</v>
       </c>
     </row>
@@ -3153,11 +3191,11 @@
         <v>1686.6</v>
       </c>
       <c r="AK37" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>856</v>
       </c>
       <c r="AL37" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1141.8</v>
       </c>
       <c r="AM37" s="7">
@@ -3169,31 +3207,31 @@
         <v>1691.5</v>
       </c>
       <c r="AO37" s="7">
-        <f t="shared" ref="AO37:AU37" si="26">+AN37*1.01</f>
+        <f t="shared" ref="AO37:AU37" si="24">+AN37*1.01</f>
         <v>1708.415</v>
       </c>
       <c r="AP37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1725.4991499999999</v>
       </c>
       <c r="AQ37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1742.7541414999998</v>
       </c>
       <c r="AR37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1760.1816829149998</v>
       </c>
       <c r="AS37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1777.7834997441498</v>
       </c>
       <c r="AT37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1795.5613347415913</v>
       </c>
       <c r="AU37" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1813.5169480890072</v>
       </c>
     </row>
@@ -3277,11 +3315,11 @@
         <v>967.8</v>
       </c>
       <c r="AK38" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>884.1</v>
       </c>
       <c r="AL38" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>828</v>
       </c>
       <c r="AM38" s="7">
@@ -3293,31 +3331,31 @@
         <v>1019.1299999999999</v>
       </c>
       <c r="AO38" s="7">
-        <f t="shared" ref="AO38:AU38" si="27">+AN38*1.01</f>
+        <f t="shared" ref="AO38:AU38" si="25">+AN38*1.01</f>
         <v>1029.3212999999998</v>
       </c>
       <c r="AP38" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1039.6145129999998</v>
       </c>
       <c r="AQ38" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1050.0106581299997</v>
       </c>
       <c r="AR38" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1060.5107647112998</v>
       </c>
       <c r="AS38" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1071.1158723584128</v>
       </c>
       <c r="AT38" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1081.8270310819969</v>
       </c>
       <c r="AU38" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1092.6453013928169</v>
       </c>
     </row>
@@ -3374,7 +3412,7 @@
         <v>58.1</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" ref="U39" si="28">T39+5</f>
+        <f t="shared" ref="U39" si="26">T39+5</f>
         <v>63.1</v>
       </c>
       <c r="V39" s="8">
@@ -3402,11 +3440,11 @@
         <v>153</v>
       </c>
       <c r="AK39" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>156.70000000000002</v>
       </c>
       <c r="AL39" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>226.6</v>
       </c>
       <c r="AM39" s="7">
@@ -3418,31 +3456,31 @@
         <v>250.6</v>
       </c>
       <c r="AO39" s="7">
-        <f t="shared" ref="AO39:AU39" si="29">+AN39*1.01</f>
+        <f t="shared" ref="AO39:AU39" si="27">+AN39*1.01</f>
         <v>253.10599999999999</v>
       </c>
       <c r="AP39" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>255.63705999999999</v>
       </c>
       <c r="AQ39" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>258.1934306</v>
       </c>
       <c r="AR39" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>260.77536490599999</v>
       </c>
       <c r="AS39" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>263.38311855505998</v>
       </c>
       <c r="AT39" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>266.01694974061058</v>
       </c>
       <c r="AU39" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>268.6771192380167</v>
       </c>
     </row>
@@ -3454,39 +3492,39 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8">
-        <f t="shared" ref="F40" si="30">SUM(F35:F39)</f>
+        <f t="shared" ref="F40" si="28">SUM(F35:F39)</f>
         <v>1202.8</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" ref="G40" si="31">SUM(G35:G39)</f>
+        <f t="shared" ref="G40" si="29">SUM(G35:G39)</f>
         <v>953</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ref="H40:I40" si="32">SUM(H35:H39)</f>
+        <f t="shared" ref="H40:I40" si="30">SUM(H35:H39)</f>
         <v>369</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>474.5</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="33">SUM(J35:J39)</f>
+        <f t="shared" ref="J40:N40" si="31">SUM(J35:J39)</f>
         <v>511.79999999999995</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>455.3</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>631.29999999999995</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>803.3</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1052.1000000000001</v>
       </c>
       <c r="O40" s="8">
@@ -3494,7 +3532,7 @@
         <v>853.50000000000011</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" ref="P40:R40" si="34">SUM(P35:P39)</f>
+        <f t="shared" ref="P40:R40" si="32">SUM(P35:P39)</f>
         <v>1085.4000000000001</v>
       </c>
       <c r="Q40" s="8">
@@ -3502,46 +3540,46 @@
         <v>986.1</v>
       </c>
       <c r="R40" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>977.5</v>
       </c>
       <c r="S40" s="8">
-        <f t="shared" ref="S40:X40" si="35">SUM(S35:S39)</f>
+        <f t="shared" ref="S40:X40" si="33">SUM(S35:S39)</f>
         <v>968.8</v>
       </c>
       <c r="T40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1165.6999999999998</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1225.8</v>
       </c>
       <c r="V40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1062</v>
       </c>
       <c r="W40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>978.30000000000007</v>
       </c>
       <c r="X40" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>999.1</v>
       </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AG40" s="8">
-        <f t="shared" ref="AG40" si="36">SUM(AG35:AG39)</f>
+        <f t="shared" ref="AG40" si="34">SUM(AG35:AG39)</f>
         <v>2701.3999999999996</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" ref="AH40" si="37">SUM(AH35:AH39)</f>
+        <f t="shared" ref="AH40" si="35">SUM(AH35:AH39)</f>
         <v>4331.9999999999991</v>
       </c>
       <c r="AI40" s="8">
-        <f t="shared" ref="AI40" si="38">SUM(AI35:AI39)</f>
+        <f t="shared" ref="AI40" si="36">SUM(AI35:AI39)</f>
         <v>4612.9000000000005</v>
       </c>
       <c r="AJ40" s="8">
@@ -3565,31 +3603,31 @@
         <v>4567.93</v>
       </c>
       <c r="AO40" s="8">
-        <f t="shared" ref="AO40:AU40" si="39">SUM(AO35:AO39)</f>
+        <f t="shared" ref="AO40:AU40" si="37">SUM(AO35:AO39)</f>
         <v>4613.6092999999992</v>
       </c>
       <c r="AP40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4659.7453929999992</v>
       </c>
       <c r="AQ40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4706.3428469299997</v>
       </c>
       <c r="AR40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4753.4062753992994</v>
       </c>
       <c r="AS40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4800.9403381532929</v>
       </c>
       <c r="AT40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4848.949741534826</v>
       </c>
       <c r="AU40" s="8">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4897.4392389501736</v>
       </c>
     </row>
@@ -3601,35 +3639,35 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
-        <f t="shared" ref="F41" si="40">F34-F40</f>
+        <f t="shared" ref="F41" si="38">F34-F40</f>
         <v>244.90000000000009</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" ref="G41" si="41">G34-G40</f>
+        <f t="shared" ref="G41" si="39">G34-G40</f>
         <v>-11.5</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ref="H41:I41" si="42">H34-H40</f>
+        <f t="shared" ref="H41:I41" si="40">H34-H40</f>
         <v>-350.1</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-355</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:M41" si="43">J34-J40</f>
+        <f t="shared" ref="J41:M41" si="41">J34-J40</f>
         <v>-349.29999999999995</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-307</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-186.59999999999997</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-40.100000000000023</v>
       </c>
       <c r="N41" s="8">
@@ -3641,7 +3679,7 @@
         <v>-67.800000000000182</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41:R41" si="44">P34-P40</f>
+        <f t="shared" ref="P41:R41" si="42">P34-P40</f>
         <v>81</v>
       </c>
       <c r="Q41" s="8">
@@ -3649,7 +3687,7 @@
         <v>-17.700000000000159</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>13.399999999999977</v>
       </c>
       <c r="S41" s="8">
@@ -3657,38 +3695,38 @@
         <v>-14.399999999999977</v>
       </c>
       <c r="T41" s="8">
-        <f t="shared" ref="T41:X42" si="45">T34-T40</f>
+        <f t="shared" ref="T41:X41" si="43">T34-T40</f>
         <v>182.20000000000027</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>180.10000000000014</v>
       </c>
       <c r="V41" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>42.399999999999864</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-26.899999999999977</v>
       </c>
       <c r="X41" s="8">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>31.499999999999886</v>
       </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
       <c r="AG41" s="8">
-        <f t="shared" ref="AG41" si="46">AG34-AG40</f>
+        <f t="shared" ref="AG41" si="44">AG34-AG40</f>
         <v>534.50000000000045</v>
       </c>
       <c r="AH41" s="8">
-        <f t="shared" ref="AH41" si="47">AH34-AH40</f>
+        <f t="shared" ref="AH41" si="45">AH34-AH40</f>
         <v>747.24000000000069</v>
       </c>
       <c r="AI41" s="8">
-        <f t="shared" ref="AI41" si="48">AI34-AI40</f>
+        <f t="shared" ref="AI41" si="46">AI34-AI40</f>
         <v>847.89999999999964</v>
       </c>
       <c r="AJ41" s="8">
@@ -3705,38 +3743,38 @@
       </c>
       <c r="AM41" s="8">
         <f>AM34-AM40</f>
-        <v>-52.300000000000182</v>
+        <v>8.8999999999996362</v>
       </c>
       <c r="AN41" s="8">
         <f>AN34-AN40</f>
         <v>244.67000000000007</v>
       </c>
       <c r="AO41" s="8">
-        <f t="shared" ref="AO41:AU41" si="49">AO34-AO40</f>
+        <f t="shared" ref="AO41:AU41" si="47">AO34-AO40</f>
         <v>391.4947000000011</v>
       </c>
       <c r="AP41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>545.56276700000126</v>
       </c>
       <c r="AQ41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>707.17763947000094</v>
       </c>
       <c r="AR41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>876.65503045670175</v>
       </c>
       <c r="AS41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1054.3234199369481</v>
       </c>
       <c r="AT41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1240.5245668790249</v>
       </c>
       <c r="AU41" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1435.6140418002315</v>
       </c>
     </row>
@@ -3826,11 +3864,11 @@
         <v>-311</v>
       </c>
       <c r="AL42" s="7">
-        <f t="shared" ref="AL42" si="50">SUM(K42:N42)</f>
+        <f t="shared" ref="AL42" si="48">SUM(K42:N42)</f>
         <v>-414.9</v>
       </c>
       <c r="AM42" s="7">
-        <f t="shared" ref="AM42" si="51">SUM(O42:R42)</f>
+        <f t="shared" ref="AM42" si="49">SUM(O42:R42)</f>
         <v>-336.4</v>
       </c>
       <c r="AN42" s="7">
@@ -3842,19 +3880,19 @@
         <v>-6.6310999999999956</v>
       </c>
       <c r="AP42" s="7">
-        <f t="shared" ref="AP42:AS42" si="52">AO60*0.07</f>
+        <f t="shared" ref="AP42:AS42" si="50">AO60*0.07</f>
         <v>20.309352000000082</v>
       </c>
       <c r="AQ42" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>59.920400330000177</v>
       </c>
       <c r="AR42" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>113.61726311600026</v>
       </c>
       <c r="AS42" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>182.93632366608941</v>
       </c>
       <c r="AT42" s="7">
@@ -3872,39 +3910,39 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8">
-        <f t="shared" ref="F43" si="53">F41+F42</f>
+        <f t="shared" ref="F43" si="51">F41+F42</f>
         <v>170.8000000000001</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" ref="G43" si="54">G41+G42</f>
+        <f t="shared" ref="G43" si="52">G41+G42</f>
         <v>-82.8</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ref="H43:I43" si="55">H41+H42</f>
+        <f t="shared" ref="H43:I43" si="53">H41+H42</f>
         <v>-429.70000000000005</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>-437.8</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" ref="J43:N43" si="56">J41+J42</f>
+        <f t="shared" ref="J43:N43" si="54">J41+J42</f>
         <v>-426.59999999999997</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>-458.5</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>-274.69999999999993</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>-128.80000000000001</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>32.999999999999687</v>
       </c>
       <c r="O43" s="8">
@@ -3916,50 +3954,50 @@
         <v>0.5</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" ref="Q43:R43" si="57">Q41+Q42</f>
+        <f t="shared" ref="Q43:R43" si="55">Q41+Q42</f>
         <v>-109.60000000000015</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>-68.600000000000023</v>
       </c>
       <c r="S43" s="8">
-        <f t="shared" ref="S43:X43" si="58">S41+S42</f>
+        <f t="shared" ref="S43:X43" si="56">S41+S42</f>
         <v>-105.09999999999998</v>
       </c>
       <c r="T43" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>90.200000000000273</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>86.700000000000131</v>
       </c>
       <c r="V43" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>-22.000000000000142</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>-117.89999999999998</v>
       </c>
       <c r="X43" s="8">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>-76.700000000000117</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AG43" s="8">
-        <f t="shared" ref="AG43:AH43" si="59">AG41+AG42</f>
+        <f t="shared" ref="AG43:AH43" si="57">AG41+AG42</f>
         <v>423.80000000000047</v>
       </c>
       <c r="AH43" s="8">
-        <f t="shared" si="59"/>
+        <f t="shared" si="57"/>
         <v>515.64000000000067</v>
       </c>
       <c r="AI43" s="8">
-        <f t="shared" ref="AI43" si="60">AI41+AI42</f>
+        <f t="shared" ref="AI43" si="58">AI41+AI42</f>
         <v>585.59999999999968</v>
       </c>
       <c r="AJ43" s="8">
@@ -3971,43 +4009,43 @@
         <v>-1376.8999999999996</v>
       </c>
       <c r="AL43" s="8">
-        <f t="shared" ref="AL43" si="61">AL41+AL42</f>
+        <f t="shared" ref="AL43" si="59">AL41+AL42</f>
         <v>-828.99999999999989</v>
       </c>
       <c r="AM43" s="8">
-        <f t="shared" ref="AM43" si="62">AM41+AM42</f>
-        <v>-388.70000000000016</v>
+        <f t="shared" ref="AM43" si="60">AM41+AM42</f>
+        <v>-327.50000000000034</v>
       </c>
       <c r="AN43" s="8">
         <f>AN41+AN42</f>
         <v>-95.829999999999927</v>
       </c>
       <c r="AO43" s="8">
-        <f t="shared" ref="AO43" si="63">AO41+AO42</f>
+        <f t="shared" ref="AO43" si="61">AO41+AO42</f>
         <v>384.8636000000011</v>
       </c>
       <c r="AP43" s="8">
-        <f t="shared" ref="AP43" si="64">AP41+AP42</f>
+        <f t="shared" ref="AP43" si="62">AP41+AP42</f>
         <v>565.87211900000136</v>
       </c>
       <c r="AQ43" s="8">
-        <f t="shared" ref="AQ43" si="65">AQ41+AQ42</f>
+        <f t="shared" ref="AQ43" si="63">AQ41+AQ42</f>
         <v>767.09803980000106</v>
       </c>
       <c r="AR43" s="8">
-        <f t="shared" ref="AR43" si="66">AR41+AR42</f>
+        <f t="shared" ref="AR43" si="64">AR41+AR42</f>
         <v>990.27229357270198</v>
       </c>
       <c r="AS43" s="8">
-        <f t="shared" ref="AS43" si="67">AS41+AS42</f>
+        <f t="shared" ref="AS43" si="65">AS41+AS42</f>
         <v>1237.2597436030376</v>
       </c>
       <c r="AT43" s="8">
-        <f t="shared" ref="AT43" si="68">AT41+AT42</f>
+        <f t="shared" ref="AT43" si="66">AT41+AT42</f>
         <v>1240.5245668790249</v>
       </c>
       <c r="AU43" s="8">
-        <f t="shared" ref="AU43" si="69">AU41+AU42</f>
+        <f t="shared" ref="AU43" si="67">AU41+AU42</f>
         <v>1435.6140418002315</v>
       </c>
     </row>
@@ -4091,15 +4129,15 @@
         <v>22.5</v>
       </c>
       <c r="AK44" s="7">
-        <f t="shared" ref="AK44" si="70">SUM(G44:J44)</f>
+        <f t="shared" ref="AK44" si="68">SUM(G44:J44)</f>
         <v>-64.3</v>
       </c>
       <c r="AL44" s="7">
-        <f t="shared" ref="AL44" si="71">SUM(K44:N44)</f>
+        <f t="shared" ref="AL44" si="69">SUM(K44:N44)</f>
         <v>4</v>
       </c>
       <c r="AM44" s="7">
-        <f t="shared" ref="AM44" si="72">SUM(O44:R44)</f>
+        <f t="shared" ref="AM44" si="70">SUM(O44:R44)</f>
         <v>1.9000000000000001</v>
       </c>
       <c r="AN44" s="7">
@@ -4138,39 +4176,39 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
-        <f t="shared" ref="F45" si="73">F43+F44</f>
+        <f t="shared" ref="F45" si="71">F43+F44</f>
         <v>137.40000000000009</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" ref="G45" si="74">G43+G44</f>
+        <f t="shared" ref="G45" si="72">G43+G44</f>
         <v>-151</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ref="H45:I45" si="75">H43+H44</f>
+        <f t="shared" ref="H45:I45" si="73">H43+H44</f>
         <v>-423.6</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>-433.2</v>
       </c>
       <c r="J45" s="8">
-        <f t="shared" ref="J45:N45" si="76">J43+J44</f>
+        <f t="shared" ref="J45:N45" si="74">J43+J44</f>
         <v>-433.4</v>
       </c>
       <c r="K45" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>-465.3</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M45" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>-126.9</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O45" s="8">
@@ -4178,102 +4216,102 @@
         <v>-149.70000000000019</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45:R45" si="77">P43+P44</f>
+        <f t="shared" ref="P45:R45" si="75">P43+P44</f>
         <v>0.5</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>-107.80000000000015</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v>-68.600000000000023</v>
       </c>
       <c r="S45" s="8">
-        <f t="shared" ref="S45:X45" si="78">S43+S44</f>
+        <f t="shared" ref="S45:X45" si="76">S43+S44</f>
         <v>-105.09999999999998</v>
       </c>
       <c r="T45" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>90.200000000000273</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>89.000000000000128</v>
       </c>
       <c r="V45" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>-23.200000000000141</v>
       </c>
       <c r="W45" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>-117.89999999999998</v>
       </c>
       <c r="X45" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="76"/>
         <v>-76.000000000000114</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
       <c r="AG45" s="8">
-        <f t="shared" ref="AG45:AH45" si="79">AG43+AG44</f>
+        <f t="shared" ref="AG45:AH45" si="77">AG43+AG44</f>
         <v>385.80000000000047</v>
       </c>
       <c r="AH45" s="8">
-        <f t="shared" si="79"/>
+        <f t="shared" si="77"/>
         <v>502.04000000000065</v>
       </c>
       <c r="AI45" s="8">
-        <f t="shared" ref="AI45" si="80">AI43+AI44</f>
+        <f t="shared" ref="AI45" si="78">AI43+AI44</f>
         <v>571.99999999999966</v>
       </c>
       <c r="AJ45" s="8">
-        <f t="shared" ref="AJ45" si="81">AJ43+AJ44</f>
+        <f t="shared" ref="AJ45" si="79">AJ43+AJ44</f>
         <v>415.50000000000017</v>
       </c>
       <c r="AK45" s="8">
-        <f t="shared" ref="AK45" si="82">AK43+AK44</f>
+        <f t="shared" ref="AK45" si="80">AK43+AK44</f>
         <v>-1441.1999999999996</v>
       </c>
       <c r="AL45" s="8">
-        <f t="shared" ref="AL45" si="83">AL43+AL44</f>
+        <f t="shared" ref="AL45" si="81">AL43+AL44</f>
         <v>-824.99999999999989</v>
       </c>
       <c r="AM45" s="8">
-        <f t="shared" ref="AM45" si="84">AM43+AM44</f>
-        <v>-386.80000000000018</v>
+        <f t="shared" ref="AM45" si="82">AM43+AM44</f>
+        <v>-325.60000000000036</v>
       </c>
       <c r="AN45" s="8">
-        <f t="shared" ref="AN45" si="85">AN43+AN44</f>
+        <f t="shared" ref="AN45" si="83">AN43+AN44</f>
         <v>-94.729999999999933</v>
       </c>
       <c r="AO45" s="8">
-        <f t="shared" ref="AO45" si="86">AO43+AO44</f>
+        <f t="shared" ref="AO45" si="84">AO43+AO44</f>
         <v>384.8636000000011</v>
       </c>
       <c r="AP45" s="8">
-        <f t="shared" ref="AP45" si="87">AP43+AP44</f>
+        <f t="shared" ref="AP45" si="85">AP43+AP44</f>
         <v>565.87211900000136</v>
       </c>
       <c r="AQ45" s="8">
-        <f t="shared" ref="AQ45" si="88">AQ43+AQ44</f>
+        <f t="shared" ref="AQ45" si="86">AQ43+AQ44</f>
         <v>767.09803980000106</v>
       </c>
       <c r="AR45" s="8">
-        <f t="shared" ref="AR45" si="89">AR43+AR44</f>
+        <f t="shared" ref="AR45" si="87">AR43+AR44</f>
         <v>990.27229357270198</v>
       </c>
       <c r="AS45" s="8">
-        <f t="shared" ref="AS45" si="90">AS43+AS44</f>
+        <f t="shared" ref="AS45" si="88">AS43+AS44</f>
         <v>1237.2597436030376</v>
       </c>
       <c r="AT45" s="8">
-        <f t="shared" ref="AT45" si="91">AT43+AT44</f>
+        <f t="shared" ref="AT45" si="89">AT43+AT44</f>
         <v>868.36719681531736</v>
       </c>
       <c r="AU45" s="8">
-        <f t="shared" ref="AU45" si="92">AU43+AU44</f>
+        <f t="shared" ref="AU45" si="90">AU43+AU44</f>
         <v>1004.929829260162</v>
       </c>
       <c r="AV45" s="7">
@@ -4281,223 +4319,223 @@
         <v>994.88053096756039</v>
       </c>
       <c r="AW45" s="7">
-        <f t="shared" ref="AW45:CA45" si="93">AV45*(1+$AX$50)</f>
+        <f t="shared" ref="AW45:CA45" si="91">AV45*(1+$AX$50)</f>
         <v>984.93172565788473</v>
       </c>
       <c r="AX45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>975.08240840130588</v>
       </c>
       <c r="AY45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>965.33158431729282</v>
       </c>
       <c r="AZ45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>955.67826847411993</v>
       </c>
       <c r="BA45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>946.12148578937877</v>
       </c>
       <c r="BB45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>936.660270931485</v>
       </c>
       <c r="BC45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>927.29366822217014</v>
       </c>
       <c r="BD45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>918.02073153994843</v>
       </c>
       <c r="BE45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>908.84052422454897</v>
       </c>
       <c r="BF45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>899.7521189823035</v>
       </c>
       <c r="BG45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>890.75459779248047</v>
       </c>
       <c r="BH45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>881.8470518145557</v>
       </c>
       <c r="BI45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>873.02858129641015</v>
       </c>
       <c r="BJ45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>864.29829548344605</v>
       </c>
       <c r="BK45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>855.6553125286116</v>
       </c>
       <c r="BL45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>847.09875940332552</v>
       </c>
       <c r="BM45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>838.6277718092922</v>
       </c>
       <c r="BN45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>830.24149409119923</v>
       </c>
       <c r="BO45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>821.93907915028728</v>
       </c>
       <c r="BP45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>813.71968835878442</v>
       </c>
       <c r="BQ45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>805.58249147519655</v>
       </c>
       <c r="BR45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>797.5266665604446</v>
       </c>
       <c r="BS45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>789.55139989484019</v>
       </c>
       <c r="BT45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>781.65588589589174</v>
       </c>
       <c r="BU45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>773.83932703693279</v>
       </c>
       <c r="BV45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>766.10093376656346</v>
       </c>
       <c r="BW45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>758.43992442889783</v>
       </c>
       <c r="BX45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>750.85552518460884</v>
       </c>
       <c r="BY45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>743.3469699327627</v>
       </c>
       <c r="BZ45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>735.91350023343512</v>
       </c>
       <c r="CA45" s="7">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v>728.55436523110075</v>
       </c>
       <c r="CB45" s="7">
-        <f t="shared" ref="CB45:CY45" si="94">CA45*(1+$AX$50)</f>
+        <f t="shared" ref="CB45:CY45" si="92">CA45*(1+$AX$50)</f>
         <v>721.2688215787897</v>
       </c>
       <c r="CC45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>714.05613336300178</v>
       </c>
       <c r="CD45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>706.91557202937179</v>
       </c>
       <c r="CE45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>699.84641630907811</v>
       </c>
       <c r="CF45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>692.84795214598728</v>
       </c>
       <c r="CG45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>685.91947262452743</v>
       </c>
       <c r="CH45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>679.06027789828215</v>
       </c>
       <c r="CI45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>672.26967511929934</v>
       </c>
       <c r="CJ45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>665.54697836810635</v>
       </c>
       <c r="CK45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>658.89150858442531</v>
       </c>
       <c r="CL45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>652.30259349858102</v>
       </c>
       <c r="CM45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>645.77956756359515</v>
       </c>
       <c r="CN45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>639.32177188795924</v>
       </c>
       <c r="CO45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>632.92855416907969</v>
       </c>
       <c r="CP45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>626.59926862738894</v>
       </c>
       <c r="CQ45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>620.33327594111506</v>
       </c>
       <c r="CR45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>614.12994318170388</v>
       </c>
       <c r="CS45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>607.98864374988682</v>
       </c>
       <c r="CT45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>601.90875731238793</v>
       </c>
       <c r="CU45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>595.88966973926404</v>
       </c>
       <c r="CV45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>589.93077304187136</v>
       </c>
       <c r="CW45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>584.03146531145262</v>
       </c>
       <c r="CX45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>578.19115065833807</v>
       </c>
       <c r="CY45" s="7">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>572.40923915175472</v>
       </c>
     </row>
@@ -4506,39 +4544,39 @@
         <v>37</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" ref="F46" si="95">F45/F47</f>
+        <f t="shared" ref="F46" si="93">F45/F47</f>
         <v>1.3230621088107857</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" ref="G46" si="96">G45/G47</f>
+        <f t="shared" ref="G46" si="94">G45/G47</f>
         <v>-1.448510719938606</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" ref="H46:I46" si="97">H45/H47</f>
+        <f t="shared" ref="H46:I46" si="95">H45/H47</f>
         <v>-4.0606217467575423</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>-4.0224708667997584</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" ref="J46:N46" si="98">J45/J47</f>
+        <f t="shared" ref="J46:N46" si="96">J45/J47</f>
         <v>-2.8455684899577829</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>-1.1629272876776695</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>-0.56060457927614393</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>-0.24720939746361989</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v>7.1425235099955811E-2</v>
       </c>
       <c r="O46" s="3">
@@ -4546,58 +4584,58 @@
         <v>-0.29016688957376324</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" ref="P46:X46" si="99">P45/P47</f>
+        <f t="shared" ref="P46:X46" si="97">P45/P47</f>
         <v>9.674529479258776E-4</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-0.10428698850521353</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-6.2871812073770836E-2</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-0.76494777830343152</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.59598142018011768</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.54733191068035281</v>
       </c>
       <c r="V46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-0.10612020858110027</v>
       </c>
       <c r="W46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-0.44758950841081041</v>
       </c>
       <c r="X46" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>-0.23633237038257893</v>
       </c>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AG46" s="1">
-        <f t="shared" ref="AG46" si="100">AG45/AG47</f>
+        <f t="shared" ref="AG46" si="98">AG45/AG47</f>
         <v>3.9020147261105316</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" ref="AH46" si="101">AH45/AH47</f>
+        <f t="shared" ref="AH46" si="99">AH45/AH47</f>
         <v>3.9146640051151742</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" ref="AI46" si="102">AI45/AI47</f>
+        <f t="shared" ref="AI46" si="100">AI45/AI47</f>
         <v>4.3964490219438126</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" ref="AJ46" si="103">AJ45/AJ47</f>
+        <f t="shared" ref="AJ46" si="101">AJ45/AJ47</f>
         <v>4.0016565220741214</v>
       </c>
       <c r="AK46" s="1">
@@ -4605,43 +4643,43 @@
         <v>-12.303069364828003</v>
       </c>
       <c r="AL46" s="1">
-        <f t="shared" ref="AL46:AM46" si="104">AL45/AL47</f>
+        <f t="shared" ref="AL46:AM46" si="102">AL45/AL47</f>
         <v>-1.7295633743466965</v>
       </c>
       <c r="AM46" s="1">
-        <f t="shared" si="104"/>
-        <v>-0.49000388278671364</v>
+        <f t="shared" si="102"/>
+        <v>-0.41247482997764756</v>
       </c>
       <c r="AN46" s="1">
-        <f t="shared" ref="AN46" si="105">AN45/AN47</f>
+        <f t="shared" ref="AN46" si="103">AN45/AN47</f>
         <v>-0.565578407359146</v>
       </c>
       <c r="AO46" s="1">
-        <f t="shared" ref="AO46" si="106">AO45/AO47</f>
+        <f t="shared" ref="AO46" si="104">AO45/AO47</f>
         <v>2.2977994504223394</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" ref="AP46" si="107">AP45/AP47</f>
+        <f t="shared" ref="AP46" si="105">AP45/AP47</f>
         <v>3.3784973274882946</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" ref="AQ46" si="108">AQ45/AQ47</f>
+        <f t="shared" ref="AQ46" si="106">AQ45/AQ47</f>
         <v>4.5799016957501077</v>
       </c>
       <c r="AR46" s="1">
-        <f t="shared" ref="AR46" si="109">AR45/AR47</f>
+        <f t="shared" ref="AR46" si="107">AR45/AR47</f>
         <v>5.9123469508153477</v>
       </c>
       <c r="AS46" s="1">
-        <f t="shared" ref="AS46" si="110">AS45/AS47</f>
+        <f t="shared" ref="AS46" si="108">AS45/AS47</f>
         <v>7.3869671199893574</v>
       </c>
       <c r="AT46" s="1">
-        <f t="shared" ref="AT46" si="111">AT45/AT47</f>
+        <f t="shared" ref="AT46" si="109">AT45/AT47</f>
         <v>5.1845216528843414</v>
       </c>
       <c r="AU46" s="1">
-        <f t="shared" ref="AU46" si="112">AU45/AU47</f>
+        <f t="shared" ref="AU46" si="110">AU45/AU47</f>
         <v>5.999858675611331</v>
       </c>
     </row>
@@ -4741,31 +4779,31 @@
         <v>167.49225000000001</v>
       </c>
       <c r="AO47" s="15">
-        <f t="shared" ref="AO47:AU47" si="113">AN47</f>
+        <f t="shared" ref="AO47:AU47" si="111">AN47</f>
         <v>167.49225000000001</v>
       </c>
       <c r="AP47" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>167.49225000000001</v>
       </c>
       <c r="AQ47" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>167.49225000000001</v>
       </c>
       <c r="AR47" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>167.49225000000001</v>
       </c>
       <c r="AS47" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>167.49225000000001</v>
       </c>
       <c r="AT47" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>167.49225000000001</v>
       </c>
       <c r="AU47" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>167.49225000000001</v>
       </c>
     </row>
@@ -4781,19 +4819,19 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="14">
-        <f t="shared" ref="J49" si="114">J34/F34-1</f>
+        <f t="shared" ref="J49" si="112">J34/F34-1</f>
         <v>-0.88775298749740972</v>
       </c>
       <c r="K49" s="14">
-        <f t="shared" ref="K49:M49" si="115">K34/G34-1</f>
+        <f t="shared" ref="K49:M49" si="113">K34/G34-1</f>
         <v>-0.84248539564524694</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>22.529100529100525</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="115"/>
+        <f t="shared" si="113"/>
         <v>5.3866108786610871</v>
       </c>
       <c r="N49" s="14">
@@ -4805,27 +4843,27 @@
         <v>4.2980445043830064</v>
       </c>
       <c r="P49" s="14">
-        <f t="shared" ref="P49:X49" si="116">P34/L34-1</f>
+        <f t="shared" ref="P49:X49" si="114">P34/L34-1</f>
         <v>1.6228918371936141</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>0.26886792452830188</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>-0.15430570965264134</v>
       </c>
       <c r="S49" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>0.21471299478172345</v>
       </c>
       <c r="T49" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>0.15560699588477367</v>
       </c>
       <c r="U49" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>0.45177612556794733</v>
       </c>
       <c r="V49" s="14">
@@ -4833,22 +4871,22 @@
         <v>0.11454233525078195</v>
       </c>
       <c r="W49" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>-3.1433361274098015E-3</v>
       </c>
       <c r="X49" s="14">
-        <f t="shared" si="116"/>
+        <f t="shared" si="114"/>
         <v>-0.23540321982342916</v>
       </c>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
       <c r="AH49" s="18">
-        <f t="shared" ref="AH49:AI49" si="117">AH34/AG34-1</f>
+        <f t="shared" ref="AH49:AI49" si="115">AH34/AG34-1</f>
         <v>0.56965295590098575</v>
       </c>
       <c r="AI49" s="18">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>7.5121474866318705E-2</v>
       </c>
       <c r="AJ49" s="18">
@@ -4860,43 +4898,43 @@
         <v>-0.77291171632242728</v>
       </c>
       <c r="AL49" s="18">
-        <f t="shared" ref="AL49:AM49" si="118">AL34/AK34-1</f>
+        <f t="shared" ref="AL49:AM49" si="116">AL34/AK34-1</f>
         <v>1.0346909207984547</v>
       </c>
       <c r="AM49" s="18">
-        <f t="shared" si="118"/>
-        <v>0.5230824004114083</v>
+        <f t="shared" si="116"/>
+        <v>0.54729221883777002</v>
       </c>
       <c r="AN49" s="18">
-        <f t="shared" ref="AN49:AU49" si="119">AN34/AM34-1</f>
-        <v>0.24996104098488425</v>
+        <f t="shared" ref="AN49:AU49" si="117">AN34/AM34-1</f>
+        <v>0.23040343610983305</v>
       </c>
       <c r="AO49" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AP49" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AQ49" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AR49" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AS49" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AT49" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AU49" s="18">
-        <f t="shared" si="119"/>
+        <f t="shared" si="117"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AW49" t="s">
@@ -4915,35 +4953,35 @@
         <v>0.30013124266077224</v>
       </c>
       <c r="G50" s="19">
-        <f t="shared" ref="G50:R50" si="120">G35/G34</f>
+        <f t="shared" ref="G50:T50" si="118">G35/G34</f>
         <v>0.28858204992033987</v>
       </c>
       <c r="H50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="I50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.22259414225941423</v>
       </c>
       <c r="J50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.14892307692307691</v>
       </c>
       <c r="K50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.14834794335805798</v>
       </c>
       <c r="L50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.22239712165504835</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.2312631027253669</v>
       </c>
       <c r="N50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.26482888111291292</v>
       </c>
       <c r="O50" s="19">
@@ -4955,15 +4993,21 @@
         <v>0.28180727023319613</v>
       </c>
       <c r="Q50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.27178851714167701</v>
       </c>
       <c r="R50" s="19">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.27247956403269757</v>
       </c>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
+      <c r="S50" s="19">
+        <f t="shared" si="118"/>
+        <v>0.2579631181894384</v>
+      </c>
+      <c r="T50" s="19">
+        <f t="shared" si="118"/>
+        <v>0.28421989761851768</v>
+      </c>
       <c r="U50" s="19"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
@@ -4972,63 +5016,63 @@
       <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
       <c r="AG50" s="19">
-        <f t="shared" ref="AG50:AU50" si="121">AG35/AG34</f>
+        <f t="shared" ref="AG50:AU50" si="119">AG35/AG34</f>
         <v>0.33669149232052903</v>
       </c>
       <c r="AH50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.31585434041313265</v>
       </c>
       <c r="AI50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.31317755640199241</v>
       </c>
       <c r="AJ50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.3105647961981356</v>
       </c>
       <c r="AK50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.25973921442369602</v>
       </c>
       <c r="AL50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.24039716760947824</v>
       </c>
       <c r="AM50" s="19">
-        <f t="shared" si="121"/>
-        <v>0.27315464131733425</v>
+        <f t="shared" si="119"/>
+        <v>0.26888070767500133</v>
       </c>
       <c r="AN50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.26827494493620907</v>
       </c>
       <c r="AO50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.26053624460151076</v>
       </c>
       <c r="AP50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.25302077600723638</v>
       </c>
       <c r="AQ50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.24572209977625842</v>
       </c>
       <c r="AR50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.2386339622827125</v>
       </c>
       <c r="AS50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.2317502902937881</v>
       </c>
       <c r="AT50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.22506518576608267</v>
       </c>
       <c r="AU50" s="19">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.21857292079206103</v>
       </c>
       <c r="AW50" t="s">
@@ -5047,39 +5091,39 @@
         <v>0.50456100342075261</v>
       </c>
       <c r="G51" s="19">
-        <f t="shared" ref="G51:R51" si="122">(G30-G35)/G30</f>
+        <f t="shared" ref="G51:T51" si="120">(G30-G35)/G30</f>
         <v>0.52165492957746484</v>
       </c>
       <c r="H51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="I51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.57710651828298887</v>
       </c>
       <c r="J51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.69863013698630128</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.68345323741007191</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.57553648068669527</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.58480357562926377</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.53450345034503455</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.57232987832356919</v>
       </c>
       <c r="P51" s="19">
@@ -5087,15 +5131,21 @@
         <v>0.49508448540706607</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.51732991014120666</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.51897381079636551</v>
       </c>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
+      <c r="S51" s="19">
+        <f t="shared" si="120"/>
+        <v>0.53903763340198474</v>
+      </c>
+      <c r="T51" s="19">
+        <f t="shared" si="120"/>
+        <v>0.48514984545088025</v>
+      </c>
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
@@ -5104,23 +5154,23 @@
       <c r="Z51" s="19"/>
       <c r="AA51" s="19"/>
       <c r="AG51" s="19">
-        <f t="shared" ref="AG51:AK51" si="123">(AG30-AG35)/AG30</f>
+        <f t="shared" ref="AG51:AK51" si="121">(AG30-AG35)/AG30</f>
         <v>0.4683809895579194</v>
       </c>
       <c r="AH51" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>0.50323579501470816</v>
       </c>
       <c r="AI51" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>0.49477104874446082</v>
       </c>
       <c r="AJ51" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>0.48532396328718996</v>
       </c>
       <c r="AK51" s="19">
-        <f t="shared" si="123"/>
+        <f t="shared" si="121"/>
         <v>0.54683330992838075</v>
       </c>
       <c r="AL51" s="19">
@@ -5128,39 +5178,39 @@
         <v>0.56412279443408408</v>
       </c>
       <c r="AM51" s="19">
-        <f t="shared" ref="AM51:AU51" si="124">(AM30-AM35)/AM30</f>
+        <f t="shared" ref="AM51:AU51" si="122">(AM30-AM35)/AM30</f>
         <v>0.52225856273280624</v>
       </c>
       <c r="AN51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AR51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AS51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AT51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AU51" s="19" t="e">
-        <f t="shared" si="124"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AW51" s="4" t="s">
@@ -5180,55 +5230,61 @@
         <v>0.16916488222698078</v>
       </c>
       <c r="G52" s="19">
-        <f t="shared" ref="G52:R52" si="125">G41/G34</f>
+        <f t="shared" ref="G52:T52" si="123">G41/G34</f>
         <v>-1.2214551248008496E-2</v>
       </c>
       <c r="H52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-18.523809523809522</v>
       </c>
       <c r="I52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-2.9707112970711296</v>
       </c>
       <c r="J52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-2.1495384615384614</v>
       </c>
       <c r="K52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-2.0701281186783547</v>
       </c>
       <c r="L52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-0.41960872498313462</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-5.2541928721174039E-2</v>
       </c>
       <c r="N52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>0.10207390970384886</v>
       </c>
       <c r="O52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-8.6292478045055604E-2</v>
       </c>
       <c r="P52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="Q52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>-1.8277571251549114E-2</v>
       </c>
       <c r="R52" s="19">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>1.3523059844585707E-2</v>
       </c>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
+      <c r="S52" s="19">
+        <f t="shared" si="123"/>
+        <v>-1.5088013411567453E-2</v>
+      </c>
+      <c r="T52" s="19">
+        <f t="shared" si="123"/>
+        <v>0.13517323243564083</v>
+      </c>
       <c r="U52" s="19"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
@@ -5237,63 +5293,63 @@
       <c r="Z52" s="19"/>
       <c r="AA52" s="19"/>
       <c r="AG52" s="19">
-        <f t="shared" ref="AG52:AU52" si="126">AG41/AG34</f>
+        <f t="shared" ref="AG52:AU52" si="124">AG41/AG34</f>
         <v>0.1651781575450417</v>
       </c>
       <c r="AH52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.14711649774375707</v>
       </c>
       <c r="AI52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.15527029006738932</v>
       </c>
       <c r="AJ52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.12535185523670264</v>
       </c>
       <c r="AK52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>-0.85793625241468086</v>
       </c>
       <c r="AL52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>-0.16381185964634673</v>
       </c>
       <c r="AM52" s="19">
         <f>AM41/AM34</f>
-        <v>-1.3583709937146173E-2</v>
+        <v>2.2754001124915984E-3</v>
       </c>
       <c r="AN52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>5.083946307609194E-2</v>
       </c>
       <c r="AO52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>7.8219093948897186E-2</v>
       </c>
       <c r="AP52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.10480892777729441</v>
       </c>
       <c r="AQ52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.13063174716833392</v>
       </c>
       <c r="AR52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.15570967753847825</v>
       </c>
       <c r="AS52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.18006420607102203</v>
       </c>
       <c r="AT52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.20371620012666564</v>
       </c>
       <c r="AU52" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>0.22668592512301194</v>
       </c>
       <c r="AW52" t="s">
@@ -5335,31 +5391,31 @@
         <v>-9.0866633016087883E-3</v>
       </c>
       <c r="AF53" s="20">
-        <f t="shared" ref="AF53:AL53" si="127">AF26/AE26-1</f>
+        <f t="shared" ref="AF53:AL53" si="125">AF26/AE26-1</f>
         <v>2.7998191966112973E-2</v>
       </c>
       <c r="AG53" s="20">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>2.2576932497140545E-2</v>
       </c>
       <c r="AH53" s="20">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>-2.6643990531081463E-2</v>
       </c>
       <c r="AI53" s="20">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>7.3574553749574445E-2</v>
       </c>
       <c r="AJ53" s="20">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>-4.7763078683775273E-2</v>
       </c>
       <c r="AK53" s="20">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>-0.81422798616458314</v>
       </c>
       <c r="AL53" s="20">
-        <f t="shared" si="127"/>
+        <f t="shared" si="125"/>
         <v>1.1344394528426767</v>
       </c>
       <c r="AM53" s="19"/>
@@ -5405,23 +5461,23 @@
         <v>0.18013517081637956</v>
       </c>
       <c r="AH54" s="20">
-        <f t="shared" ref="AH54:AL54" si="128">AH30/AH26</f>
+        <f t="shared" ref="AH54:AL54" si="126">AH30/AH26</f>
         <v>0.29163212217430867</v>
       </c>
       <c r="AI54" s="20">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.28472561072802366</v>
       </c>
       <c r="AJ54" s="20">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.29161364111956389</v>
       </c>
       <c r="AK54" s="20">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.33859733877041753</v>
       </c>
       <c r="AL54" s="20">
-        <f t="shared" si="128"/>
+        <f t="shared" si="126"/>
         <v>0.31058737146668441</v>
       </c>
       <c r="AM54" s="20"/>
@@ -5552,43 +5608,43 @@
         <v>747.72</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" ref="G57:O57" si="129">G56*G47</f>
+        <f t="shared" ref="G57:O57" si="127">G56*G47</f>
         <v>329.41420000000005</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>447.52851000000004</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>507.24344999999994</v>
       </c>
       <c r="J57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>322.89083999999997</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>4085.1333100000002</v>
       </c>
       <c r="L57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>27247.83308</v>
       </c>
       <c r="M57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>19537.339800000002</v>
       </c>
       <c r="N57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>13976.012799999999</v>
       </c>
       <c r="O57" s="16">
-        <f t="shared" si="129"/>
+        <f t="shared" si="127"/>
         <v>12712.0224</v>
       </c>
       <c r="P57" s="16">
-        <f t="shared" ref="P57" si="130">P56*P47</f>
+        <f t="shared" ref="P57" si="128">P56*P47</f>
         <v>7002.9245500000006</v>
       </c>
       <c r="Q57" s="16">
@@ -5723,11 +5779,11 @@
         <v>56</v>
       </c>
       <c r="K60" s="8">
-        <f t="shared" ref="K60" si="131">K61-K74</f>
+        <f t="shared" ref="K60" si="129">K61-K74</f>
         <v>-4617.2999999999993</v>
       </c>
       <c r="L60" s="8">
-        <f t="shared" ref="L60" si="132">L61-L74</f>
+        <f t="shared" ref="L60" si="130">L61-L74</f>
         <v>-3660.7999999999993</v>
       </c>
       <c r="M60" s="8">
@@ -5751,31 +5807,31 @@
         <v>-4619.5</v>
       </c>
       <c r="R60" s="8">
-        <f t="shared" ref="R60:X60" si="133">R61-R74</f>
+        <f t="shared" ref="R60:W60" si="131">R61-R74</f>
         <v>0</v>
       </c>
       <c r="S60" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="131"/>
         <v>-4363.3</v>
       </c>
       <c r="T60" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="131"/>
         <v>-4357.4000000000005</v>
       </c>
       <c r="U60" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="V60" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="W60" s="8">
-        <f t="shared" si="133"/>
-        <v>0</v>
+        <f t="shared" si="131"/>
+        <v>-3882.3</v>
       </c>
       <c r="X60" s="8">
-        <f t="shared" si="133"/>
+        <f>X61-X74</f>
         <v>-3517.2</v>
       </c>
       <c r="Y60" s="8"/>
@@ -5786,35 +5842,35 @@
         <v>0</v>
       </c>
       <c r="AN60" s="7">
-        <f t="shared" ref="AN60:AU60" si="134">AM60+AN45</f>
+        <f t="shared" ref="AN60:AU60" si="132">AM60+AN45</f>
         <v>-94.729999999999933</v>
       </c>
       <c r="AO60" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>290.13360000000114</v>
       </c>
       <c r="AP60" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>856.0057190000025</v>
       </c>
       <c r="AQ60" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>1623.1037588000036</v>
       </c>
       <c r="AR60" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>2613.3760523727055</v>
       </c>
       <c r="AS60" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>3850.6357959757433</v>
       </c>
       <c r="AT60" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>4719.0029927910609</v>
       </c>
       <c r="AU60" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="132"/>
         <v>5723.9328220512234</v>
       </c>
     </row>
@@ -5869,7 +5925,10 @@
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
+      <c r="W61" s="8">
+        <f>624.2+36.5</f>
+        <v>660.7</v>
+      </c>
       <c r="X61" s="8">
         <f>770+48.3</f>
         <v>818.3</v>
@@ -5920,7 +5979,9 @@
       </c>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
+      <c r="W62" s="8">
+        <v>140.4</v>
+      </c>
       <c r="X62" s="8">
         <v>156</v>
       </c>
@@ -5970,7 +6031,9 @@
       </c>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
+      <c r="W63" s="8">
+        <v>111.9</v>
+      </c>
       <c r="X63" s="8">
         <v>100.9</v>
       </c>
@@ -6021,7 +6084,9 @@
       </c>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
+      <c r="W64" s="8">
+        <v>1504.3</v>
+      </c>
       <c r="X64" s="8">
         <v>1478.9</v>
       </c>
@@ -6072,7 +6137,9 @@
       </c>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
+      <c r="W65" s="8">
+        <v>3459.5</v>
+      </c>
       <c r="X65" s="8">
         <v>3371.7</v>
       </c>
@@ -6131,7 +6198,10 @@
       </c>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
+      <c r="W66" s="8">
+        <f>145.8+2322.1</f>
+        <v>2467.9</v>
+      </c>
       <c r="X66" s="8">
         <f>145.5+2325.5</f>
         <v>2471</v>
@@ -6182,7 +6252,9 @@
       </c>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
+      <c r="W67" s="8">
+        <v>0</v>
+      </c>
       <c r="X67" s="8">
         <v>0</v>
       </c>
@@ -6232,7 +6304,9 @@
       </c>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
+      <c r="W68" s="8">
+        <v>194</v>
+      </c>
       <c r="X68" s="8">
         <v>197.6</v>
       </c>
@@ -6253,59 +6327,59 @@
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8">
-        <f t="shared" ref="K69" si="135">SUM(K61:K68)</f>
+        <f t="shared" ref="K69" si="133">SUM(K61:K68)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" ref="L69" si="136">SUM(L61:L68)</f>
+        <f t="shared" ref="L69" si="134">SUM(L61:L68)</f>
         <v>11329.100000000002</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" ref="M69:T69" si="137">SUM(M61:M68)</f>
+        <f t="shared" ref="M69:T69" si="135">SUM(M61:M68)</f>
         <v>11057.499999999998</v>
       </c>
       <c r="N69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>10821.5</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>10345.4</v>
       </c>
       <c r="P69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>9818.2999999999993</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>9206.1</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>8847.6</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="135"/>
         <v>8669.7000000000007</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" ref="U69" si="138">SUM(U61:U68)</f>
+        <f t="shared" ref="U69" si="136">SUM(U61:U68)</f>
         <v>0</v>
       </c>
       <c r="V69" s="8">
-        <f t="shared" ref="V69" si="139">SUM(V61:V68)</f>
+        <f t="shared" ref="V69" si="137">SUM(V61:V68)</f>
         <v>0</v>
       </c>
       <c r="W69" s="8">
-        <f t="shared" ref="W69" si="140">SUM(W61:W68)</f>
-        <v>0</v>
+        <f t="shared" ref="W69" si="138">SUM(W61:W68)</f>
+        <v>8538.7000000000007</v>
       </c>
       <c r="X69" s="8">
-        <f t="shared" ref="X69" si="141">SUM(X61:X68)</f>
+        <f t="shared" ref="X69" si="139">SUM(X61:X68)</f>
         <v>8594.4</v>
       </c>
       <c r="Y69" s="8"/>
@@ -6381,7 +6455,9 @@
       </c>
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
+      <c r="W71" s="8">
+        <v>250.2</v>
+      </c>
       <c r="X71" s="8">
         <v>301.10000000000002</v>
       </c>
@@ -6431,7 +6507,9 @@
       </c>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
+      <c r="W72" s="8">
+        <v>319.5</v>
+      </c>
       <c r="X72" s="8">
         <v>311.39999999999998</v>
       </c>
@@ -6481,7 +6559,9 @@
       </c>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
+      <c r="W73" s="8">
+        <v>394.2</v>
+      </c>
       <c r="X73" s="8">
         <v>399.1</v>
       </c>
@@ -6540,7 +6620,10 @@
       </c>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
+      <c r="W74" s="8">
+        <f>25+4518</f>
+        <v>4543</v>
+      </c>
       <c r="X74" s="8">
         <f>123.1+4212.4</f>
         <v>4335.5</v>
@@ -6600,7 +6683,10 @@
       </c>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
+      <c r="W75" s="8">
+        <f>48+5.2</f>
+        <v>53.2</v>
+      </c>
       <c r="X75" s="8">
         <f>46.3+512.2</f>
         <v>558.5</v>
@@ -6660,7 +6746,10 @@
       </c>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
+      <c r="W76" s="8">
+        <f>3885+508.9</f>
+        <v>4393.8999999999996</v>
+      </c>
       <c r="X76" s="8">
         <f>3773.7+4.3</f>
         <v>3778</v>
@@ -6711,7 +6800,9 @@
       </c>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
+      <c r="W77" s="8">
+        <v>481.1</v>
+      </c>
       <c r="X77" s="8">
         <v>475.5</v>
       </c>
@@ -6761,7 +6852,9 @@
       </c>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
+      <c r="W78" s="8">
+        <v>32.799999999999997</v>
+      </c>
       <c r="X78" s="8">
         <v>33</v>
       </c>
@@ -6812,7 +6905,9 @@
       </c>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
+      <c r="W79" s="8">
+        <v>101.8</v>
+      </c>
       <c r="X79" s="8">
         <v>99.2</v>
       </c>
@@ -6862,7 +6957,9 @@
       </c>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
+      <c r="W80" s="8">
+        <v>-2031</v>
+      </c>
       <c r="X80" s="8">
         <v>-1696.6</v>
       </c>
@@ -6870,7 +6967,7 @@
       <c r="Z80" s="8"/>
       <c r="AA80" s="8"/>
     </row>
-    <row r="81" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>55</v>
       </c>
@@ -6883,15 +6980,15 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8">
-        <f t="shared" ref="K81" si="142">SUM(K71:K80)</f>
+        <f t="shared" ref="K81" si="140">SUM(K71:K80)</f>
         <v>10488.699999999999</v>
       </c>
       <c r="L81" s="8">
-        <f t="shared" ref="L81" si="143">SUM(L71:L80)</f>
+        <f t="shared" ref="L81" si="141">SUM(L71:L80)</f>
         <v>11329.1</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" ref="M81" si="144">SUM(M71:M80)</f>
+        <f t="shared" ref="M81" si="142">SUM(M71:M80)</f>
         <v>11057.499999999998</v>
       </c>
       <c r="N81" s="8">
@@ -6920,26 +7017,26 @@
         <v>8669.6999999999989</v>
       </c>
       <c r="U81" s="8">
-        <f t="shared" ref="U81:X81" si="145">SUM(U71:U80)</f>
+        <f t="shared" ref="U81:X81" si="143">SUM(U71:U80)</f>
         <v>0</v>
       </c>
       <c r="V81" s="8">
-        <f t="shared" si="145"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="W81" s="8">
-        <f t="shared" si="145"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>8538.6999999999989</v>
       </c>
       <c r="X81" s="8">
-        <f t="shared" si="145"/>
+        <f t="shared" si="143"/>
         <v>8594.7000000000007</v>
       </c>
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
       <c r="AA81" s="8"/>
     </row>
-    <row r="83" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7" t="s">
         <v>66</v>
       </c>
@@ -6952,37 +7049,55 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8">
-        <f t="shared" ref="K83:P83" si="146">K45</f>
+        <f t="shared" ref="K83:P83" si="144">K45</f>
         <v>-465.3</v>
       </c>
       <c r="L83" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="144"/>
         <v>-269.49999999999994</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="144"/>
         <v>-126.9</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="144"/>
         <v>36.69999999999969</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="144"/>
         <v>-149.70000000000019</v>
       </c>
       <c r="P83" s="8">
-        <f t="shared" si="146"/>
+        <f t="shared" si="144"/>
         <v>0.5</v>
       </c>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="8"/>
+      <c r="S83" s="21">
+        <f>+S45</f>
+        <v>-105.09999999999998</v>
+      </c>
+      <c r="T83" s="21">
+        <f>+T45</f>
+        <v>90.200000000000273</v>
+      </c>
+      <c r="U83" s="21">
+        <f>+U45</f>
+        <v>89.000000000000128</v>
+      </c>
+      <c r="V83" s="21">
+        <f>+V45</f>
+        <v>-23.200000000000141</v>
+      </c>
+      <c r="W83" s="21">
+        <f>+W45</f>
+        <v>-117.89999999999998</v>
+      </c>
+      <c r="X83" s="21">
+        <f>+X45</f>
+        <v>-76.000000000000114</v>
+      </c>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
       <c r="AA83" s="8"/>
@@ -6998,8 +7113,16 @@
         <f>AL45</f>
         <v>-824.99999999999989</v>
       </c>
-    </row>
-    <row r="84" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM83" s="7">
+        <f>AM45</f>
+        <v>-325.60000000000036</v>
+      </c>
+      <c r="AN83" s="22">
+        <f>AN45</f>
+        <v>-94.729999999999933</v>
+      </c>
+    </row>
+    <row r="84" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
         <v>67</v>
       </c>
@@ -7029,12 +7152,28 @@
       </c>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
+      <c r="S84" s="8">
+        <v>-235.5</v>
+      </c>
+      <c r="T84" s="8">
+        <f>-226.9-S84</f>
+        <v>8.5999999999999943</v>
+      </c>
+      <c r="U84" s="8">
+        <f>-214.6-T84-S84</f>
+        <v>12.300000000000011</v>
+      </c>
+      <c r="V84" s="8">
+        <f>+AN84-U84-T84-S84</f>
+        <v>-182</v>
+      </c>
+      <c r="W84" s="21">
+        <v>-163.5</v>
+      </c>
+      <c r="X84" s="21">
+        <f>-196.3-W84</f>
+        <v>-32.800000000000011</v>
+      </c>
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
       <c r="AA84" s="8"/>
@@ -7047,8 +7186,14 @@
       <c r="AL84" s="7">
         <v>-1269.8</v>
       </c>
-    </row>
-    <row r="85" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM84" s="7">
+        <v>-973.6</v>
+      </c>
+      <c r="AN84" s="22">
+        <v>-396.6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7" t="s">
         <v>68</v>
       </c>
@@ -7078,12 +7223,28 @@
       </c>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
+      <c r="S85" s="8">
+        <v>93.6</v>
+      </c>
+      <c r="T85" s="8">
+        <f>190.4-S85</f>
+        <v>96.800000000000011</v>
+      </c>
+      <c r="U85" s="8">
+        <f>279.1-T85-S85</f>
+        <v>88.700000000000017</v>
+      </c>
+      <c r="V85" s="8">
+        <f>+AN85-U85-T85-S85</f>
+        <v>85.899999999999949</v>
+      </c>
+      <c r="W85" s="21">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="X85" s="21">
+        <f>160.4-W85</f>
+        <v>78.800000000000011</v>
+      </c>
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
       <c r="AA85" s="8"/>
@@ -7096,8 +7257,14 @@
       <c r="AL85" s="7">
         <v>425</v>
       </c>
-    </row>
-    <row r="86" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM85" s="7">
+        <v>396</v>
+      </c>
+      <c r="AN85" s="22">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
         <v>45</v>
       </c>
@@ -7127,12 +7294,28 @@
       </c>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
+      <c r="S86" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="T86" s="8">
+        <f>0.4-S86</f>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="U86" s="8">
+        <f>0.8-T86-S86</f>
+        <v>0.4</v>
+      </c>
+      <c r="V86" s="8">
+        <f t="shared" ref="V86:V100" si="145">+AN86-U86-T86-S86</f>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="W86" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="X86" s="21">
+        <f>0.7-W86</f>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8"/>
@@ -7145,8 +7328,14 @@
       <c r="AL86" s="7">
         <v>-7.6</v>
       </c>
-    </row>
-    <row r="87" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM86" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="AN86" s="22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
         <v>119</v>
       </c>
@@ -7170,12 +7359,21 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
+      <c r="S87" s="8">
+        <v>0</v>
+      </c>
+      <c r="T87" s="8">
+        <v>0</v>
+      </c>
+      <c r="U87" s="8">
+        <v>0</v>
+      </c>
+      <c r="V87" s="8">
+        <f t="shared" si="145"/>
+        <v>106.9</v>
+      </c>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
@@ -7188,8 +7386,14 @@
       <c r="AL87" s="7">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="88" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM87" s="7">
+        <v>133.1</v>
+      </c>
+      <c r="AN87" s="22">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
         <v>70</v>
       </c>
@@ -7218,12 +7422,28 @@
       </c>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
+      <c r="S88" s="8">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="T88" s="8">
+        <f>-86.7-S88</f>
+        <v>-21.600000000000009</v>
+      </c>
+      <c r="U88" s="8">
+        <f>-97.5-T88-S88</f>
+        <v>-10.799999999999997</v>
+      </c>
+      <c r="V88" s="8">
+        <f t="shared" si="145"/>
+        <v>-45.3</v>
+      </c>
+      <c r="W88" s="21">
+        <v>-5.8</v>
+      </c>
+      <c r="X88" s="21">
+        <f>-91.1-W88</f>
+        <v>-85.3</v>
+      </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
@@ -7236,8 +7456,14 @@
       <c r="AL88" s="7">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="89" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM88" s="7">
+        <v>92.8</v>
+      </c>
+      <c r="AN88" s="22">
+        <v>-142.80000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7" t="s">
         <v>71</v>
       </c>
@@ -7266,12 +7492,28 @@
       </c>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
+      <c r="S89" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T89" s="8">
+        <f>10.1-S89</f>
+        <v>5.5</v>
+      </c>
+      <c r="U89" s="8">
+        <f>10.8-T89-S89</f>
+        <v>0.70000000000000107</v>
+      </c>
+      <c r="V89" s="8">
+        <f t="shared" si="145"/>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="W89" s="21">
+        <v>1</v>
+      </c>
+      <c r="X89" s="21">
+        <f>0.3-W89</f>
+        <v>-0.7</v>
+      </c>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
@@ -7285,8 +7527,14 @@
         <f>-5.5-0.9</f>
         <v>-6.4</v>
       </c>
-    </row>
-    <row r="90" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM89" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="AN89" s="7">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
         <v>80</v>
       </c>
@@ -7316,12 +7564,28 @@
       </c>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
+      <c r="S90" s="8">
+        <v>-15.2</v>
+      </c>
+      <c r="T90" s="8">
+        <f>-29.2-S90</f>
+        <v>-14</v>
+      </c>
+      <c r="U90" s="8">
+        <f>-42.7-T90-S90</f>
+        <v>-13.500000000000004</v>
+      </c>
+      <c r="V90" s="8">
+        <f t="shared" si="145"/>
+        <v>-12.899999999999995</v>
+      </c>
+      <c r="W90" s="21">
+        <v>-11.2</v>
+      </c>
+      <c r="X90" s="21">
+        <f>-21.2-W90</f>
+        <v>-10</v>
+      </c>
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
@@ -7334,8 +7598,14 @@
       <c r="AL90" s="7">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="91" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM90" s="7">
+        <v>-65.400000000000006</v>
+      </c>
+      <c r="AN90" s="7">
+        <v>-55.6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>79</v>
       </c>
@@ -7365,12 +7635,28 @@
       </c>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="8"/>
+      <c r="S91" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T91" s="8">
+        <f>4.7-S91</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="U91" s="8">
+        <f>7.1-T91-S91</f>
+        <v>2.3999999999999995</v>
+      </c>
+      <c r="V91" s="8">
+        <f t="shared" si="145"/>
+        <v>2.5</v>
+      </c>
+      <c r="W91" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="X91" s="21">
+        <f>4.5-W91</f>
+        <v>2</v>
+      </c>
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
@@ -7385,8 +7671,14 @@
         <f>116.2+23.3</f>
         <v>139.5</v>
       </c>
-    </row>
-    <row r="92" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM91" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="AN91" s="7">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
         <v>123</v>
       </c>
@@ -7415,13 +7707,13 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
     </row>
-    <row r="93" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>72</v>
       </c>
@@ -7450,12 +7742,28 @@
       </c>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="8"/>
+      <c r="S93" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="T93" s="8">
+        <f>33.7-S93</f>
+        <v>7.8000000000000043</v>
+      </c>
+      <c r="U93" s="8">
+        <f>40.9-T93-S93</f>
+        <v>7.1999999999999957</v>
+      </c>
+      <c r="V93" s="8">
+        <f t="shared" si="145"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="W93" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="X93" s="21">
+        <f>8.8-W93</f>
+        <v>4.5000000000000009</v>
+      </c>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
@@ -7468,8 +7776,14 @@
       <c r="AL93" s="7">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="94" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM93" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="AN93" s="7">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>73</v>
       </c>
@@ -7498,12 +7812,23 @@
       </c>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
+      <c r="S94" s="8">
+        <v>-15.5</v>
+      </c>
+      <c r="T94" s="8">
+        <f>-15.5-S94</f>
+        <v>0</v>
+      </c>
+      <c r="U94" s="8">
+        <f>-15.5-T94-S94</f>
+        <v>0</v>
+      </c>
+      <c r="V94" s="8">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
@@ -7517,8 +7842,14 @@
       <c r="AL94" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="95" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM94" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="7">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
         <v>74</v>
       </c>
@@ -7547,12 +7878,28 @@
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="8"/>
+      <c r="S95" s="8">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="T95" s="8">
+        <f>0.1-S95</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="U95" s="8">
+        <f>-0.9-T95-S95</f>
+        <v>-1</v>
+      </c>
+      <c r="V95" s="8">
+        <f t="shared" si="145"/>
+        <v>0.7</v>
+      </c>
+      <c r="W95" s="21">
+        <v>-2.4</v>
+      </c>
+      <c r="X95" s="21">
+        <f>-1.2-W95</f>
+        <v>1.2</v>
+      </c>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
@@ -7565,8 +7912,14 @@
       <c r="AL95" s="7">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="96" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM95" s="7">
+        <v>7.6</v>
+      </c>
+      <c r="AN95" s="7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
         <v>75</v>
       </c>
@@ -7595,12 +7948,28 @@
       </c>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="8"/>
+      <c r="S96" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="T96" s="8">
+        <f>8.3-S96</f>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="U96" s="8">
+        <f>16-T96-S96</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="V96" s="8">
+        <f t="shared" si="145"/>
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="W96" s="21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X96" s="21">
+        <f>15.6-W96</f>
+        <v>11</v>
+      </c>
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
@@ -7613,8 +7982,14 @@
       <c r="AL96" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM96" s="7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AN96" s="7">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
         <v>76</v>
       </c>
@@ -7643,12 +8018,28 @@
       </c>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="8"/>
+      <c r="S97" s="8">
+        <v>-9.6</v>
+      </c>
+      <c r="T97" s="8">
+        <f>-18.6-S97</f>
+        <v>-9.0000000000000018</v>
+      </c>
+      <c r="U97" s="8">
+        <f>-27-T97-S97</f>
+        <v>-8.4</v>
+      </c>
+      <c r="V97" s="8">
+        <f t="shared" si="145"/>
+        <v>-8.0000000000000018</v>
+      </c>
+      <c r="W97" s="21">
+        <v>-11.7</v>
+      </c>
+      <c r="X97" s="21">
+        <f>-22.4-W97</f>
+        <v>-10.7</v>
+      </c>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
@@ -7661,8 +8052,14 @@
       <c r="AL97" s="7">
         <v>-24.9</v>
       </c>
-    </row>
-    <row r="98" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM97" s="7">
+        <v>-26.6</v>
+      </c>
+      <c r="AN97" s="7">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="98" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
         <v>77</v>
       </c>
@@ -7691,12 +8088,28 @@
       </c>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="8"/>
+      <c r="S98" s="8">
+        <v>-38.6</v>
+      </c>
+      <c r="T98" s="8">
+        <f>-70.4-S98</f>
+        <v>-31.800000000000004</v>
+      </c>
+      <c r="U98" s="8">
+        <f>-97.7-T98-S98</f>
+        <v>-27.300000000000004</v>
+      </c>
+      <c r="V98" s="8">
+        <f t="shared" si="145"/>
+        <v>-26.39999999999997</v>
+      </c>
+      <c r="W98" s="21">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="X98" s="21">
+        <f>-33.8-W98</f>
+        <v>-17.399999999999999</v>
+      </c>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
@@ -7709,10 +8122,16 @@
       <c r="AL98" s="7">
         <v>-133.69999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM98" s="7">
+        <v>-170.1</v>
+      </c>
+      <c r="AN98" s="7">
+        <v>-124.1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -7722,51 +8141,47 @@
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
-      <c r="K99" s="8">
-        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
-        <v>56.70000000000001</v>
-      </c>
-      <c r="L99" s="8">
-        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
-        <v>56.70000000000001</v>
-      </c>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
-      <c r="O99" s="8">
-        <f>63.6-30.6-80.4-32.8+8.2</f>
-        <v>-72</v>
-      </c>
-      <c r="P99" s="8">
-        <f>46.4-26.3-58.4-82.7+14.9-O99</f>
-        <v>-34.099999999999994</v>
-      </c>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="8"/>
+      <c r="S99" s="8">
+        <v>116.6</v>
+      </c>
+      <c r="T99" s="8">
+        <f>115.4+0.8-S99</f>
+        <v>-0.39999999999999147</v>
+      </c>
+      <c r="U99" s="8">
+        <f>99.3-T99-S99</f>
+        <v>-16.900000000000006</v>
+      </c>
+      <c r="V99" s="8">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="W99" s="21"/>
+      <c r="X99" s="21"/>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
-      <c r="AJ99" s="7">
-        <f>0.7+30.9+104.8-0.6-7.5+1.7</f>
-        <v>130</v>
-      </c>
-      <c r="AK99" s="7">
-        <f>159.3+76.8-176.4+102.5+43.2</f>
-        <v>205.40000000000003</v>
-      </c>
       <c r="AL99" s="7">
-        <f>-82.7-5.8+63.8+164.3-29.9</f>
-        <v>109.70000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AM99" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN99" s="7">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -7777,369 +8192,1180 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8">
-        <f>SUM(K84:K99)</f>
-        <v>-312.90000000000003</v>
+        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
+        <v>56.70000000000001</v>
       </c>
       <c r="L100" s="8">
-        <f>SUM(L84:L99)</f>
-        <v>-165.10000000000002</v>
+        <f>-0.2-2.7-13-11.9+96.4-11.9</f>
+        <v>56.70000000000001</v>
       </c>
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8">
-        <f>SUM(O84:O99)</f>
-        <v>-295</v>
+        <f>63.6-30.6-80.4-32.8+8.2</f>
+        <v>-72</v>
       </c>
       <c r="P100" s="8">
-        <f>SUM(P84:P99)</f>
-        <v>-76.600000000000023</v>
+        <f>46.4-26.3-58.4-82.7+14.9-O100</f>
+        <v>-34.099999999999994</v>
       </c>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8">
-        <v>-189.9</v>
+        <f>0.4+67-28.5-65.2-21-12</f>
+        <v>-59.3</v>
       </c>
       <c r="T100" s="8">
-        <f>-203.3-S100</f>
-        <v>-13.400000000000006</v>
-      </c>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="8"/>
+        <f>33.4-29.8-25.5-76.5-21.5-S100</f>
+        <v>-60.600000000000009</v>
+      </c>
+      <c r="U100" s="8">
+        <f>1.3+22.3-12.9-70.5-29.9-5.8-T100-S100</f>
+        <v>24.40000000000002</v>
+      </c>
+      <c r="V100" s="8">
+        <f t="shared" si="145"/>
+        <v>-10.400000000000006</v>
+      </c>
+      <c r="W100" s="21">
+        <f>58.8-23.7-48.1-62.5+3+0.7</f>
+        <v>-71.8</v>
+      </c>
+      <c r="X100" s="21">
+        <f>1.1+41.2-12.7-8.6-65.7-2.5-W100</f>
+        <v>24.6</v>
+      </c>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
       <c r="AJ100" s="7">
-        <f t="shared" ref="AJ100:AK100" si="147">SUM(AJ84:AJ99)</f>
+        <f>0.7+30.9+104.8-0.6-7.5+1.7</f>
+        <v>130</v>
+      </c>
+      <c r="AK100" s="7">
+        <f>159.3+76.8-176.4+102.5+43.2</f>
+        <v>205.40000000000003</v>
+      </c>
+      <c r="AL100" s="7">
+        <f>-82.7-5.8+63.8+164.3-29.9</f>
+        <v>109.70000000000002</v>
+      </c>
+      <c r="AM100" s="7">
+        <f>4+2.3-40.4-39.2-11.4-0.6</f>
+        <v>-85.300000000000011</v>
+      </c>
+      <c r="AN100" s="7">
+        <f>-45.6-6.7-0.7-26.7-27.6+1.4</f>
+        <v>-105.9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8">
+        <f>SUM(K84:K100)</f>
+        <v>-312.90000000000003</v>
+      </c>
+      <c r="L101" s="8">
+        <f>SUM(L84:L100)</f>
+        <v>-165.10000000000002</v>
+      </c>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8">
+        <f>SUM(O84:O100)</f>
+        <v>-295</v>
+      </c>
+      <c r="P101" s="8">
+        <f>SUM(P84:P100)</f>
+        <v>-76.600000000000023</v>
+      </c>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8">
+        <f>SUM(S84:S100)</f>
+        <v>-189.89999999999998</v>
+      </c>
+      <c r="T101" s="8">
+        <f>SUM(T84:T100)</f>
+        <v>-13.399999999999984</v>
+      </c>
+      <c r="U101" s="8">
+        <f>SUM(U84:U100)</f>
+        <v>65.900000000000034</v>
+      </c>
+      <c r="V101" s="8">
+        <f>SUM(V84:V100)</f>
+        <v>-77.800000000000011</v>
+      </c>
+      <c r="W101" s="21">
+        <f>SUM(W84:W100)</f>
+        <v>-188.3</v>
+      </c>
+      <c r="X101" s="21">
+        <f>SUM(X84:X100)</f>
+        <v>-34.599999999999994</v>
+      </c>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+      <c r="AJ101" s="7">
+        <f t="shared" ref="AJ101:AK101" si="146">SUM(AJ84:AJ100)</f>
         <v>579</v>
       </c>
-      <c r="AK100" s="7">
+      <c r="AK101" s="7">
+        <f t="shared" si="146"/>
+        <v>-1129.4999999999991</v>
+      </c>
+      <c r="AL101" s="7">
+        <f>SUM(AL84:AL100)</f>
+        <v>-614.09999999999991</v>
+      </c>
+      <c r="AM101" s="7">
+        <f>SUM(AM84:AM100)</f>
+        <v>-628.5</v>
+      </c>
+      <c r="AN101" s="7">
+        <f>SUM(AN84:AN100)</f>
+        <v>-215.20000000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+    </row>
+    <row r="103" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="P103" s="8">
+        <f>-75.2-O103</f>
+        <v>-40.400000000000006</v>
+      </c>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8">
+        <v>-47.4</v>
+      </c>
+      <c r="T103" s="8">
+        <f>-96-S103</f>
+        <v>-48.6</v>
+      </c>
+      <c r="U103" s="8">
+        <f>-153.5-T103-S103</f>
+        <v>-57.500000000000007</v>
+      </c>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8">
+        <v>-50.5</v>
+      </c>
+      <c r="X103" s="8">
+        <f>-95.1-W103</f>
+        <v>-44.599999999999994</v>
+      </c>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+      <c r="AJ103" s="7">
+        <v>-518.1</v>
+      </c>
+      <c r="AK103" s="7">
+        <v>-173.8</v>
+      </c>
+      <c r="AL103" s="7">
+        <v>-92.4</v>
+      </c>
+      <c r="AM103" s="7">
+        <v>-202</v>
+      </c>
+      <c r="AN103" s="7">
+        <v>-225.6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8">
+        <f>30+0.8</f>
+        <v>30.8</v>
+      </c>
+      <c r="T104" s="8">
+        <f>30+6+2.6-S104</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="U104" s="8">
+        <f>30+8.6+2.5-4-T104-S104</f>
+        <v>-1.5</v>
+      </c>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X104" s="8">
+        <f>0.2+1.4-W104</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+    </row>
+    <row r="105" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8">
+        <f t="shared" ref="S105:V105" si="147">+S103+S104</f>
+        <v>-16.599999999999998</v>
+      </c>
+      <c r="T105" s="8">
         <f t="shared" si="147"/>
-        <v>-1129.4999999999991</v>
-      </c>
-      <c r="AL100" s="7">
-        <f>SUM(AL84:AL99)</f>
-        <v>-614.09999999999991</v>
-      </c>
-    </row>
-    <row r="101" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AK101" s="7"/>
-    </row>
-    <row r="102" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B102" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="O102" s="2">
-        <v>-34.799999999999997</v>
-      </c>
-      <c r="P102" s="2">
-        <f>-75.2-O102</f>
-        <v>-40.400000000000006</v>
-      </c>
-      <c r="S102" s="2">
-        <v>-47.4</v>
-      </c>
-      <c r="T102" s="2">
-        <f>-96-S102</f>
-        <v>-48.6</v>
-      </c>
-      <c r="AJ102" s="7">
-        <v>-518.1</v>
-      </c>
-      <c r="AK102" s="7">
-        <v>-173.8</v>
-      </c>
-      <c r="AL102" s="7">
-        <v>-92.4</v>
-      </c>
-    </row>
-    <row r="103" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B103" s="7" t="s">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="U105" s="8">
+        <f t="shared" si="147"/>
+        <v>-59.000000000000007</v>
+      </c>
+      <c r="V105" s="8">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="8">
+        <f>+W103+W104</f>
+        <v>-50</v>
+      </c>
+      <c r="X105" s="8">
+        <f>+X103+X104</f>
+        <v>-43.499999999999993</v>
+      </c>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+    </row>
+    <row r="106" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="8"/>
+      <c r="X106" s="8"/>
+      <c r="Y106" s="8"/>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+    </row>
+    <row r="107" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O103" s="2">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8">
         <v>7.2</v>
       </c>
-      <c r="P103" s="2">
-        <f>7.2-O103</f>
+      <c r="P107" s="8">
+        <f>7.2-O107</f>
         <v>0</v>
       </c>
-      <c r="AJ103" s="7">
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+      <c r="AJ107" s="7">
         <v>0</v>
       </c>
-      <c r="AK103" s="7">
+      <c r="AK107" s="7">
         <v>6.2</v>
       </c>
-      <c r="AL103" s="7">
+      <c r="AL107" s="7">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="104" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B104" s="7" t="s">
+    <row r="108" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="O104" s="2">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8">
         <v>0</v>
       </c>
-      <c r="P104" s="2">
-        <f>-17.8-O104</f>
+      <c r="P108" s="8">
+        <f>-17.8-O108</f>
         <v>-17.8</v>
       </c>
-      <c r="AJ104" s="7"/>
-      <c r="AK104" s="7"/>
-      <c r="AL104" s="7"/>
-    </row>
-    <row r="105" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B105" s="7" t="s">
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+    </row>
+    <row r="109" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O105" s="2">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8">
         <v>-27.9</v>
       </c>
-      <c r="P105" s="2">
-        <f>-27.9-O105+11.4</f>
+      <c r="P109" s="8">
+        <f>-27.9-O109+11.4</f>
         <v>11.4</v>
       </c>
-      <c r="AJ105" s="7">
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AJ109" s="7">
         <f>-11.8+23.2-9.7</f>
         <v>1.6999999999999993</v>
       </c>
-      <c r="AK105" s="7">
+      <c r="AK109" s="7">
         <f>-9.3+19.8</f>
         <v>10.5</v>
       </c>
-      <c r="AL105" s="7">
+      <c r="AL109" s="7">
         <f>-11.8+9.7-8.2</f>
         <v>-10.3</v>
       </c>
     </row>
-    <row r="106" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B106" s="7" t="s">
+    <row r="110" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O106" s="2">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8">
         <v>0.6</v>
       </c>
-      <c r="P106" s="2">
-        <f>-0.6-O106</f>
+      <c r="P110" s="8">
+        <f>-0.6-O110</f>
         <v>-1.2</v>
       </c>
-      <c r="AJ106" s="7">
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+      <c r="AJ110" s="7">
         <v>0.3</v>
       </c>
-      <c r="AK106" s="7">
+      <c r="AK110" s="7">
         <v>2.5</v>
       </c>
-      <c r="AL106" s="7">
+      <c r="AL110" s="7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="111" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O107" s="2">
-        <f>SUM(O102:O106)</f>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8">
+        <f>SUM(O103:O110)</f>
         <v>-54.9</v>
       </c>
-      <c r="P107" s="8">
-        <f>SUM(P102:P106)</f>
+      <c r="P111" s="8">
+        <f>SUM(P103:P110)</f>
         <v>-48.000000000000007</v>
       </c>
-      <c r="AJ107" s="7">
-        <f>SUM(AJ102:AJ106)</f>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+      <c r="AJ111" s="7">
+        <f>SUM(AJ103:AJ110)</f>
         <v>-516.1</v>
       </c>
-      <c r="AK107" s="7">
-        <f t="shared" ref="AK107:AL107" si="148">SUM(AK102:AK106)</f>
+      <c r="AK111" s="7">
+        <f t="shared" ref="AK111:AL111" si="148">SUM(AK103:AK110)</f>
         <v>-154.60000000000002</v>
       </c>
-      <c r="AL107" s="7">
+      <c r="AL111" s="7">
         <f t="shared" si="148"/>
         <v>-68.2</v>
       </c>
     </row>
-    <row r="114" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="15" t="s">
+    <row r="112" spans="2:40" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+    </row>
+    <row r="113" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8">
+        <f>-54.8-5-1.7</f>
+        <v>-61.5</v>
+      </c>
+      <c r="T113" s="8">
+        <f>-1.7-82.4-10-S113</f>
+        <v>-32.600000000000009</v>
+      </c>
+      <c r="U113" s="8">
+        <f>-1.7-99.8-15-T113-S113</f>
+        <v>-22.399999999999991</v>
+      </c>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8">
+        <v>-5</v>
+      </c>
+      <c r="X113" s="8">
+        <f>-10-W113</f>
+        <v>-5</v>
+      </c>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+    </row>
+    <row r="114" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8">
+        <v>-1.6</v>
+      </c>
+      <c r="T114" s="8">
+        <f>-3.1-S114</f>
+        <v>-1.5</v>
+      </c>
+      <c r="U114" s="8">
+        <f>-4.6-T114-S114</f>
+        <v>-1.4999999999999996</v>
+      </c>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8">
+        <v>-1.2</v>
+      </c>
+      <c r="X114" s="8">
+        <f>-2.4-W114</f>
+        <v>-1.2</v>
+      </c>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+    </row>
+    <row r="115" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8">
+        <v>146.6</v>
+      </c>
+      <c r="T115" s="8">
+        <f>175.7-S115</f>
+        <v>29.099999999999994</v>
+      </c>
+      <c r="U115" s="8">
+        <f>492.4-T115-S115</f>
+        <v>316.69999999999993</v>
+      </c>
+      <c r="V115" s="8"/>
+      <c r="W115" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="X115" s="8">
+        <f>243-W115</f>
+        <v>243.5</v>
+      </c>
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8"/>
+    </row>
+    <row r="116" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="T116" s="8">
+        <f>-1.9-S116</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="U116" s="8">
+        <f>-1.8-T116-S116</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="X116" s="8">
+        <f>-1.1-W116</f>
+        <v>-1</v>
+      </c>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+    </row>
+    <row r="117" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8">
+        <v>-13.1</v>
+      </c>
+      <c r="T117" s="8">
+        <f>-14.2-S117</f>
+        <v>-1.0999999999999996</v>
+      </c>
+      <c r="U117" s="8">
+        <f>-14.2-T117-S117</f>
+        <v>0</v>
+      </c>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="X117" s="8">
+        <f>-2.2-W117</f>
+        <v>0</v>
+      </c>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
+      <c r="AA117" s="8"/>
+    </row>
+    <row r="118" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8">
+        <f t="shared" ref="S118:V118" si="149">SUM(S113:S117)</f>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="T118" s="8">
+        <f>SUM(T113:T117)</f>
+        <v>-6.5000000000000142</v>
+      </c>
+      <c r="U118" s="8">
+        <f t="shared" si="149"/>
+        <v>292.89999999999998</v>
+      </c>
+      <c r="V118" s="8">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="W118" s="8">
+        <f>SUM(W113:W117)</f>
+        <v>-9</v>
+      </c>
+      <c r="X118" s="8">
+        <f>SUM(X113:X117)</f>
+        <v>236.3</v>
+      </c>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
+      <c r="AA118" s="8"/>
+    </row>
+    <row r="119" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="T119" s="8">
+        <f>2.1-S119</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="U119" s="8">
+        <f>-3.8-T119-S119</f>
+        <v>-5.9</v>
+      </c>
+      <c r="V119" s="8"/>
+      <c r="W119" s="8">
+        <v>-3.4</v>
+      </c>
+      <c r="X119" s="8">
+        <f>-3.7-W119</f>
+        <v>-0.30000000000000027</v>
+      </c>
+      <c r="Y119" s="8"/>
+      <c r="Z119" s="8"/>
+      <c r="AA119" s="8"/>
+    </row>
+    <row r="120" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8">
+        <f t="shared" ref="S120:V120" si="150">+S119+S118+S105+S101</f>
+        <v>-135.69999999999996</v>
+      </c>
+      <c r="T120" s="8">
+        <f t="shared" si="150"/>
+        <v>-60.499999999999993</v>
+      </c>
+      <c r="U120" s="8">
+        <f t="shared" si="150"/>
+        <v>293.90000000000003</v>
+      </c>
+      <c r="V120" s="8">
+        <f t="shared" si="150"/>
+        <v>-77.800000000000011</v>
+      </c>
+      <c r="W120" s="8">
+        <f>+W119+W118+W105+W101</f>
+        <v>-250.70000000000002</v>
+      </c>
+      <c r="X120" s="8">
+        <f>+X119+X118+X105+X101</f>
+        <v>157.9</v>
+      </c>
+      <c r="Y120" s="8"/>
+      <c r="Z120" s="8"/>
+      <c r="AA120" s="8"/>
+    </row>
+    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="W121" s="8"/>
+    </row>
+    <row r="122" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B122" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S122" s="8">
+        <f>+S101+S103</f>
+        <v>-237.29999999999998</v>
+      </c>
+      <c r="T122" s="8">
+        <f>+T101+T103</f>
+        <v>-61.999999999999986</v>
+      </c>
+      <c r="U122" s="8">
+        <f>+U101+U103</f>
+        <v>8.400000000000027</v>
+      </c>
+      <c r="V122" s="8">
+        <f>+V101+V103</f>
+        <v>-77.800000000000011</v>
+      </c>
+      <c r="W122" s="8">
+        <f>+W101+W103</f>
+        <v>-238.8</v>
+      </c>
+      <c r="X122" s="8">
+        <f>+X101+X103</f>
+        <v>-79.199999999999989</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="W123" s="8"/>
+    </row>
+    <row r="124" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="W124" s="8"/>
+    </row>
+    <row r="125" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16">
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16">
         <v>185</v>
       </c>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16">
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16">
         <v>185</v>
       </c>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="16"/>
-      <c r="S114" s="16"/>
-      <c r="T114" s="16"/>
-      <c r="U114" s="16"/>
-      <c r="V114" s="16"/>
-      <c r="W114" s="16"/>
-      <c r="X114" s="16"/>
-      <c r="Y114" s="16"/>
-      <c r="Z114" s="16"/>
-      <c r="AA114" s="16"/>
-    </row>
-    <row r="115" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="15" t="s">
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+      <c r="V125" s="16"/>
+      <c r="W125" s="16"/>
+      <c r="X125" s="16"/>
+      <c r="Y125" s="16"/>
+      <c r="Z125" s="16"/>
+      <c r="AA125" s="16"/>
+    </row>
+    <row r="126" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16">
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16">
         <v>153</v>
       </c>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16">
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16">
         <v>154</v>
       </c>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
-      <c r="R115" s="16"/>
-      <c r="S115" s="16"/>
-      <c r="T115" s="16"/>
-      <c r="U115" s="16"/>
-      <c r="V115" s="16"/>
-      <c r="W115" s="16"/>
-      <c r="X115" s="16"/>
-      <c r="Y115" s="16"/>
-      <c r="Z115" s="16"/>
-      <c r="AA115" s="16"/>
-    </row>
-    <row r="116" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="15" t="s">
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="16"/>
+      <c r="W126" s="16"/>
+      <c r="X126" s="16"/>
+      <c r="Y126" s="16"/>
+      <c r="Z126" s="16"/>
+      <c r="AA126" s="16"/>
+    </row>
+    <row r="127" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="16">
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16">
         <v>55</v>
       </c>
-      <c r="L116" s="16"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="16"/>
-      <c r="O116" s="16">
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16">
         <v>56</v>
       </c>
-      <c r="P116" s="16"/>
-      <c r="Q116" s="16"/>
-      <c r="R116" s="16"/>
-      <c r="S116" s="16"/>
-      <c r="T116" s="16"/>
-      <c r="U116" s="16"/>
-      <c r="V116" s="16"/>
-      <c r="W116" s="16"/>
-      <c r="X116" s="16"/>
-      <c r="Y116" s="16"/>
-      <c r="Z116" s="16"/>
-      <c r="AA116" s="16"/>
-    </row>
-    <row r="117" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="15" t="s">
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16"/>
+      <c r="V127" s="16"/>
+      <c r="W127" s="16"/>
+      <c r="X127" s="16"/>
+      <c r="Y127" s="16"/>
+      <c r="Z127" s="16"/>
+      <c r="AA127" s="16"/>
+    </row>
+    <row r="128" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16">
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16">
         <v>725</v>
       </c>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16">
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16">
         <v>729</v>
       </c>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="16"/>
-      <c r="U117" s="16"/>
-      <c r="V117" s="16"/>
-      <c r="W117" s="16"/>
-      <c r="X117" s="16"/>
-      <c r="Y117" s="16"/>
-      <c r="Z117" s="16"/>
-      <c r="AA117" s="16"/>
-    </row>
-    <row r="118" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="15" t="s">
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="16"/>
+      <c r="V128" s="16"/>
+      <c r="W128" s="16"/>
+      <c r="X128" s="16"/>
+      <c r="Y128" s="16"/>
+      <c r="Z128" s="16"/>
+      <c r="AA128" s="16"/>
+    </row>
+    <row r="129" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16">
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16">
         <v>3339</v>
       </c>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16">
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16">
         <v>3395</v>
       </c>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="16"/>
-      <c r="T118" s="16"/>
-      <c r="U118" s="16"/>
-      <c r="V118" s="16"/>
-      <c r="W118" s="16"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="16"/>
-      <c r="Z118" s="16"/>
-      <c r="AA118" s="16"/>
-    </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B120" s="15" t="s">
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="16"/>
+      <c r="V129" s="16"/>
+      <c r="W129" s="16"/>
+      <c r="X129" s="16"/>
+      <c r="Y129" s="16"/>
+      <c r="Z129" s="16"/>
+      <c r="AA129" s="16"/>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B131" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="O120" s="8">
+      <c r="O131" s="8">
         <v>25.7</v>
       </c>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="O121" s="16"/>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="O132" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
